--- a/timetables/pma.xlsx
+++ b/timetables/pma.xlsx
@@ -1722,23 +1722,10 @@
       <right style="thick">
         <color indexed="0"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="0"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1748,7 +1735,7 @@
         <color indexed="0"/>
       </left>
       <right style="thick">
-        <color indexed="64"/>
+        <color indexed="0"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
@@ -1799,84 +1786,15 @@
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="0"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="0"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color indexed="0"/>
       </left>
       <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="0"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1884,22 +1802,9 @@
     <border>
       <left/>
       <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
         <color indexed="0"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thick">
@@ -1909,7 +1814,7 @@
     </border>
     <border>
       <left style="thick">
-        <color indexed="0"/>
+        <color indexed="64"/>
       </left>
       <right style="thick">
         <color indexed="0"/>
@@ -1918,22 +1823,7 @@
         <color indexed="64"/>
       </top>
       <bottom style="thick">
-        <color indexed="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1944,6 +1834,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1966,7 +1871,7 @@
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom style="thick">
@@ -1981,7 +1886,22 @@
       <right style="thick">
         <color indexed="0"/>
       </right>
-      <top style="thick">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="0"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1996,9 +1916,147 @@
       <right style="thick">
         <color indexed="0"/>
       </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="0"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="0"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="0"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="0"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -2040,64 +2098,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
@@ -2110,10 +2110,38 @@
       <right style="thick">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="0"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2134,12 +2162,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2158,70 +2203,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="0"/>
-      </right>
       <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2235,6 +2222,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2258,7 +2258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="418">
+  <cellXfs count="419">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2635,136 +2635,223 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="92" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="73" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="93" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="97" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="108" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="67" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="100" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="108" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="100" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="75" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="97" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="73" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="93" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="101" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="100" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="75" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="67" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="92" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2776,6 +2863,15 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="73" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="113" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="114" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2783,30 +2879,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2815,166 +2887,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="108" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="73" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="113" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="114" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="100" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="108" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="101" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2989,45 +2908,150 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="99" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="115" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="97" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="116" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3046,67 +3070,43 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="76" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="97" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="116" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="97" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="99" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="115" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3118,7 +3118,7 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3127,112 +3127,112 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="76" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="97" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="138" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="133" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="135" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="131" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="134" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="139" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="129" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="130" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="131" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="140" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="136" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="117" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3241,92 +3241,95 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="119" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="123" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="138" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="122" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="129" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="126" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="121" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="125" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="127" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="120" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="122" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="126" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="140" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="127" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="125" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="76" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="133" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="124" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="131" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="134" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="136" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="132" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="142" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="146" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="82" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="143" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="141" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="144" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="143" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="143" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="141" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="145" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="142" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="146" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="144" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="143" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="144" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="151" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="155" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="146" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="149" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="150" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="142" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -3338,14 +3341,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="93" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="143" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="141" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="94" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="87" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="96" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="148" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="152" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="147" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3356,58 +3359,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="155" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="148" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="118" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="151" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="154" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="126" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="150" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="127" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="149" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="153" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="122" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="153" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="152" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="123" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="152" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="135" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="131" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="142" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="146" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="90" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="143" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="141" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="147" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="156" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="152" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="157" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="148" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="156" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="138" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="129" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -3785,10 +3788,10 @@
   <dimension ref="A1:P93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F62" sqref="F62:F63"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -3823,7 +3826,7 @@
     <row r="2" ht="33.75" customHeight="1" s="51">
       <c r="A2" s="48" t="n"/>
       <c r="B2" s="48" t="n"/>
-      <c r="C2" s="186" t="inlineStr">
+      <c r="C2" s="210" t="inlineStr">
         <is>
           <t>ФГБОУ ВО</t>
         </is>
@@ -3843,7 +3846,7 @@
           <t>ФГБОУ ВО</t>
         </is>
       </c>
-      <c r="G2" s="192" t="inlineStr">
+      <c r="G2" s="212" t="inlineStr">
         <is>
           <t>РАСПИСАНИЕ</t>
         </is>
@@ -3874,7 +3877,7 @@
     <row r="3" ht="33.75" customHeight="1" s="51">
       <c r="A3" s="48" t="n"/>
       <c r="B3" s="48" t="n"/>
-      <c r="C3" s="187" t="inlineStr">
+      <c r="C3" s="211" t="inlineStr">
         <is>
           <t>"Воронежский государственный</t>
         </is>
@@ -3925,7 +3928,7 @@
     <row r="4" ht="33.75" customHeight="1" s="51" thickBot="1">
       <c r="A4" s="48" t="n"/>
       <c r="B4" s="48" t="n"/>
-      <c r="C4" s="187" t="inlineStr">
+      <c r="C4" s="211" t="inlineStr">
         <is>
           <t>университет инженерных технологий"</t>
         </is>
@@ -4022,7 +4025,7 @@
       <c r="D6" s="47" t="n"/>
       <c r="E6" s="47" t="n"/>
       <c r="F6" s="47" t="n"/>
-      <c r="G6" s="193" t="inlineStr">
+      <c r="G6" s="213" t="inlineStr">
         <is>
           <t>весеннего семестра     2020-2021 учебного года</t>
         </is>
@@ -4057,7 +4060,7 @@
           <t>Часы</t>
         </is>
       </c>
-      <c r="C7" s="190" t="inlineStr">
+      <c r="C7" s="181" t="inlineStr">
         <is>
           <t>М-201</t>
         </is>
@@ -4119,20 +4122,20 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B8" s="175" t="inlineStr">
+      <c r="B8" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C8" s="163" t="inlineStr"/>
+      <c r="C8" s="152" t="inlineStr"/>
       <c r="D8" s="324" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" s="170" t="inlineStr"/>
-      <c r="G8" s="153" t="inlineStr"/>
+      <c r="F8" s="143" t="inlineStr"/>
+      <c r="G8" s="149" t="inlineStr"/>
       <c r="H8" s="325" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" s="170" t="inlineStr"/>
-      <c r="K8" s="170" t="inlineStr"/>
+      <c r="J8" s="143" t="inlineStr"/>
+      <c r="K8" s="143" t="inlineStr"/>
       <c r="L8" s="326" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
     </row>
@@ -4165,38 +4168,38 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B10" s="176" t="inlineStr">
+      <c r="B10" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C10" s="128" t="inlineStr">
-        <is>
-          <t>л.Правоведение               Черенков Р.А.   8</t>
+      <c r="C10" s="317" t="inlineStr">
+        <is>
+          <t>л.Правоведение                      Черенков Р.А.         8</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>л.Правоведение               Черенков Р.А.   8</t>
+          <t>л.Правоведение                      Черенков Р.А.         8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>л.Правоведение               Черенков Р.А.   8</t>
+          <t>л.Правоведение                      Черенков Р.А.         8</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>л.Правоведение               Черенков Р.А.   8</t>
-        </is>
-      </c>
-      <c r="G10" s="268" t="inlineStr">
+          <t>л.Правоведение                      Черенков Р.А.         8</t>
+        </is>
+      </c>
+      <c r="G10" s="91" t="inlineStr">
         <is>
           <t>л.Введение в теплоэнергетику и теплотехнику
 Никель С.А.   329</t>
         </is>
       </c>
-      <c r="H10" s="180" t="inlineStr">
+      <c r="H10" s="133" t="inlineStr">
         <is>
           <t>л.Электротехника и электроника                Лавров С.В.   125</t>
         </is>
@@ -4216,7 +4219,7 @@
           <t>л.Электротехника и электроника                Лавров С.В.   125</t>
         </is>
       </c>
-      <c r="L10" s="268" t="inlineStr">
+      <c r="L10" s="91" t="inlineStr">
         <is>
           <t>л.Основы проектного обучения           Ожерельева О.Н.   403</t>
         </is>
@@ -4238,29 +4241,29 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C11" s="131" t="inlineStr">
-        <is>
-          <t>л.Основы экономики                Пономарева Н.И.   9</t>
+      <c r="C11" s="319" t="inlineStr">
+        <is>
+          <t>л.Основы экономики                   Пономарева Н.И.        9</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>л.Основы экономики                Пономарева Н.И.   9</t>
+          <t>л.Основы экономики                   Пономарева Н.И.        9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>л.Основы экономики                Пономарева Н.И.   9</t>
+          <t>л.Основы экономики                   Пономарева Н.И.        9</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>л.Основы экономики                Пономарева Н.И.   9</t>
+          <t>л.Основы экономики                   Пономарева Н.И.        9</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>л.Основы экономики                Пономарева Н.И.   9</t>
+          <t>л.Основы экономики                   Пономарева Н.И.        9</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -4300,37 +4303,37 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B12" s="176" t="inlineStr">
+      <c r="B12" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C12" s="180" t="inlineStr">
-        <is>
-          <t>л.Физика                       Татохин Е.А.   53</t>
+      <c r="C12" s="137" t="inlineStr">
+        <is>
+          <t>л.Физика                       Татохин Е.А.                    53</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>л.Физика                       Татохин Е.А.   53</t>
+          <t>л.Физика                       Татохин Е.А.                    53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>л.Физика                       Татохин Е.А.   53</t>
+          <t>л.Физика                       Татохин Е.А.                    53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>л.Физика                       Татохин Е.А.   53</t>
+          <t>л.Физика                       Татохин Е.А.                    53</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>л.Физика                       Татохин Е.А.   53</t>
-        </is>
-      </c>
-      <c r="H12" s="128" t="inlineStr">
+          <t>л.Физика                       Татохин Е.А.                    53</t>
+        </is>
+      </c>
+      <c r="H12" s="160" t="inlineStr">
         <is>
           <t>л.Физические основы теплотехники                   Барбашин А.М.   125</t>
         </is>
@@ -4376,30 +4379,30 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>л.Физика                       Татохин Е.А.   53</t>
+          <t>л.Физика                       Татохин Е.А.                    53</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>л.Физика                       Татохин Е.А.   53</t>
+          <t>л.Физика                       Татохин Е.А.                    53</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>л.Физика                       Татохин Е.А.   53</t>
+          <t>л.Физика                       Татохин Е.А.                    53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>л.Физика                       Татохин Е.А.   53</t>
+          <t>л.Физика                       Татохин Е.А.                    53</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>л.Физика                       Татохин Е.А.   53</t>
-        </is>
-      </c>
-      <c r="H13" s="131" t="inlineStr">
+          <t>л.Физика                       Татохин Е.А.                    53</t>
+        </is>
+      </c>
+      <c r="H13" s="158" t="inlineStr">
         <is>
           <t>л.Процессы и аппараты               Наумченко И.С.   204</t>
         </is>
@@ -4414,7 +4417,7 @@
           <t>л.Процессы и аппараты               Наумченко И.С.   204</t>
         </is>
       </c>
-      <c r="K13" s="171" t="inlineStr">
+      <c r="K13" s="144" t="inlineStr">
         <is>
           <t>пр.Уравнения мат. физики. Основы вар. исчисл.
 Попов М.И.   13</t>
@@ -4439,13 +4442,13 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B14" s="176" t="inlineStr">
+      <c r="B14" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C14" s="133" t="inlineStr"/>
-      <c r="D14" s="266" t="inlineStr">
+      <c r="C14" s="146" t="inlineStr"/>
+      <c r="D14" s="128" t="inlineStr">
         <is>
           <t>пр.Правоведение               Черенков Р.А.   46</t>
         </is>
@@ -4455,19 +4458,19 @@
           <t>пр.Правоведение               Черенков Р.А.   46</t>
         </is>
       </c>
-      <c r="F14" s="150" t="inlineStr">
+      <c r="F14" s="129" t="inlineStr">
         <is>
           <t>пр.Математика
 Кузнецов С.Ф.   205</t>
         </is>
       </c>
-      <c r="G14" s="268" t="inlineStr">
+      <c r="G14" s="91" t="inlineStr">
         <is>
           <t>пр.Введение в теплоэнергетику и теплотехнику
 Никель С.А.   329</t>
         </is>
       </c>
-      <c r="H14" s="142" t="inlineStr">
+      <c r="H14" s="137" t="inlineStr">
         <is>
           <t>Элективные дисциплины (курсы) по физической культуре и спорту,    общая физическая подготовка</t>
         </is>
@@ -4526,7 +4529,7 @@
 Кузнецов С.Ф.   205</t>
         </is>
       </c>
-      <c r="G15" s="165" t="inlineStr">
+      <c r="G15" s="150" t="inlineStr">
         <is>
           <t>пр.Физика            Буданов А.В.   40</t>
         </is>
@@ -4568,12 +4571,12 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B16" s="176" t="inlineStr">
+      <c r="B16" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C16" s="133" t="inlineStr"/>
+      <c r="C16" s="146" t="inlineStr"/>
       <c r="D16" s="329" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
@@ -4586,18 +4589,18 @@
 Хрячкова  Л.А.   17и   (нем)</t>
         </is>
       </c>
-      <c r="F16" s="150" t="inlineStr">
+      <c r="F16" s="129" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Мирошниченко Е.Н.   4и
 Хрячкова  Л.А.   17и     (нем)</t>
         </is>
       </c>
-      <c r="G16" s="268" t="inlineStr"/>
+      <c r="G16" s="91" t="inlineStr"/>
       <c r="H16" s="330" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" s="150" t="inlineStr"/>
-      <c r="K16" s="150" t="inlineStr"/>
+      <c r="J16" s="129" t="inlineStr"/>
+      <c r="K16" s="129" t="inlineStr"/>
       <c r="L16" s="330" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
     </row>
@@ -4632,7 +4635,7 @@
 Хрячкова  Л.А.   17и     (нем)</t>
         </is>
       </c>
-      <c r="G17" s="165" t="inlineStr">
+      <c r="G17" s="150" t="inlineStr">
         <is>
           <t>пр.Математика         Кузнецов С.Ф.   205</t>
         </is>
@@ -4650,20 +4653,20 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B18" s="176" t="inlineStr">
+      <c r="B18" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C18" s="133" t="inlineStr"/>
+      <c r="C18" s="146" t="inlineStr"/>
       <c r="D18" s="329" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" s="150" t="inlineStr"/>
-      <c r="G18" s="138" t="inlineStr"/>
+      <c r="F18" s="129" t="inlineStr"/>
+      <c r="G18" s="131" t="inlineStr"/>
       <c r="H18" s="330" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" s="150" t="inlineStr"/>
-      <c r="K18" s="150" t="inlineStr"/>
+      <c r="J18" s="129" t="inlineStr"/>
+      <c r="K18" s="129" t="inlineStr"/>
       <c r="L18" s="330" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
     </row>
@@ -4741,18 +4744,18 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B22" s="175" t="inlineStr">
+      <c r="B22" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C22" s="264" t="inlineStr">
+      <c r="C22" s="272" t="inlineStr">
         <is>
           <t>пр.Иностранный язык
 Лобачева Н.Н.   2и</t>
         </is>
       </c>
-      <c r="D22" s="266" t="inlineStr">
+      <c r="D22" s="128" t="inlineStr">
         <is>
           <t>пр.Математика          Кузнецов С.Ф.   205</t>
         </is>
@@ -4764,10 +4767,10 @@
       </c>
       <c r="F22" s="95" t="inlineStr">
         <is>
-          <t>лаб.Физика            Буданов А.В.   51</t>
-        </is>
-      </c>
-      <c r="G22" s="153" t="inlineStr">
+          <t>лаб.Физика            Татохин Е.А.   51</t>
+        </is>
+      </c>
+      <c r="G22" s="149" t="inlineStr">
         <is>
           <t>пр.Иностранный язык
 Прибыткова  О.В.   3и</t>
@@ -4781,7 +4784,7 @@
 Лихачева Л.Б.   Уч.маст</t>
         </is>
       </c>
-      <c r="K22" s="170" t="inlineStr"/>
+      <c r="K22" s="143" t="inlineStr"/>
       <c r="L22" s="330" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
     </row>
@@ -4796,18 +4799,18 @@
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C23" s="164" t="inlineStr"/>
+      <c r="C23" s="153" t="inlineStr"/>
       <c r="D23" s="336" t="inlineStr">
         <is>
-          <t>пр.Физика               Буданов А.В.   40</t>
+          <t>пр.Физика                Татохин Е.А.    40</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>пр.Физика               Буданов А.В.   40</t>
-        </is>
-      </c>
-      <c r="F23" s="171" t="inlineStr">
+          <t>пр.Физика                Татохин Е.А.    40</t>
+        </is>
+      </c>
+      <c r="F23" s="144" t="inlineStr">
         <is>
           <t>лаб.Основы профессиональной деятельности
 Невструев Ю.А.   127а</t>
@@ -4821,7 +4824,7 @@
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" s="171" t="inlineStr"/>
+      <c r="J23" s="144" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -4832,12 +4835,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B24" s="176" t="inlineStr">
+      <c r="B24" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C24" s="133" t="inlineStr">
+      <c r="C24" s="146" t="inlineStr">
         <is>
           <t>пр.История
 Злобин А.Н.   44</t>
@@ -4855,7 +4858,7 @@
 Лобачева Н.Н.   2и                  Прибыткова  О.В.   3и</t>
         </is>
       </c>
-      <c r="F24" s="266" t="inlineStr">
+      <c r="F24" s="128" t="inlineStr">
         <is>
           <t>пр.Физика         Татохин Е.А.   40</t>
         </is>
@@ -4866,16 +4869,16 @@
 Давыдов  О.Ю.   127</t>
         </is>
       </c>
-      <c r="H24" s="267" t="inlineStr"/>
+      <c r="H24" s="337" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" s="266" t="inlineStr">
+      <c r="J24" s="128" t="inlineStr">
         <is>
           <t>лаб.Основы технологии машиностроения
 Лихачева Л.Б.   Уч.маст</t>
         </is>
       </c>
-      <c r="K24" s="266" t="inlineStr"/>
-      <c r="L24" s="268" t="inlineStr">
+      <c r="K24" s="128" t="inlineStr"/>
+      <c r="L24" s="91" t="inlineStr">
         <is>
           <t>л.Электротехника и электроника           Никель С.А.   329</t>
         </is>
@@ -4915,7 +4918,7 @@
 Лобачева Н.Н.   2и                  Прибыткова  О.В.   3и</t>
         </is>
       </c>
-      <c r="F25" s="171" t="inlineStr">
+      <c r="F25" s="144" t="inlineStr">
         <is>
           <t>лаб.Основы профессиональной деятельности
 Невструев Ю.А.   127а</t>
@@ -4927,7 +4930,7 @@
 Давыдов  О.Ю.   127</t>
         </is>
       </c>
-      <c r="H25" s="337" t="inlineStr">
+      <c r="H25" s="338" t="inlineStr">
         <is>
           <t>пр.Процессы и аппараты           Василенко В.Н.   211</t>
         </is>
@@ -4937,13 +4940,13 @@
           <t>пр.Процессы и аппараты           Василенко В.Н.   211</t>
         </is>
       </c>
-      <c r="J25" s="171" t="inlineStr">
+      <c r="J25" s="144" t="inlineStr">
         <is>
           <t>пр.Математическое моделирование
 Коробова Л.А.   343</t>
         </is>
       </c>
-      <c r="K25" s="171" t="inlineStr">
+      <c r="K25" s="144" t="inlineStr">
         <is>
           <t>лаб.Электротехника и электроника
 Лавров С.В.   329</t>
@@ -4958,12 +4961,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B26" s="176" t="inlineStr">
+      <c r="B26" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C26" s="128" t="inlineStr">
+      <c r="C26" s="160" t="inlineStr">
         <is>
           <t>л.История / История (история России, всеобщая история)                                       Злобин А.Н.   8</t>
         </is>
@@ -5000,19 +5003,19 @@
 Попова Л.В.   6-32     Z</t>
         </is>
       </c>
-      <c r="J26" s="266" t="inlineStr">
+      <c r="J26" s="128" t="inlineStr">
         <is>
           <t>лаб.Экология
 Студеникина Л.Н.   6-34     Z</t>
         </is>
       </c>
-      <c r="K26" s="266" t="inlineStr">
+      <c r="K26" s="128" t="inlineStr">
         <is>
           <t>лаб.Экология
 Студеникина Л.Н.   6-34     Z</t>
         </is>
       </c>
-      <c r="L26" s="268" t="inlineStr">
+      <c r="L26" s="91" t="inlineStr">
         <is>
           <t>пр.Электротехника и электроника            Никель С.А.   329</t>
         </is>
@@ -5034,7 +5037,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C27" s="131" t="inlineStr">
+      <c r="C27" s="158" t="inlineStr">
         <is>
           <t>л.Социология                  Злобин А.Н.   8</t>
         </is>
@@ -5054,12 +5057,12 @@
           <t>л.Социология                  Злобин А.Н.   8</t>
         </is>
       </c>
-      <c r="G27" s="165" t="inlineStr">
+      <c r="G27" s="150" t="inlineStr">
         <is>
           <t>лаб.Физика          Татохин Е.А.   55</t>
         </is>
       </c>
-      <c r="H27" s="131" t="inlineStr">
+      <c r="H27" s="158" t="inlineStr">
         <is>
           <t>л.Техническая механика             Давыдов  О.Ю.   125</t>
         </is>
@@ -5074,7 +5077,7 @@
           <t>л.Техническая механика             Давыдов  О.Ю.   125</t>
         </is>
       </c>
-      <c r="K27" s="171" t="inlineStr">
+      <c r="K27" s="144" t="inlineStr">
         <is>
           <t>лаб.Электротехника и электроника
 Лавров С.В.   329</t>
@@ -5099,12 +5102,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B28" s="176" t="inlineStr">
+      <c r="B28" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C28" s="142" t="inlineStr">
+      <c r="C28" s="137" t="inlineStr">
         <is>
           <t>ЭСТЕТИКА И КУЛЬТУРА            БАЗ</t>
         </is>
@@ -5141,19 +5144,19 @@
 Попова Л.В.   6-32     Z</t>
         </is>
       </c>
-      <c r="J28" s="266" t="inlineStr">
+      <c r="J28" s="128" t="inlineStr">
         <is>
           <t>лаб.Экология
 Студеникина Л.Н.   6-34     Z</t>
         </is>
       </c>
-      <c r="K28" s="266" t="inlineStr">
+      <c r="K28" s="128" t="inlineStr">
         <is>
           <t>лаб.Экология
 Студеникина Л.Н.   6-34     Z</t>
         </is>
       </c>
-      <c r="L28" s="268" t="inlineStr">
+      <c r="L28" s="91" t="inlineStr">
         <is>
           <t>пр.Электротехника и электроника            Никель С.А.   329</t>
         </is>
@@ -5212,13 +5215,13 @@
 Болгова И.Н.   111/2    Z</t>
         </is>
       </c>
-      <c r="J29" s="171" t="inlineStr">
+      <c r="J29" s="144" t="inlineStr">
         <is>
           <t>пр.Процессы и аппараты
 Василенко В.Н.   232</t>
         </is>
       </c>
-      <c r="K29" s="171" t="inlineStr">
+      <c r="K29" s="144" t="inlineStr">
         <is>
           <t>пр.Сопротивление материалов
 Давыдов  О.Ю.   124</t>
@@ -5243,20 +5246,20 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B30" s="176" t="inlineStr">
+      <c r="B30" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C30" s="133" t="inlineStr"/>
+      <c r="C30" s="146" t="inlineStr"/>
       <c r="D30" s="329" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" s="150" t="inlineStr"/>
-      <c r="G30" s="138" t="inlineStr"/>
+      <c r="F30" s="129" t="inlineStr"/>
+      <c r="G30" s="131" t="inlineStr"/>
       <c r="H30" s="109" t="inlineStr"/>
       <c r="I30" s="110" t="n"/>
-      <c r="J30" s="150" t="inlineStr"/>
-      <c r="K30" s="266" t="n"/>
+      <c r="J30" s="129" t="inlineStr"/>
+      <c r="K30" s="128" t="n"/>
       <c r="L30" s="330" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
     </row>
@@ -5289,7 +5292,7 @@
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" s="171" t="inlineStr">
+      <c r="K31" s="144" t="inlineStr">
         <is>
           <t>пр.Культурология             Черных В.Д.  07</t>
         </is>
@@ -5303,20 +5306,20 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B32" s="176" t="inlineStr">
+      <c r="B32" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C32" s="133" t="inlineStr"/>
+      <c r="C32" s="146" t="inlineStr"/>
       <c r="D32" s="329" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" s="150" t="inlineStr"/>
-      <c r="G32" s="138" t="inlineStr"/>
+      <c r="F32" s="129" t="inlineStr"/>
+      <c r="G32" s="131" t="inlineStr"/>
       <c r="H32" s="330" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" s="150" t="inlineStr"/>
-      <c r="K32" s="150" t="inlineStr"/>
+      <c r="J32" s="129" t="inlineStr"/>
+      <c r="K32" s="129" t="inlineStr"/>
       <c r="L32" s="330" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
     </row>
@@ -5395,12 +5398,12 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B36" s="175" t="inlineStr">
+      <c r="B36" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C36" s="163" t="inlineStr"/>
+      <c r="C36" s="152" t="inlineStr"/>
       <c r="D36" s="329" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" s="95" t="inlineStr">
@@ -5409,11 +5412,11 @@
 Мирошниченко Е.Н.   4и</t>
         </is>
       </c>
-      <c r="G36" s="153" t="inlineStr"/>
+      <c r="G36" s="149" t="inlineStr"/>
       <c r="H36" s="330" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" s="170" t="inlineStr"/>
-      <c r="K36" s="170" t="inlineStr"/>
+      <c r="J36" s="143" t="inlineStr"/>
+      <c r="K36" s="143" t="inlineStr"/>
       <c r="L36" s="330" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
     </row>
@@ -5431,7 +5434,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" s="171" t="inlineStr"/>
+      <c r="F37" s="144" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -5446,12 +5449,12 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B38" s="176" t="inlineStr">
+      <c r="B38" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C38" s="180" t="inlineStr">
+      <c r="C38" s="137" t="inlineStr">
         <is>
           <t>л.Теоретическая механика             Егоров В.Г.   125</t>
         </is>
@@ -5476,7 +5479,7 @@
           <t>л.Теоретическая механика             Егоров В.Г.   125</t>
         </is>
       </c>
-      <c r="H38" s="209" t="inlineStr">
+      <c r="H38" s="185" t="inlineStr">
         <is>
           <t>л.Химия пищи              Ожерельева О.Н.   204</t>
         </is>
@@ -5491,7 +5494,7 @@
           <t>л.Химия пищи              Ожерельева О.Н.   204</t>
         </is>
       </c>
-      <c r="K38" s="266" t="inlineStr">
+      <c r="K38" s="128" t="inlineStr">
         <is>
           <t>лаб.Материаловедение. ТКМ
 Квашнин Б.Н.   Уч.маст</t>
@@ -5551,7 +5554,7 @@
           <t>л.Химия пищи              Ожерельева О.Н.   204</t>
         </is>
       </c>
-      <c r="K39" s="171" t="inlineStr"/>
+      <c r="K39" s="144" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
     </row>
@@ -5561,12 +5564,12 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B40" s="176" t="inlineStr">
+      <c r="B40" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C40" s="133" t="inlineStr">
+      <c r="C40" s="146" t="inlineStr">
         <is>
           <t>пр.Теоретическая механика
 Давыдов  О.Ю.   124</t>
@@ -5582,13 +5585,13 @@
           <t>пр.История                     Злобин А.Н.   46</t>
         </is>
       </c>
-      <c r="F40" s="150" t="inlineStr">
+      <c r="F40" s="129" t="inlineStr">
         <is>
           <t>пр.Теоретическая механика
 Егоров В.Г.   133</t>
         </is>
       </c>
-      <c r="G40" s="138" t="inlineStr">
+      <c r="G40" s="131" t="inlineStr">
         <is>
           <t>пр.Математика
 Кузнецов С.Ф.   205</t>
@@ -5606,19 +5609,19 @@
 Ожерельева О.Н.   432</t>
         </is>
       </c>
-      <c r="J40" s="150" t="inlineStr">
+      <c r="J40" s="129" t="inlineStr">
         <is>
           <t>пр.Физические основы теплотехники
 Барбашин А.М.   333</t>
         </is>
       </c>
-      <c r="K40" s="266" t="inlineStr">
+      <c r="K40" s="128" t="inlineStr">
         <is>
           <t>лаб.Материаловедение. ТКМ
 Квашнин Б.Н.   Уч.маст</t>
         </is>
       </c>
-      <c r="L40" s="338" t="inlineStr">
+      <c r="L40" s="339" t="inlineStr">
         <is>
           <t>пр.Технологические энергоносители предприятий
 Белозерцев А.С.   311</t>
@@ -5688,7 +5691,7 @@
 Барбашин А.М.   333</t>
         </is>
       </c>
-      <c r="K41" s="171" t="inlineStr"/>
+      <c r="K41" s="144" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>пр.Технологические энергоносители предприятий
@@ -5708,12 +5711,12 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B42" s="176" t="inlineStr">
+      <c r="B42" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C42" s="133" t="inlineStr">
+      <c r="C42" s="146" t="inlineStr">
         <is>
           <t>пр.Математика
 Кузнецов С.Ф.   205</t>
@@ -5729,13 +5732,13 @@
           <t>пр.Теоретическая механика                Давыдов  О.Ю.   124</t>
         </is>
       </c>
-      <c r="F42" s="150" t="inlineStr">
+      <c r="F42" s="129" t="inlineStr">
         <is>
           <t>пр.История
 Злобин А.Н.   46</t>
         </is>
       </c>
-      <c r="G42" s="138" t="inlineStr"/>
+      <c r="G42" s="131" t="inlineStr"/>
       <c r="H42" s="109" t="inlineStr">
         <is>
           <t>лаб.Осн. технологии машиностр.
@@ -5748,14 +5751,14 @@
 Ожерельева О.Н.   432</t>
         </is>
       </c>
-      <c r="J42" s="266" t="inlineStr"/>
-      <c r="K42" s="150" t="inlineStr">
+      <c r="J42" s="128" t="inlineStr"/>
+      <c r="K42" s="129" t="inlineStr">
         <is>
           <t>пр.Физические основы теплотехники
 Барбашин А.М.   333</t>
         </is>
       </c>
-      <c r="L42" s="338" t="inlineStr">
+      <c r="L42" s="339" t="inlineStr">
         <is>
           <t>пр.Тепломассообмен
 Лавров С.В.   329</t>
@@ -5814,7 +5817,7 @@
 Лихачева Л.Б.   Уч.маст</t>
         </is>
       </c>
-      <c r="J43" s="171" t="inlineStr">
+      <c r="J43" s="144" t="inlineStr">
         <is>
           <t>лаб.Процессы и аппараты
 Наумченко И.С.   111/2     Z</t>
@@ -5845,24 +5848,24 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B44" s="176" t="inlineStr">
+      <c r="B44" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C44" s="133" t="inlineStr">
+      <c r="C44" s="146" t="inlineStr">
         <is>
           <t>пр.Иностранный язык
 Лобачева Н.Н.   9и</t>
         </is>
       </c>
-      <c r="D44" s="266" t="n"/>
-      <c r="F44" s="266" t="n"/>
-      <c r="G44" s="138" t="inlineStr"/>
+      <c r="D44" s="128" t="n"/>
+      <c r="F44" s="128" t="n"/>
+      <c r="G44" s="131" t="inlineStr"/>
       <c r="H44" s="330" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" s="266" t="inlineStr"/>
-      <c r="K44" s="207" t="inlineStr">
+      <c r="J44" s="128" t="inlineStr"/>
+      <c r="K44" s="179" t="inlineStr">
         <is>
           <t>л.Материаловедение. Технология конструкционных материалов               Квашнин Б.Н.   124</t>
         </is>
@@ -5905,7 +5908,7 @@
           <t>пр.Иностранный язык            Хрячкова  Л.А.   17и       (нем)</t>
         </is>
       </c>
-      <c r="F45" s="171" t="inlineStr">
+      <c r="F45" s="144" t="inlineStr">
         <is>
           <t>пр.Иностранный язык
 Хрячкова  Л.А.   17и       (нем)</t>
@@ -5914,13 +5917,13 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" s="171" t="inlineStr">
+      <c r="J45" s="144" t="inlineStr">
         <is>
           <t>лаб.Процессы и аппараты
 Наумченко И.С.   111/2     Z</t>
         </is>
       </c>
-      <c r="K45" s="171" t="inlineStr">
+      <c r="K45" s="144" t="inlineStr">
         <is>
           <t>л.Сопротивление материалов
 Давыдов  О.Ю.   124</t>
@@ -5943,19 +5946,19 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B46" s="176" t="inlineStr">
+      <c r="B46" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C46" s="133" t="inlineStr"/>
+      <c r="C46" s="146" t="inlineStr"/>
       <c r="D46" s="329" t="n"/>
-      <c r="F46" s="150" t="inlineStr"/>
-      <c r="G46" s="138" t="inlineStr"/>
+      <c r="F46" s="129" t="inlineStr"/>
+      <c r="G46" s="131" t="inlineStr"/>
       <c r="H46" s="330" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" s="150" t="inlineStr"/>
-      <c r="K46" s="150" t="inlineStr"/>
+      <c r="J46" s="129" t="inlineStr"/>
+      <c r="K46" s="129" t="inlineStr"/>
       <c r="L46" s="330" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
     </row>
@@ -6032,16 +6035,16 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B50" s="175" t="inlineStr">
+      <c r="B50" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C50" s="163" t="inlineStr"/>
+      <c r="C50" s="152" t="inlineStr"/>
       <c r="D50" s="329" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" s="170" t="inlineStr"/>
-      <c r="G50" s="153" t="inlineStr"/>
+      <c r="F50" s="143" t="inlineStr"/>
+      <c r="G50" s="149" t="inlineStr"/>
       <c r="H50" s="109" t="inlineStr">
         <is>
           <t>лаб.Электротехника и электроника,
@@ -6049,8 +6052,8 @@
         </is>
       </c>
       <c r="I50" s="110" t="n"/>
-      <c r="J50" s="170" t="inlineStr"/>
-      <c r="K50" s="170" t="inlineStr">
+      <c r="J50" s="143" t="inlineStr"/>
+      <c r="K50" s="143" t="inlineStr">
         <is>
           <t>л.Уравнения математической физики. Основы вариационного исчисления
 Попов М.И.   16</t>
@@ -6098,13 +6101,13 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B52" s="176" t="inlineStr">
+      <c r="B52" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C52" s="155" t="inlineStr"/>
-      <c r="D52" s="266" t="inlineStr">
+      <c r="C52" s="183" t="inlineStr"/>
+      <c r="D52" s="128" t="inlineStr">
         <is>
           <t>пр.Основы экономики          Пономарева Н.И.   237</t>
         </is>
@@ -6114,8 +6117,8 @@
           <t>пр.Основы экономики          Пономарева Н.И.   237</t>
         </is>
       </c>
-      <c r="F52" s="266" t="inlineStr"/>
-      <c r="G52" s="268" t="inlineStr">
+      <c r="F52" s="128" t="inlineStr"/>
+      <c r="G52" s="91" t="inlineStr">
         <is>
           <t>пр.Иностранный язык
 Прибыткова  О.В.   3и</t>
@@ -6128,8 +6131,8 @@
         </is>
       </c>
       <c r="I52" s="110" t="n"/>
-      <c r="J52" s="150" t="inlineStr"/>
-      <c r="K52" s="150" t="inlineStr">
+      <c r="J52" s="129" t="inlineStr"/>
+      <c r="K52" s="129" t="inlineStr">
         <is>
           <t>пр.Уравнения математической физики. Основы вариационного исчисления
 Попов М.И.   16</t>
@@ -6154,7 +6157,7 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C53" s="164" t="inlineStr">
+      <c r="C53" s="153" t="inlineStr">
         <is>
           <t>пр.Основы экономики         Пономарева Н.И.   237</t>
         </is>
@@ -6171,12 +6174,12 @@
 Лобачева Н.Н.   2и          Прибыткова  О.В.   3и</t>
         </is>
       </c>
-      <c r="F53" s="171" t="inlineStr">
+      <c r="F53" s="144" t="inlineStr">
         <is>
           <t>пр.Правоведение           Черенков Р.А.   46</t>
         </is>
       </c>
-      <c r="G53" s="165" t="inlineStr"/>
+      <c r="G53" s="150" t="inlineStr"/>
       <c r="H53" s="111" t="n"/>
       <c r="I53" s="112" t="inlineStr">
         <is>
@@ -6205,12 +6208,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B54" s="176" t="inlineStr">
+      <c r="B54" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C54" s="155" t="inlineStr">
+      <c r="C54" s="183" t="inlineStr">
         <is>
           <t>пр.Физика         Татохин Е.А.   40</t>
         </is>
@@ -6225,13 +6228,13 @@
           <t>пр.Математика                  Кузнецов С.Ф.   205</t>
         </is>
       </c>
-      <c r="F54" s="266" t="n"/>
-      <c r="G54" s="268" t="inlineStr">
+      <c r="F54" s="128" t="n"/>
+      <c r="G54" s="91" t="inlineStr">
         <is>
           <t>пр.Основы экономики      Пономарева Н.И.   237</t>
         </is>
       </c>
-      <c r="H54" s="267" t="inlineStr">
+      <c r="H54" s="337" t="inlineStr">
         <is>
           <t>пр.Физические основы теплотехники            Барбашин А.М.   311</t>
         </is>
@@ -6241,8 +6244,8 @@
           <t>пр.Физические основы теплотехники            Барбашин А.М.   311</t>
         </is>
       </c>
-      <c r="J54" s="266" t="inlineStr"/>
-      <c r="K54" s="266" t="inlineStr">
+      <c r="J54" s="128" t="inlineStr"/>
+      <c r="K54" s="128" t="inlineStr">
         <is>
           <t>пр.Уравн. мат. физики. Основы вар. исчисления
 Попов М.И.   16</t>
@@ -6267,7 +6270,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C55" s="164" t="inlineStr">
+      <c r="C55" s="153" t="inlineStr">
         <is>
           <t>пр.Правоведение      Черенков Р.А.   46</t>
         </is>
@@ -6282,17 +6285,17 @@
           <t>пр.Математика                  Кузнецов С.Ф.   205</t>
         </is>
       </c>
-      <c r="F55" s="171" t="inlineStr">
+      <c r="F55" s="144" t="inlineStr">
         <is>
           <t>пр.Основы экономики      Пономарева Н.И.   237</t>
         </is>
       </c>
-      <c r="G55" s="165" t="inlineStr">
+      <c r="G55" s="150" t="inlineStr">
         <is>
           <t>л.Философия       Черниговских И.В.   452</t>
         </is>
       </c>
-      <c r="H55" s="131" t="inlineStr">
+      <c r="H55" s="158" t="inlineStr">
         <is>
           <t>л.Основы технологии машиностроения              Лихачева Л.Б.   125</t>
         </is>
@@ -6322,12 +6325,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B56" s="176" t="inlineStr">
+      <c r="B56" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C56" s="180" t="inlineStr">
+      <c r="C56" s="137" t="inlineStr">
         <is>
           <t>л.Математика              Кузнецов С.Ф.   404</t>
         </is>
@@ -6352,7 +6355,7 @@
           <t>л.Математика              Кузнецов С.Ф.   404</t>
         </is>
       </c>
-      <c r="H56" s="128" t="inlineStr">
+      <c r="H56" s="160" t="inlineStr">
         <is>
           <t>л.Культурология             Черных В.Д.   8</t>
         </is>
@@ -6372,7 +6375,7 @@
           <t>л.Культурология             Черных В.Д.   8</t>
         </is>
       </c>
-      <c r="L56" s="339" t="inlineStr">
+      <c r="L56" s="340" t="inlineStr">
         <is>
           <t>л.Техническая термодинамика             Барбашин А.М.   311</t>
         </is>
@@ -6419,7 +6422,7 @@
           <t>л.Математика              Кузнецов С.Ф.   404</t>
         </is>
       </c>
-      <c r="H57" s="337" t="inlineStr">
+      <c r="H57" s="338" t="inlineStr">
         <is>
           <t>пр.Физические основы теплотехники              Барбашин А.М.   311</t>
         </is>
@@ -6429,14 +6432,14 @@
           <t>пр.Физические основы теплотехники              Барбашин А.М.   311</t>
         </is>
       </c>
-      <c r="J57" s="171" t="inlineStr">
+      <c r="J57" s="144" t="inlineStr">
         <is>
           <t>лаб.Электротехника и электроника
 Лавров С.В.   329</t>
         </is>
       </c>
-      <c r="K57" s="171" t="n"/>
-      <c r="L57" s="340" t="inlineStr">
+      <c r="K57" s="144" t="n"/>
+      <c r="L57" s="341" t="inlineStr">
         <is>
           <t>л.Механика              Литвинов Е.В.   124</t>
         </is>
@@ -6453,12 +6456,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B58" s="176" t="inlineStr">
+      <c r="B58" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C58" s="142" t="inlineStr">
+      <c r="C58" s="137" t="inlineStr">
         <is>
           <t>Элективные дисциплины (курсы) по физической культуре и спорту,    общая физическая подготовка</t>
         </is>
@@ -6485,14 +6488,14 @@
       </c>
       <c r="H58" s="330" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" s="266" t="inlineStr">
+      <c r="J58" s="128" t="inlineStr">
         <is>
           <t>пр.Культурология
 Черных В.Д.   46</t>
         </is>
       </c>
-      <c r="K58" s="150" t="inlineStr"/>
-      <c r="L58" s="338" t="inlineStr">
+      <c r="K58" s="129" t="inlineStr"/>
+      <c r="L58" s="339" t="inlineStr">
         <is>
           <t>л.Технологические энергоносители предприятий
 Барбашин А.М.   311</t>
@@ -6543,7 +6546,7 @@
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" s="171" t="inlineStr">
+      <c r="J59" s="144" t="inlineStr">
         <is>
           <t>лаб.Электротехника и электроника
 Лавров С.В.   329</t>
@@ -6569,20 +6572,20 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B60" s="176" t="inlineStr">
+      <c r="B60" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C60" s="133" t="inlineStr"/>
+      <c r="C60" s="146" t="inlineStr"/>
       <c r="D60" s="329" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" s="150" t="inlineStr"/>
-      <c r="G60" s="138" t="inlineStr"/>
+      <c r="F60" s="129" t="inlineStr"/>
+      <c r="G60" s="131" t="inlineStr"/>
       <c r="H60" s="330" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" s="150" t="inlineStr"/>
-      <c r="K60" s="150" t="inlineStr"/>
+      <c r="J60" s="129" t="inlineStr"/>
+      <c r="K60" s="129" t="inlineStr"/>
       <c r="L60" s="330" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
     </row>
@@ -6661,19 +6664,19 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B64" s="175" t="inlineStr">
+      <c r="B64" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C64" s="264" t="inlineStr"/>
+      <c r="C64" s="272" t="inlineStr"/>
       <c r="D64" s="329" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" s="170" t="inlineStr"/>
-      <c r="G64" s="153" t="inlineStr"/>
+      <c r="F64" s="143" t="inlineStr"/>
+      <c r="G64" s="149" t="inlineStr"/>
       <c r="H64" s="330" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" s="170" t="inlineStr"/>
+      <c r="J64" s="143" t="inlineStr"/>
       <c r="K64" s="122" t="inlineStr">
         <is>
           <t>пр.Теория механизмов и основы робототехники
@@ -6694,7 +6697,7 @@
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C65" s="164" t="inlineStr">
+      <c r="C65" s="153" t="inlineStr">
         <is>
           <t>лаб.Введение в специальность
 Потапов А.И.   103</t>
@@ -6722,12 +6725,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B66" s="176" t="inlineStr">
+      <c r="B66" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C66" s="155" t="inlineStr"/>
+      <c r="C66" s="183" t="inlineStr"/>
       <c r="D66" s="102" t="inlineStr">
         <is>
           <t>лаб.Основы проф. деятельности
@@ -6735,14 +6738,14 @@
         </is>
       </c>
       <c r="E66" s="103" t="n"/>
-      <c r="F66" s="138" t="inlineStr"/>
-      <c r="G66" s="138" t="inlineStr">
+      <c r="F66" s="131" t="inlineStr"/>
+      <c r="G66" s="131" t="inlineStr">
         <is>
           <t>пр.История (история России, всеобщая история)
 Злобин А.Н.   42</t>
         </is>
       </c>
-      <c r="H66" s="206" t="inlineStr">
+      <c r="H66" s="178" t="inlineStr">
         <is>
           <t>л.Математическое моделирование             Коробова Л.А.   334</t>
         </is>
@@ -6757,13 +6760,13 @@
           <t>л.Математическое моделирование             Коробова Л.А.   334</t>
         </is>
       </c>
-      <c r="K66" s="150" t="inlineStr">
+      <c r="K66" s="129" t="inlineStr">
         <is>
           <t>л.Теория механизмов и основы робототехники
 Дегтярёв А.В.   124</t>
         </is>
       </c>
-      <c r="L66" s="338" t="inlineStr">
+      <c r="L66" s="339" t="inlineStr">
         <is>
           <t>пр.Механика               Литвинов Е.В.   127</t>
         </is>
@@ -6785,7 +6788,7 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C67" s="164" t="inlineStr">
+      <c r="C67" s="153" t="inlineStr">
         <is>
           <t>лаб.Введение в специальность
 Потапов А.И.   103</t>
@@ -6805,7 +6808,7 @@
 Злобин А.Н.   42</t>
         </is>
       </c>
-      <c r="H67" s="337" t="inlineStr">
+      <c r="H67" s="338" t="inlineStr">
         <is>
           <t>пр.Культурология            Черных В.Д.   8</t>
         </is>
@@ -6815,7 +6818,7 @@
           <t>пр.Культурология            Черных В.Д.   8</t>
         </is>
       </c>
-      <c r="J67" s="171" t="inlineStr">
+      <c r="J67" s="144" t="inlineStr">
         <is>
           <t>лаб.Химия пищи           Мотина Е.А.   432</t>
         </is>
@@ -6843,12 +6846,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B68" s="176" t="inlineStr">
+      <c r="B68" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C68" s="155" t="n"/>
+      <c r="C68" s="183" t="n"/>
       <c r="D68" s="102" t="inlineStr">
         <is>
           <t>лаб.Основы проф. деятельности
@@ -6856,14 +6859,14 @@
         </is>
       </c>
       <c r="E68" s="103" t="n"/>
-      <c r="F68" s="138" t="inlineStr"/>
-      <c r="G68" s="138" t="inlineStr">
+      <c r="F68" s="131" t="inlineStr"/>
+      <c r="G68" s="131" t="inlineStr">
         <is>
           <t>пр.Философия
 Черниговских И.В.   07</t>
         </is>
       </c>
-      <c r="H68" s="128" t="inlineStr">
+      <c r="H68" s="160" t="inlineStr">
         <is>
           <t>л.Экология             Молоканова  Л.В.   37</t>
         </is>
@@ -6905,7 +6908,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C69" s="164" t="inlineStr">
+      <c r="C69" s="153" t="inlineStr">
         <is>
           <t>пр.Социология        Злобин А.Н.   46</t>
         </is>
@@ -6924,7 +6927,7 @@
 Черниговских И.В.   07</t>
         </is>
       </c>
-      <c r="H69" s="337" t="inlineStr">
+      <c r="H69" s="338" t="inlineStr">
         <is>
           <t>пр.Техническая механика           Давыдов  О.Ю.   127</t>
         </is>
@@ -6934,12 +6937,12 @@
           <t>пр.Техническая механика           Давыдов  О.Ю.   127</t>
         </is>
       </c>
-      <c r="J69" s="171" t="inlineStr">
+      <c r="J69" s="144" t="inlineStr">
         <is>
           <t>лаб.Химия пищи         Мотина Е.А.   432</t>
         </is>
       </c>
-      <c r="K69" s="171" t="inlineStr">
+      <c r="K69" s="144" t="inlineStr">
         <is>
           <t>пр.Теория механизмов и основы робототехники
 Невструев Ю.А.   133</t>
@@ -6962,12 +6965,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B70" s="176" t="inlineStr">
+      <c r="B70" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C70" s="155" t="inlineStr">
+      <c r="C70" s="183" t="inlineStr">
         <is>
           <t>пр.Математика      Кузнецов С.Ф.   205</t>
         </is>
@@ -6979,12 +6982,12 @@
         </is>
       </c>
       <c r="E70" s="103" t="n"/>
-      <c r="F70" s="266" t="inlineStr">
+      <c r="F70" s="128" t="inlineStr">
         <is>
           <t>пр.Социология         Злобин А.Н.   44</t>
         </is>
       </c>
-      <c r="G70" s="138" t="inlineStr"/>
+      <c r="G70" s="131" t="inlineStr"/>
       <c r="H70" s="109" t="inlineStr">
         <is>
           <t>пр.Математическое моделирование
@@ -6992,8 +6995,8 @@
         </is>
       </c>
       <c r="I70" s="110" t="n"/>
-      <c r="J70" s="266" t="inlineStr"/>
-      <c r="K70" s="266" t="n"/>
+      <c r="J70" s="128" t="inlineStr"/>
+      <c r="K70" s="128" t="n"/>
       <c r="L70" s="330" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
     </row>
@@ -7008,7 +7011,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C71" s="164" t="inlineStr"/>
+      <c r="C71" s="153" t="inlineStr"/>
       <c r="D71" s="106" t="n"/>
       <c r="E71" s="107" t="inlineStr">
         <is>
@@ -7016,7 +7019,7 @@
 Татохин Е.А.   51</t>
         </is>
       </c>
-      <c r="F71" s="171" t="inlineStr"/>
+      <c r="F71" s="144" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" s="111" t="n"/>
       <c r="I71" s="112" t="inlineStr">
@@ -7025,7 +7028,7 @@
 Коробова Л.А.   343</t>
         </is>
       </c>
-      <c r="J71" s="171" t="inlineStr">
+      <c r="J71" s="144" t="inlineStr">
         <is>
           <t>пр.Техническая механика
 Давыдов  О.Ю.   127</t>
@@ -7046,28 +7049,28 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B72" s="176" t="inlineStr">
+      <c r="B72" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C72" s="155" t="inlineStr">
+      <c r="C72" s="183" t="inlineStr">
         <is>
           <t>лаб.Физика         Татохин Е.А.   51</t>
         </is>
       </c>
       <c r="D72" s="329" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" s="266" t="inlineStr">
+      <c r="F72" s="128" t="inlineStr">
         <is>
           <t>пр.Математика        Кузнецов С.Ф.   205</t>
         </is>
       </c>
-      <c r="G72" s="138" t="inlineStr"/>
+      <c r="G72" s="131" t="inlineStr"/>
       <c r="H72" s="330" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" s="150" t="inlineStr"/>
-      <c r="K72" s="150" t="inlineStr"/>
+      <c r="J72" s="129" t="inlineStr"/>
+      <c r="K72" s="129" t="inlineStr"/>
       <c r="L72" s="330" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
     </row>
@@ -7082,10 +7085,10 @@
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C73" s="164" t="n"/>
+      <c r="C73" s="153" t="n"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" s="171" t="inlineStr"/>
+      <c r="F73" s="144" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -7100,20 +7103,20 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B74" s="176" t="inlineStr">
+      <c r="B74" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C74" s="133" t="inlineStr"/>
+      <c r="C74" s="146" t="inlineStr"/>
       <c r="D74" s="329" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" s="150" t="inlineStr"/>
-      <c r="G74" s="138" t="inlineStr"/>
+      <c r="F74" s="129" t="inlineStr"/>
+      <c r="G74" s="131" t="inlineStr"/>
       <c r="H74" s="330" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" s="150" t="inlineStr"/>
-      <c r="K74" s="150" t="inlineStr"/>
+      <c r="J74" s="129" t="inlineStr"/>
+      <c r="K74" s="129" t="inlineStr"/>
       <c r="L74" s="330" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
     </row>
@@ -7152,7 +7155,7 @@
         </is>
       </c>
       <c r="C76" s="332" t="inlineStr"/>
-      <c r="D76" s="341" t="inlineStr"/>
+      <c r="D76" s="342" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" s="333" t="inlineStr"/>
       <c r="G76" s="334" t="inlineStr"/>
@@ -7192,20 +7195,20 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B78" s="175" t="inlineStr">
+      <c r="B78" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C78" s="133" t="inlineStr"/>
+      <c r="C78" s="146" t="inlineStr"/>
       <c r="D78" s="329" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" s="150" t="inlineStr"/>
-      <c r="G78" s="138" t="inlineStr"/>
+      <c r="F78" s="129" t="inlineStr"/>
+      <c r="G78" s="131" t="inlineStr"/>
       <c r="H78" s="329" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" s="150" t="inlineStr"/>
-      <c r="K78" s="150" t="inlineStr"/>
+      <c r="J78" s="129" t="inlineStr"/>
+      <c r="K78" s="129" t="inlineStr"/>
       <c r="L78" s="329" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
     </row>
@@ -7238,20 +7241,20 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B80" s="176" t="inlineStr">
+      <c r="B80" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C80" s="133" t="inlineStr"/>
+      <c r="C80" s="146" t="inlineStr"/>
       <c r="D80" s="329" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" s="150" t="inlineStr"/>
-      <c r="G80" s="138" t="inlineStr"/>
+      <c r="F80" s="129" t="inlineStr"/>
+      <c r="G80" s="131" t="inlineStr"/>
       <c r="H80" s="329" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" s="150" t="inlineStr"/>
-      <c r="K80" s="150" t="inlineStr"/>
+      <c r="J80" s="129" t="inlineStr"/>
+      <c r="K80" s="129" t="inlineStr"/>
       <c r="L80" s="329" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
     </row>
@@ -7284,20 +7287,20 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B82" s="176" t="inlineStr">
+      <c r="B82" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C82" s="133" t="inlineStr"/>
+      <c r="C82" s="146" t="inlineStr"/>
       <c r="D82" s="329" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" s="150" t="inlineStr"/>
-      <c r="G82" s="138" t="inlineStr"/>
+      <c r="F82" s="129" t="inlineStr"/>
+      <c r="G82" s="131" t="inlineStr"/>
       <c r="H82" s="329" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" s="150" t="inlineStr"/>
-      <c r="K82" s="150" t="inlineStr"/>
+      <c r="J82" s="129" t="inlineStr"/>
+      <c r="K82" s="129" t="inlineStr"/>
       <c r="L82" s="329" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
     </row>
@@ -7330,20 +7333,20 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B84" s="176" t="inlineStr">
+      <c r="B84" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C84" s="133" t="inlineStr"/>
+      <c r="C84" s="146" t="inlineStr"/>
       <c r="D84" s="329" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" s="150" t="inlineStr"/>
-      <c r="G84" s="138" t="inlineStr"/>
+      <c r="F84" s="129" t="inlineStr"/>
+      <c r="G84" s="131" t="inlineStr"/>
       <c r="H84" s="329" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" s="150" t="inlineStr"/>
-      <c r="K84" s="150" t="inlineStr"/>
+      <c r="J84" s="129" t="inlineStr"/>
+      <c r="K84" s="129" t="inlineStr"/>
       <c r="L84" s="329" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
     </row>
@@ -7376,20 +7379,20 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B86" s="176" t="inlineStr">
+      <c r="B86" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C86" s="133" t="inlineStr"/>
+      <c r="C86" s="146" t="inlineStr"/>
       <c r="D86" s="329" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" s="150" t="inlineStr"/>
-      <c r="G86" s="138" t="inlineStr"/>
+      <c r="F86" s="129" t="inlineStr"/>
+      <c r="G86" s="131" t="inlineStr"/>
       <c r="H86" s="329" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" s="150" t="inlineStr"/>
-      <c r="K86" s="150" t="inlineStr"/>
+      <c r="J86" s="129" t="inlineStr"/>
+      <c r="K86" s="129" t="inlineStr"/>
       <c r="L86" s="329" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
     </row>
@@ -7422,20 +7425,20 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B88" s="176" t="inlineStr">
+      <c r="B88" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C88" s="133" t="inlineStr"/>
+      <c r="C88" s="146" t="inlineStr"/>
       <c r="D88" s="329" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" s="150" t="inlineStr"/>
-      <c r="G88" s="138" t="inlineStr"/>
+      <c r="F88" s="129" t="inlineStr"/>
+      <c r="G88" s="131" t="inlineStr"/>
       <c r="H88" s="329" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" s="150" t="inlineStr"/>
-      <c r="K88" s="150" t="inlineStr"/>
+      <c r="J88" s="129" t="inlineStr"/>
+      <c r="K88" s="129" t="inlineStr"/>
       <c r="L88" s="329" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
     </row>
@@ -7474,15 +7477,15 @@
         </is>
       </c>
       <c r="C90" s="332" t="inlineStr"/>
-      <c r="D90" s="341" t="inlineStr"/>
+      <c r="D90" s="342" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
       <c r="F90" s="333" t="inlineStr"/>
       <c r="G90" s="334" t="inlineStr"/>
-      <c r="H90" s="341" t="inlineStr"/>
+      <c r="H90" s="342" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" s="333" t="inlineStr"/>
       <c r="K90" s="333" t="inlineStr"/>
-      <c r="L90" s="341" t="inlineStr"/>
+      <c r="L90" s="342" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
     </row>
     <row r="91" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -7524,7 +7527,7 @@
       <c r="M92" s="6" t="n"/>
     </row>
     <row r="93" ht="27.75" customFormat="1" customHeight="1" s="48">
-      <c r="C93" s="199" t="inlineStr">
+      <c r="C93" s="193" t="inlineStr">
         <is>
           <t>Декан факультета _____________________А.В.Дранников</t>
         </is>
@@ -7554,7 +7557,7 @@
           <t>Декан факультета _____________________А.В.Дранников</t>
         </is>
       </c>
-      <c r="J93" s="200" t="inlineStr">
+      <c r="J93" s="194" t="inlineStr">
         <is>
           <t xml:space="preserve">Начальник учебно-методического управления _____________________ Фролова Л.Н.                  </t>
         </is>
@@ -7737,19 +7740,19 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B4" s="175" t="inlineStr">
+      <c r="B4" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C4" s="343" t="inlineStr"/>
+      <c r="C4" s="344" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" s="343" t="inlineStr"/>
+      <c r="E4" s="344" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" s="343" t="inlineStr"/>
+      <c r="G4" s="344" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" s="343" t="n"/>
-      <c r="K4" s="343" t="n"/>
+      <c r="I4" s="344" t="n"/>
+      <c r="K4" s="344" t="n"/>
       <c r="M4" s="48" t="n"/>
     </row>
     <row r="5" ht="27.75" customHeight="1" s="51" thickBot="1">
@@ -7777,7 +7780,7 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B6" s="176" t="inlineStr">
+      <c r="B6" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
@@ -7788,11 +7791,11 @@
 Ожерельева О.Н.   432</t>
         </is>
       </c>
-      <c r="D6" s="225" t="n"/>
-      <c r="E6" s="348" t="n"/>
-      <c r="G6" s="348" t="n"/>
-      <c r="I6" s="348" t="n"/>
-      <c r="K6" s="348" t="n"/>
+      <c r="D6" s="224" t="n"/>
+      <c r="E6" s="349" t="n"/>
+      <c r="G6" s="349" t="n"/>
+      <c r="I6" s="349" t="n"/>
+      <c r="K6" s="349" t="n"/>
       <c r="M6" s="48" t="n"/>
     </row>
     <row r="7" ht="27" customHeight="1" s="51" thickBot="1">
@@ -7821,7 +7824,7 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B8" s="176" t="inlineStr">
+      <c r="B8" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
@@ -7832,13 +7835,13 @@
 Ожерельева О.Н.   432</t>
         </is>
       </c>
-      <c r="D8" s="225" t="inlineStr">
+      <c r="D8" s="224" t="inlineStr">
         <is>
           <t>Физика,
 Татохин Е.А.   41</t>
         </is>
       </c>
-      <c r="E8" s="348" t="inlineStr">
+      <c r="E8" s="349" t="inlineStr">
         <is>
           <t>пр.Философия
 Черниговских И.В.   07</t>
@@ -7856,7 +7859,7 @@
 Квашнин Б.Н.   5-25</t>
         </is>
       </c>
-      <c r="H8" s="225" t="inlineStr">
+      <c r="H8" s="224" t="inlineStr">
         <is>
           <t>Техническая механика,
 Давыдов  О.Ю.   127</t>
@@ -7935,7 +7938,7 @@
 Квашнин Б.Н.   5-25</t>
         </is>
       </c>
-      <c r="I9" s="351" t="inlineStr">
+      <c r="I9" s="352" t="inlineStr">
         <is>
           <t>л.Механика жидкости и газа
 Терехина А.В.   117</t>
@@ -7947,7 +7950,7 @@
 Терехина А.В.   117</t>
         </is>
       </c>
-      <c r="K9" s="351" t="inlineStr">
+      <c r="K9" s="352" t="inlineStr">
         <is>
           <t>л.Механика
 Степыгин В.И.   125</t>
@@ -7967,12 +7970,12 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B10" s="176" t="inlineStr">
+      <c r="B10" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C10" s="348" t="inlineStr">
+      <c r="C10" s="349" t="inlineStr">
         <is>
           <t>пр.Теоретическая механика
 Егоров В.Г.   124</t>
@@ -7984,7 +7987,7 @@
 Егоров В.Г.   124</t>
         </is>
       </c>
-      <c r="E10" s="348" t="inlineStr">
+      <c r="E10" s="349" t="inlineStr">
         <is>
           <t>пр.Математика
 Кузнецов С.Ф.   403</t>
@@ -8002,13 +8005,13 @@
 Квашнин Б.Н.   5-25</t>
         </is>
       </c>
-      <c r="H10" s="225" t="inlineStr">
+      <c r="H10" s="224" t="inlineStr">
         <is>
           <t>Техническая механика,
 Давыдов  О.Ю.   127</t>
         </is>
       </c>
-      <c r="I10" s="348" t="inlineStr">
+      <c r="I10" s="349" t="inlineStr">
         <is>
           <t>пр.Философия
 Черниговских И.В.   15</t>
@@ -8020,7 +8023,7 @@
 Черниговских И.В.   15</t>
         </is>
       </c>
-      <c r="K10" s="348" t="inlineStr">
+      <c r="K10" s="349" t="inlineStr">
         <is>
           <t>пр.Механика
 Степыгин В.И.   133</t>
@@ -8113,12 +8116,12 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B12" s="176" t="inlineStr">
+      <c r="B12" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C12" s="353" t="inlineStr">
+      <c r="C12" s="354" t="inlineStr">
         <is>
           <t>Общая физическая подготовка</t>
         </is>
@@ -8239,20 +8242,20 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B14" s="176" t="inlineStr">
+      <c r="B14" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C14" s="348" t="inlineStr"/>
+      <c r="C14" s="349" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" s="348" t="inlineStr"/>
+      <c r="E14" s="349" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" s="348" t="inlineStr"/>
+      <c r="G14" s="349" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" s="348" t="inlineStr"/>
+      <c r="I14" s="349" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" s="348" t="inlineStr"/>
+      <c r="K14" s="349" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" s="48" t="n"/>
     </row>
@@ -8290,15 +8293,15 @@
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C16" s="356" t="inlineStr"/>
+      <c r="C16" s="357" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" s="356" t="inlineStr"/>
+      <c r="E16" s="357" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" s="356" t="inlineStr"/>
+      <c r="G16" s="357" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" s="356" t="inlineStr"/>
+      <c r="I16" s="357" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" s="356" t="inlineStr"/>
+      <c r="K16" s="357" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" s="48" t="n"/>
     </row>
@@ -8331,12 +8334,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B18" s="175" t="inlineStr">
+      <c r="B18" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C18" s="348" t="inlineStr"/>
+      <c r="C18" s="349" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" s="20" t="inlineStr">
         <is>
@@ -8344,8 +8347,8 @@
 Копылов М.В.   111   Z</t>
         </is>
       </c>
-      <c r="F18" s="313" t="n"/>
-      <c r="G18" s="348" t="inlineStr"/>
+      <c r="F18" s="311" t="n"/>
+      <c r="G18" s="349" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" s="20" t="inlineStr">
         <is>
@@ -8353,14 +8356,14 @@
 Квашнин Б.Н.   5-25</t>
         </is>
       </c>
-      <c r="J18" s="313" t="inlineStr">
+      <c r="J18" s="311" t="inlineStr">
         <is>
           <t>Сопротивление материалов,
 Давыдов  О.Ю.   127</t>
         </is>
       </c>
       <c r="K18" s="20" t="n"/>
-      <c r="L18" s="313" t="inlineStr">
+      <c r="L18" s="311" t="inlineStr">
         <is>
           <t>лаб.Материаловедение. ТКМ,
 Лихачева Л.Б.    5-16</t>
@@ -8412,12 +8415,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B20" s="176" t="inlineStr">
+      <c r="B20" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C20" s="348" t="inlineStr">
+      <c r="C20" s="349" t="inlineStr">
         <is>
           <t>пр.Философия
 Черниговских И.В.   07</t>
@@ -8435,16 +8438,16 @@
 Копылов М.В.   111   Z</t>
         </is>
       </c>
-      <c r="F20" s="225" t="n"/>
+      <c r="F20" s="224" t="n"/>
       <c r="G20" s="17" t="n"/>
-      <c r="H20" s="225" t="inlineStr"/>
+      <c r="H20" s="224" t="inlineStr"/>
       <c r="I20" s="17" t="inlineStr">
         <is>
           <t>лаб.Материаловедение. ТКМ,
 Квашнин Б.Н.    5-25</t>
         </is>
       </c>
-      <c r="J20" s="225" t="inlineStr">
+      <c r="J20" s="224" t="inlineStr">
         <is>
           <t>Сопротивление материалов,
 Давыдов  О.Ю.   127</t>
@@ -8456,7 +8459,7 @@
 Степыгин В.И.   133</t>
         </is>
       </c>
-      <c r="L20" s="225" t="inlineStr">
+      <c r="L20" s="224" t="inlineStr">
         <is>
           <t>лаб.Материаловедение. ТКМ,
 Лихачева Л.Б.    5-16</t>
@@ -8533,12 +8536,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B22" s="176" t="inlineStr">
+      <c r="B22" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C22" s="348" t="inlineStr">
+      <c r="C22" s="349" t="inlineStr">
         <is>
           <t>пр.Математика
 Кузнецов С.Ф.   225</t>
@@ -8556,7 +8559,7 @@
 Квашнин Б.Н.  5-25</t>
         </is>
       </c>
-      <c r="F22" s="225" t="inlineStr">
+      <c r="F22" s="224" t="inlineStr">
         <is>
           <t>Техническая механика,
 Давыдов  О.Ю.   127</t>
@@ -8580,14 +8583,14 @@
 Татохин Е.А.   40</t>
         </is>
       </c>
-      <c r="J22" s="225" t="n"/>
+      <c r="J22" s="224" t="n"/>
       <c r="K22" s="17" t="inlineStr">
         <is>
           <t>лаб.Основы электротехники и электроники   /                         Техническая термодинамика
 Никель С.А.   311   Z</t>
         </is>
       </c>
-      <c r="L22" s="225" t="n"/>
+      <c r="L22" s="224" t="n"/>
       <c r="M22" s="48" t="n"/>
     </row>
     <row r="23" ht="36.95" customHeight="1" s="51" thickBot="1">
@@ -8613,7 +8616,7 @@
 Кузнецов С.Ф.   225</t>
         </is>
       </c>
-      <c r="E23" s="361" t="inlineStr">
+      <c r="E23" s="362" t="inlineStr">
         <is>
           <t>пр.Физика
 Татохин Е.А.   44</t>
@@ -8659,12 +8662,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B24" s="176" t="inlineStr">
+      <c r="B24" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C24" s="348" t="inlineStr">
+      <c r="C24" s="349" t="inlineStr">
         <is>
           <t>л.Химия пищи
 Ожерельева О.Н.   403</t>
@@ -8682,13 +8685,13 @@
 Квашнин Б.Н.  5-25</t>
         </is>
       </c>
-      <c r="F24" s="225" t="inlineStr">
+      <c r="F24" s="224" t="inlineStr">
         <is>
           <t>Техническая механика,
 Давыдов  О.Ю.   127</t>
         </is>
       </c>
-      <c r="G24" s="348" t="inlineStr">
+      <c r="G24" s="349" t="inlineStr">
         <is>
           <t>пр.Математика
 Кузнецов С.Ф.   231</t>
@@ -8700,7 +8703,7 @@
 Кузнецов С.Ф.   231</t>
         </is>
       </c>
-      <c r="I24" s="348" t="inlineStr"/>
+      <c r="I24" s="349" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" s="17" t="inlineStr">
         <is>
@@ -8708,7 +8711,7 @@
 Никель С.А.   311   Z</t>
         </is>
       </c>
-      <c r="L24" s="225" t="n"/>
+      <c r="L24" s="224" t="n"/>
       <c r="M24" s="48" t="n"/>
     </row>
     <row r="25" ht="36.95" customHeight="1" s="51" thickBot="1">
@@ -8775,24 +8778,24 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B26" s="176" t="inlineStr">
+      <c r="B26" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C26" s="348" t="n"/>
+      <c r="C26" s="349" t="n"/>
       <c r="E26" s="17" t="n"/>
-      <c r="F26" s="225" t="inlineStr"/>
+      <c r="F26" s="224" t="inlineStr"/>
       <c r="G26" s="17" t="inlineStr">
         <is>
           <t>лаб.Физика
 Татохин Е.А.   41</t>
         </is>
       </c>
-      <c r="H26" s="225" t="n"/>
-      <c r="I26" s="348" t="inlineStr"/>
+      <c r="H26" s="224" t="n"/>
+      <c r="I26" s="349" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" s="348" t="inlineStr"/>
+      <c r="K26" s="349" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" s="48" t="n"/>
     </row>
@@ -8819,7 +8822,7 @@
 Квашнин Б.Н.  5-25</t>
         </is>
       </c>
-      <c r="G27" s="351" t="inlineStr">
+      <c r="G27" s="352" t="inlineStr">
         <is>
           <t>пр.Философия
 Черниговских И.В.   07</t>
@@ -8843,20 +8846,20 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B28" s="176" t="inlineStr">
+      <c r="B28" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C28" s="348" t="inlineStr"/>
+      <c r="C28" s="349" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" s="348" t="inlineStr"/>
+      <c r="E28" s="349" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" s="348" t="inlineStr"/>
+      <c r="G28" s="349" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" s="348" t="inlineStr"/>
+      <c r="I28" s="349" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" s="348" t="inlineStr"/>
+      <c r="K28" s="349" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" s="48" t="n"/>
     </row>
@@ -8894,15 +8897,15 @@
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C30" s="356" t="inlineStr"/>
+      <c r="C30" s="357" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" s="356" t="inlineStr"/>
+      <c r="E30" s="357" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" s="356" t="inlineStr"/>
+      <c r="G30" s="357" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" s="356" t="inlineStr"/>
+      <c r="I30" s="357" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" s="356" t="inlineStr"/>
+      <c r="K30" s="357" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" s="48" t="n"/>
     </row>
@@ -8935,20 +8938,20 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B32" s="175" t="inlineStr">
+      <c r="B32" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C32" s="348" t="inlineStr"/>
+      <c r="C32" s="349" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" s="348" t="inlineStr"/>
+      <c r="E32" s="349" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" s="348" t="inlineStr"/>
+      <c r="G32" s="349" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" s="348" t="inlineStr"/>
+      <c r="I32" s="349" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" s="348" t="inlineStr"/>
+      <c r="K32" s="349" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" s="48" t="n"/>
     </row>
@@ -8981,21 +8984,21 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B34" s="176" t="inlineStr">
+      <c r="B34" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="225" t="inlineStr">
+      <c r="D34" s="224" t="inlineStr">
         <is>
           <t>лаб.Химия пищи
 Ожерельева О.Н.   432</t>
         </is>
       </c>
       <c r="E34" s="17" t="n"/>
-      <c r="F34" s="225" t="n"/>
-      <c r="G34" s="348" t="inlineStr">
+      <c r="F34" s="224" t="n"/>
+      <c r="G34" s="349" t="inlineStr">
         <is>
           <t xml:space="preserve">пр.Иностранный язык,
 Сихарулидзе Д.Х.  1и </t>
@@ -9007,7 +9010,7 @@
 Сихарулидзе Д.Х.  1и </t>
         </is>
       </c>
-      <c r="I34" s="348" t="inlineStr">
+      <c r="I34" s="349" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Пономарева Е.Ю.   12и,       Воронкова И.С.   9и  (фр)</t>
@@ -9019,7 +9022,7 @@
 Пономарева Е.Ю.   12и,       Воронкова И.С.   9и  (фр)</t>
         </is>
       </c>
-      <c r="K34" s="348" t="inlineStr">
+      <c r="K34" s="349" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Воронкова И.С.   9и  (фр)</t>
@@ -9102,26 +9105,26 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B36" s="176" t="inlineStr">
+      <c r="B36" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="225" t="inlineStr">
+      <c r="D36" s="224" t="inlineStr">
         <is>
           <t>лаб.Химия пищи
 Ожерельева О.Н.   432</t>
         </is>
       </c>
       <c r="E36" s="17" t="n"/>
-      <c r="F36" s="225" t="inlineStr">
+      <c r="F36" s="224" t="inlineStr">
         <is>
           <t>лаб.Физика,
 Татохин Е.А.   40</t>
         </is>
       </c>
-      <c r="G36" s="348" t="inlineStr">
+      <c r="G36" s="349" t="inlineStr">
         <is>
           <t>пр.Теория машин и механизмов
 Степыгин В.И.   124</t>
@@ -9201,7 +9204,7 @@
 Степыгин В.И.   124</t>
         </is>
       </c>
-      <c r="I37" s="361" t="inlineStr">
+      <c r="I37" s="362" t="inlineStr">
         <is>
           <t>л.Сопротивление материалов
 Давыдов  О.Ю.   125</t>
@@ -9228,7 +9231,7 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B38" s="176" t="inlineStr">
+      <c r="B38" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
@@ -9270,7 +9273,7 @@
         </is>
       </c>
       <c r="I38" s="17" t="n"/>
-      <c r="J38" s="225" t="inlineStr">
+      <c r="J38" s="224" t="inlineStr">
         <is>
           <t>лаб.Механика жидкости и газа
 Терехина А.В.   115   Z</t>
@@ -9301,7 +9304,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C39" s="361" t="inlineStr">
+      <c r="C39" s="362" t="inlineStr">
         <is>
           <t>л.Техническая механика
 Давыдов  О.Ю.   125</t>
@@ -9344,7 +9347,7 @@
         </is>
       </c>
       <c r="J39" s="41" t="n"/>
-      <c r="K39" s="351" t="inlineStr">
+      <c r="K39" s="352" t="inlineStr">
         <is>
           <t>пр.Математика
 Кузнецов С.Ф.   231</t>
@@ -9364,12 +9367,12 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B40" s="176" t="inlineStr">
+      <c r="B40" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C40" s="348" t="inlineStr">
+      <c r="C40" s="349" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Лобачева Н.Н.   3и     Мирошниченко Е.Н.   10и</t>
@@ -9381,7 +9384,7 @@
 Лобачева Н.Н.   3и     Мирошниченко Е.Н.   10и</t>
         </is>
       </c>
-      <c r="E40" s="348" t="inlineStr">
+      <c r="E40" s="349" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Прибыткова О.В.   2и    Кошеварова И.Б.  9и</t>
@@ -9393,10 +9396,10 @@
 Прибыткова О.В.   2и    Кошеварова И.Б.  9и</t>
         </is>
       </c>
-      <c r="G40" s="348" t="inlineStr"/>
+      <c r="G40" s="349" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" s="17" t="n"/>
-      <c r="J40" s="225" t="inlineStr">
+      <c r="J40" s="224" t="inlineStr">
         <is>
           <t>лаб.Механика жидкости и газа
 Терехина А.В.   115   Z</t>
@@ -9408,7 +9411,7 @@
 Котов Г.И.   40</t>
         </is>
       </c>
-      <c r="L40" s="225" t="n"/>
+      <c r="L40" s="224" t="n"/>
       <c r="M40" s="48" t="n"/>
     </row>
     <row r="41" ht="27" customHeight="1" s="51" thickBot="1">
@@ -9455,7 +9458,7 @@
         </is>
       </c>
       <c r="J41" s="41" t="n"/>
-      <c r="K41" s="351" t="inlineStr">
+      <c r="K41" s="352" t="inlineStr">
         <is>
           <t>пр.Техническая термодинамика
 Никель С.А.   311</t>
@@ -9475,20 +9478,20 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B42" s="176" t="inlineStr">
+      <c r="B42" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C42" s="348" t="inlineStr"/>
+      <c r="C42" s="349" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" s="348" t="inlineStr"/>
+      <c r="E42" s="349" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" s="348" t="inlineStr"/>
+      <c r="G42" s="349" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" s="348" t="inlineStr"/>
+      <c r="I42" s="349" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" s="348" t="inlineStr"/>
+      <c r="K42" s="349" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" s="48" t="n"/>
     </row>
@@ -9526,15 +9529,15 @@
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C44" s="356" t="inlineStr"/>
+      <c r="C44" s="357" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" s="356" t="inlineStr"/>
+      <c r="E44" s="357" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" s="356" t="inlineStr"/>
+      <c r="G44" s="357" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" s="356" t="inlineStr"/>
+      <c r="I44" s="357" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" s="356" t="inlineStr"/>
+      <c r="K44" s="357" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" s="48" t="n"/>
     </row>
@@ -9567,20 +9570,20 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B46" s="175" t="inlineStr">
+      <c r="B46" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C46" s="348" t="inlineStr"/>
+      <c r="C46" s="349" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" s="348" t="inlineStr"/>
+      <c r="E46" s="349" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" s="348" t="inlineStr"/>
+      <c r="G46" s="349" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" s="348" t="inlineStr"/>
+      <c r="I46" s="349" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" s="348" t="inlineStr"/>
+      <c r="K46" s="349" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" s="48" t="n"/>
     </row>
@@ -9613,12 +9616,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B48" s="176" t="inlineStr">
+      <c r="B48" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C48" s="353" t="inlineStr">
+      <c r="C48" s="354" t="inlineStr">
         <is>
           <t>Общая физическая подготовка</t>
         </is>
@@ -9739,12 +9742,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B50" s="176" t="inlineStr">
+      <c r="B50" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C50" s="363" t="inlineStr">
+      <c r="C50" s="364" t="inlineStr">
         <is>
           <t>л.Математика               Кузнецов С.Ф.   401</t>
         </is>
@@ -9807,7 +9810,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C51" s="364" t="inlineStr">
+      <c r="C51" s="365" t="inlineStr">
         <is>
           <t>л.Математика                 Кузнецов С.Ф.   450</t>
         </is>
@@ -9865,12 +9868,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B52" s="176" t="inlineStr">
+      <c r="B52" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C52" s="363" t="inlineStr">
+      <c r="C52" s="364" t="inlineStr">
         <is>
           <t>л.Физика                  Татохин Е.А.   53</t>
         </is>
@@ -9933,7 +9936,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C53" s="366" t="inlineStr">
+      <c r="C53" s="367" t="inlineStr">
         <is>
           <t>л.Философия                  Черниговских И.В.   452</t>
         </is>
@@ -9991,14 +9994,14 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B54" s="176" t="inlineStr">
+      <c r="B54" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C54" s="348" t="inlineStr"/>
+      <c r="C54" s="349" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" s="348" t="inlineStr"/>
+      <c r="E54" s="349" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" s="33" t="inlineStr">
         <is>
@@ -10012,7 +10015,7 @@
 Сихарулидзе Д.Х.  16 </t>
         </is>
       </c>
-      <c r="I54" s="348" t="inlineStr">
+      <c r="I54" s="349" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Воронкова И.С.   14  (фр)</t>
@@ -10024,7 +10027,7 @@
 Воронкова И.С.   14  (фр)</t>
         </is>
       </c>
-      <c r="K54" s="348" t="inlineStr">
+      <c r="K54" s="349" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Пономарева Е.Ю.   3и,
@@ -10055,7 +10058,7 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" s="361" t="inlineStr">
+      <c r="G55" s="362" t="inlineStr">
         <is>
           <t xml:space="preserve">пр.Иностранный язык,
 Сихарулидзе Д.Х.  10и </t>
@@ -10101,20 +10104,20 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B56" s="176" t="inlineStr">
+      <c r="B56" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C56" s="348" t="inlineStr"/>
+      <c r="C56" s="349" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" s="348" t="inlineStr"/>
+      <c r="E56" s="349" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" s="348" t="inlineStr"/>
+      <c r="G56" s="349" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" s="348" t="inlineStr"/>
+      <c r="I56" s="349" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" s="348" t="inlineStr"/>
+      <c r="K56" s="349" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" s="48" t="n"/>
     </row>
@@ -10152,15 +10155,15 @@
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C58" s="356" t="inlineStr"/>
+      <c r="C58" s="357" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" s="356" t="inlineStr"/>
+      <c r="E58" s="357" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" s="356" t="inlineStr"/>
+      <c r="G58" s="357" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" s="356" t="inlineStr"/>
+      <c r="I58" s="357" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" s="356" t="inlineStr"/>
+      <c r="K58" s="357" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" s="48" t="n"/>
     </row>
@@ -10193,18 +10196,18 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B60" s="175" t="inlineStr">
+      <c r="B60" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C60" s="348" t="inlineStr"/>
+      <c r="C60" s="349" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" s="348" t="inlineStr"/>
+      <c r="E60" s="349" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" s="348" t="inlineStr"/>
+      <c r="G60" s="349" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" s="348" t="inlineStr"/>
+      <c r="I60" s="349" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" s="33" t="inlineStr">
         <is>
@@ -10239,7 +10242,7 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" s="361" t="n"/>
+      <c r="K61" s="362" t="n"/>
       <c r="M61" s="48" t="n"/>
     </row>
     <row r="62" ht="27" customHeight="1" s="51">
@@ -10248,7 +10251,7 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B62" s="176" t="inlineStr">
+      <c r="B62" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
@@ -10265,7 +10268,7 @@
 Татохин Е.А.   44</t>
         </is>
       </c>
-      <c r="E62" s="348" t="inlineStr">
+      <c r="E62" s="349" t="inlineStr">
         <is>
           <t>пр.Теория машин и механизмов
 Степыгин В.И.   227</t>
@@ -10277,8 +10280,8 @@
 Степыгин В.И.   227</t>
         </is>
       </c>
-      <c r="G62" s="348" t="n"/>
-      <c r="I62" s="348" t="inlineStr">
+      <c r="G62" s="349" t="n"/>
+      <c r="I62" s="349" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Пономарева Е.Ю.   12и</t>
@@ -10315,7 +10318,7 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C63" s="361" t="inlineStr">
+      <c r="C63" s="362" t="inlineStr">
         <is>
           <t>л.Теоретическая механика
 Егоров В.Г.   125</t>
@@ -10351,7 +10354,7 @@
 Пономарева Е.Ю.   12и</t>
         </is>
       </c>
-      <c r="K63" s="361" t="inlineStr">
+      <c r="K63" s="362" t="inlineStr">
         <is>
           <t>пр.Философия
 Черниговских И.В.   15</t>
@@ -10371,12 +10374,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B64" s="176" t="inlineStr">
+      <c r="B64" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C64" s="348" t="inlineStr">
+      <c r="C64" s="349" t="inlineStr">
         <is>
           <t>пр.Техническая механика
 Давыдов  О.Ю.   127</t>
@@ -10412,7 +10415,7 @@
 Степыгин В.И.   125</t>
         </is>
       </c>
-      <c r="I64" s="348" t="inlineStr">
+      <c r="I64" s="349" t="inlineStr">
         <is>
           <t>пр.Основы динамических расчетов механизмов
 Егоров В.Г.   124</t>
@@ -10461,7 +10464,7 @@
 Давыдов  О.Ю.   127</t>
         </is>
       </c>
-      <c r="E65" s="361" t="inlineStr">
+      <c r="E65" s="362" t="inlineStr">
         <is>
           <t>л.Процессы и аппараты
 Василенко В.Н.   201</t>
@@ -10497,7 +10500,7 @@
 Егоров В.Г.   124</t>
         </is>
       </c>
-      <c r="K65" s="351" t="inlineStr">
+      <c r="K65" s="352" t="inlineStr">
         <is>
           <t>л.Техническая термодинамика
 Никель С.А.   329</t>
@@ -10517,12 +10520,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B66" s="176" t="inlineStr">
+      <c r="B66" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C66" s="348" t="inlineStr">
+      <c r="C66" s="349" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Лобачева Н.Н.   3и        Мирошниченко Е.Н.   10и</t>
@@ -10534,7 +10537,7 @@
 Лобачева Н.Н.   3и        Мирошниченко Е.Н.   10и</t>
         </is>
       </c>
-      <c r="E66" s="348" t="inlineStr">
+      <c r="E66" s="349" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Прибыткова О.В.   2и       Кошеварова И.Б.  9и</t>
@@ -10626,7 +10629,7 @@
 Титов С.А.   41</t>
         </is>
       </c>
-      <c r="I67" s="351" t="inlineStr">
+      <c r="I67" s="352" t="inlineStr">
         <is>
           <t>пр.Физика
 Татохин Е.А.   42</t>
@@ -10638,7 +10641,7 @@
 Татохин Е.А.   42</t>
         </is>
       </c>
-      <c r="K67" s="351" t="inlineStr">
+      <c r="K67" s="352" t="inlineStr">
         <is>
           <t>пр.Основы электротехники и электроники
 Никель С.А.   329</t>
@@ -10658,16 +10661,16 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B68" s="176" t="inlineStr">
+      <c r="B68" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C68" s="348" t="inlineStr"/>
+      <c r="C68" s="349" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" s="348" t="inlineStr"/>
+      <c r="E68" s="349" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" s="348" t="inlineStr"/>
+      <c r="G68" s="349" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" s="33" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -10702,7 +10705,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" s="361" t="inlineStr">
+      <c r="I69" s="362" t="inlineStr">
         <is>
           <t>пр.Математика
 Кузнецов С.Ф.   205</t>
@@ -10714,7 +10717,7 @@
 Кузнецов С.Ф.   205</t>
         </is>
       </c>
-      <c r="K69" s="351" t="n"/>
+      <c r="K69" s="352" t="n"/>
       <c r="M69" s="48" t="n"/>
     </row>
     <row r="70">
@@ -10723,20 +10726,20 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B70" s="176" t="inlineStr">
+      <c r="B70" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C70" s="348" t="inlineStr"/>
+      <c r="C70" s="349" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" s="348" t="inlineStr"/>
+      <c r="E70" s="349" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" s="348" t="inlineStr"/>
+      <c r="G70" s="349" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" s="348" t="inlineStr"/>
+      <c r="I70" s="349" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" s="348" t="inlineStr"/>
+      <c r="K70" s="349" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" s="48" t="n"/>
     </row>
@@ -10774,15 +10777,15 @@
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C72" s="356" t="inlineStr"/>
+      <c r="C72" s="357" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" s="356" t="inlineStr"/>
+      <c r="E72" s="357" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" s="356" t="inlineStr"/>
+      <c r="G72" s="357" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" s="356" t="inlineStr"/>
+      <c r="I72" s="357" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" s="356" t="inlineStr"/>
+      <c r="K72" s="357" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" s="48" t="n"/>
     </row>
@@ -10815,20 +10818,20 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B74" s="175" t="inlineStr">
+      <c r="B74" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C74" s="348" t="inlineStr"/>
+      <c r="C74" s="349" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" s="348" t="inlineStr"/>
+      <c r="E74" s="349" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" s="348" t="inlineStr"/>
+      <c r="G74" s="349" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" s="348" t="inlineStr"/>
+      <c r="I74" s="349" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" s="348" t="inlineStr"/>
+      <c r="K74" s="349" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" s="48" t="n"/>
     </row>
@@ -10861,20 +10864,20 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B76" s="176" t="inlineStr">
+      <c r="B76" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C76" s="348" t="inlineStr"/>
+      <c r="C76" s="349" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" s="348" t="inlineStr"/>
+      <c r="E76" s="349" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" s="348" t="inlineStr"/>
+      <c r="G76" s="349" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" s="348" t="inlineStr"/>
+      <c r="I76" s="349" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" s="348" t="inlineStr"/>
+      <c r="K76" s="349" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" s="48" t="n"/>
     </row>
@@ -10907,20 +10910,20 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B78" s="176" t="inlineStr">
+      <c r="B78" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C78" s="348" t="inlineStr"/>
+      <c r="C78" s="349" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" s="348" t="inlineStr"/>
+      <c r="E78" s="349" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" s="348" t="inlineStr"/>
+      <c r="G78" s="349" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" s="348" t="inlineStr"/>
+      <c r="I78" s="349" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" s="348" t="inlineStr"/>
+      <c r="K78" s="349" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" s="48" t="n"/>
     </row>
@@ -10953,20 +10956,20 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B80" s="176" t="inlineStr">
+      <c r="B80" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C80" s="348" t="inlineStr"/>
+      <c r="C80" s="349" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" s="348" t="inlineStr"/>
+      <c r="E80" s="349" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" s="348" t="inlineStr"/>
+      <c r="G80" s="349" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" s="348" t="inlineStr"/>
+      <c r="I80" s="349" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" s="348" t="inlineStr"/>
+      <c r="K80" s="349" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" s="48" t="n"/>
     </row>
@@ -10999,20 +11002,20 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B82" s="176" t="inlineStr">
+      <c r="B82" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C82" s="348" t="inlineStr"/>
+      <c r="C82" s="349" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" s="348" t="inlineStr"/>
+      <c r="E82" s="349" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" s="348" t="inlineStr"/>
+      <c r="G82" s="349" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" s="348" t="inlineStr"/>
+      <c r="I82" s="349" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" s="348" t="inlineStr"/>
+      <c r="K82" s="349" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" s="48" t="n"/>
     </row>
@@ -11045,20 +11048,20 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B84" s="176" t="inlineStr">
+      <c r="B84" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C84" s="348" t="inlineStr"/>
+      <c r="C84" s="349" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" s="348" t="inlineStr"/>
+      <c r="E84" s="349" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" s="348" t="inlineStr"/>
+      <c r="G84" s="349" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" s="348" t="inlineStr"/>
+      <c r="I84" s="349" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" s="348" t="inlineStr"/>
+      <c r="K84" s="349" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" s="48" t="n"/>
     </row>
@@ -11096,15 +11099,15 @@
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C86" s="356" t="inlineStr"/>
+      <c r="C86" s="357" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" s="356" t="inlineStr"/>
+      <c r="E86" s="357" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" s="356" t="inlineStr"/>
+      <c r="G86" s="357" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" s="356" t="inlineStr"/>
+      <c r="I86" s="357" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" s="356" t="inlineStr"/>
+      <c r="K86" s="357" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" s="48" t="n"/>
     </row>
@@ -11202,7 +11205,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G58" sqref="G58:H59"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -11238,7 +11241,7 @@
     <row r="2" ht="30" customHeight="1" s="51">
       <c r="A2" s="48" t="n"/>
       <c r="B2" s="48" t="n"/>
-      <c r="C2" s="186" t="inlineStr">
+      <c r="C2" s="210" t="inlineStr">
         <is>
           <t>ФГБОУ ВО</t>
         </is>
@@ -11253,7 +11256,7 @@
           <t>ФГБОУ ВО</t>
         </is>
       </c>
-      <c r="F2" s="192" t="inlineStr">
+      <c r="F2" s="212" t="inlineStr">
         <is>
           <t>РАСПИСАНИЕ</t>
         </is>
@@ -11293,17 +11296,17 @@
           <t>РАСПИСАНИЕ</t>
         </is>
       </c>
-      <c r="N2" s="54" t="inlineStr">
+      <c r="N2" s="48" t="n"/>
+      <c r="O2" s="54" t="inlineStr">
         <is>
           <t>"Утверждаю"</t>
         </is>
       </c>
-      <c r="O2" s="54" t="n"/>
     </row>
     <row r="3" ht="30" customHeight="1" s="51">
       <c r="A3" s="48" t="n"/>
       <c r="B3" s="48" t="n"/>
-      <c r="C3" s="187" t="inlineStr">
+      <c r="C3" s="211" t="inlineStr">
         <is>
           <t>"Воронежский государственный</t>
         </is>
@@ -11358,17 +11361,17 @@
           <t>РАСПИСАНИЕ</t>
         </is>
       </c>
-      <c r="N3" s="54" t="inlineStr">
+      <c r="N3" s="48" t="n"/>
+      <c r="O3" s="54" t="inlineStr">
         <is>
           <t>Проректор по учебной работе</t>
         </is>
       </c>
-      <c r="O3" s="54" t="n"/>
     </row>
     <row r="4" ht="30.75" customHeight="1" s="51" thickBot="1">
       <c r="A4" s="48" t="n"/>
       <c r="B4" s="48" t="n"/>
-      <c r="C4" s="187" t="inlineStr">
+      <c r="C4" s="211" t="inlineStr">
         <is>
           <t>университет инженерных технологий"</t>
         </is>
@@ -11423,8 +11426,8 @@
           <t>РАСПИСАНИЕ</t>
         </is>
       </c>
-      <c r="N4" s="55" t="n"/>
-      <c r="O4" s="56" t="inlineStr">
+      <c r="N4" s="48" t="n"/>
+      <c r="O4" s="58" t="inlineStr">
         <is>
           <t>В.Н.Василенко</t>
         </is>
@@ -11444,14 +11447,10 @@
       <c r="K5" s="45" t="n"/>
       <c r="L5" s="45" t="n"/>
       <c r="M5" s="45" t="n"/>
-      <c r="N5" s="57" t="inlineStr">
-        <is>
-          <t>"                "</t>
-        </is>
-      </c>
-      <c r="O5" s="58" t="inlineStr">
-        <is>
-          <t>2021г.</t>
+      <c r="N5" s="48" t="n"/>
+      <c r="O5" s="316" t="inlineStr">
+        <is>
+          <t>"          "                             2021г.</t>
         </is>
       </c>
     </row>
@@ -11467,7 +11466,7 @@
       <c r="E6" s="47" t="n"/>
       <c r="F6" s="47" t="n"/>
       <c r="G6" s="47" t="n"/>
-      <c r="H6" s="193" t="inlineStr">
+      <c r="H6" s="213" t="inlineStr">
         <is>
           <t>весеннего семестра     2020-2021 учебного года</t>
         </is>
@@ -11503,7 +11502,7 @@
           <t>Часы</t>
         </is>
       </c>
-      <c r="C7" s="367" t="inlineStr">
+      <c r="C7" s="368" t="inlineStr">
         <is>
           <t>М-181</t>
         </is>
@@ -11513,12 +11512,12 @@
           <t>М-181</t>
         </is>
       </c>
-      <c r="E7" s="189" t="inlineStr">
+      <c r="E7" s="171" t="inlineStr">
         <is>
           <t>М-182</t>
         </is>
       </c>
-      <c r="F7" s="189" t="inlineStr">
+      <c r="F7" s="171" t="inlineStr">
         <is>
           <t>М-183</t>
         </is>
@@ -11533,7 +11532,7 @@
           <t>М-184</t>
         </is>
       </c>
-      <c r="I7" s="367" t="inlineStr">
+      <c r="I7" s="368" t="inlineStr">
         <is>
           <t>М-171</t>
         </is>
@@ -11553,12 +11552,12 @@
           <t>М-172</t>
         </is>
       </c>
-      <c r="M7" s="189" t="inlineStr">
+      <c r="M7" s="171" t="inlineStr">
         <is>
           <t>М-173</t>
         </is>
       </c>
-      <c r="N7" s="189" t="inlineStr">
+      <c r="N7" s="171" t="inlineStr">
         <is>
           <t>М-174</t>
         </is>
@@ -11575,12 +11574,12 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B8" s="175" t="inlineStr">
+      <c r="B8" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C8" s="278" t="inlineStr">
+      <c r="C8" s="252" t="inlineStr">
         <is>
           <t>Физическая культура           452</t>
         </is>
@@ -11610,13 +11609,13 @@
           <t>Физическая культура           452</t>
         </is>
       </c>
-      <c r="I8" s="371" t="inlineStr"/>
+      <c r="I8" s="372" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" s="325" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" s="153" t="inlineStr"/>
-      <c r="N8" s="246" t="inlineStr"/>
-      <c r="O8" s="246" t="inlineStr"/>
+      <c r="M8" s="149" t="inlineStr"/>
+      <c r="N8" s="249" t="inlineStr"/>
+      <c r="O8" s="249" t="inlineStr"/>
     </row>
     <row r="9" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A9" t="inlineStr">
@@ -11629,10 +11628,10 @@
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C9" s="337" t="inlineStr"/>
+      <c r="C9" s="338" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" s="171" t="inlineStr"/>
-      <c r="F9" s="171" t="inlineStr"/>
+      <c r="E9" s="144" t="inlineStr"/>
+      <c r="F9" s="144" t="inlineStr"/>
       <c r="G9" s="327" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -11649,7 +11648,7 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B10" s="176" t="inlineStr">
+      <c r="B10" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
@@ -11666,28 +11665,26 @@
 лаб.ТО ТМО проц.   Антипов С.Т.   102    Z</t>
         </is>
       </c>
-      <c r="E10" s="266" t="inlineStr">
+      <c r="E10" s="128" t="inlineStr">
         <is>
           <t>пр.Холодильная техника
 Берестовой  А.А.   017</t>
         </is>
       </c>
-      <c r="F10" s="150" t="inlineStr">
+      <c r="F10" s="129" t="inlineStr">
         <is>
           <t>л.Строительная механика
 Давыдов  О.Ю.   126</t>
         </is>
       </c>
-      <c r="G10" s="268" t="inlineStr">
-        <is>
-          <t>пр.Тепловые двигатели и нагнетатели
-Барбашин А.М.   311</t>
+      <c r="G10" s="91" t="inlineStr">
+        <is>
+          <t>пр.Тепловые двигатели и нагнетатели          Барбашин А.М.   311</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>пр.Тепловые двигатели и нагнетатели
-Барбашин А.М.   311</t>
+          <t>пр.Тепловые двигатели и нагнетатели          Барбашин А.М.   311</t>
         </is>
       </c>
       <c r="I10" s="82" t="inlineStr">
@@ -11704,9 +11701,9 @@
       </c>
       <c r="K10" s="330" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" s="138" t="inlineStr"/>
-      <c r="N10" s="248" t="inlineStr"/>
-      <c r="O10" s="248" t="inlineStr"/>
+      <c r="M10" s="131" t="inlineStr"/>
+      <c r="N10" s="245" t="inlineStr"/>
+      <c r="O10" s="245" t="inlineStr"/>
     </row>
     <row r="11" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A11" t="inlineStr">
@@ -11731,7 +11728,7 @@
 Берестовой  А.А.   017     Z</t>
         </is>
       </c>
-      <c r="E11" s="171" t="inlineStr">
+      <c r="E11" s="144" t="inlineStr">
         <is>
           <t>лаб.Тех. комплексы пищевых производств
 Овсянников В.Ю.   103</t>
@@ -11769,7 +11766,7 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B12" s="176" t="inlineStr">
+      <c r="B12" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
@@ -11786,19 +11783,19 @@
 лаб.ТО ТМО проц.   Антипов С.Т.   102    Z</t>
         </is>
       </c>
-      <c r="E12" s="266" t="inlineStr">
+      <c r="E12" s="128" t="inlineStr">
         <is>
           <t>пр.ТО тепломассообменных процессов
 Ключников А.И.   114</t>
         </is>
       </c>
-      <c r="F12" s="150" t="inlineStr">
+      <c r="F12" s="129" t="inlineStr">
         <is>
           <t>пр.Строительная механика
 Давыдов  О.Ю.   126</t>
         </is>
       </c>
-      <c r="G12" s="338" t="inlineStr">
+      <c r="G12" s="339" t="inlineStr">
         <is>
           <t>пр.Экономика и управление производством
 Цуканова К.А.   16</t>
@@ -11824,9 +11821,9 @@
       </c>
       <c r="K12" s="330" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" s="138" t="inlineStr"/>
-      <c r="N12" s="248" t="inlineStr"/>
-      <c r="O12" s="248" t="inlineStr"/>
+      <c r="M12" s="131" t="inlineStr"/>
+      <c r="N12" s="245" t="inlineStr"/>
+      <c r="O12" s="245" t="inlineStr"/>
     </row>
     <row r="13" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A13" t="inlineStr">
@@ -11851,7 +11848,7 @@
 Берестовой  А.А.   017     Z</t>
         </is>
       </c>
-      <c r="E13" s="171" t="inlineStr">
+      <c r="E13" s="144" t="inlineStr">
         <is>
           <t>лаб.Тех. комплексы пищевых производств
 Овсянников В.Ю.   103</t>
@@ -11899,12 +11896,12 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B14" s="176" t="inlineStr">
+      <c r="B14" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C14" s="209" t="inlineStr">
+      <c r="C14" s="185" t="inlineStr">
         <is>
           <t>л.Холодильная техника               Шаршов В.Н.   125</t>
         </is>
@@ -11919,15 +11916,15 @@
           <t>л.Холодильная техника               Шаршов В.Н.   125</t>
         </is>
       </c>
-      <c r="F14" s="266" t="inlineStr">
+      <c r="F14" s="128" t="inlineStr">
         <is>
           <t>пр.Экономика и управление производством
 Цуканова К.А.   202</t>
         </is>
       </c>
-      <c r="G14" s="268" t="inlineStr"/>
+      <c r="G14" s="91" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" s="381" t="inlineStr">
+      <c r="I14" s="382" t="inlineStr">
         <is>
           <t>л.Расчет и конструирование машин и аппаратов пищевых производств
 Пойманов В.В.   017</t>
@@ -11941,9 +11938,9 @@
       </c>
       <c r="K14" s="330" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" s="138" t="inlineStr"/>
-      <c r="N14" s="248" t="inlineStr"/>
-      <c r="O14" s="248" t="inlineStr">
+      <c r="M14" s="131" t="inlineStr"/>
+      <c r="N14" s="245" t="inlineStr"/>
+      <c r="O14" s="245" t="inlineStr">
         <is>
           <t>л.Основы автоматического централизованного теплоснабжения
 Белозерцев А.С.   311</t>
@@ -11976,22 +11973,20 @@
           <t>л.Холодильная техника               Шаршов В.Н.   125</t>
         </is>
       </c>
-      <c r="F15" s="171" t="inlineStr">
+      <c r="F15" s="144" t="inlineStr">
         <is>
           <t>лаб.Основы авт. проект. и констр. узлов ...
 Литвинов Е.В.   127а</t>
         </is>
       </c>
-      <c r="G15" s="327" t="inlineStr">
-        <is>
-          <t>л.Тепловые двигатели и нагнетатели
-Никель С.А.   311</t>
+      <c r="G15" s="341" t="inlineStr">
+        <is>
+          <t>л.Тепловые двигатели и нагнетатели            Никель С.А.   311</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>л.Тепловые двигатели и нагнетатели
-Никель С.А.   311</t>
+          <t>л.Тепловые двигатели и нагнетатели            Никель С.А.   311</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -12023,18 +12018,18 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B16" s="176" t="inlineStr">
+      <c r="B16" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C16" s="267" t="inlineStr"/>
+      <c r="C16" s="337" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" s="266" t="inlineStr"/>
-      <c r="F16" s="266" t="n"/>
-      <c r="G16" s="338" t="inlineStr"/>
+      <c r="E16" s="128" t="inlineStr"/>
+      <c r="F16" s="128" t="n"/>
+      <c r="G16" s="339" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" s="381" t="inlineStr">
+      <c r="I16" s="382" t="inlineStr">
         <is>
           <t>пр.Системное развитие техники пищевых производств
 Пойманов В.В.   017</t>
@@ -12048,9 +12043,9 @@
       </c>
       <c r="K16" s="330" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" s="138" t="inlineStr"/>
-      <c r="N16" s="248" t="inlineStr"/>
-      <c r="O16" s="248" t="inlineStr">
+      <c r="M16" s="131" t="inlineStr"/>
+      <c r="N16" s="245" t="inlineStr"/>
+      <c r="O16" s="245" t="inlineStr">
         <is>
           <t>пр.Основы автоматического централизованного теплоснабжения
 Белозерцев А.С.   311</t>
@@ -12068,7 +12063,7 @@
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C17" s="277" t="inlineStr">
+      <c r="C17" s="256" t="inlineStr">
         <is>
           <t>л.Техническая механика               Елфимов С.А.   125</t>
         </is>
@@ -12083,7 +12078,7 @@
           <t>л.Техническая механика               Елфимов С.А.   125</t>
         </is>
       </c>
-      <c r="F17" s="171" t="inlineStr">
+      <c r="F17" s="144" t="inlineStr">
         <is>
           <t>лаб.Основы авт. проект. и констр. узлов ...
 Литвинов Е.В.   127а</t>
@@ -12120,24 +12115,24 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B18" s="176" t="inlineStr">
+      <c r="B18" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
       <c r="C18" s="330" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" s="150" t="inlineStr"/>
-      <c r="F18" s="150" t="inlineStr"/>
+      <c r="E18" s="129" t="inlineStr"/>
+      <c r="F18" s="129" t="inlineStr"/>
       <c r="G18" s="330" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" s="381" t="inlineStr"/>
+      <c r="I18" s="382" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" s="330" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" s="138" t="inlineStr"/>
-      <c r="N18" s="248" t="inlineStr"/>
-      <c r="O18" s="248" t="inlineStr"/>
+      <c r="M18" s="131" t="inlineStr"/>
+      <c r="N18" s="245" t="inlineStr"/>
+      <c r="O18" s="245" t="inlineStr"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A19" t="inlineStr">
@@ -12181,13 +12176,13 @@
       <c r="F20" s="333" t="inlineStr"/>
       <c r="G20" s="335" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" s="386" t="inlineStr"/>
+      <c r="I20" s="387" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" s="335" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" s="334" t="inlineStr"/>
-      <c r="N20" s="387" t="inlineStr"/>
-      <c r="O20" s="387" t="inlineStr"/>
+      <c r="N20" s="388" t="inlineStr"/>
+      <c r="O20" s="388" t="inlineStr"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A21" t="inlineStr">
@@ -12220,18 +12215,18 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B22" s="175" t="inlineStr">
+      <c r="B22" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
       <c r="C22" s="330" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" s="170" t="inlineStr"/>
+      <c r="E22" s="143" t="inlineStr"/>
       <c r="F22" s="95" t="inlineStr"/>
       <c r="G22" s="330" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" s="381" t="inlineStr"/>
+      <c r="I22" s="382" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" s="82" t="inlineStr">
         <is>
@@ -12251,8 +12246,8 @@
 Торопцев В.В.   102    Z</t>
         </is>
       </c>
-      <c r="N22" s="246" t="inlineStr"/>
-      <c r="O22" s="246" t="inlineStr"/>
+      <c r="N22" s="249" t="inlineStr"/>
+      <c r="O22" s="249" t="inlineStr"/>
     </row>
     <row r="23" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A23" t="inlineStr">
@@ -12268,7 +12263,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" s="171" t="inlineStr">
+      <c r="F23" s="144" t="inlineStr">
         <is>
           <t>лаб.Композиц. материалы в машиностр.
 Лихачева Л.Б.   Уч.маст    Z</t>
@@ -12290,7 +12285,7 @@
 Торопцев В.В.   102    Z</t>
         </is>
       </c>
-      <c r="M23" s="165" t="inlineStr">
+      <c r="M23" s="150" t="inlineStr">
         <is>
           <t>лаб.Тех. оборудование биотехнол. процессов
 Потапов А.И.   103     Z</t>
@@ -12305,16 +12300,16 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B24" s="176" t="inlineStr">
+      <c r="B24" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
       <c r="C24" s="330" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" s="150" t="inlineStr"/>
-      <c r="F24" s="266" t="inlineStr"/>
-      <c r="G24" s="338" t="inlineStr">
+      <c r="E24" s="129" t="inlineStr"/>
+      <c r="F24" s="128" t="inlineStr"/>
+      <c r="G24" s="339" t="inlineStr">
         <is>
           <t>л.Котельные установки и парогенераторы
 Белозерцев А.С.   311</t>
@@ -12350,19 +12345,19 @@
 Потапов А.И.   103    Z</t>
         </is>
       </c>
-      <c r="M24" s="268" t="inlineStr">
+      <c r="M24" s="91" t="inlineStr">
         <is>
           <t>лаб.Тех. оборудование для фасовки ...
 Торопцев В.В.   102    Z</t>
         </is>
       </c>
-      <c r="N24" s="248" t="inlineStr">
+      <c r="N24" s="245" t="inlineStr">
         <is>
           <t>л.Программные системы инженерного анализа механических систем
 Васечкин М.А.   124</t>
         </is>
       </c>
-      <c r="O24" s="248" t="inlineStr">
+      <c r="O24" s="245" t="inlineStr">
         <is>
           <t>л.Основы автоматического централизованного теплоснабжения
 Белозерцев А.С.   311</t>
@@ -12383,7 +12378,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" s="171" t="inlineStr">
+      <c r="F25" s="144" t="inlineStr">
         <is>
           <t>лаб.Композиц. материалы в машиностр.
 Лихачева Л.Б.   Уч.маст    Z</t>
@@ -12401,7 +12396,7 @@
 Белозерцев А.С.   311</t>
         </is>
       </c>
-      <c r="I25" s="393" t="inlineStr">
+      <c r="I25" s="394" t="inlineStr">
         <is>
           <t>л.Техника пищевых производств малых предприятий
 Овсянников В.Ю.   017</t>
@@ -12425,7 +12420,7 @@
 Торопцев В.В.   102    Z</t>
         </is>
       </c>
-      <c r="M25" s="165" t="inlineStr">
+      <c r="M25" s="150" t="inlineStr">
         <is>
           <t>лаб.Тех. оборудование биотехнол. процессов
 Потапов А.И.   103     Z</t>
@@ -12450,25 +12445,25 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B26" s="176" t="inlineStr">
+      <c r="B26" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
       <c r="C26" s="330" t="n"/>
-      <c r="E26" s="266" t="inlineStr">
+      <c r="E26" s="128" t="inlineStr">
         <is>
           <t>пр.Основы проектирования
 Прибытков А.В.   103</t>
         </is>
       </c>
-      <c r="F26" s="150" t="inlineStr">
+      <c r="F26" s="129" t="inlineStr">
         <is>
           <t>л.Композиц. материалы в машиностроении
 Лихачева Л.Б.   124</t>
         </is>
       </c>
-      <c r="G26" s="268" t="inlineStr">
+      <c r="G26" s="91" t="inlineStr">
         <is>
           <t>пр.Термовлажн. и низкотемп. тех. процессы и установки
 Белозерцев А.С.   311</t>
@@ -12494,14 +12489,14 @@
       </c>
       <c r="K26" s="330" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" s="268" t="inlineStr"/>
-      <c r="N26" s="248" t="inlineStr">
+      <c r="M26" s="91" t="inlineStr"/>
+      <c r="N26" s="245" t="inlineStr">
         <is>
           <t>лаб.Программные системы инженерного анализа механических систем
 Васечкин М.А.   127а</t>
         </is>
       </c>
-      <c r="O26" s="248" t="inlineStr">
+      <c r="O26" s="245" t="inlineStr">
         <is>
           <t>пр.Основы автоматического централизованного теплоснабжения
 Белозерцев А.С.   311</t>
@@ -12519,7 +12514,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="E27" s="171" t="inlineStr">
+      <c r="E27" s="144" t="inlineStr">
         <is>
           <t>пр.Тех. об. мех. и гидромех. процессов
 Сухарев И.Н.   114</t>
@@ -12531,7 +12526,7 @@
 Лихачева Л.Б.   124</t>
         </is>
       </c>
-      <c r="G27" s="394" t="inlineStr">
+      <c r="G27" s="395" t="inlineStr">
         <is>
           <t>пр.Основы трансфо. теплоты, системы кондиц. и вентиляции
 Белозерцев А.С.   311</t>
@@ -12543,7 +12538,7 @@
 Белозерцев А.С.   311</t>
         </is>
       </c>
-      <c r="I27" s="366" t="inlineStr">
+      <c r="I27" s="367" t="inlineStr">
         <is>
           <t>л.Техника пищевых производств малых предприятий
 Овсянников В.Ю.   017</t>
@@ -12557,7 +12552,7 @@
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" s="165" t="inlineStr">
+      <c r="M27" s="150" t="inlineStr">
         <is>
           <t>лаб.Монтаж, эксплуатация и ремонт оборуд.
 Никитина С.Ю.   103     Z</t>
@@ -12582,12 +12577,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B28" s="176" t="inlineStr">
+      <c r="B28" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C28" s="155" t="inlineStr">
+      <c r="C28" s="178" t="inlineStr">
         <is>
           <t>л.Основы проектирования        Прибытков А.В.   125</t>
         </is>
@@ -12602,13 +12597,13 @@
           <t>л.Основы проектирования        Прибытков А.В.   125</t>
         </is>
       </c>
-      <c r="F28" s="266" t="inlineStr">
+      <c r="F28" s="128" t="inlineStr">
         <is>
           <t>пр.Численные методы в механике
 Васечкин М.А.   127а</t>
         </is>
       </c>
-      <c r="G28" s="268" t="inlineStr">
+      <c r="G28" s="340" t="inlineStr">
         <is>
           <t>л.Тепломассообмен        Лавров С.В.   333</t>
         </is>
@@ -12618,7 +12613,7 @@
           <t>л.Тепломассообмен        Лавров С.В.   333</t>
         </is>
       </c>
-      <c r="I28" s="381" t="inlineStr">
+      <c r="I28" s="382" t="inlineStr">
         <is>
           <t>л.Технологическое оборудование механических и гидромеханических процессов
 Дранников А.В.   114</t>
@@ -12632,9 +12627,9 @@
       </c>
       <c r="K28" s="330" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" s="268" t="inlineStr"/>
-      <c r="N28" s="248" t="inlineStr"/>
-      <c r="O28" s="248" t="inlineStr">
+      <c r="M28" s="91" t="inlineStr"/>
+      <c r="N28" s="245" t="inlineStr"/>
+      <c r="O28" s="245" t="inlineStr">
         <is>
           <t>пр.Ремонт, монтаж и эксплуатация теплоэнергетического оборудования
 Белозерцев А.С.   311</t>
@@ -12652,7 +12647,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C29" s="275" t="inlineStr">
+      <c r="C29" s="256" t="inlineStr">
         <is>
           <t>л.Технологические комплексы пищевых производств        Овсянников В.Ю.   125</t>
         </is>
@@ -12667,7 +12662,7 @@
           <t>л.Технологические комплексы пищевых производств        Овсянников В.Ю.   125</t>
         </is>
       </c>
-      <c r="F29" s="171" t="inlineStr">
+      <c r="F29" s="144" t="inlineStr">
         <is>
           <t>л.Численные методы в механике
 Васечкин М.А.   133</t>
@@ -12697,7 +12692,7 @@
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" s="165" t="inlineStr">
+      <c r="M29" s="150" t="inlineStr">
         <is>
           <t>лаб.Монтаж, эксплуатация и ремонт оборуд.
 Никитина С.Ю.   103     Z</t>
@@ -12717,25 +12712,23 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B30" s="176" t="inlineStr">
+      <c r="B30" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C30" s="267" t="inlineStr">
-        <is>
-          <t>пр.Основы проектирования
-Прибытков А.В.   114</t>
+      <c r="C30" s="337" t="inlineStr">
+        <is>
+          <t>пр.Основы проектирования            Прибытков А.В.   114</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>пр.Основы проектирования
-Прибытков А.В.   114</t>
-        </is>
-      </c>
-      <c r="E30" s="150" t="inlineStr"/>
-      <c r="F30" s="266" t="inlineStr">
+          <t>пр.Основы проектирования            Прибытков А.В.   114</t>
+        </is>
+      </c>
+      <c r="E30" s="129" t="inlineStr"/>
+      <c r="F30" s="128" t="inlineStr">
         <is>
           <t>лаб.Численные методы в механике
 Васечкин М.А.   127а</t>
@@ -12746,9 +12739,9 @@
       <c r="I30" s="87" t="n"/>
       <c r="K30" s="330" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" s="138" t="inlineStr"/>
-      <c r="N30" s="248" t="n"/>
-      <c r="O30" s="248" t="inlineStr"/>
+      <c r="M30" s="131" t="inlineStr"/>
+      <c r="N30" s="245" t="n"/>
+      <c r="O30" s="245" t="inlineStr"/>
     </row>
     <row r="31" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A31" t="inlineStr">
@@ -12761,7 +12754,7 @@
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C31" s="395" t="inlineStr">
+      <c r="C31" s="396" t="inlineStr">
         <is>
           <t>пр.Технологическое оборудование тепломассообменных процессов
 Ключников А.И.   114</t>
@@ -12774,10 +12767,10 @@
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" s="171" t="inlineStr"/>
+      <c r="F31" s="144" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" s="366" t="inlineStr">
+      <c r="I31" s="367" t="inlineStr">
         <is>
           <t>пр.Расчет и констр. машин и аппаратов пищ. производств
 Юрова И.С.   103</t>
@@ -12800,24 +12793,24 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B32" s="176" t="inlineStr">
+      <c r="B32" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
       <c r="C32" s="330" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" s="150" t="inlineStr"/>
-      <c r="F32" s="150" t="inlineStr"/>
+      <c r="E32" s="129" t="inlineStr"/>
+      <c r="F32" s="129" t="inlineStr"/>
       <c r="G32" s="330" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" s="381" t="inlineStr"/>
+      <c r="I32" s="382" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" s="330" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" s="138" t="inlineStr"/>
-      <c r="N32" s="248" t="inlineStr"/>
-      <c r="O32" s="248" t="inlineStr"/>
+      <c r="M32" s="131" t="inlineStr"/>
+      <c r="N32" s="245" t="inlineStr"/>
+      <c r="O32" s="245" t="inlineStr"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A33" t="inlineStr">
@@ -12861,13 +12854,13 @@
       <c r="F34" s="333" t="inlineStr"/>
       <c r="G34" s="335" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" s="386" t="inlineStr"/>
+      <c r="I34" s="387" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" s="335" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" s="334" t="inlineStr"/>
-      <c r="N34" s="387" t="inlineStr"/>
-      <c r="O34" s="387" t="inlineStr"/>
+      <c r="N34" s="388" t="inlineStr"/>
+      <c r="O34" s="388" t="inlineStr"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A35" t="inlineStr">
@@ -12900,24 +12893,24 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B36" s="175" t="inlineStr">
+      <c r="B36" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
       <c r="C36" s="330" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" s="170" t="inlineStr"/>
-      <c r="F36" s="170" t="inlineStr"/>
+      <c r="E36" s="143" t="inlineStr"/>
+      <c r="F36" s="143" t="inlineStr"/>
       <c r="G36" s="330" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" s="381" t="inlineStr"/>
+      <c r="I36" s="382" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" s="330" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" s="153" t="inlineStr"/>
-      <c r="N36" s="246" t="inlineStr"/>
-      <c r="O36" s="246" t="inlineStr"/>
+      <c r="M36" s="149" t="inlineStr"/>
+      <c r="N36" s="249" t="inlineStr"/>
+      <c r="O36" s="249" t="inlineStr"/>
     </row>
     <row r="37" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A37" t="inlineStr">
@@ -12950,20 +12943,20 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B38" s="176" t="inlineStr">
+      <c r="B38" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
       <c r="C38" s="330" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" s="266" t="inlineStr">
+      <c r="E38" s="128" t="inlineStr">
         <is>
           <t>лаб.Техническая механика
 Елфимов С.А.   127а     Z</t>
         </is>
       </c>
-      <c r="F38" s="150" t="inlineStr">
+      <c r="F38" s="129" t="inlineStr">
         <is>
           <t>л.Метрология и стандартизация
 Клейменова Н.Л.   5-27</t>
@@ -12971,7 +12964,7 @@
       </c>
       <c r="G38" s="330" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" s="381" t="inlineStr">
+      <c r="I38" s="382" t="inlineStr">
         <is>
           <t>л.Тех. оборудование тепломассообменных процессов
 Антипов С.Т.   102</t>
@@ -12985,19 +12978,19 @@
       </c>
       <c r="K38" s="330" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" s="138" t="inlineStr">
+      <c r="M38" s="131" t="inlineStr">
         <is>
           <t>пр.Расчет и конструирование машин и аппаратов пищевых производств
 Юрова И.С.   114</t>
         </is>
       </c>
-      <c r="N38" s="248" t="inlineStr">
+      <c r="N38" s="245" t="inlineStr">
         <is>
           <t>пр.Вычислительная механика
 Васечкин М.А.   127</t>
         </is>
       </c>
-      <c r="O38" s="248" t="inlineStr">
+      <c r="O38" s="245" t="inlineStr">
         <is>
           <t>л.Ремонт, монтаж и эксплуатация теплоэнергетического оборудования
 Белозерцев А.С.   311</t>
@@ -13017,7 +13010,7 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" s="171" t="inlineStr"/>
+      <c r="E39" s="144" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
           <t>л.Метрология и стандартизация
@@ -13065,20 +13058,20 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B40" s="176" t="inlineStr">
+      <c r="B40" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
       <c r="C40" s="330" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" s="266" t="inlineStr">
+      <c r="E40" s="128" t="inlineStr">
         <is>
           <t>лаб.Техническая механика
 Елфимов С.А.   127а     Z</t>
         </is>
       </c>
-      <c r="F40" s="150" t="inlineStr">
+      <c r="F40" s="129" t="inlineStr">
         <is>
           <t>лаб.Метрология и стандартизация
 Клейменова Н.Л.   5-27</t>
@@ -13110,7 +13103,7 @@
 Юрова И.С.   114</t>
         </is>
       </c>
-      <c r="M40" s="138" t="inlineStr">
+      <c r="M40" s="131" t="inlineStr">
         <is>
           <t>пр.Экономика и управление производством
 Цуканова К.А.   14</t>
@@ -13122,7 +13115,7 @@
 Васечкин М.А.   127</t>
         </is>
       </c>
-      <c r="O40" s="248" t="inlineStr">
+      <c r="O40" s="245" t="inlineStr">
         <is>
           <t>л.Ремонт, монтаж и эксплуатация теплоэнергетического оборудования
 Белозерцев А.С.   311</t>
@@ -13142,7 +13135,7 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" s="171" t="inlineStr">
+      <c r="E41" s="144" t="inlineStr">
         <is>
           <t>лаб.Тех. об. тепломассообм. процессов
 Антипов С.Т.   102     Z</t>
@@ -13156,16 +13149,14 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" s="393" t="inlineStr">
-        <is>
-          <t>л.Теория технологического потока
-Назаров С.А.   017</t>
+      <c r="I41" s="394" t="inlineStr">
+        <is>
+          <t>л.Теория технологического потока        Назаров С.А.   017</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>л.Теория технологического потока
-Назаров С.А.   017</t>
+          <t>л.Теория технологического потока        Назаров С.А.   017</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -13186,7 +13177,7 @@
 Цуканова К.А.   14</t>
         </is>
       </c>
-      <c r="N41" s="247" t="inlineStr">
+      <c r="N41" s="250" t="inlineStr">
         <is>
           <t>лаб.Прогр. системы инж. анализа мех. систем
 Васечкин М.А.   127а</t>
@@ -13205,12 +13196,12 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B42" s="176" t="inlineStr">
+      <c r="B42" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C42" s="270" t="inlineStr">
+      <c r="C42" s="258" t="inlineStr">
         <is>
           <t>л.Технологическое оборудование механических и гидромеханических процессов           Дранников А.В.   125</t>
         </is>
@@ -13225,13 +13216,13 @@
           <t>л.Технологическое оборудование механических и гидромеханических процессов           Дранников А.В.   125</t>
         </is>
       </c>
-      <c r="F42" s="150" t="inlineStr">
+      <c r="F42" s="129" t="inlineStr">
         <is>
           <t>пр.Теория упругости
 Егоров В.Г.   133</t>
         </is>
       </c>
-      <c r="G42" s="338" t="inlineStr">
+      <c r="G42" s="339" t="inlineStr">
         <is>
           <t>пр.Котельные установки и парогенераторы
 Белозерцев А.С.   311</t>
@@ -13255,7 +13246,7 @@
 Торопцев В.В.   103    Z</t>
         </is>
       </c>
-      <c r="K42" s="267" t="inlineStr">
+      <c r="K42" s="312" t="inlineStr">
         <is>
           <t>л.Экономика и управление производством             Стукало О.Г.   2</t>
         </is>
@@ -13270,13 +13261,13 @@
           <t>л.Экономика и управление производством             Стукало О.Г.   2</t>
         </is>
       </c>
-      <c r="N42" s="248" t="inlineStr">
+      <c r="N42" s="245" t="inlineStr">
         <is>
           <t>лаб.Программные системы инженерного анализа механических систем
 Васечкин М.А.   127а</t>
         </is>
       </c>
-      <c r="O42" s="248" t="inlineStr">
+      <c r="O42" s="245" t="inlineStr">
         <is>
           <t>пр.Ремонт, монтаж и эксплуатация теплоэнергетического оборудования
 Белозерцев А.С.   311</t>
@@ -13306,7 +13297,7 @@
 Торопцев В.В.   103      Z</t>
         </is>
       </c>
-      <c r="E43" s="171" t="inlineStr">
+      <c r="E43" s="144" t="inlineStr">
         <is>
           <t>лаб.Тех. об. тепломассообм. процессов
 Антипов С.Т.   102     Z</t>
@@ -13342,7 +13333,7 @@
 Рязанов А.Н.   017    Z</t>
         </is>
       </c>
-      <c r="K43" s="251" t="inlineStr">
+      <c r="K43" s="314" t="inlineStr">
         <is>
           <t>л.Расчет и конструирование машин и аппаратов пищевых производств            Напольских М.С.   125</t>
         </is>
@@ -13376,12 +13367,12 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B44" s="176" t="inlineStr">
+      <c r="B44" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C44" s="206" t="inlineStr">
+      <c r="C44" s="178" t="inlineStr">
         <is>
           <t>л.Теория технологического потока             Назаров С.А.   125</t>
         </is>
@@ -13396,13 +13387,13 @@
           <t>л.Теория технологического потока             Назаров С.А.   125</t>
         </is>
       </c>
-      <c r="F44" s="266" t="inlineStr">
+      <c r="F44" s="128" t="inlineStr">
         <is>
           <t>л.Теория упругости
 Егоров В.Г.   133</t>
         </is>
       </c>
-      <c r="G44" s="268" t="inlineStr">
+      <c r="G44" s="91" t="inlineStr">
         <is>
           <t>л.Термовлажн. и низкотемп. тех. процессы и установки
 Белозерцев А.С.   311</t>
@@ -13438,9 +13429,9 @@
 Цуканова К.А.   202</t>
         </is>
       </c>
-      <c r="M44" s="138" t="inlineStr"/>
-      <c r="N44" s="248" t="inlineStr"/>
-      <c r="O44" s="248" t="inlineStr"/>
+      <c r="M44" s="131" t="inlineStr"/>
+      <c r="N44" s="245" t="inlineStr"/>
+      <c r="O44" s="245" t="inlineStr"/>
     </row>
     <row r="45" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A45" t="inlineStr">
@@ -13465,8 +13456,8 @@
 Торопцев В.В.   103      Z</t>
         </is>
       </c>
-      <c r="E45" s="171" t="inlineStr"/>
-      <c r="F45" s="272" t="inlineStr">
+      <c r="E45" s="144" t="inlineStr"/>
+      <c r="F45" s="257" t="inlineStr">
         <is>
           <t>л.Экономика и управление производством          Стукало О.Г.   2</t>
         </is>
@@ -13515,24 +13506,24 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B46" s="176" t="inlineStr">
+      <c r="B46" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
       <c r="C46" s="330" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" s="150" t="inlineStr"/>
-      <c r="F46" s="150" t="inlineStr"/>
+      <c r="E46" s="129" t="inlineStr"/>
+      <c r="F46" s="129" t="inlineStr"/>
       <c r="G46" s="330" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" s="381" t="inlineStr"/>
+      <c r="I46" s="382" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" s="330" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" s="138" t="inlineStr"/>
-      <c r="N46" s="248" t="inlineStr"/>
-      <c r="O46" s="248" t="inlineStr"/>
+      <c r="M46" s="131" t="inlineStr"/>
+      <c r="N46" s="245" t="inlineStr"/>
+      <c r="O46" s="245" t="inlineStr"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A47" t="inlineStr">
@@ -13576,13 +13567,13 @@
       <c r="F48" s="333" t="inlineStr"/>
       <c r="G48" s="335" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" s="386" t="inlineStr"/>
+      <c r="I48" s="387" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" s="335" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" s="334" t="inlineStr"/>
-      <c r="N48" s="387" t="inlineStr"/>
-      <c r="O48" s="387" t="inlineStr"/>
+      <c r="N48" s="388" t="inlineStr"/>
+      <c r="O48" s="388" t="inlineStr"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A49" t="inlineStr">
@@ -13615,20 +13606,20 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B50" s="175" t="inlineStr">
+      <c r="B50" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
       <c r="C50" s="330" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" s="170" t="inlineStr"/>
-      <c r="F50" s="170" t="inlineStr"/>
+      <c r="E50" s="143" t="inlineStr"/>
+      <c r="F50" s="143" t="inlineStr"/>
       <c r="G50" s="330" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" s="381" t="inlineStr"/>
+      <c r="I50" s="382" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" s="396" t="inlineStr">
+      <c r="K50" s="397" t="inlineStr">
         <is>
           <t>пр.Монтаж, эксплуатация и ремонт оборудования
 Никитина С.Ю.   114</t>
@@ -13640,14 +13631,14 @@
 Никитина С.Ю.   114</t>
         </is>
       </c>
-      <c r="M50" s="153" t="inlineStr"/>
-      <c r="N50" s="246" t="inlineStr">
+      <c r="M50" s="149" t="inlineStr"/>
+      <c r="N50" s="249" t="inlineStr">
         <is>
           <t>л.Основы теории устойчивости мех. систем
 Невструев Ю.А.   126</t>
         </is>
       </c>
-      <c r="O50" s="246" t="inlineStr"/>
+      <c r="O50" s="249" t="inlineStr"/>
     </row>
     <row r="51" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A51" t="inlineStr">
@@ -13668,7 +13659,7 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" s="395" t="inlineStr">
+      <c r="K51" s="396" t="inlineStr">
         <is>
           <t>пр.Техника пищевых производств малых предприятий
 Никитина С.Ю.   114</t>
@@ -13695,12 +13686,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B52" s="176" t="inlineStr">
+      <c r="B52" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C52" s="267" t="inlineStr">
+      <c r="C52" s="337" t="inlineStr">
         <is>
           <t>пр.Системное развитие техники пищевых производств
 Пойманов В.В.   114</t>
@@ -13712,27 +13703,25 @@
 Пойманов В.В.   114</t>
         </is>
       </c>
-      <c r="E52" s="266" t="inlineStr"/>
-      <c r="F52" s="266" t="inlineStr">
+      <c r="E52" s="128" t="inlineStr"/>
+      <c r="F52" s="128" t="inlineStr">
         <is>
           <t>л.Основы авт. проект. и констр. узлов ...
 Литвинов Е.В.   133</t>
         </is>
       </c>
-      <c r="G52" s="268" t="inlineStr">
-        <is>
-          <t>л.Основы электротехники и электроники
-Никель С.А.   333</t>
+      <c r="G52" s="91" t="inlineStr">
+        <is>
+          <t>л.Основы электротехники и электроники          Никель С.А.   333</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>л.Основы электротехники и электроники
-Никель С.А.   333</t>
-        </is>
-      </c>
-      <c r="I52" s="381" t="n"/>
-      <c r="K52" s="267" t="inlineStr">
+          <t>л.Основы электротехники и электроники          Никель С.А.   333</t>
+        </is>
+      </c>
+      <c r="I52" s="382" t="n"/>
+      <c r="K52" s="312" t="inlineStr">
         <is>
           <t>л.Монтаж, эксплуатация и ремонт оборудования               Никитина С.Ю.   125</t>
         </is>
@@ -13747,13 +13736,13 @@
           <t>л.Монтаж, эксплуатация и ремонт оборудования               Никитина С.Ю.   125</t>
         </is>
       </c>
-      <c r="N52" s="248" t="inlineStr">
+      <c r="N52" s="245" t="inlineStr">
         <is>
           <t>пр.Основы теории устойчивости механических систем
 Невструев Ю.А.   126</t>
         </is>
       </c>
-      <c r="O52" s="248" t="inlineStr">
+      <c r="O52" s="245" t="inlineStr">
         <is>
           <t>л.САПР в теплоэнергетике и теплотехнике
 Лавров С.В.   311</t>
@@ -13771,7 +13760,7 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C53" s="337" t="inlineStr">
+      <c r="C53" s="338" t="inlineStr">
         <is>
           <t>пр.Холодильная техника          Берестовой  А.А.   017</t>
         </is>
@@ -13781,16 +13770,16 @@
           <t>пр.Холодильная техника          Берестовой  А.А.   017</t>
         </is>
       </c>
-      <c r="E53" s="171" t="inlineStr">
+      <c r="E53" s="144" t="inlineStr">
         <is>
           <t>пр.Теория технологического потока
 Назаров С.А.   114</t>
         </is>
       </c>
-      <c r="F53" s="171" t="n"/>
+      <c r="F53" s="144" t="n"/>
       <c r="G53" s="327" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="K53" s="251" t="inlineStr">
+      <c r="K53" s="314" t="inlineStr">
         <is>
           <t>л.Техника пищевых производств малых предприятий              Никитина С.Ю.   125</t>
         </is>
@@ -13824,12 +13813,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B54" s="176" t="inlineStr">
+      <c r="B54" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C54" s="259" t="inlineStr">
+      <c r="C54" s="267" t="inlineStr">
         <is>
           <t>л.Технологическое оборудование тепломассообменных процессов
 Антипов С.Т.   102</t>
@@ -13847,13 +13836,13 @@
 Антипов С.Т.   102</t>
         </is>
       </c>
-      <c r="F54" s="150" t="inlineStr">
+      <c r="F54" s="129" t="inlineStr">
         <is>
           <t>пр.Основы автоматизированного проектир. и конструирования узлов механических систем
 Литвинов Е.В.   133</t>
         </is>
       </c>
-      <c r="G54" s="338" t="inlineStr">
+      <c r="G54" s="339" t="inlineStr">
         <is>
           <t>пр.Основы электротехники и электроники
 Никель С.А.   333</t>
@@ -13865,7 +13854,7 @@
 Никель С.А.   333</t>
         </is>
       </c>
-      <c r="I54" s="381" t="n"/>
+      <c r="I54" s="382" t="n"/>
       <c r="K54" s="82" t="inlineStr">
         <is>
           <t>лаб.Расчет и констр. МАПП
@@ -13878,14 +13867,14 @@
 Напольских М.С.   103   Z</t>
         </is>
       </c>
-      <c r="M54" s="268" t="inlineStr">
+      <c r="M54" s="91" t="inlineStr">
         <is>
           <t>лаб.Техника пищ. производств малых предпр.
 Никитина С.Ю.   114</t>
         </is>
       </c>
       <c r="N54" s="87" t="inlineStr"/>
-      <c r="O54" s="248" t="inlineStr">
+      <c r="O54" s="245" t="inlineStr">
         <is>
           <t>л.САПР в теплоэнергетике и теплотехнике
 Лавров С.В.   311</t>
@@ -13951,13 +13940,13 @@
 Никитина С.Ю.   114    Z</t>
         </is>
       </c>
-      <c r="M55" s="165" t="inlineStr">
+      <c r="M55" s="150" t="inlineStr">
         <is>
           <t>лаб.Расчет и конструирование МАПП
 Напольских М.С.   103   Z</t>
         </is>
       </c>
-      <c r="N55" s="247" t="inlineStr">
+      <c r="N55" s="250" t="inlineStr">
         <is>
           <t>пр.Основы теории устойчивости мех. систем
 Невструев Ю.А.   126</t>
@@ -13976,12 +13965,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B56" s="176" t="inlineStr">
+      <c r="B56" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C56" s="142" t="inlineStr">
+      <c r="C56" s="137" t="inlineStr">
         <is>
           <t>Элективные дисциплины (курсы) по физической культуре и спорту,    общая физическая подготовка</t>
         </is>
@@ -14035,14 +14024,14 @@
 Напольских М.С.   103   Z</t>
         </is>
       </c>
-      <c r="M56" s="268" t="inlineStr">
+      <c r="M56" s="91" t="inlineStr">
         <is>
           <t>лаб.Техника пищ. производств малых предпр.
 Никитина С.Ю.   102</t>
         </is>
       </c>
-      <c r="N56" s="248" t="inlineStr"/>
-      <c r="O56" s="248" t="inlineStr">
+      <c r="N56" s="245" t="inlineStr"/>
+      <c r="O56" s="245" t="inlineStr">
         <is>
           <t>лаб.САПР в теплоэнергетике и теплотехнике
 Лавров С.В.   311</t>
@@ -14090,7 +14079,7 @@
           <t>Элективные дисциплины (курсы) по физической культуре и спорту,    общая физическая подготовка</t>
         </is>
       </c>
-      <c r="I57" s="366" t="inlineStr">
+      <c r="I57" s="367" t="inlineStr">
         <is>
           <t>л.Системное развитие техники пищевых производств
 Пойманов В.В.   114</t>
@@ -14114,7 +14103,7 @@
 Никитина С.Ю.   102    Z</t>
         </is>
       </c>
-      <c r="M57" s="165" t="inlineStr">
+      <c r="M57" s="150" t="inlineStr">
         <is>
           <t>лаб.Расчет и конструирование МАПП
 Напольских М.С.   103   Z</t>
@@ -14134,18 +14123,18 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B58" s="176" t="inlineStr">
+      <c r="B58" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
       <c r="C58" s="330" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" s="150" t="inlineStr"/>
-      <c r="F58" s="150" t="inlineStr"/>
+      <c r="E58" s="129" t="inlineStr"/>
+      <c r="F58" s="129" t="inlineStr"/>
       <c r="G58" s="330" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" s="381" t="inlineStr">
+      <c r="I58" s="382" t="inlineStr">
         <is>
           <t>л.Технология конструир. пищевых машин и автоматов
 Прибытков А.В.   114</t>
@@ -14159,9 +14148,9 @@
       </c>
       <c r="K58" s="330" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" s="138" t="inlineStr"/>
-      <c r="N58" s="248" t="n"/>
-      <c r="O58" s="248" t="inlineStr">
+      <c r="M58" s="131" t="inlineStr"/>
+      <c r="N58" s="245" t="n"/>
+      <c r="O58" s="245" t="inlineStr">
         <is>
           <t>лаб.САПР в теплоэнергетике и теплотехнике
 Лавров С.В.   311</t>
@@ -14213,24 +14202,24 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B60" s="176" t="inlineStr">
+      <c r="B60" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
       <c r="C60" s="330" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" s="150" t="inlineStr"/>
-      <c r="F60" s="150" t="inlineStr"/>
+      <c r="E60" s="129" t="inlineStr"/>
+      <c r="F60" s="129" t="inlineStr"/>
       <c r="G60" s="330" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" s="381" t="inlineStr"/>
+      <c r="I60" s="382" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" s="330" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" s="138" t="inlineStr"/>
-      <c r="N60" s="248" t="inlineStr"/>
-      <c r="O60" s="248" t="inlineStr"/>
+      <c r="M60" s="131" t="inlineStr"/>
+      <c r="N60" s="245" t="inlineStr"/>
+      <c r="O60" s="245" t="inlineStr"/>
     </row>
     <row r="61" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A61" t="inlineStr">
@@ -14274,13 +14263,13 @@
       <c r="F62" s="333" t="inlineStr"/>
       <c r="G62" s="335" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" s="386" t="inlineStr"/>
+      <c r="I62" s="387" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" s="335" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" s="334" t="inlineStr"/>
-      <c r="N62" s="387" t="inlineStr"/>
-      <c r="O62" s="387" t="inlineStr"/>
+      <c r="N62" s="388" t="inlineStr"/>
+      <c r="O62" s="388" t="inlineStr"/>
     </row>
     <row r="63" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A63" t="inlineStr">
@@ -14313,7 +14302,7 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B64" s="175" t="inlineStr">
+      <c r="B64" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
@@ -14326,7 +14315,7 @@
 Торопцев В.В.   103    Z</t>
         </is>
       </c>
-      <c r="F64" s="170" t="inlineStr"/>
+      <c r="F64" s="143" t="inlineStr"/>
       <c r="G64" s="82" t="inlineStr">
         <is>
           <t>лаб.Основы трансф. теплоты...
@@ -14334,9 +14323,9 @@
         </is>
       </c>
       <c r="H64" s="83" t="n"/>
-      <c r="I64" s="381" t="inlineStr"/>
+      <c r="I64" s="382" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" s="396" t="inlineStr">
+      <c r="K64" s="397" t="inlineStr">
         <is>
           <t>пр.Тех. оборудование биотехнологических процессов
 Потапов А.И.   114</t>
@@ -14360,7 +14349,7 @@
 Власова Л.А.   6-37</t>
         </is>
       </c>
-      <c r="O64" s="246" t="inlineStr"/>
+      <c r="O64" s="249" t="inlineStr"/>
     </row>
     <row r="65" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A65" t="inlineStr">
@@ -14375,7 +14364,7 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" s="171" t="inlineStr">
+      <c r="E65" s="144" t="inlineStr">
         <is>
           <t>лаб.Холодильная техника
 Берестовой  А.А.   017     Z</t>
@@ -14391,7 +14380,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" s="337" t="inlineStr">
+      <c r="K65" s="338" t="inlineStr">
         <is>
           <t>пр.Тех. оборудование для фасовки и упаковки продукции
 Торопцев В.В.   114</t>
@@ -14403,13 +14392,13 @@
 Торопцев В.В.   114</t>
         </is>
       </c>
-      <c r="M65" s="165" t="inlineStr">
+      <c r="M65" s="150" t="inlineStr">
         <is>
           <t>пр.Монтаж, эксплуатация и ремонт оборуд.
 Никитина С.Ю.   102</t>
         </is>
       </c>
-      <c r="N65" s="247" t="inlineStr"/>
+      <c r="N65" s="250" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
     </row>
     <row r="66" ht="33" customHeight="1" s="51">
@@ -14418,12 +14407,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B66" s="176" t="inlineStr">
+      <c r="B66" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C66" s="267" t="inlineStr">
+      <c r="C66" s="337" t="inlineStr">
         <is>
           <t>пр.Тех. оборудование механических и гидромех. процессов
 Берестовой  А.А.   114</t>
@@ -14435,13 +14424,13 @@
 Берестовой  А.А.   114</t>
         </is>
       </c>
-      <c r="E66" s="266" t="inlineStr">
+      <c r="E66" s="128" t="inlineStr">
         <is>
           <t>лаб.Тех. об. мех. и гидромех. процессов
 Торопцев В.В.   103    Z</t>
         </is>
       </c>
-      <c r="F66" s="150" t="inlineStr"/>
+      <c r="F66" s="129" t="inlineStr"/>
       <c r="G66" s="82" t="inlineStr">
         <is>
           <t>лаб.Основы трансф. теплоты...
@@ -14461,7 +14450,7 @@
 Пойманов В.В.   017</t>
         </is>
       </c>
-      <c r="K66" s="267" t="inlineStr">
+      <c r="K66" s="312" t="inlineStr">
         <is>
           <t>л.Технологическое оборудование биотехнологических процессов            Потапов А.И.   125</t>
         </is>
@@ -14482,7 +14471,7 @@
 Власова Л.А.   6-37</t>
         </is>
       </c>
-      <c r="O66" s="248" t="inlineStr">
+      <c r="O66" s="245" t="inlineStr">
         <is>
           <t>пр.САПР в теплоэнергетике и теплотехнике
 Лавров С.В.   311</t>
@@ -14500,19 +14489,17 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C67" s="337" t="inlineStr">
-        <is>
-          <t>пр.Теория технологического потока
-Назаров С.А.   114</t>
+      <c r="C67" s="338" t="inlineStr">
+        <is>
+          <t>пр.Теория технологического потока            Назаров С.А.   114</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>пр.Теория технологического потока
-Назаров С.А.   114</t>
-        </is>
-      </c>
-      <c r="E67" s="171" t="inlineStr">
+          <t>пр.Теория технологического потока            Назаров С.А.   114</t>
+        </is>
+      </c>
+      <c r="E67" s="144" t="inlineStr">
         <is>
           <t>лаб.Холодильная техника
 Берестовой  А.А.   017     Z</t>
@@ -14526,8 +14513,8 @@
 Белозерцев А.С.   311</t>
         </is>
       </c>
-      <c r="I67" s="366" t="n"/>
-      <c r="K67" s="251" t="inlineStr">
+      <c r="I67" s="367" t="n"/>
+      <c r="K67" s="314" t="inlineStr">
         <is>
           <t>л.Технологическое оборудование для фасовки и упаковки продукции           Торопцев В.В.   125</t>
         </is>
@@ -14542,7 +14529,7 @@
           <t>л.Технологическое оборудование для фасовки и упаковки продукции           Торопцев В.В.   125</t>
         </is>
       </c>
-      <c r="N67" s="247" t="inlineStr">
+      <c r="N67" s="250" t="inlineStr">
         <is>
           <t>л.Безопасность жизнедеятельности
 Зуева С.Б.   6-37</t>
@@ -14561,12 +14548,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B68" s="176" t="inlineStr">
+      <c r="B68" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C68" s="259" t="inlineStr">
+      <c r="C68" s="267" t="inlineStr">
         <is>
           <t>л.Системное развитие техники пищевых производств              Пойманов В.В.   125</t>
         </is>
@@ -14581,8 +14568,8 @@
           <t>л.Системное развитие техники пищевых производств              Пойманов В.В.   125</t>
         </is>
       </c>
-      <c r="F68" s="150" t="inlineStr"/>
-      <c r="G68" s="338" t="inlineStr">
+      <c r="F68" s="129" t="inlineStr"/>
+      <c r="G68" s="339" t="inlineStr">
         <is>
           <t>пр.Основы трансформации теплоты, системы кондиционирования и вентиляции
 Белозерцев А.С.   311</t>
@@ -14613,19 +14600,19 @@
         </is>
       </c>
       <c r="L68" s="83" t="n"/>
-      <c r="M68" s="268" t="inlineStr">
+      <c r="M68" s="91" t="inlineStr">
         <is>
           <t>пр.Тех. оборудование биотех. процессов
 Потапов А.И.   114</t>
         </is>
       </c>
-      <c r="N68" s="248" t="inlineStr">
+      <c r="N68" s="245" t="inlineStr">
         <is>
           <t>л.Безопасность жизнедеятельности
 Зуева С.Б.   6-37</t>
         </is>
       </c>
-      <c r="O68" s="248" t="inlineStr">
+      <c r="O68" s="245" t="inlineStr">
         <is>
           <t>пр.САПР в теплоэнергетике и теплотехнике
 Лавров С.В.   311</t>
@@ -14671,7 +14658,7 @@
 Белозерцев А.С.   311</t>
         </is>
       </c>
-      <c r="I69" s="366" t="n"/>
+      <c r="I69" s="367" t="n"/>
       <c r="K69" s="85" t="n"/>
       <c r="L69" s="86" t="inlineStr">
         <is>
@@ -14679,7 +14666,7 @@
 Никитина С.Ю.   102</t>
         </is>
       </c>
-      <c r="M69" s="165" t="inlineStr">
+      <c r="M69" s="150" t="inlineStr">
         <is>
           <t>пр.Тех. оборудование для фасовки ...
 Торопцев В.В.   114</t>
@@ -14704,21 +14691,21 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B70" s="176" t="inlineStr">
+      <c r="B70" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
       <c r="C70" s="330" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" s="150" t="inlineStr">
+      <c r="E70" s="129" t="inlineStr">
         <is>
           <t>пр.Системное развитие техники пищевых производств
 Пойманов В.В.   114</t>
         </is>
       </c>
-      <c r="F70" s="150" t="inlineStr"/>
-      <c r="G70" s="338" t="inlineStr">
+      <c r="F70" s="129" t="inlineStr"/>
+      <c r="G70" s="339" t="inlineStr">
         <is>
           <t>л.Основы трансформации теплоты, системы кондиционирования и вентиляции
 Белозерцев А.С.   311</t>
@@ -14749,9 +14736,9 @@
         </is>
       </c>
       <c r="L70" s="83" t="n"/>
-      <c r="M70" s="138" t="inlineStr"/>
-      <c r="N70" s="248" t="inlineStr"/>
-      <c r="O70" s="248" t="inlineStr">
+      <c r="M70" s="131" t="inlineStr"/>
+      <c r="N70" s="245" t="inlineStr"/>
+      <c r="O70" s="245" t="inlineStr">
         <is>
           <t>пр.САПР в теплоэнергетике и теплотехнике
 Лавров С.В.   311</t>
@@ -14790,16 +14777,14 @@
 Белозерцев А.С.   311</t>
         </is>
       </c>
-      <c r="I71" s="366" t="inlineStr">
-        <is>
-          <t>пр.Теория технологического потока
-Назаров С.А.      103</t>
+      <c r="I71" s="367" t="inlineStr">
+        <is>
+          <t>пр.Теория технологического потока      Назаров С.А.      103</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>пр.Теория технологического потока
-Назаров С.А.      103</t>
+          <t>пр.Теория технологического потока      Назаров С.А.      103</t>
         </is>
       </c>
       <c r="K71" s="85" t="n"/>
@@ -14824,18 +14809,18 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B72" s="176" t="inlineStr">
+      <c r="B72" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
       <c r="C72" s="330" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" s="150" t="inlineStr"/>
-      <c r="F72" s="150" t="inlineStr"/>
+      <c r="E72" s="129" t="inlineStr"/>
+      <c r="F72" s="129" t="inlineStr"/>
       <c r="G72" s="330" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" s="381" t="inlineStr">
+      <c r="I72" s="382" t="inlineStr">
         <is>
           <t>л.Диагностика и сервисное обслуживание оборудования
 Рязанов А.Н.      103</t>
@@ -14849,9 +14834,9 @@
       </c>
       <c r="K72" s="330" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" s="138" t="inlineStr"/>
-      <c r="N72" s="248" t="inlineStr"/>
-      <c r="O72" s="248" t="inlineStr"/>
+      <c r="M72" s="131" t="inlineStr"/>
+      <c r="N72" s="245" t="inlineStr"/>
+      <c r="O72" s="245" t="inlineStr"/>
     </row>
     <row r="73" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A73" t="inlineStr">
@@ -14894,24 +14879,24 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B74" s="176" t="inlineStr">
+      <c r="B74" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
       <c r="C74" s="330" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" s="150" t="inlineStr"/>
-      <c r="F74" s="150" t="inlineStr"/>
+      <c r="E74" s="129" t="inlineStr"/>
+      <c r="F74" s="129" t="inlineStr"/>
       <c r="G74" s="330" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" s="330" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" s="330" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" s="138" t="inlineStr"/>
-      <c r="N74" s="248" t="inlineStr"/>
-      <c r="O74" s="248" t="inlineStr"/>
+      <c r="M74" s="131" t="inlineStr"/>
+      <c r="N74" s="245" t="inlineStr"/>
+      <c r="O74" s="245" t="inlineStr"/>
     </row>
     <row r="75" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A75" t="inlineStr">
@@ -14949,19 +14934,19 @@
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C76" s="397" t="inlineStr"/>
+      <c r="C76" s="398" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" s="398" t="inlineStr"/>
-      <c r="F76" s="398" t="inlineStr"/>
-      <c r="G76" s="397" t="inlineStr"/>
+      <c r="E76" s="399" t="inlineStr"/>
+      <c r="F76" s="399" t="inlineStr"/>
+      <c r="G76" s="398" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" s="333" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" s="335" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" s="334" t="inlineStr"/>
-      <c r="N76" s="387" t="inlineStr"/>
-      <c r="O76" s="387" t="inlineStr"/>
+      <c r="N76" s="388" t="inlineStr"/>
+      <c r="O76" s="388" t="inlineStr"/>
     </row>
     <row r="77" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A77" t="inlineStr">
@@ -14994,24 +14979,24 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B78" s="175" t="inlineStr">
+      <c r="B78" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
       <c r="C78" s="330" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" s="400" t="inlineStr"/>
-      <c r="F78" s="400" t="inlineStr"/>
+      <c r="E78" s="401" t="inlineStr"/>
+      <c r="F78" s="401" t="inlineStr"/>
       <c r="G78" s="330" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" s="330" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" s="330" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" s="153" t="inlineStr"/>
-      <c r="N78" s="246" t="inlineStr"/>
-      <c r="O78" s="246" t="inlineStr"/>
+      <c r="M78" s="149" t="inlineStr"/>
+      <c r="N78" s="249" t="inlineStr"/>
+      <c r="O78" s="249" t="inlineStr"/>
     </row>
     <row r="79" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A79" t="inlineStr">
@@ -15044,24 +15029,24 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B80" s="176" t="inlineStr">
+      <c r="B80" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C80" s="401" t="inlineStr"/>
+      <c r="C80" s="402" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" s="402" t="inlineStr"/>
-      <c r="F80" s="402" t="inlineStr"/>
-      <c r="G80" s="401" t="inlineStr"/>
+      <c r="E80" s="403" t="inlineStr"/>
+      <c r="F80" s="403" t="inlineStr"/>
+      <c r="G80" s="402" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" s="330" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" s="330" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" s="138" t="inlineStr"/>
-      <c r="N80" s="248" t="inlineStr"/>
-      <c r="O80" s="248" t="inlineStr"/>
+      <c r="M80" s="131" t="inlineStr"/>
+      <c r="N80" s="245" t="inlineStr"/>
+      <c r="O80" s="245" t="inlineStr"/>
     </row>
     <row r="81" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A81" t="inlineStr">
@@ -15094,24 +15079,24 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B82" s="176" t="inlineStr">
+      <c r="B82" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C82" s="401" t="inlineStr"/>
+      <c r="C82" s="402" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" s="402" t="inlineStr"/>
-      <c r="F82" s="402" t="inlineStr"/>
-      <c r="G82" s="401" t="inlineStr"/>
+      <c r="E82" s="403" t="inlineStr"/>
+      <c r="F82" s="403" t="inlineStr"/>
+      <c r="G82" s="402" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" s="330" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" s="330" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" s="138" t="inlineStr"/>
-      <c r="N82" s="248" t="inlineStr"/>
-      <c r="O82" s="248" t="inlineStr"/>
+      <c r="M82" s="131" t="inlineStr"/>
+      <c r="N82" s="245" t="inlineStr"/>
+      <c r="O82" s="245" t="inlineStr"/>
     </row>
     <row r="83" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A83" t="inlineStr">
@@ -15144,24 +15129,24 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B84" s="176" t="inlineStr">
+      <c r="B84" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C84" s="401" t="inlineStr"/>
+      <c r="C84" s="402" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" s="402" t="inlineStr"/>
-      <c r="F84" s="402" t="inlineStr"/>
-      <c r="G84" s="401" t="inlineStr"/>
+      <c r="E84" s="403" t="inlineStr"/>
+      <c r="F84" s="403" t="inlineStr"/>
+      <c r="G84" s="402" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" s="330" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" s="330" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" s="138" t="inlineStr"/>
-      <c r="N84" s="248" t="inlineStr"/>
-      <c r="O84" s="248" t="inlineStr"/>
+      <c r="M84" s="131" t="inlineStr"/>
+      <c r="N84" s="245" t="inlineStr"/>
+      <c r="O84" s="245" t="inlineStr"/>
     </row>
     <row r="85" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A85" t="inlineStr">
@@ -15194,24 +15179,24 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B86" s="176" t="inlineStr">
+      <c r="B86" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C86" s="401" t="inlineStr"/>
+      <c r="C86" s="402" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" s="402" t="inlineStr"/>
-      <c r="F86" s="402" t="inlineStr"/>
-      <c r="G86" s="401" t="inlineStr"/>
+      <c r="E86" s="403" t="inlineStr"/>
+      <c r="F86" s="403" t="inlineStr"/>
+      <c r="G86" s="402" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" s="330" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" s="330" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" s="138" t="inlineStr"/>
-      <c r="N86" s="248" t="inlineStr"/>
-      <c r="O86" s="248" t="inlineStr"/>
+      <c r="M86" s="131" t="inlineStr"/>
+      <c r="N86" s="245" t="inlineStr"/>
+      <c r="O86" s="245" t="inlineStr"/>
     </row>
     <row r="87" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A87" t="inlineStr">
@@ -15244,24 +15229,24 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B88" s="176" t="inlineStr">
+      <c r="B88" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C88" s="401" t="inlineStr"/>
+      <c r="C88" s="402" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" s="402" t="inlineStr"/>
-      <c r="F88" s="402" t="inlineStr"/>
-      <c r="G88" s="401" t="inlineStr"/>
+      <c r="E88" s="403" t="inlineStr"/>
+      <c r="F88" s="403" t="inlineStr"/>
+      <c r="G88" s="402" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" s="330" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" s="330" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" s="138" t="inlineStr"/>
-      <c r="N88" s="248" t="inlineStr"/>
-      <c r="O88" s="248" t="inlineStr"/>
+      <c r="M88" s="131" t="inlineStr"/>
+      <c r="N88" s="245" t="inlineStr"/>
+      <c r="O88" s="245" t="inlineStr"/>
     </row>
     <row r="89" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A89" t="inlineStr">
@@ -15299,19 +15284,19 @@
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C90" s="397" t="inlineStr"/>
+      <c r="C90" s="398" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" s="398" t="inlineStr"/>
-      <c r="F90" s="398" t="inlineStr"/>
-      <c r="G90" s="397" t="inlineStr"/>
+      <c r="E90" s="399" t="inlineStr"/>
+      <c r="F90" s="399" t="inlineStr"/>
+      <c r="G90" s="398" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" s="333" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" s="335" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" s="138" t="inlineStr"/>
-      <c r="N90" s="248" t="inlineStr"/>
-      <c r="O90" s="248" t="inlineStr"/>
+      <c r="M90" s="131" t="inlineStr"/>
+      <c r="N90" s="245" t="inlineStr"/>
+      <c r="O90" s="245" t="inlineStr"/>
     </row>
     <row r="91" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A91" t="inlineStr">
@@ -15356,7 +15341,7 @@
       <c r="O92" s="6" t="n"/>
     </row>
     <row r="93" ht="27.75" customFormat="1" customHeight="1" s="48">
-      <c r="C93" s="199" t="inlineStr">
+      <c r="C93" s="193" t="inlineStr">
         <is>
           <t>Декан факультета _____________________А.В.Дранников</t>
         </is>
@@ -15382,7 +15367,7 @@
         </is>
       </c>
       <c r="J93" s="59" t="n"/>
-      <c r="K93" s="200" t="inlineStr">
+      <c r="K93" s="194" t="inlineStr">
         <is>
           <t xml:space="preserve">Начальник учебно-методического управления _____________________ Фролова Л.Н.   </t>
         </is>
@@ -15444,7 +15429,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1968503937007874" right="0.1968503937007874" top="0.1968503937007874" bottom="0.1968503937007874" header="0" footer="0"/>
-  <pageSetup orientation="landscape" paperSize="9" scale="24"/>
+  <pageSetup orientation="landscape" paperSize="9" scale="23"/>
 </worksheet>
 </file>
 
@@ -15935,12 +15920,12 @@
         </is>
       </c>
       <c r="C2" s="67" t="n"/>
-      <c r="D2" s="192" t="inlineStr">
+      <c r="D2" s="212" t="inlineStr">
         <is>
           <t>РАСПИСАНИЕ</t>
         </is>
       </c>
-      <c r="E2" s="192" t="n"/>
+      <c r="E2" s="212" t="n"/>
       <c r="F2" s="54" t="inlineStr">
         <is>
           <t>"Утверждаю"</t>
@@ -15965,7 +15950,7 @@
           <t>РАСПИСАНИЕ</t>
         </is>
       </c>
-      <c r="E3" s="192" t="n"/>
+      <c r="E3" s="212" t="n"/>
       <c r="F3" s="54" t="inlineStr">
         <is>
           <t>Проректор по учебной работе</t>
@@ -15990,7 +15975,7 @@
           <t>РАСПИСАНИЕ</t>
         </is>
       </c>
-      <c r="E4" s="192" t="n"/>
+      <c r="E4" s="212" t="n"/>
       <c r="F4" s="68" t="inlineStr">
         <is>
           <t>В.Н. Василенко</t>
@@ -16044,7 +16029,7 @@
           <t>Часы</t>
         </is>
       </c>
-      <c r="C7" s="208" t="inlineStr">
+      <c r="C7" s="180" t="inlineStr">
         <is>
           <t>Мм-205</t>
         </is>
@@ -16058,19 +16043,19 @@
       <c r="G7" s="48" t="n"/>
     </row>
     <row r="8" ht="35.1" customHeight="1" s="51" thickTop="1">
-      <c r="A8" s="404" t="inlineStr">
+      <c r="A8" s="405" t="inlineStr">
         <is>
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B8" s="289" t="inlineStr">
+      <c r="B8" s="274" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C8" s="203" t="inlineStr"/>
-      <c r="D8" s="246" t="inlineStr"/>
-      <c r="E8" s="405" t="inlineStr"/>
+      <c r="C8" s="175" t="inlineStr"/>
+      <c r="D8" s="249" t="inlineStr"/>
+      <c r="E8" s="406" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" s="48" t="n"/>
     </row>
@@ -16097,14 +16082,14 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B10" s="294" t="inlineStr">
+      <c r="B10" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
       <c r="C10" s="166" t="inlineStr"/>
-      <c r="D10" s="248" t="inlineStr"/>
-      <c r="E10" s="407" t="inlineStr"/>
+      <c r="D10" s="245" t="inlineStr"/>
+      <c r="E10" s="408" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" s="48" t="n"/>
     </row>
@@ -16131,14 +16116,14 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B12" s="294" t="inlineStr">
+      <c r="B12" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
       <c r="C12" s="166" t="inlineStr"/>
-      <c r="D12" s="248" t="inlineStr"/>
-      <c r="E12" s="407" t="inlineStr"/>
+      <c r="D12" s="245" t="inlineStr"/>
+      <c r="E12" s="408" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" s="48" t="n"/>
     </row>
@@ -16165,14 +16150,14 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B14" s="294" t="inlineStr">
+      <c r="B14" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
       <c r="C14" s="166" t="inlineStr"/>
-      <c r="D14" s="248" t="inlineStr"/>
-      <c r="E14" s="407" t="inlineStr"/>
+      <c r="D14" s="245" t="inlineStr"/>
+      <c r="E14" s="408" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" s="48" t="n"/>
     </row>
@@ -16199,14 +16184,14 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B16" s="294" t="inlineStr">
+      <c r="B16" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
       <c r="C16" s="166" t="inlineStr"/>
-      <c r="D16" s="248" t="inlineStr"/>
-      <c r="E16" s="407" t="inlineStr"/>
+      <c r="D16" s="245" t="inlineStr"/>
+      <c r="E16" s="408" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" s="48" t="n"/>
     </row>
@@ -16233,14 +16218,14 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B18" s="294" t="inlineStr">
+      <c r="B18" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
       <c r="C18" s="166" t="inlineStr"/>
-      <c r="D18" s="248" t="inlineStr"/>
-      <c r="E18" s="407" t="inlineStr"/>
+      <c r="D18" s="245" t="inlineStr"/>
+      <c r="E18" s="408" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" s="48" t="n"/>
     </row>
@@ -16267,14 +16252,14 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B20" s="408" t="inlineStr">
+      <c r="B20" s="409" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C20" s="409" t="inlineStr"/>
-      <c r="D20" s="387" t="inlineStr"/>
-      <c r="E20" s="410" t="inlineStr"/>
+      <c r="C20" s="410" t="inlineStr"/>
+      <c r="D20" s="388" t="inlineStr"/>
+      <c r="E20" s="411" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" s="48" t="n"/>
     </row>
@@ -16296,19 +16281,19 @@
       <c r="G21" s="48" t="n"/>
     </row>
     <row r="22" ht="35.1" customHeight="1" s="51" thickTop="1">
-      <c r="A22" s="404" t="inlineStr">
+      <c r="A22" s="405" t="inlineStr">
         <is>
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B22" s="289" t="inlineStr">
+      <c r="B22" s="274" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C22" s="203" t="inlineStr"/>
-      <c r="D22" s="246" t="inlineStr"/>
-      <c r="E22" s="405" t="inlineStr"/>
+      <c r="C22" s="175" t="inlineStr"/>
+      <c r="D22" s="249" t="inlineStr"/>
+      <c r="E22" s="406" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" s="48" t="n"/>
     </row>
@@ -16335,12 +16320,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B24" s="294" t="inlineStr">
+      <c r="B24" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C24" s="239" t="inlineStr">
+      <c r="C24" s="231" t="inlineStr">
         <is>
           <t>пр.Иностранный язык
 Мирошниченко Е.Н.   17и</t>
@@ -16352,7 +16337,7 @@
 Егоров В.Г.   126</t>
         </is>
       </c>
-      <c r="E24" s="407" t="inlineStr"/>
+      <c r="E24" s="408" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" s="48" t="n"/>
     </row>
@@ -16367,13 +16352,13 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C25" s="285" t="inlineStr">
+      <c r="C25" s="293" t="inlineStr">
         <is>
           <t>л.Управление качеством, стандартизация и сертификация
 Косенко И.С.   5-26</t>
         </is>
       </c>
-      <c r="D25" s="247" t="inlineStr">
+      <c r="D25" s="250" t="inlineStr">
         <is>
           <t>л.Прочность материалов и конструкций
 Егоров В.Г.   126</t>
@@ -16389,24 +16374,24 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B26" s="294" t="inlineStr">
+      <c r="B26" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C26" s="239" t="inlineStr">
+      <c r="C26" s="231" t="inlineStr">
         <is>
           <t>л.Инженерное сопровождение системного развития техники пищ. технологий
 Шахов С.В.   017</t>
         </is>
       </c>
-      <c r="D26" s="248" t="inlineStr">
+      <c r="D26" s="245" t="inlineStr">
         <is>
           <t>пр.Прочность материалов и конструкций
 Егоров В.Г.   126</t>
         </is>
       </c>
-      <c r="E26" s="407" t="inlineStr"/>
+      <c r="E26" s="408" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" s="48" t="n"/>
     </row>
@@ -16421,7 +16406,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C27" s="285" t="inlineStr">
+      <c r="C27" s="293" t="inlineStr">
         <is>
           <t>пр.Управление качеством, стандартизация и сертификация
 Косенко И.С.   5-26</t>
@@ -16443,24 +16428,24 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B28" s="294" t="inlineStr">
+      <c r="B28" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C28" s="239" t="inlineStr">
+      <c r="C28" s="231" t="inlineStr">
         <is>
           <t>пр.Инженерное сопровождение системного развития техники пищ. технологий
 Шахов С.В.   017</t>
         </is>
       </c>
-      <c r="D28" s="248" t="inlineStr">
+      <c r="D28" s="245" t="inlineStr">
         <is>
           <t>пр.Динамика и устойчивость конструкций и механических систем
 Егоров В.Г.   126</t>
         </is>
       </c>
-      <c r="E28" s="407" t="inlineStr"/>
+      <c r="E28" s="408" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" s="48" t="n"/>
     </row>
@@ -16475,7 +16460,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C29" s="285" t="inlineStr">
+      <c r="C29" s="293" t="inlineStr">
         <is>
           <t>пр.Управление качеством, стандартизация и сертификация
 Косенко И.С.   5-26</t>
@@ -16497,14 +16482,14 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B30" s="294" t="inlineStr">
+      <c r="B30" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
       <c r="C30" s="166" t="inlineStr"/>
       <c r="D30" s="87" t="inlineStr"/>
-      <c r="E30" s="407" t="inlineStr"/>
+      <c r="E30" s="408" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" s="48" t="n"/>
     </row>
@@ -16520,7 +16505,7 @@
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" s="247" t="inlineStr">
+      <c r="D31" s="250" t="inlineStr">
         <is>
           <t>пр.Теории пластичности и ползучести
 Егоров В.Г.   126</t>
@@ -16536,14 +16521,14 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B32" s="294" t="inlineStr">
+      <c r="B32" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
       <c r="C32" s="166" t="inlineStr"/>
-      <c r="D32" s="248" t="inlineStr"/>
-      <c r="E32" s="407" t="inlineStr"/>
+      <c r="D32" s="245" t="inlineStr"/>
+      <c r="E32" s="408" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" s="48" t="n"/>
     </row>
@@ -16570,14 +16555,14 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B34" s="408" t="inlineStr">
+      <c r="B34" s="409" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C34" s="409" t="inlineStr"/>
-      <c r="D34" s="387" t="inlineStr"/>
-      <c r="E34" s="410" t="inlineStr"/>
+      <c r="C34" s="410" t="inlineStr"/>
+      <c r="D34" s="388" t="inlineStr"/>
+      <c r="E34" s="411" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" s="48" t="n"/>
     </row>
@@ -16599,19 +16584,19 @@
       <c r="G35" s="48" t="n"/>
     </row>
     <row r="36" ht="35.1" customHeight="1" s="51" thickTop="1">
-      <c r="A36" s="404" t="inlineStr">
+      <c r="A36" s="405" t="inlineStr">
         <is>
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B36" s="289" t="inlineStr">
+      <c r="B36" s="274" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C36" s="203" t="inlineStr"/>
-      <c r="D36" s="246" t="inlineStr"/>
-      <c r="E36" s="405" t="inlineStr"/>
+      <c r="C36" s="175" t="inlineStr"/>
+      <c r="D36" s="249" t="inlineStr"/>
+      <c r="E36" s="406" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" s="48" t="n"/>
     </row>
@@ -16638,12 +16623,12 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B38" s="294" t="inlineStr">
+      <c r="B38" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C38" s="239" t="inlineStr">
+      <c r="C38" s="231" t="inlineStr">
         <is>
           <t>л.Высокоэффективные методы и оборудование для обработки пищевых сред
 Шаршов В.Н.   017</t>
@@ -16655,7 +16640,7 @@
 Невструев Ю.А.   126</t>
         </is>
       </c>
-      <c r="E38" s="407" t="inlineStr"/>
+      <c r="E38" s="408" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" s="48" t="n"/>
     </row>
@@ -16670,13 +16655,13 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C39" s="285" t="inlineStr">
+      <c r="C39" s="293" t="inlineStr">
         <is>
           <t>л.Компьютерные технологии в машиностроении
 Харченков К.В.   017</t>
         </is>
       </c>
-      <c r="D39" s="247" t="inlineStr">
+      <c r="D39" s="250" t="inlineStr">
         <is>
           <t>л.Теория планирования и методы экспериментальных исследований в механике
 Невструев Ю.А.   126</t>
@@ -16692,24 +16677,24 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B40" s="294" t="inlineStr">
+      <c r="B40" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C40" s="239" t="inlineStr">
+      <c r="C40" s="231" t="inlineStr">
         <is>
           <t>лаб.Высокоэффективные методы и оборудование для обработки пищевых сред
 Шаршов В.Н.   017</t>
         </is>
       </c>
-      <c r="D40" s="248" t="inlineStr">
+      <c r="D40" s="245" t="inlineStr">
         <is>
           <t>пр.Механика контактного взаимодействия и разрушения
 Невструев Ю.А.   126</t>
         </is>
       </c>
-      <c r="E40" s="407" t="inlineStr"/>
+      <c r="E40" s="408" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" s="48" t="n"/>
     </row>
@@ -16724,7 +16709,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C41" s="285" t="inlineStr">
+      <c r="C41" s="293" t="inlineStr">
         <is>
           <t>лаб.Компьютерные технологии в машиностроении
 Харченков К.В.   134</t>
@@ -16746,19 +16731,19 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B42" s="294" t="inlineStr">
+      <c r="B42" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C42" s="239" t="inlineStr"/>
-      <c r="D42" s="248" t="inlineStr">
+      <c r="C42" s="231" t="inlineStr"/>
+      <c r="D42" s="245" t="inlineStr">
         <is>
           <t>пр.Теория планирования и методы экспериментальных исследований в механике
 Невструев Ю.А.   126</t>
         </is>
       </c>
-      <c r="E42" s="407" t="inlineStr"/>
+      <c r="E42" s="408" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" s="48" t="n"/>
     </row>
@@ -16773,7 +16758,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C43" s="285" t="inlineStr">
+      <c r="C43" s="293" t="inlineStr">
         <is>
           <t>пр.Управление инновационными проектами и персоналом
 Цуканова К.А.   14</t>
@@ -16795,14 +16780,14 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B44" s="294" t="inlineStr">
+      <c r="B44" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C44" s="239" t="inlineStr"/>
-      <c r="D44" s="248" t="inlineStr"/>
-      <c r="E44" s="407" t="inlineStr"/>
+      <c r="C44" s="231" t="inlineStr"/>
+      <c r="D44" s="245" t="inlineStr"/>
+      <c r="E44" s="408" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" s="48" t="n"/>
     </row>
@@ -16817,7 +16802,7 @@
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C45" s="285" t="inlineStr">
+      <c r="C45" s="293" t="inlineStr">
         <is>
           <t>л.Управление инновационными проектами и персоналом
 Шатохина Н.М.   14</t>
@@ -16834,14 +16819,14 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B46" s="294" t="inlineStr">
+      <c r="B46" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
       <c r="C46" s="166" t="inlineStr"/>
-      <c r="D46" s="248" t="inlineStr"/>
-      <c r="E46" s="407" t="inlineStr"/>
+      <c r="D46" s="245" t="inlineStr"/>
+      <c r="E46" s="408" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" s="48" t="n"/>
     </row>
@@ -16868,14 +16853,14 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B48" s="408" t="inlineStr">
+      <c r="B48" s="409" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C48" s="409" t="inlineStr"/>
-      <c r="D48" s="387" t="inlineStr"/>
-      <c r="E48" s="410" t="inlineStr"/>
+      <c r="C48" s="410" t="inlineStr"/>
+      <c r="D48" s="388" t="inlineStr"/>
+      <c r="E48" s="411" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" s="48" t="n"/>
     </row>
@@ -16897,19 +16882,19 @@
       <c r="G49" s="48" t="n"/>
     </row>
     <row r="50" ht="35.1" customHeight="1" s="51" thickTop="1">
-      <c r="A50" s="404" t="inlineStr">
+      <c r="A50" s="405" t="inlineStr">
         <is>
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B50" s="289" t="inlineStr">
+      <c r="B50" s="274" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C50" s="203" t="inlineStr"/>
-      <c r="D50" s="246" t="inlineStr"/>
-      <c r="E50" s="405" t="inlineStr"/>
+      <c r="C50" s="175" t="inlineStr"/>
+      <c r="D50" s="249" t="inlineStr"/>
+      <c r="E50" s="406" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" s="48" t="n"/>
     </row>
@@ -16936,7 +16921,7 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B52" s="294" t="inlineStr">
+      <c r="B52" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
@@ -16947,8 +16932,8 @@
 Прибытков А.В.   103</t>
         </is>
       </c>
-      <c r="D52" s="248" t="inlineStr"/>
-      <c r="E52" s="407" t="inlineStr"/>
+      <c r="D52" s="245" t="inlineStr"/>
+      <c r="E52" s="408" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" s="48" t="n"/>
     </row>
@@ -16980,7 +16965,7 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B54" s="294" t="inlineStr">
+      <c r="B54" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
@@ -16997,7 +16982,7 @@
 Лихачева Л.Б.   126</t>
         </is>
       </c>
-      <c r="E54" s="407" t="inlineStr"/>
+      <c r="E54" s="408" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" s="48" t="n"/>
     </row>
@@ -17018,7 +17003,7 @@
 Прибытков А.В.   017</t>
         </is>
       </c>
-      <c r="D55" s="247" t="inlineStr"/>
+      <c r="D55" s="250" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" s="48" t="n"/>
@@ -17029,19 +17014,19 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B56" s="294" t="inlineStr">
+      <c r="B56" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C56" s="239" t="n"/>
-      <c r="D56" s="248" t="inlineStr">
+      <c r="C56" s="231" t="n"/>
+      <c r="D56" s="245" t="inlineStr">
         <is>
           <t>пр.Композиционные материалы в машиностроении
 Лихачева Л.Б.   126</t>
         </is>
       </c>
-      <c r="E56" s="407" t="inlineStr"/>
+      <c r="E56" s="408" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" s="48" t="n"/>
     </row>
@@ -17056,7 +17041,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C57" s="285" t="inlineStr">
+      <c r="C57" s="293" t="inlineStr">
         <is>
           <t>пр.Проектно-конструкторская деятельность
 Прибытков А.В.   017</t>
@@ -17078,7 +17063,7 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B58" s="294" t="inlineStr">
+      <c r="B58" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
@@ -17090,7 +17075,7 @@
 Елфимов С.А.   126</t>
         </is>
       </c>
-      <c r="E58" s="407" t="inlineStr"/>
+      <c r="E58" s="408" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" s="48" t="n"/>
     </row>
@@ -17106,7 +17091,7 @@
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" s="247" t="inlineStr">
+      <c r="D59" s="250" t="inlineStr">
         <is>
           <t>л.Системы компьютерного проектирования
 Елфимов С.А.   126</t>
@@ -17122,14 +17107,14 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B60" s="294" t="inlineStr">
+      <c r="B60" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
       <c r="C60" s="166" t="inlineStr"/>
-      <c r="D60" s="248" t="inlineStr"/>
-      <c r="E60" s="407" t="inlineStr"/>
+      <c r="D60" s="245" t="inlineStr"/>
+      <c r="E60" s="408" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" s="48" t="n"/>
     </row>
@@ -17156,14 +17141,14 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B62" s="408" t="inlineStr">
+      <c r="B62" s="409" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C62" s="409" t="inlineStr"/>
-      <c r="D62" s="387" t="inlineStr"/>
-      <c r="E62" s="410" t="inlineStr"/>
+      <c r="C62" s="410" t="inlineStr"/>
+      <c r="D62" s="388" t="inlineStr"/>
+      <c r="E62" s="411" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" s="48" t="n"/>
     </row>
@@ -17185,19 +17170,19 @@
       <c r="G63" s="48" t="n"/>
     </row>
     <row r="64" ht="35.1" customHeight="1" s="51" thickTop="1">
-      <c r="A64" s="404" t="inlineStr">
+      <c r="A64" s="405" t="inlineStr">
         <is>
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B64" s="289" t="inlineStr">
+      <c r="B64" s="274" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C64" s="203" t="inlineStr"/>
-      <c r="D64" s="246" t="inlineStr"/>
-      <c r="E64" s="405" t="inlineStr"/>
+      <c r="C64" s="175" t="inlineStr"/>
+      <c r="D64" s="249" t="inlineStr"/>
+      <c r="E64" s="406" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" s="48" t="n"/>
     </row>
@@ -17224,19 +17209,19 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B66" s="294" t="inlineStr">
+      <c r="B66" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C66" s="239" t="inlineStr">
+      <c r="C66" s="231" t="inlineStr">
         <is>
           <t>л.Основы научных исследований, организация и планирование эксперимента ...
 Ключников А.И.   102</t>
         </is>
       </c>
       <c r="D66" s="87" t="n"/>
-      <c r="E66" s="407" t="inlineStr"/>
+      <c r="E66" s="408" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" s="48" t="n"/>
     </row>
@@ -17251,13 +17236,13 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C67" s="285" t="inlineStr">
+      <c r="C67" s="293" t="inlineStr">
         <is>
           <t>л.Диагностика процессов и оборудования
 Рязанов А.Н.   102</t>
         </is>
       </c>
-      <c r="D67" s="247" t="inlineStr">
+      <c r="D67" s="250" t="inlineStr">
         <is>
           <t>лаб.Вычислительная механика и компьютерный инжиниринг
 Васечкин М.А.   127а</t>
@@ -17273,12 +17258,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B68" s="294" t="inlineStr">
+      <c r="B68" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C68" s="239" t="inlineStr">
+      <c r="C68" s="231" t="inlineStr">
         <is>
           <t>пр.Основы научных исследований, организация и планирование эксперимента ...
 Ключников А.И.   017</t>
@@ -17290,7 +17275,7 @@
 Ларина  Л.И.   4и</t>
         </is>
       </c>
-      <c r="E68" s="407" t="inlineStr"/>
+      <c r="E68" s="408" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" s="48" t="n"/>
     </row>
@@ -17305,13 +17290,13 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C69" s="285" t="inlineStr">
+      <c r="C69" s="293" t="inlineStr">
         <is>
           <t>лаб.Диагностика процессов и оборудования
 Рязанов А.Н.   017</t>
         </is>
       </c>
-      <c r="D69" s="247" t="inlineStr">
+      <c r="D69" s="250" t="inlineStr">
         <is>
           <t>лаб.Вычислительная механика и компьютерный инжиниринг
 Васечкин М.А.   127а</t>
@@ -17327,12 +17312,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B70" s="294" t="inlineStr">
+      <c r="B70" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C70" s="239" t="inlineStr">
+      <c r="C70" s="231" t="inlineStr">
         <is>
           <t>лаб.Основы научных исследований, организация и планирование эксперимента ...
 Ключников А.И.   017</t>
@@ -17344,7 +17329,7 @@
 Васечкин М.А.   126</t>
         </is>
       </c>
-      <c r="E70" s="407" t="inlineStr"/>
+      <c r="E70" s="408" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" s="48" t="n"/>
     </row>
@@ -17359,13 +17344,13 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C71" s="285" t="inlineStr">
+      <c r="C71" s="293" t="inlineStr">
         <is>
           <t>лаб.Диагностика процессов и оборудования
 Рязанов А.Н.   017</t>
         </is>
       </c>
-      <c r="D71" s="247" t="n"/>
+      <c r="D71" s="250" t="n"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" s="48" t="n"/>
@@ -17376,19 +17361,19 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B72" s="294" t="inlineStr">
+      <c r="B72" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C72" s="239" t="inlineStr">
+      <c r="C72" s="231" t="inlineStr">
         <is>
           <t>лаб.Основы научных исследований, организация и планирование эксперимента ...
 Ключников А.И.   017</t>
         </is>
       </c>
-      <c r="D72" s="248" t="inlineStr"/>
-      <c r="E72" s="407" t="inlineStr"/>
+      <c r="D72" s="245" t="inlineStr"/>
+      <c r="E72" s="408" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" s="48" t="n"/>
     </row>
@@ -17403,7 +17388,7 @@
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C73" s="285" t="inlineStr"/>
+      <c r="C73" s="293" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
@@ -17415,14 +17400,14 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B74" s="294" t="inlineStr">
+      <c r="B74" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
       <c r="C74" s="166" t="inlineStr"/>
-      <c r="D74" s="248" t="inlineStr"/>
-      <c r="E74" s="407" t="inlineStr"/>
+      <c r="D74" s="245" t="inlineStr"/>
+      <c r="E74" s="408" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" s="48" t="n"/>
     </row>
@@ -17449,14 +17434,14 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B76" s="408" t="inlineStr">
+      <c r="B76" s="409" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C76" s="409" t="inlineStr"/>
-      <c r="D76" s="387" t="inlineStr"/>
-      <c r="E76" s="410" t="inlineStr"/>
+      <c r="C76" s="410" t="inlineStr"/>
+      <c r="D76" s="388" t="inlineStr"/>
+      <c r="E76" s="411" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" s="48" t="n"/>
     </row>
@@ -17478,19 +17463,19 @@
       <c r="G77" s="48" t="n"/>
     </row>
     <row r="78" ht="16.5" customHeight="1" s="51" thickTop="1">
-      <c r="A78" s="404" t="inlineStr">
+      <c r="A78" s="405" t="inlineStr">
         <is>
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B78" s="289" t="inlineStr">
+      <c r="B78" s="274" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C78" s="411" t="inlineStr"/>
-      <c r="D78" s="301" t="inlineStr"/>
-      <c r="E78" s="405" t="inlineStr"/>
+      <c r="C78" s="412" t="inlineStr"/>
+      <c r="D78" s="289" t="inlineStr"/>
+      <c r="E78" s="406" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" s="48" t="n"/>
     </row>
@@ -17517,14 +17502,14 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B80" s="294" t="inlineStr">
+      <c r="B80" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C80" s="402" t="inlineStr"/>
-      <c r="D80" s="302" t="inlineStr"/>
-      <c r="E80" s="407" t="inlineStr"/>
+      <c r="C80" s="403" t="inlineStr"/>
+      <c r="D80" s="275" t="inlineStr"/>
+      <c r="E80" s="408" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" s="48" t="n"/>
     </row>
@@ -17551,14 +17536,14 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B82" s="294" t="inlineStr">
+      <c r="B82" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C82" s="402" t="inlineStr"/>
-      <c r="D82" s="302" t="inlineStr"/>
-      <c r="E82" s="407" t="inlineStr"/>
+      <c r="C82" s="403" t="inlineStr"/>
+      <c r="D82" s="275" t="inlineStr"/>
+      <c r="E82" s="408" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" s="48" t="n"/>
     </row>
@@ -17585,14 +17570,14 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B84" s="294" t="inlineStr">
+      <c r="B84" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C84" s="402" t="inlineStr"/>
-      <c r="D84" s="302" t="inlineStr"/>
-      <c r="E84" s="407" t="inlineStr"/>
+      <c r="C84" s="403" t="inlineStr"/>
+      <c r="D84" s="275" t="inlineStr"/>
+      <c r="E84" s="408" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" s="48" t="n"/>
     </row>
@@ -17619,14 +17604,14 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B86" s="294" t="inlineStr">
+      <c r="B86" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C86" s="402" t="inlineStr"/>
-      <c r="D86" s="302" t="inlineStr"/>
-      <c r="E86" s="407" t="inlineStr"/>
+      <c r="C86" s="403" t="inlineStr"/>
+      <c r="D86" s="275" t="inlineStr"/>
+      <c r="E86" s="408" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" s="48" t="n"/>
     </row>
@@ -17653,14 +17638,14 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B88" s="294" t="inlineStr">
+      <c r="B88" s="273" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C88" s="402" t="inlineStr"/>
-      <c r="D88" s="302" t="inlineStr"/>
-      <c r="E88" s="407" t="inlineStr"/>
+      <c r="C88" s="403" t="inlineStr"/>
+      <c r="D88" s="275" t="inlineStr"/>
+      <c r="E88" s="408" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" s="48" t="n"/>
     </row>
@@ -17687,14 +17672,14 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B90" s="408" t="inlineStr">
+      <c r="B90" s="409" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C90" s="398" t="inlineStr"/>
-      <c r="D90" s="302" t="inlineStr"/>
-      <c r="E90" s="410" t="inlineStr"/>
+      <c r="C90" s="399" t="inlineStr"/>
+      <c r="D90" s="275" t="inlineStr"/>
+      <c r="E90" s="411" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" s="48" t="n"/>
     </row>
@@ -17732,7 +17717,7 @@
         </is>
       </c>
       <c r="C93" s="49" t="n"/>
-      <c r="D93" s="304" t="inlineStr">
+      <c r="D93" s="281" t="inlineStr">
         <is>
           <t xml:space="preserve">Начальник учебно-методического управления _____________________  Фролова Л.Н.   </t>
         </is>
@@ -17923,18 +17908,18 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B4" s="175" t="inlineStr">
+      <c r="B4" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C4" s="343" t="inlineStr"/>
+      <c r="C4" s="344" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" s="343" t="inlineStr"/>
+      <c r="E4" s="344" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" s="343" t="inlineStr"/>
+      <c r="G4" s="344" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" s="314" t="inlineStr"/>
+      <c r="I4" s="296" t="inlineStr"/>
       <c r="J4" s="48" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -17963,18 +17948,18 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B6" s="176" t="inlineStr">
+      <c r="B6" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C6" s="348" t="inlineStr"/>
+      <c r="C6" s="349" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" s="348" t="inlineStr"/>
+      <c r="E6" s="349" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" s="348" t="inlineStr"/>
+      <c r="G6" s="349" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" s="308" t="inlineStr"/>
+      <c r="I6" s="298" t="inlineStr"/>
       <c r="J6" s="48" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -18003,12 +17988,12 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B8" s="176" t="inlineStr">
+      <c r="B8" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C8" s="348" t="inlineStr">
+      <c r="C8" s="349" t="inlineStr">
         <is>
           <t>л.Системы автоматизированного проектирования
 Харченков К.В.   53</t>
@@ -18099,7 +18084,7 @@
 Харченков К.В.   53</t>
         </is>
       </c>
-      <c r="I9" s="315" t="inlineStr">
+      <c r="I9" s="297" t="inlineStr">
         <is>
           <t>л.Численные методы в механике
 Васечкин М.А.   124</t>
@@ -18113,12 +18098,12 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B10" s="176" t="inlineStr">
+      <c r="B10" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C10" s="348" t="inlineStr">
+      <c r="C10" s="349" t="inlineStr">
         <is>
           <t>пр.Технология конструирования пищевых машин и автоматов
 Никитина С.Ю.   102</t>
@@ -18154,7 +18139,7 @@
 Торопцев В.В.   114</t>
         </is>
       </c>
-      <c r="I10" s="308" t="inlineStr">
+      <c r="I10" s="298" t="inlineStr">
         <is>
           <t>пр.Вычислительная механика
 Васечкин М.А.   126</t>
@@ -18185,7 +18170,7 @@
 Никитина С.Ю.   102</t>
         </is>
       </c>
-      <c r="E11" s="351" t="inlineStr">
+      <c r="E11" s="352" t="inlineStr">
         <is>
           <t>пр.Технологическое оборудование для фасовки и упаковки продукции
 Торопцев В.В.   103</t>
@@ -18197,7 +18182,7 @@
 Торопцев В.В.   103</t>
         </is>
       </c>
-      <c r="G11" s="361" t="inlineStr">
+      <c r="G11" s="362" t="inlineStr">
         <is>
           <t>пр.Технологическое оборудование тепломассообменных процессов
 Дранников А.В.   114</t>
@@ -18223,14 +18208,14 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B12" s="176" t="inlineStr">
+      <c r="B12" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
       <c r="C12" s="33" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" s="348" t="inlineStr">
+      <c r="E12" s="349" t="inlineStr">
         <is>
           <t>пр.Расчет и конструирование машин и аппаратов пищевых производств
 Торопцев В.В.   103</t>
@@ -18273,7 +18258,7 @@
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C13" s="361" t="inlineStr">
+      <c r="C13" s="362" t="inlineStr">
         <is>
           <t>пр.Технологическое оборудование для фасовки и упаковки продукции
 Потапов А.И.   102</t>
@@ -18297,9 +18282,9 @@
 Торопцев В.В.   103</t>
         </is>
       </c>
-      <c r="G13" s="351" t="inlineStr"/>
+      <c r="G13" s="352" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" s="315" t="inlineStr">
+      <c r="I13" s="297" t="inlineStr">
         <is>
           <t>пр.Численные методы в механике
 Васечкин М.А.   124</t>
@@ -18313,18 +18298,18 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B14" s="176" t="inlineStr">
+      <c r="B14" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C14" s="348" t="inlineStr"/>
+      <c r="C14" s="349" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" s="348" t="inlineStr"/>
+      <c r="E14" s="349" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" s="348" t="inlineStr"/>
+      <c r="G14" s="349" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" s="308" t="inlineStr"/>
+      <c r="I14" s="298" t="inlineStr"/>
       <c r="J14" s="48" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -18358,13 +18343,13 @@
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C16" s="356" t="inlineStr"/>
+      <c r="C16" s="357" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" s="356" t="inlineStr"/>
+      <c r="E16" s="357" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" s="356" t="inlineStr"/>
+      <c r="G16" s="357" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" s="412" t="inlineStr"/>
+      <c r="I16" s="413" t="inlineStr"/>
       <c r="J16" s="48" t="n"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -18393,12 +18378,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B18" s="175" t="inlineStr">
+      <c r="B18" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C18" s="348" t="inlineStr"/>
+      <c r="C18" s="349" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" s="20" t="inlineStr">
         <is>
@@ -18406,15 +18391,15 @@
 Потапов А.И.   103</t>
         </is>
       </c>
-      <c r="F18" s="313" t="inlineStr">
+      <c r="F18" s="311" t="inlineStr">
         <is>
           <t>Технологическое оборудование для фасовки и упаковки продукции,
 Торопцев В.В.   102</t>
         </is>
       </c>
-      <c r="G18" s="348" t="inlineStr"/>
+      <c r="G18" s="349" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" s="314" t="inlineStr"/>
+      <c r="I18" s="296" t="inlineStr"/>
       <c r="J18" s="48" t="n"/>
     </row>
     <row r="19" ht="45.75" customHeight="1" s="51" thickBot="1">
@@ -18453,7 +18438,7 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B20" s="176" t="inlineStr">
+      <c r="B20" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
@@ -18464,27 +18449,27 @@
 Дранников А.В.   114</t>
         </is>
       </c>
-      <c r="D20" s="225" t="n"/>
+      <c r="D20" s="224" t="n"/>
       <c r="E20" s="17" t="inlineStr">
         <is>
           <t>лаб.Диагностика и сервисное обслуживание оборудования,
 Потапов А.И.   103</t>
         </is>
       </c>
-      <c r="F20" s="225" t="inlineStr">
+      <c r="F20" s="224" t="inlineStr">
         <is>
           <t>Технологическое оборудование для фасовки и упаковки продукции,
 Торопцев В.В.   102</t>
         </is>
       </c>
       <c r="G20" s="17" t="n"/>
-      <c r="H20" s="225" t="inlineStr">
+      <c r="H20" s="224" t="inlineStr">
         <is>
           <t>лаб.Системы автоматизированного проектирования
 Напольских М.С.   134</t>
         </is>
       </c>
-      <c r="I20" s="308" t="inlineStr"/>
+      <c r="I20" s="298" t="inlineStr"/>
       <c r="J20" s="48" t="n"/>
     </row>
     <row r="21" ht="45.75" customHeight="1" s="51" thickBot="1">
@@ -18528,12 +18513,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B22" s="176" t="inlineStr">
+      <c r="B22" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C22" s="348" t="inlineStr">
+      <c r="C22" s="349" t="inlineStr">
         <is>
           <t>л.Расчет и конструирование машин и аппаратов пищевых производств
 Пойманов В.В.   125</t>
@@ -18624,7 +18609,7 @@
 Пойманов В.В.   125</t>
         </is>
       </c>
-      <c r="I23" s="315" t="inlineStr">
+      <c r="I23" s="297" t="inlineStr">
         <is>
           <t>лаб.Дополнительные главы вычислительной механики
 Васечкин М.А.   127а</t>
@@ -18638,14 +18623,14 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B24" s="176" t="inlineStr">
+      <c r="B24" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
       <c r="C24" s="33" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" s="348" t="inlineStr"/>
+      <c r="E24" s="349" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" s="17" t="inlineStr">
         <is>
@@ -18653,7 +18638,7 @@
 Напольских М.С.   134</t>
         </is>
       </c>
-      <c r="H24" s="225" t="n"/>
+      <c r="H24" s="224" t="n"/>
       <c r="I24" s="33" t="inlineStr">
         <is>
           <t>л.Основы теории пластичности и ползучести
@@ -18673,7 +18658,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C25" s="361" t="inlineStr">
+      <c r="C25" s="362" t="inlineStr">
         <is>
           <t>пр.Диагностика и сервисное обслуживание оборудования
 Шахов С.В.   103</t>
@@ -18694,7 +18679,7 @@
 Напольских М.С.   134</t>
         </is>
       </c>
-      <c r="I25" s="315" t="inlineStr">
+      <c r="I25" s="297" t="inlineStr">
         <is>
           <t>л.Дополнительные главы вычислительной механики
 Васечкин М.А.   124</t>
@@ -18708,14 +18693,14 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B26" s="176" t="inlineStr">
+      <c r="B26" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C26" s="348" t="inlineStr"/>
+      <c r="C26" s="349" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" s="348" t="inlineStr"/>
+      <c r="E26" s="349" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" s="17" t="inlineStr">
         <is>
@@ -18723,8 +18708,8 @@
 Напольских М.С.   134</t>
         </is>
       </c>
-      <c r="H26" s="225" t="n"/>
-      <c r="I26" s="308" t="inlineStr"/>
+      <c r="H26" s="224" t="n"/>
+      <c r="I26" s="298" t="inlineStr"/>
       <c r="J26" s="48" t="n"/>
     </row>
     <row r="27" ht="45.75" customHeight="1" s="51" thickBot="1">
@@ -18758,18 +18743,18 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B28" s="176" t="inlineStr">
+      <c r="B28" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C28" s="348" t="inlineStr"/>
+      <c r="C28" s="349" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" s="348" t="inlineStr"/>
+      <c r="E28" s="349" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" s="348" t="inlineStr"/>
+      <c r="G28" s="349" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" s="308" t="inlineStr"/>
+      <c r="I28" s="298" t="inlineStr"/>
       <c r="J28" s="48" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -18803,13 +18788,13 @@
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C30" s="356" t="inlineStr"/>
+      <c r="C30" s="357" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" s="356" t="inlineStr"/>
+      <c r="E30" s="357" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" s="356" t="inlineStr"/>
+      <c r="G30" s="357" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" s="412" t="inlineStr"/>
+      <c r="I30" s="413" t="inlineStr"/>
       <c r="J30" s="48" t="n"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -18838,18 +18823,18 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B32" s="175" t="inlineStr">
+      <c r="B32" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C32" s="348" t="inlineStr"/>
+      <c r="C32" s="349" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" s="348" t="inlineStr"/>
+      <c r="E32" s="349" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" s="348" t="inlineStr"/>
+      <c r="G32" s="349" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" s="314" t="inlineStr">
+      <c r="I32" s="296" t="inlineStr">
         <is>
           <t>пр.Техническая диагностика и неразрушающий контроль
 Дегтярёв А.В.   126</t>
@@ -18888,21 +18873,21 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B34" s="176" t="inlineStr">
+      <c r="B34" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C34" s="348" t="inlineStr"/>
+      <c r="C34" s="349" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" s="17" t="n"/>
-      <c r="F34" s="225" t="inlineStr">
+      <c r="F34" s="224" t="inlineStr">
         <is>
           <t>лаб.Системы автоматизированного проектирования
 Харченков К.В.   134</t>
         </is>
       </c>
-      <c r="G34" s="348" t="inlineStr"/>
+      <c r="G34" s="349" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" s="33" t="inlineStr">
         <is>
@@ -18934,7 +18919,7 @@
       <c r="F35" s="41" t="n"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" s="315" t="inlineStr">
+      <c r="I35" s="297" t="inlineStr">
         <is>
           <t>пр.Методы и средства механических испытаний материалов
 Дегтярёв А.В.   126</t>
@@ -18948,7 +18933,7 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B36" s="176" t="inlineStr">
+      <c r="B36" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
@@ -18989,7 +18974,7 @@
 Дранников А.В.   410</t>
         </is>
       </c>
-      <c r="I36" s="308" t="inlineStr">
+      <c r="I36" s="298" t="inlineStr">
         <is>
           <t>пр.Основы механики контактного взаимодействия и разрушения
 Дегтярёв А.В.   127а</t>
@@ -19008,7 +18993,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C37" s="361" t="inlineStr">
+      <c r="C37" s="362" t="inlineStr">
         <is>
           <t>л.Технология конструирования пищевых машин и автоматов
 Прибытков А.В.   410</t>
@@ -19058,7 +19043,7 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B38" s="176" t="inlineStr">
+      <c r="B38" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
@@ -19069,7 +19054,7 @@
 Шахов С.В.   103</t>
         </is>
       </c>
-      <c r="D38" s="225" t="inlineStr">
+      <c r="D38" s="224" t="inlineStr">
         <is>
           <t>Технологическое оборудование для фасовки и упаковки продукции,
 Потапов А.И.   102</t>
@@ -19081,8 +19066,8 @@
 Напольских М.С.   134</t>
         </is>
       </c>
-      <c r="F38" s="225" t="n"/>
-      <c r="G38" s="348" t="inlineStr">
+      <c r="F38" s="224" t="n"/>
+      <c r="G38" s="349" t="inlineStr">
         <is>
           <t>пр.Расчет и конструирование машин и аппаратов пищевых производств
 Торопцев В.В.   114</t>
@@ -19094,7 +19079,7 @@
 Торопцев В.В.   114</t>
         </is>
       </c>
-      <c r="I38" s="308" t="inlineStr"/>
+      <c r="I38" s="298" t="inlineStr"/>
       <c r="J38" s="48" t="n"/>
     </row>
     <row r="39" ht="39.95" customHeight="1" s="51" thickBot="1">
@@ -19148,7 +19133,7 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B40" s="176" t="inlineStr">
+      <c r="B40" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
@@ -19159,7 +19144,7 @@
 Шахов С.В.   103</t>
         </is>
       </c>
-      <c r="D40" s="225" t="inlineStr">
+      <c r="D40" s="224" t="inlineStr">
         <is>
           <t>Технологическое оборудование для фасовки и упаковки продукции,
 Потапов А.И.   102</t>
@@ -19171,8 +19156,8 @@
 Напольских М.С.   134</t>
         </is>
       </c>
-      <c r="F40" s="225" t="n"/>
-      <c r="G40" s="348" t="inlineStr">
+      <c r="F40" s="224" t="n"/>
+      <c r="G40" s="349" t="inlineStr">
         <is>
           <t>пр.Технология конструирования пищевых машин и автоматов
 Никитина С.Ю.   114</t>
@@ -19184,7 +19169,7 @@
 Никитина С.Ю.   114</t>
         </is>
       </c>
-      <c r="I40" s="308" t="inlineStr"/>
+      <c r="I40" s="298" t="inlineStr"/>
       <c r="J40" s="48" t="n"/>
     </row>
     <row r="41" ht="39.95" customHeight="1" s="51" thickBot="1">
@@ -19238,18 +19223,18 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B42" s="176" t="inlineStr">
+      <c r="B42" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C42" s="348" t="inlineStr"/>
+      <c r="C42" s="349" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" s="348" t="inlineStr"/>
+      <c r="E42" s="349" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" s="348" t="inlineStr"/>
+      <c r="G42" s="349" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" s="308" t="inlineStr"/>
+      <c r="I42" s="298" t="inlineStr"/>
       <c r="J42" s="48" t="n"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -19283,13 +19268,13 @@
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C44" s="356" t="inlineStr"/>
+      <c r="C44" s="357" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" s="356" t="inlineStr"/>
+      <c r="E44" s="357" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" s="356" t="inlineStr"/>
+      <c r="G44" s="357" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" s="412" t="inlineStr"/>
+      <c r="I44" s="413" t="inlineStr"/>
       <c r="J44" s="48" t="n"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -19318,12 +19303,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B46" s="175" t="inlineStr">
+      <c r="B46" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C46" s="318" t="inlineStr">
+      <c r="C46" s="304" t="inlineStr">
         <is>
           <t>Общая физическая подготовка</t>
         </is>
@@ -19414,12 +19399,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B48" s="176" t="inlineStr">
+      <c r="B48" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C48" s="306" t="inlineStr">
+      <c r="C48" s="308" t="inlineStr">
         <is>
           <t>Физическая культура</t>
         </is>
@@ -19467,7 +19452,7 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C49" s="351" t="inlineStr">
+      <c r="C49" s="352" t="inlineStr">
         <is>
           <t>л.Технологическое оборудование для фасовки и упаковки продукции
 Потапов А.И.   125</t>
@@ -19503,7 +19488,7 @@
 Потапов А.И.   125</t>
         </is>
       </c>
-      <c r="I49" s="315" t="inlineStr">
+      <c r="I49" s="297" t="inlineStr">
         <is>
           <t>пр.Основы теории пластичности и ползучести
 Невструев Ю.А.   126</t>
@@ -19517,12 +19502,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B50" s="176" t="inlineStr">
+      <c r="B50" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C50" s="348" t="inlineStr">
+      <c r="C50" s="349" t="inlineStr">
         <is>
           <t>пр.Расчет и конструирование машин и аппаратов пищевых производств
 Напольских М.С.   102</t>
@@ -19534,11 +19519,11 @@
 Напольских М.С.   102</t>
         </is>
       </c>
-      <c r="E50" s="348" t="inlineStr"/>
+      <c r="E50" s="349" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" s="348" t="inlineStr"/>
+      <c r="G50" s="349" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" s="308" t="inlineStr"/>
+      <c r="I50" s="298" t="inlineStr"/>
       <c r="J50" s="48" t="n"/>
     </row>
     <row r="51" ht="17.25" customHeight="1" s="51" thickBot="1">
@@ -19577,18 +19562,18 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B52" s="176" t="inlineStr">
+      <c r="B52" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C52" s="348" t="inlineStr"/>
+      <c r="C52" s="349" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" s="348" t="inlineStr"/>
+      <c r="E52" s="349" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" s="348" t="inlineStr"/>
+      <c r="G52" s="349" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" s="308" t="inlineStr"/>
+      <c r="I52" s="298" t="inlineStr"/>
       <c r="J52" s="48" t="n"/>
     </row>
     <row r="53" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -19617,18 +19602,18 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B54" s="176" t="inlineStr">
+      <c r="B54" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C54" s="348" t="inlineStr"/>
+      <c r="C54" s="349" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" s="348" t="inlineStr"/>
+      <c r="E54" s="349" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" s="348" t="inlineStr"/>
+      <c r="G54" s="349" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" s="308" t="inlineStr"/>
+      <c r="I54" s="298" t="inlineStr"/>
       <c r="J54" s="48" t="n"/>
     </row>
     <row r="55" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -19657,18 +19642,18 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B56" s="176" t="inlineStr">
+      <c r="B56" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C56" s="348" t="inlineStr"/>
+      <c r="C56" s="349" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" s="348" t="inlineStr"/>
+      <c r="E56" s="349" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" s="348" t="inlineStr"/>
+      <c r="G56" s="349" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" s="308" t="inlineStr"/>
+      <c r="I56" s="298" t="inlineStr"/>
       <c r="J56" s="48" t="n"/>
     </row>
     <row r="57" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -19702,13 +19687,13 @@
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C58" s="356" t="inlineStr"/>
+      <c r="C58" s="357" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" s="356" t="inlineStr"/>
+      <c r="E58" s="357" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" s="356" t="inlineStr"/>
+      <c r="G58" s="357" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" s="412" t="inlineStr"/>
+      <c r="I58" s="413" t="inlineStr"/>
       <c r="J58" s="48" t="n"/>
     </row>
     <row r="59" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -19737,14 +19722,14 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B60" s="175" t="inlineStr">
+      <c r="B60" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C60" s="348" t="inlineStr"/>
+      <c r="C60" s="349" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" s="416" t="inlineStr">
+      <c r="E60" s="417" t="inlineStr">
         <is>
           <t>пр.Диагностика и сервисное обслуживание оборудования
 Шахов С.В.   103</t>
@@ -19756,9 +19741,9 @@
 Шахов С.В.   103</t>
         </is>
       </c>
-      <c r="G60" s="348" t="inlineStr"/>
+      <c r="G60" s="349" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" s="314" t="inlineStr"/>
+      <c r="I60" s="296" t="inlineStr"/>
       <c r="J60" s="48" t="n"/>
     </row>
     <row r="61" ht="35.25" customHeight="1" s="51" thickBot="1">
@@ -19774,7 +19759,7 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" s="361" t="inlineStr"/>
+      <c r="E61" s="362" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -19787,19 +19772,19 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B62" s="176" t="inlineStr">
+      <c r="B62" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
       <c r="C62" s="17" t="n"/>
-      <c r="D62" s="225" t="inlineStr">
+      <c r="D62" s="224" t="inlineStr">
         <is>
           <t>лаб.Системы автоматизированного проектирования
 Харченков К.В.   134</t>
         </is>
       </c>
-      <c r="E62" s="348" t="inlineStr">
+      <c r="E62" s="349" t="inlineStr">
         <is>
           <t>пр.Технология конструирования пищевых машин и автоматов
 Никитина С.Ю.   103</t>
@@ -19811,9 +19796,9 @@
 Никитина С.Ю.   103</t>
         </is>
       </c>
-      <c r="G62" s="348" t="inlineStr"/>
+      <c r="G62" s="349" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" s="308" t="inlineStr"/>
+      <c r="I62" s="298" t="inlineStr"/>
       <c r="J62" s="48" t="n"/>
     </row>
     <row r="63" ht="35.25" customHeight="1" s="51" thickBot="1">
@@ -19857,12 +19842,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B64" s="176" t="inlineStr">
+      <c r="B64" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C64" s="348" t="inlineStr">
+      <c r="C64" s="349" t="inlineStr">
         <is>
           <t>л.Диагностика и сервисное обслуживание оборудования
 Шахов С.В.   410</t>
@@ -19953,7 +19938,7 @@
 Шахов С.В.   410</t>
         </is>
       </c>
-      <c r="I65" s="315" t="inlineStr"/>
+      <c r="I65" s="297" t="inlineStr"/>
       <c r="J65" s="48" t="n"/>
     </row>
     <row r="66" ht="45" customHeight="1" s="51">
@@ -19962,7 +19947,7 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B66" s="176" t="inlineStr">
+      <c r="B66" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
@@ -19974,7 +19959,7 @@
         </is>
       </c>
       <c r="D66" s="24" t="n"/>
-      <c r="E66" s="348" t="inlineStr"/>
+      <c r="E66" s="349" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" s="17" t="inlineStr">
         <is>
@@ -19982,7 +19967,7 @@
 Потапов А.И.   103</t>
         </is>
       </c>
-      <c r="H66" s="225" t="inlineStr">
+      <c r="H66" s="224" t="inlineStr">
         <is>
           <t>Технологическое оборудование для фасовки и упаковки продукции,
 Торопцев В.В.   102</t>
@@ -20028,7 +20013,7 @@
 Потапов А.И.   103</t>
         </is>
       </c>
-      <c r="I67" s="315" t="inlineStr">
+      <c r="I67" s="297" t="inlineStr">
         <is>
           <t>л.Основы механики контактного взаимодействия и разрушения
 Дегтярёв А.В.   124</t>
@@ -20042,7 +20027,7 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B68" s="176" t="inlineStr">
+      <c r="B68" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
@@ -20054,7 +20039,7 @@
         </is>
       </c>
       <c r="D68" s="24" t="n"/>
-      <c r="E68" s="348" t="inlineStr"/>
+      <c r="E68" s="349" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" s="17" t="inlineStr">
         <is>
@@ -20062,7 +20047,7 @@
 Потапов А.И.   103</t>
         </is>
       </c>
-      <c r="H68" s="225" t="inlineStr">
+      <c r="H68" s="224" t="inlineStr">
         <is>
           <t>Технологическое оборудование для фасовки и упаковки продукции,
 Торопцев В.В.   102</t>
@@ -20103,7 +20088,7 @@
 Потапов А.И.   103</t>
         </is>
       </c>
-      <c r="I69" s="315" t="inlineStr">
+      <c r="I69" s="297" t="inlineStr">
         <is>
           <t>пр.Дополнительные главы вычислительной механики
 Васечкин М.А.   133</t>
@@ -20117,18 +20102,18 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B70" s="176" t="inlineStr">
+      <c r="B70" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C70" s="348" t="inlineStr"/>
+      <c r="C70" s="349" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" s="348" t="inlineStr"/>
+      <c r="E70" s="349" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" s="348" t="inlineStr"/>
+      <c r="G70" s="349" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" s="308" t="inlineStr"/>
+      <c r="I70" s="298" t="inlineStr"/>
       <c r="J70" s="48" t="n"/>
     </row>
     <row r="71" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -20162,13 +20147,13 @@
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C72" s="356" t="inlineStr"/>
+      <c r="C72" s="357" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" s="356" t="inlineStr"/>
+      <c r="E72" s="357" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" s="356" t="inlineStr"/>
+      <c r="G72" s="357" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" s="412" t="inlineStr"/>
+      <c r="I72" s="413" t="inlineStr"/>
       <c r="J72" s="48" t="n"/>
     </row>
     <row r="73" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -20197,18 +20182,18 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B74" s="175" t="inlineStr">
+      <c r="B74" s="207" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C74" s="348" t="inlineStr"/>
+      <c r="C74" s="349" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" s="348" t="inlineStr"/>
+      <c r="E74" s="349" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" s="348" t="inlineStr"/>
+      <c r="G74" s="349" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" s="314" t="inlineStr"/>
+      <c r="I74" s="296" t="inlineStr"/>
       <c r="J74" s="48" t="n"/>
     </row>
     <row r="75" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -20237,18 +20222,18 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B76" s="176" t="inlineStr">
+      <c r="B76" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C76" s="348" t="inlineStr"/>
+      <c r="C76" s="349" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" s="348" t="inlineStr"/>
+      <c r="E76" s="349" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" s="348" t="inlineStr"/>
+      <c r="G76" s="349" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" s="308" t="inlineStr"/>
+      <c r="I76" s="298" t="inlineStr"/>
       <c r="J76" s="48" t="n"/>
     </row>
     <row r="77" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -20277,18 +20262,18 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B78" s="176" t="inlineStr">
+      <c r="B78" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C78" s="348" t="inlineStr"/>
+      <c r="C78" s="349" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" s="348" t="inlineStr"/>
+      <c r="E78" s="349" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" s="348" t="inlineStr"/>
+      <c r="G78" s="349" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" s="308" t="inlineStr"/>
+      <c r="I78" s="298" t="inlineStr"/>
       <c r="J78" s="48" t="n"/>
     </row>
     <row r="79" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -20317,18 +20302,18 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B80" s="176" t="inlineStr">
+      <c r="B80" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C80" s="348" t="inlineStr"/>
+      <c r="C80" s="349" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" s="348" t="inlineStr"/>
+      <c r="E80" s="349" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" s="348" t="inlineStr"/>
+      <c r="G80" s="349" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" s="308" t="inlineStr"/>
+      <c r="I80" s="298" t="inlineStr"/>
       <c r="J80" s="48" t="n"/>
     </row>
     <row r="81" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -20357,18 +20342,18 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B82" s="176" t="inlineStr">
+      <c r="B82" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C82" s="348" t="inlineStr"/>
+      <c r="C82" s="349" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" s="348" t="inlineStr"/>
+      <c r="E82" s="349" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" s="348" t="inlineStr"/>
+      <c r="G82" s="349" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" s="308" t="inlineStr"/>
+      <c r="I82" s="298" t="inlineStr"/>
       <c r="J82" s="48" t="n"/>
     </row>
     <row r="83" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -20397,18 +20382,18 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B84" s="176" t="inlineStr">
+      <c r="B84" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C84" s="348" t="inlineStr"/>
+      <c r="C84" s="349" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" s="348" t="inlineStr"/>
+      <c r="E84" s="349" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" s="348" t="inlineStr"/>
+      <c r="G84" s="349" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" s="308" t="inlineStr"/>
+      <c r="I84" s="298" t="inlineStr"/>
       <c r="J84" s="48" t="n"/>
     </row>
     <row r="85" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -20442,13 +20427,13 @@
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C86" s="356" t="inlineStr"/>
+      <c r="C86" s="357" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" s="356" t="inlineStr"/>
+      <c r="E86" s="357" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" s="356" t="inlineStr"/>
+      <c r="G86" s="357" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" s="308" t="inlineStr"/>
+      <c r="I86" s="298" t="inlineStr"/>
       <c r="J86" s="48" t="n"/>
     </row>
     <row r="87" ht="15.75" customHeight="1" s="51" thickBot="1">

--- a/timetables/pma.xlsx
+++ b/timetables/pma.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12570" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12570" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="1 и 2 курс" sheetId="1" state="visible" r:id="rId1"/>
@@ -1732,21 +1732,6 @@
     </border>
     <border>
       <left style="thick">
-        <color indexed="0"/>
-      </left>
-      <right style="thick">
-        <color indexed="0"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color indexed="64"/>
       </left>
       <right style="thick">
@@ -1774,12 +1759,12 @@
         <color indexed="0"/>
       </left>
       <right style="thick">
-        <color indexed="64"/>
+        <color indexed="0"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1800,7 +1785,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
       <right style="thick">
         <color indexed="0"/>
       </right>
@@ -1814,8 +1801,21 @@
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color indexed="0"/>
       </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color indexed="0"/>
       </right>
@@ -1843,7 +1843,7 @@
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom style="thick">
@@ -1871,7 +1871,7 @@
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thick">
@@ -2258,7 +2258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="419">
+  <cellXfs count="421">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2638,6 +2638,15 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2650,18 +2659,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2737,31 +2734,25 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="108" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="67" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="100" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2779,10 +2770,13 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="100" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="100" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2824,10 +2818,7 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="100" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2863,6 +2854,18 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="73" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2887,12 +2890,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="97" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="108" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="101" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3007,6 +3031,27 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="76" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3034,9 +3079,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="116" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3062,12 +3104,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="72" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3187,40 +3223,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="76" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="94" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="97" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="138" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="131" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="129" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="134" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3241,34 +3247,34 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="119" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="122" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="129" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="121" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="131" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="127" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="123" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="124" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="125" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="120" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="76" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="133" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="126" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="121" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="125" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="127" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="120" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="76" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="133" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="124" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3371,7 +3377,7 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="150" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="127" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="125" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="149" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3381,14 +3387,14 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="153" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="122" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="121" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="153" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="131" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="129" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="146" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3410,7 +3416,7 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="157" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="129" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="131" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -3787,8 +3793,8 @@
   </sheetPr>
   <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="N8" sqref="A8:XFD9"/>
@@ -3826,7 +3832,7 @@
     <row r="2" ht="33.75" customHeight="1" s="51">
       <c r="A2" s="48" t="n"/>
       <c r="B2" s="48" t="n"/>
-      <c r="C2" s="210" t="inlineStr">
+      <c r="C2" s="211" t="inlineStr">
         <is>
           <t>ФГБОУ ВО</t>
         </is>
@@ -3846,7 +3852,7 @@
           <t>ФГБОУ ВО</t>
         </is>
       </c>
-      <c r="G2" s="212" t="inlineStr">
+      <c r="G2" s="218" t="inlineStr">
         <is>
           <t>РАСПИСАНИЕ</t>
         </is>
@@ -3877,7 +3883,7 @@
     <row r="3" ht="33.75" customHeight="1" s="51">
       <c r="A3" s="48" t="n"/>
       <c r="B3" s="48" t="n"/>
-      <c r="C3" s="211" t="inlineStr">
+      <c r="C3" s="212" t="inlineStr">
         <is>
           <t>"Воронежский государственный</t>
         </is>
@@ -3928,7 +3934,7 @@
     <row r="4" ht="33.75" customHeight="1" s="51" thickBot="1">
       <c r="A4" s="48" t="n"/>
       <c r="B4" s="48" t="n"/>
-      <c r="C4" s="211" t="inlineStr">
+      <c r="C4" s="212" t="inlineStr">
         <is>
           <t>университет инженерных технологий"</t>
         </is>
@@ -4025,7 +4031,7 @@
       <c r="D6" s="47" t="n"/>
       <c r="E6" s="47" t="n"/>
       <c r="F6" s="47" t="n"/>
-      <c r="G6" s="213" t="inlineStr">
+      <c r="G6" s="219" t="inlineStr">
         <is>
           <t>весеннего семестра     2020-2021 учебного года</t>
         </is>
@@ -4060,7 +4066,7 @@
           <t>Часы</t>
         </is>
       </c>
-      <c r="C7" s="181" t="inlineStr">
+      <c r="C7" s="179" t="inlineStr">
         <is>
           <t>М-201</t>
         </is>
@@ -4085,7 +4091,7 @@
           <t>М-204</t>
         </is>
       </c>
-      <c r="H7" s="322" t="inlineStr">
+      <c r="H7" s="324" t="inlineStr">
         <is>
           <t>М-191</t>
         </is>
@@ -4117,26 +4123,26 @@
       </c>
     </row>
     <row r="8" ht="24.95" customHeight="1" s="51" thickTop="1">
-      <c r="A8" s="323" t="inlineStr">
+      <c r="A8" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B8" s="207" t="inlineStr">
+      <c r="B8" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C8" s="152" t="inlineStr"/>
-      <c r="D8" s="324" t="inlineStr"/>
+      <c r="C8" s="151" t="inlineStr"/>
+      <c r="D8" s="326" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" s="143" t="inlineStr"/>
-      <c r="G8" s="149" t="inlineStr"/>
-      <c r="H8" s="325" t="inlineStr"/>
+      <c r="F8" s="142" t="inlineStr"/>
+      <c r="G8" s="148" t="inlineStr"/>
+      <c r="H8" s="327" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" s="143" t="inlineStr"/>
-      <c r="K8" s="143" t="inlineStr"/>
-      <c r="L8" s="326" t="inlineStr"/>
+      <c r="J8" s="142" t="inlineStr"/>
+      <c r="K8" s="142" t="inlineStr"/>
+      <c r="L8" s="328" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
     </row>
     <row r="9" ht="24.95" customHeight="1" s="51" thickBot="1">
@@ -4168,12 +4174,12 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B10" s="208" t="inlineStr">
+      <c r="B10" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C10" s="317" t="inlineStr">
+      <c r="C10" s="213" t="inlineStr">
         <is>
           <t>л.Правоведение                      Черенков Р.А.         8</t>
         </is>
@@ -4199,7 +4205,7 @@
 Никель С.А.   329</t>
         </is>
       </c>
-      <c r="H10" s="133" t="inlineStr">
+      <c r="H10" s="201" t="inlineStr">
         <is>
           <t>л.Электротехника и электроника                Лавров С.В.   125</t>
         </is>
@@ -4241,7 +4247,7 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C11" s="319" t="inlineStr">
+      <c r="C11" s="215" t="inlineStr">
         <is>
           <t>л.Основы экономики                   Пономарева Н.И.        9</t>
         </is>
@@ -4286,7 +4292,7 @@
           <t>л.Электротехника и электроника                Лавров С.В.   125</t>
         </is>
       </c>
-      <c r="L11" s="327" t="inlineStr">
+      <c r="L11" s="329" t="inlineStr">
         <is>
           <t>пр.Основы проектного обучения            Ожерельева О.Н.   403</t>
         </is>
@@ -4303,12 +4309,12 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B12" s="208" t="inlineStr">
+      <c r="B12" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C12" s="137" t="inlineStr">
+      <c r="C12" s="136" t="inlineStr">
         <is>
           <t>л.Физика                       Татохин Е.А.                    53</t>
         </is>
@@ -4333,7 +4339,7 @@
           <t>л.Физика                       Татохин Е.А.                    53</t>
         </is>
       </c>
-      <c r="H12" s="160" t="inlineStr">
+      <c r="H12" s="159" t="inlineStr">
         <is>
           <t>л.Физические основы теплотехники                   Барбашин А.М.   125</t>
         </is>
@@ -4402,7 +4408,7 @@
           <t>л.Физика                       Татохин Е.А.                    53</t>
         </is>
       </c>
-      <c r="H13" s="158" t="inlineStr">
+      <c r="H13" s="157" t="inlineStr">
         <is>
           <t>л.Процессы и аппараты               Наумченко И.С.   204</t>
         </is>
@@ -4417,7 +4423,7 @@
           <t>л.Процессы и аппараты               Наумченко И.С.   204</t>
         </is>
       </c>
-      <c r="K13" s="144" t="inlineStr">
+      <c r="K13" s="143" t="inlineStr">
         <is>
           <t>пр.Уравнения мат. физики. Основы вар. исчисл.
 Попов М.И.   13</t>
@@ -4442,12 +4448,12 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B14" s="208" t="inlineStr">
+      <c r="B14" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C14" s="146" t="inlineStr"/>
+      <c r="C14" s="145" t="inlineStr"/>
       <c r="D14" s="128" t="inlineStr">
         <is>
           <t>пр.Правоведение               Черенков Р.А.   46</t>
@@ -4458,7 +4464,7 @@
           <t>пр.Правоведение               Черенков Р.А.   46</t>
         </is>
       </c>
-      <c r="F14" s="129" t="inlineStr">
+      <c r="F14" s="132" t="inlineStr">
         <is>
           <t>пр.Математика
 Кузнецов С.Ф.   205</t>
@@ -4470,7 +4476,7 @@
 Никель С.А.   329</t>
         </is>
       </c>
-      <c r="H14" s="137" t="inlineStr">
+      <c r="H14" s="136" t="inlineStr">
         <is>
           <t>Элективные дисциплины (курсы) по физической культуре и спорту,    общая физическая подготовка</t>
         </is>
@@ -4513,7 +4519,7 @@
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" s="328" t="inlineStr">
+      <c r="D15" s="330" t="inlineStr">
         <is>
           <t>пр.Социология              Злобин А.Н.   46</t>
         </is>
@@ -4529,7 +4535,7 @@
 Кузнецов С.Ф.   205</t>
         </is>
       </c>
-      <c r="G15" s="150" t="inlineStr">
+      <c r="G15" s="149" t="inlineStr">
         <is>
           <t>пр.Физика            Буданов А.В.   40</t>
         </is>
@@ -4571,13 +4577,13 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B16" s="208" t="inlineStr">
+      <c r="B16" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C16" s="146" t="inlineStr"/>
-      <c r="D16" s="329" t="inlineStr">
+      <c r="C16" s="145" t="inlineStr"/>
+      <c r="D16" s="331" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Хрячкова  Л.А.   17и   (нем)</t>
@@ -4589,7 +4595,7 @@
 Хрячкова  Л.А.   17и   (нем)</t>
         </is>
       </c>
-      <c r="F16" s="129" t="inlineStr">
+      <c r="F16" s="132" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Мирошниченко Е.Н.   4и
@@ -4597,11 +4603,11 @@
         </is>
       </c>
       <c r="G16" s="91" t="inlineStr"/>
-      <c r="H16" s="330" t="inlineStr"/>
+      <c r="H16" s="332" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" s="129" t="inlineStr"/>
-      <c r="K16" s="129" t="inlineStr"/>
-      <c r="L16" s="330" t="inlineStr"/>
+      <c r="J16" s="132" t="inlineStr"/>
+      <c r="K16" s="132" t="inlineStr"/>
+      <c r="L16" s="332" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
     </row>
     <row r="17" ht="32.1" customHeight="1" s="51" thickBot="1">
@@ -4635,7 +4641,7 @@
 Хрячкова  Л.А.   17и     (нем)</t>
         </is>
       </c>
-      <c r="G17" s="150" t="inlineStr">
+      <c r="G17" s="149" t="inlineStr">
         <is>
           <t>пр.Математика         Кузнецов С.Ф.   205</t>
         </is>
@@ -4653,21 +4659,21 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B18" s="208" t="inlineStr">
+      <c r="B18" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C18" s="146" t="inlineStr"/>
-      <c r="D18" s="329" t="inlineStr"/>
+      <c r="C18" s="145" t="inlineStr"/>
+      <c r="D18" s="331" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" s="129" t="inlineStr"/>
-      <c r="G18" s="131" t="inlineStr"/>
-      <c r="H18" s="330" t="inlineStr"/>
+      <c r="F18" s="132" t="inlineStr"/>
+      <c r="G18" s="134" t="inlineStr"/>
+      <c r="H18" s="332" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" s="129" t="inlineStr"/>
-      <c r="K18" s="129" t="inlineStr"/>
-      <c r="L18" s="330" t="inlineStr"/>
+      <c r="J18" s="132" t="inlineStr"/>
+      <c r="K18" s="132" t="inlineStr"/>
+      <c r="L18" s="332" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -4699,21 +4705,21 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B20" s="331" t="inlineStr">
+      <c r="B20" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C20" s="332" t="inlineStr"/>
-      <c r="D20" s="333" t="inlineStr"/>
+      <c r="C20" s="334" t="inlineStr"/>
+      <c r="D20" s="335" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" s="333" t="n"/>
-      <c r="G20" s="334" t="inlineStr"/>
-      <c r="H20" s="335" t="inlineStr"/>
+      <c r="F20" s="335" t="n"/>
+      <c r="G20" s="336" t="inlineStr"/>
+      <c r="H20" s="337" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" s="333" t="inlineStr"/>
-      <c r="K20" s="333" t="inlineStr"/>
-      <c r="L20" s="335" t="inlineStr"/>
+      <c r="J20" s="335" t="inlineStr"/>
+      <c r="K20" s="335" t="inlineStr"/>
+      <c r="L20" s="337" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -4739,17 +4745,17 @@
       <c r="M21" t="inlineStr"/>
     </row>
     <row r="22" ht="32.1" customHeight="1" s="51" thickTop="1">
-      <c r="A22" s="323" t="inlineStr">
+      <c r="A22" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B22" s="207" t="inlineStr">
+      <c r="B22" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C22" s="272" t="inlineStr">
+      <c r="C22" s="266" t="inlineStr">
         <is>
           <t>пр.Иностранный язык
 Лобачева Н.Н.   2и</t>
@@ -4770,13 +4776,13 @@
           <t>лаб.Физика            Татохин Е.А.   51</t>
         </is>
       </c>
-      <c r="G22" s="149" t="inlineStr">
+      <c r="G22" s="148" t="inlineStr">
         <is>
           <t>пр.Иностранный язык
 Прибыткова  О.В.   3и</t>
         </is>
       </c>
-      <c r="H22" s="330" t="inlineStr"/>
+      <c r="H22" s="332" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" s="95" t="inlineStr">
         <is>
@@ -4784,8 +4790,8 @@
 Лихачева Л.Б.   Уч.маст</t>
         </is>
       </c>
-      <c r="K22" s="143" t="inlineStr"/>
-      <c r="L22" s="330" t="inlineStr"/>
+      <c r="K22" s="142" t="inlineStr"/>
+      <c r="L22" s="332" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
     </row>
     <row r="23" ht="32.1" customHeight="1" s="51" thickBot="1">
@@ -4799,8 +4805,8 @@
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C23" s="153" t="inlineStr"/>
-      <c r="D23" s="336" t="inlineStr">
+      <c r="C23" s="152" t="inlineStr"/>
+      <c r="D23" s="338" t="inlineStr">
         <is>
           <t>пр.Физика                Татохин Е.А.    40</t>
         </is>
@@ -4810,7 +4816,7 @@
           <t>пр.Физика                Татохин Е.А.    40</t>
         </is>
       </c>
-      <c r="F23" s="144" t="inlineStr">
+      <c r="F23" s="143" t="inlineStr">
         <is>
           <t>лаб.Основы профессиональной деятельности
 Невструев Ю.А.   127а</t>
@@ -4824,7 +4830,7 @@
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" s="144" t="inlineStr"/>
+      <c r="J23" s="143" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -4835,18 +4841,18 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B24" s="208" t="inlineStr">
+      <c r="B24" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C24" s="146" t="inlineStr">
+      <c r="C24" s="145" t="inlineStr">
         <is>
           <t>пр.История
 Злобин А.Н.   44</t>
         </is>
       </c>
-      <c r="D24" s="329" t="inlineStr">
+      <c r="D24" s="331" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Лобачева Н.Н.   2и                  Прибыткова  О.В.   3и</t>
@@ -4863,13 +4869,13 @@
           <t>пр.Физика         Татохин Е.А.   40</t>
         </is>
       </c>
-      <c r="G24" s="329" t="inlineStr">
+      <c r="G24" s="331" t="inlineStr">
         <is>
           <t>пр.Теоретическая механика
 Давыдов  О.Ю.   127</t>
         </is>
       </c>
-      <c r="H24" s="337" t="inlineStr"/>
+      <c r="H24" s="339" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" s="128" t="inlineStr">
         <is>
@@ -4918,7 +4924,7 @@
 Лобачева Н.Н.   2и                  Прибыткова  О.В.   3и</t>
         </is>
       </c>
-      <c r="F25" s="144" t="inlineStr">
+      <c r="F25" s="143" t="inlineStr">
         <is>
           <t>лаб.Основы профессиональной деятельности
 Невструев Ю.А.   127а</t>
@@ -4930,7 +4936,7 @@
 Давыдов  О.Ю.   127</t>
         </is>
       </c>
-      <c r="H25" s="338" t="inlineStr">
+      <c r="H25" s="340" t="inlineStr">
         <is>
           <t>пр.Процессы и аппараты           Василенко В.Н.   211</t>
         </is>
@@ -4940,19 +4946,19 @@
           <t>пр.Процессы и аппараты           Василенко В.Н.   211</t>
         </is>
       </c>
-      <c r="J25" s="144" t="inlineStr">
+      <c r="J25" s="143" t="inlineStr">
         <is>
           <t>пр.Математическое моделирование
 Коробова Л.А.   343</t>
         </is>
       </c>
-      <c r="K25" s="144" t="inlineStr">
+      <c r="K25" s="143" t="inlineStr">
         <is>
           <t>лаб.Электротехника и электроника
 Лавров С.В.   329</t>
         </is>
       </c>
-      <c r="L25" s="327" t="inlineStr"/>
+      <c r="L25" s="329" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
     </row>
     <row r="26" ht="32.1" customHeight="1" s="51">
@@ -4961,12 +4967,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B26" s="208" t="inlineStr">
+      <c r="B26" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C26" s="160" t="inlineStr">
+      <c r="C26" s="159" t="inlineStr">
         <is>
           <t>л.История / История (история России, всеобщая история)                                       Злобин А.Н.   8</t>
         </is>
@@ -5037,7 +5043,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C27" s="158" t="inlineStr">
+      <c r="C27" s="157" t="inlineStr">
         <is>
           <t>л.Социология                  Злобин А.Н.   8</t>
         </is>
@@ -5057,12 +5063,12 @@
           <t>л.Социология                  Злобин А.Н.   8</t>
         </is>
       </c>
-      <c r="G27" s="150" t="inlineStr">
+      <c r="G27" s="149" t="inlineStr">
         <is>
           <t>лаб.Физика          Татохин Е.А.   55</t>
         </is>
       </c>
-      <c r="H27" s="158" t="inlineStr">
+      <c r="H27" s="157" t="inlineStr">
         <is>
           <t>л.Техническая механика             Давыдов  О.Ю.   125</t>
         </is>
@@ -5077,7 +5083,7 @@
           <t>л.Техническая механика             Давыдов  О.Ю.   125</t>
         </is>
       </c>
-      <c r="K27" s="144" t="inlineStr">
+      <c r="K27" s="143" t="inlineStr">
         <is>
           <t>лаб.Электротехника и электроника
 Лавров С.В.   329</t>
@@ -5102,12 +5108,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B28" s="208" t="inlineStr">
+      <c r="B28" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C28" s="137" t="inlineStr">
+      <c r="C28" s="136" t="inlineStr">
         <is>
           <t>ЭСТЕТИКА И КУЛЬТУРА            БАЗ</t>
         </is>
@@ -5215,13 +5221,13 @@
 Болгова И.Н.   111/2    Z</t>
         </is>
       </c>
-      <c r="J29" s="144" t="inlineStr">
+      <c r="J29" s="143" t="inlineStr">
         <is>
           <t>пр.Процессы и аппараты
 Василенко В.Н.   232</t>
         </is>
       </c>
-      <c r="K29" s="144" t="inlineStr">
+      <c r="K29" s="143" t="inlineStr">
         <is>
           <t>пр.Сопротивление материалов
 Давыдов  О.Ю.   124</t>
@@ -5246,21 +5252,21 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B30" s="208" t="inlineStr">
+      <c r="B30" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C30" s="146" t="inlineStr"/>
-      <c r="D30" s="329" t="inlineStr"/>
+      <c r="C30" s="145" t="inlineStr"/>
+      <c r="D30" s="331" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" s="129" t="inlineStr"/>
-      <c r="G30" s="131" t="inlineStr"/>
+      <c r="F30" s="132" t="inlineStr"/>
+      <c r="G30" s="134" t="inlineStr"/>
       <c r="H30" s="109" t="inlineStr"/>
       <c r="I30" s="110" t="n"/>
-      <c r="J30" s="129" t="inlineStr"/>
+      <c r="J30" s="132" t="inlineStr"/>
       <c r="K30" s="128" t="n"/>
-      <c r="L30" s="330" t="inlineStr"/>
+      <c r="L30" s="332" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
     </row>
     <row r="31" ht="32.1" customHeight="1" s="51" thickBot="1">
@@ -5292,7 +5298,7 @@
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" s="144" t="inlineStr">
+      <c r="K31" s="143" t="inlineStr">
         <is>
           <t>пр.Культурология             Черных В.Д.  07</t>
         </is>
@@ -5306,21 +5312,21 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B32" s="208" t="inlineStr">
+      <c r="B32" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C32" s="146" t="inlineStr"/>
-      <c r="D32" s="329" t="inlineStr"/>
+      <c r="C32" s="145" t="inlineStr"/>
+      <c r="D32" s="331" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" s="129" t="inlineStr"/>
-      <c r="G32" s="131" t="inlineStr"/>
-      <c r="H32" s="330" t="inlineStr"/>
+      <c r="F32" s="132" t="inlineStr"/>
+      <c r="G32" s="134" t="inlineStr"/>
+      <c r="H32" s="332" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" s="129" t="inlineStr"/>
-      <c r="K32" s="129" t="inlineStr"/>
-      <c r="L32" s="330" t="inlineStr"/>
+      <c r="J32" s="132" t="inlineStr"/>
+      <c r="K32" s="132" t="inlineStr"/>
+      <c r="L32" s="332" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -5352,21 +5358,21 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B34" s="331" t="inlineStr">
+      <c r="B34" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C34" s="332" t="inlineStr"/>
-      <c r="D34" s="333" t="inlineStr"/>
+      <c r="C34" s="334" t="inlineStr"/>
+      <c r="D34" s="335" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" s="333" t="inlineStr"/>
-      <c r="G34" s="334" t="inlineStr"/>
-      <c r="H34" s="335" t="inlineStr"/>
+      <c r="F34" s="335" t="inlineStr"/>
+      <c r="G34" s="336" t="inlineStr"/>
+      <c r="H34" s="337" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" s="333" t="inlineStr"/>
-      <c r="K34" s="333" t="inlineStr"/>
-      <c r="L34" s="335" t="inlineStr"/>
+      <c r="J34" s="335" t="inlineStr"/>
+      <c r="K34" s="335" t="inlineStr"/>
+      <c r="L34" s="337" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -5393,18 +5399,18 @@
       <c r="M35" t="inlineStr"/>
     </row>
     <row r="36" ht="32.1" customHeight="1" s="51" thickTop="1">
-      <c r="A36" s="323" t="inlineStr">
+      <c r="A36" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B36" s="207" t="inlineStr">
+      <c r="B36" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C36" s="152" t="inlineStr"/>
-      <c r="D36" s="329" t="inlineStr"/>
+      <c r="C36" s="151" t="inlineStr"/>
+      <c r="D36" s="331" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" s="95" t="inlineStr">
         <is>
@@ -5412,12 +5418,12 @@
 Мирошниченко Е.Н.   4и</t>
         </is>
       </c>
-      <c r="G36" s="149" t="inlineStr"/>
-      <c r="H36" s="330" t="inlineStr"/>
+      <c r="G36" s="148" t="inlineStr"/>
+      <c r="H36" s="332" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" s="143" t="inlineStr"/>
-      <c r="K36" s="143" t="inlineStr"/>
-      <c r="L36" s="330" t="inlineStr"/>
+      <c r="J36" s="142" t="inlineStr"/>
+      <c r="K36" s="142" t="inlineStr"/>
+      <c r="L36" s="332" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
     </row>
     <row r="37" ht="32.1" customHeight="1" s="51" thickBot="1">
@@ -5434,7 +5440,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" s="144" t="inlineStr"/>
+      <c r="F37" s="143" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -5449,12 +5455,12 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B38" s="208" t="inlineStr">
+      <c r="B38" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C38" s="137" t="inlineStr">
+      <c r="C38" s="136" t="inlineStr">
         <is>
           <t>л.Теоретическая механика             Егоров В.Г.   125</t>
         </is>
@@ -5479,7 +5485,7 @@
           <t>л.Теоретическая механика             Егоров В.Г.   125</t>
         </is>
       </c>
-      <c r="H38" s="185" t="inlineStr">
+      <c r="H38" s="183" t="inlineStr">
         <is>
           <t>л.Химия пищи              Ожерельева О.Н.   204</t>
         </is>
@@ -5500,7 +5506,7 @@
 Квашнин Б.Н.   Уч.маст</t>
         </is>
       </c>
-      <c r="L38" s="330" t="inlineStr"/>
+      <c r="L38" s="332" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
     </row>
     <row r="39" ht="32.1" customHeight="1" s="51" thickBot="1">
@@ -5554,7 +5560,7 @@
           <t>л.Химия пищи              Ожерельева О.Н.   204</t>
         </is>
       </c>
-      <c r="K39" s="144" t="inlineStr"/>
+      <c r="K39" s="143" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
     </row>
@@ -5564,18 +5570,18 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B40" s="208" t="inlineStr">
+      <c r="B40" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C40" s="146" t="inlineStr">
+      <c r="C40" s="145" t="inlineStr">
         <is>
           <t>пр.Теоретическая механика
 Давыдов  О.Ю.   124</t>
         </is>
       </c>
-      <c r="D40" s="329" t="inlineStr">
+      <c r="D40" s="331" t="inlineStr">
         <is>
           <t>пр.История                     Злобин А.Н.   46</t>
         </is>
@@ -5585,13 +5591,13 @@
           <t>пр.История                     Злобин А.Н.   46</t>
         </is>
       </c>
-      <c r="F40" s="129" t="inlineStr">
+      <c r="F40" s="132" t="inlineStr">
         <is>
           <t>пр.Теоретическая механика
 Егоров В.Г.   133</t>
         </is>
       </c>
-      <c r="G40" s="131" t="inlineStr">
+      <c r="G40" s="134" t="inlineStr">
         <is>
           <t>пр.Математика
 Кузнецов С.Ф.   205</t>
@@ -5609,7 +5615,7 @@
 Ожерельева О.Н.   432</t>
         </is>
       </c>
-      <c r="J40" s="129" t="inlineStr">
+      <c r="J40" s="132" t="inlineStr">
         <is>
           <t>пр.Физические основы теплотехники
 Барбашин А.М.   333</t>
@@ -5621,7 +5627,7 @@
 Квашнин Б.Н.   Уч.маст</t>
         </is>
       </c>
-      <c r="L40" s="339" t="inlineStr">
+      <c r="L40" s="341" t="inlineStr">
         <is>
           <t>пр.Технологические энергоносители предприятий
 Белозерцев А.С.   311</t>
@@ -5691,7 +5697,7 @@
 Барбашин А.М.   333</t>
         </is>
       </c>
-      <c r="K41" s="144" t="inlineStr"/>
+      <c r="K41" s="143" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>пр.Технологические энергоносители предприятий
@@ -5711,18 +5717,18 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B42" s="208" t="inlineStr">
+      <c r="B42" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C42" s="146" t="inlineStr">
+      <c r="C42" s="145" t="inlineStr">
         <is>
           <t>пр.Математика
 Кузнецов С.Ф.   205</t>
         </is>
       </c>
-      <c r="D42" s="329" t="inlineStr">
+      <c r="D42" s="331" t="inlineStr">
         <is>
           <t>пр.Теоретическая механика                Давыдов  О.Ю.   124</t>
         </is>
@@ -5732,13 +5738,13 @@
           <t>пр.Теоретическая механика                Давыдов  О.Ю.   124</t>
         </is>
       </c>
-      <c r="F42" s="129" t="inlineStr">
+      <c r="F42" s="132" t="inlineStr">
         <is>
           <t>пр.История
 Злобин А.Н.   46</t>
         </is>
       </c>
-      <c r="G42" s="131" t="inlineStr"/>
+      <c r="G42" s="134" t="inlineStr"/>
       <c r="H42" s="109" t="inlineStr">
         <is>
           <t>лаб.Осн. технологии машиностр.
@@ -5752,13 +5758,13 @@
         </is>
       </c>
       <c r="J42" s="128" t="inlineStr"/>
-      <c r="K42" s="129" t="inlineStr">
+      <c r="K42" s="132" t="inlineStr">
         <is>
           <t>пр.Физические основы теплотехники
 Барбашин А.М.   333</t>
         </is>
       </c>
-      <c r="L42" s="339" t="inlineStr">
+      <c r="L42" s="341" t="inlineStr">
         <is>
           <t>пр.Тепломассообмен
 Лавров С.В.   329</t>
@@ -5817,7 +5823,7 @@
 Лихачева Л.Б.   Уч.маст</t>
         </is>
       </c>
-      <c r="J43" s="144" t="inlineStr">
+      <c r="J43" s="143" t="inlineStr">
         <is>
           <t>лаб.Процессы и аппараты
 Наумченко И.С.   111/2     Z</t>
@@ -5848,12 +5854,12 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B44" s="208" t="inlineStr">
+      <c r="B44" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C44" s="146" t="inlineStr">
+      <c r="C44" s="145" t="inlineStr">
         <is>
           <t>пр.Иностранный язык
 Лобачева Н.Н.   9и</t>
@@ -5861,11 +5867,11 @@
       </c>
       <c r="D44" s="128" t="n"/>
       <c r="F44" s="128" t="n"/>
-      <c r="G44" s="131" t="inlineStr"/>
-      <c r="H44" s="330" t="inlineStr"/>
+      <c r="G44" s="134" t="inlineStr"/>
+      <c r="H44" s="332" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" s="128" t="inlineStr"/>
-      <c r="K44" s="179" t="inlineStr">
+      <c r="K44" s="177" t="inlineStr">
         <is>
           <t>л.Материаловедение. Технология конструкционных материалов               Квашнин Б.Н.   124</t>
         </is>
@@ -5898,7 +5904,7 @@
 Лобачева Н.Н.   9и</t>
         </is>
       </c>
-      <c r="D45" s="336" t="inlineStr">
+      <c r="D45" s="338" t="inlineStr">
         <is>
           <t>пр.Иностранный язык            Хрячкова  Л.А.   17и       (нем)</t>
         </is>
@@ -5908,7 +5914,7 @@
           <t>пр.Иностранный язык            Хрячкова  Л.А.   17и       (нем)</t>
         </is>
       </c>
-      <c r="F45" s="144" t="inlineStr">
+      <c r="F45" s="143" t="inlineStr">
         <is>
           <t>пр.Иностранный язык
 Хрячкова  Л.А.   17и       (нем)</t>
@@ -5917,19 +5923,19 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" s="144" t="inlineStr">
+      <c r="J45" s="143" t="inlineStr">
         <is>
           <t>лаб.Процессы и аппараты
 Наумченко И.С.   111/2     Z</t>
         </is>
       </c>
-      <c r="K45" s="144" t="inlineStr">
+      <c r="K45" s="143" t="inlineStr">
         <is>
           <t>л.Сопротивление материалов
 Давыдов  О.Ю.   124</t>
         </is>
       </c>
-      <c r="L45" s="327" t="inlineStr">
+      <c r="L45" s="329" t="inlineStr">
         <is>
           <t>л.Тепломассообмен                 Лавров С.В.   329</t>
         </is>
@@ -5946,20 +5952,20 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B46" s="208" t="inlineStr">
+      <c r="B46" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C46" s="146" t="inlineStr"/>
-      <c r="D46" s="329" t="n"/>
-      <c r="F46" s="129" t="inlineStr"/>
-      <c r="G46" s="131" t="inlineStr"/>
-      <c r="H46" s="330" t="inlineStr"/>
+      <c r="C46" s="145" t="inlineStr"/>
+      <c r="D46" s="331" t="n"/>
+      <c r="F46" s="132" t="inlineStr"/>
+      <c r="G46" s="134" t="inlineStr"/>
+      <c r="H46" s="332" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" s="129" t="inlineStr"/>
-      <c r="K46" s="129" t="inlineStr"/>
-      <c r="L46" s="330" t="inlineStr"/>
+      <c r="J46" s="132" t="inlineStr"/>
+      <c r="K46" s="132" t="inlineStr"/>
+      <c r="L46" s="332" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -5989,21 +5995,21 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B48" s="331" t="inlineStr">
+      <c r="B48" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C48" s="332" t="inlineStr"/>
-      <c r="D48" s="333" t="inlineStr"/>
+      <c r="C48" s="334" t="inlineStr"/>
+      <c r="D48" s="335" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" s="333" t="inlineStr"/>
-      <c r="G48" s="334" t="inlineStr"/>
-      <c r="H48" s="335" t="inlineStr"/>
+      <c r="F48" s="335" t="inlineStr"/>
+      <c r="G48" s="336" t="inlineStr"/>
+      <c r="H48" s="337" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" s="333" t="inlineStr"/>
-      <c r="K48" s="333" t="inlineStr"/>
-      <c r="L48" s="335" t="inlineStr"/>
+      <c r="J48" s="335" t="inlineStr"/>
+      <c r="K48" s="335" t="inlineStr"/>
+      <c r="L48" s="337" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -6030,21 +6036,21 @@
       <c r="M49" t="inlineStr"/>
     </row>
     <row r="50" ht="32.1" customHeight="1" s="51" thickTop="1">
-      <c r="A50" s="323" t="inlineStr">
+      <c r="A50" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B50" s="207" t="inlineStr">
+      <c r="B50" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C50" s="152" t="inlineStr"/>
-      <c r="D50" s="329" t="inlineStr"/>
+      <c r="C50" s="151" t="inlineStr"/>
+      <c r="D50" s="331" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" s="143" t="inlineStr"/>
-      <c r="G50" s="149" t="inlineStr"/>
+      <c r="F50" s="142" t="inlineStr"/>
+      <c r="G50" s="148" t="inlineStr"/>
       <c r="H50" s="109" t="inlineStr">
         <is>
           <t>лаб.Электротехника и электроника,
@@ -6052,14 +6058,14 @@
         </is>
       </c>
       <c r="I50" s="110" t="n"/>
-      <c r="J50" s="143" t="inlineStr"/>
-      <c r="K50" s="143" t="inlineStr">
+      <c r="J50" s="142" t="inlineStr"/>
+      <c r="K50" s="142" t="inlineStr">
         <is>
           <t>л.Уравнения математической физики. Основы вариационного исчисления
 Попов М.И.   16</t>
         </is>
       </c>
-      <c r="L50" s="330" t="inlineStr"/>
+      <c r="L50" s="332" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
     </row>
     <row r="51" ht="32.1" customHeight="1" s="51" thickBot="1">
@@ -6101,12 +6107,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B52" s="208" t="inlineStr">
+      <c r="B52" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C52" s="183" t="inlineStr"/>
+      <c r="C52" s="181" t="inlineStr"/>
       <c r="D52" s="128" t="inlineStr">
         <is>
           <t>пр.Основы экономики          Пономарева Н.И.   237</t>
@@ -6131,8 +6137,8 @@
         </is>
       </c>
       <c r="I52" s="110" t="n"/>
-      <c r="J52" s="129" t="inlineStr"/>
-      <c r="K52" s="129" t="inlineStr">
+      <c r="J52" s="132" t="inlineStr"/>
+      <c r="K52" s="132" t="inlineStr">
         <is>
           <t>пр.Уравнения математической физики. Основы вариационного исчисления
 Попов М.И.   16</t>
@@ -6157,12 +6163,12 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C53" s="153" t="inlineStr">
+      <c r="C53" s="152" t="inlineStr">
         <is>
           <t>пр.Основы экономики         Пономарева Н.И.   237</t>
         </is>
       </c>
-      <c r="D53" s="336" t="inlineStr">
+      <c r="D53" s="338" t="inlineStr">
         <is>
           <t>пр.Иностранный язык, 
 Лобачева Н.Н.   2и          Прибыткова  О.В.   3и</t>
@@ -6174,12 +6180,12 @@
 Лобачева Н.Н.   2и          Прибыткова  О.В.   3и</t>
         </is>
       </c>
-      <c r="F53" s="144" t="inlineStr">
+      <c r="F53" s="143" t="inlineStr">
         <is>
           <t>пр.Правоведение           Черенков Р.А.   46</t>
         </is>
       </c>
-      <c r="G53" s="150" t="inlineStr"/>
+      <c r="G53" s="149" t="inlineStr"/>
       <c r="H53" s="111" t="n"/>
       <c r="I53" s="112" t="inlineStr">
         <is>
@@ -6208,17 +6214,17 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B54" s="208" t="inlineStr">
+      <c r="B54" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C54" s="183" t="inlineStr">
+      <c r="C54" s="181" t="inlineStr">
         <is>
           <t>пр.Физика         Татохин Е.А.   40</t>
         </is>
       </c>
-      <c r="D54" s="329" t="inlineStr">
+      <c r="D54" s="331" t="inlineStr">
         <is>
           <t>пр.Математика                  Кузнецов С.Ф.   205</t>
         </is>
@@ -6234,7 +6240,7 @@
           <t>пр.Основы экономики      Пономарева Н.И.   237</t>
         </is>
       </c>
-      <c r="H54" s="337" t="inlineStr">
+      <c r="H54" s="339" t="inlineStr">
         <is>
           <t>пр.Физические основы теплотехники            Барбашин А.М.   311</t>
         </is>
@@ -6270,7 +6276,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C55" s="153" t="inlineStr">
+      <c r="C55" s="152" t="inlineStr">
         <is>
           <t>пр.Правоведение      Черенков Р.А.   46</t>
         </is>
@@ -6285,17 +6291,17 @@
           <t>пр.Математика                  Кузнецов С.Ф.   205</t>
         </is>
       </c>
-      <c r="F55" s="144" t="inlineStr">
+      <c r="F55" s="143" t="inlineStr">
         <is>
           <t>пр.Основы экономики      Пономарева Н.И.   237</t>
         </is>
       </c>
-      <c r="G55" s="150" t="inlineStr">
+      <c r="G55" s="149" t="inlineStr">
         <is>
           <t>л.Философия       Черниговских И.В.   452</t>
         </is>
       </c>
-      <c r="H55" s="158" t="inlineStr">
+      <c r="H55" s="157" t="inlineStr">
         <is>
           <t>л.Основы технологии машиностроения              Лихачева Л.Б.   125</t>
         </is>
@@ -6325,12 +6331,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B56" s="208" t="inlineStr">
+      <c r="B56" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C56" s="137" t="inlineStr">
+      <c r="C56" s="136" t="inlineStr">
         <is>
           <t>л.Математика              Кузнецов С.Ф.   404</t>
         </is>
@@ -6355,7 +6361,7 @@
           <t>л.Математика              Кузнецов С.Ф.   404</t>
         </is>
       </c>
-      <c r="H56" s="160" t="inlineStr">
+      <c r="H56" s="159" t="inlineStr">
         <is>
           <t>л.Культурология             Черных В.Д.   8</t>
         </is>
@@ -6375,7 +6381,7 @@
           <t>л.Культурология             Черных В.Д.   8</t>
         </is>
       </c>
-      <c r="L56" s="340" t="inlineStr">
+      <c r="L56" s="342" t="inlineStr">
         <is>
           <t>л.Техническая термодинамика             Барбашин А.М.   311</t>
         </is>
@@ -6422,7 +6428,7 @@
           <t>л.Математика              Кузнецов С.Ф.   404</t>
         </is>
       </c>
-      <c r="H57" s="338" t="inlineStr">
+      <c r="H57" s="340" t="inlineStr">
         <is>
           <t>пр.Физические основы теплотехники              Барбашин А.М.   311</t>
         </is>
@@ -6432,14 +6438,14 @@
           <t>пр.Физические основы теплотехники              Барбашин А.М.   311</t>
         </is>
       </c>
-      <c r="J57" s="144" t="inlineStr">
+      <c r="J57" s="143" t="inlineStr">
         <is>
           <t>лаб.Электротехника и электроника
 Лавров С.В.   329</t>
         </is>
       </c>
-      <c r="K57" s="144" t="n"/>
-      <c r="L57" s="341" t="inlineStr">
+      <c r="K57" s="143" t="n"/>
+      <c r="L57" s="343" t="inlineStr">
         <is>
           <t>л.Механика              Литвинов Е.В.   124</t>
         </is>
@@ -6456,12 +6462,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B58" s="208" t="inlineStr">
+      <c r="B58" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C58" s="137" t="inlineStr">
+      <c r="C58" s="136" t="inlineStr">
         <is>
           <t>Элективные дисциплины (курсы) по физической культуре и спорту,    общая физическая подготовка</t>
         </is>
@@ -6486,7 +6492,7 @@
           <t>Элективные дисциплины (курсы) по физической культуре и спорту,    общая физическая подготовка</t>
         </is>
       </c>
-      <c r="H58" s="330" t="inlineStr"/>
+      <c r="H58" s="332" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" s="128" t="inlineStr">
         <is>
@@ -6494,8 +6500,8 @@
 Черных В.Д.   46</t>
         </is>
       </c>
-      <c r="K58" s="129" t="inlineStr"/>
-      <c r="L58" s="339" t="inlineStr">
+      <c r="K58" s="132" t="inlineStr"/>
+      <c r="L58" s="341" t="inlineStr">
         <is>
           <t>л.Технологические энергоносители предприятий
 Барбашин А.М.   311</t>
@@ -6546,7 +6552,7 @@
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" s="144" t="inlineStr">
+      <c r="J59" s="143" t="inlineStr">
         <is>
           <t>лаб.Электротехника и электроника
 Лавров С.В.   329</t>
@@ -6572,21 +6578,21 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B60" s="208" t="inlineStr">
+      <c r="B60" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C60" s="146" t="inlineStr"/>
-      <c r="D60" s="329" t="inlineStr"/>
+      <c r="C60" s="145" t="inlineStr"/>
+      <c r="D60" s="331" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" s="129" t="inlineStr"/>
-      <c r="G60" s="131" t="inlineStr"/>
-      <c r="H60" s="330" t="inlineStr"/>
+      <c r="F60" s="132" t="inlineStr"/>
+      <c r="G60" s="134" t="inlineStr"/>
+      <c r="H60" s="332" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" s="129" t="inlineStr"/>
-      <c r="K60" s="129" t="inlineStr"/>
-      <c r="L60" s="330" t="inlineStr"/>
+      <c r="J60" s="132" t="inlineStr"/>
+      <c r="K60" s="132" t="inlineStr"/>
+      <c r="L60" s="332" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
     </row>
     <row r="61" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -6618,21 +6624,21 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B62" s="331" t="inlineStr">
+      <c r="B62" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C62" s="332" t="inlineStr"/>
-      <c r="D62" s="333" t="inlineStr"/>
+      <c r="C62" s="334" t="inlineStr"/>
+      <c r="D62" s="335" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" s="333" t="inlineStr"/>
-      <c r="G62" s="334" t="inlineStr"/>
-      <c r="H62" s="335" t="inlineStr"/>
+      <c r="F62" s="335" t="inlineStr"/>
+      <c r="G62" s="336" t="inlineStr"/>
+      <c r="H62" s="337" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" s="333" t="inlineStr"/>
-      <c r="K62" s="333" t="inlineStr"/>
-      <c r="L62" s="335" t="inlineStr"/>
+      <c r="J62" s="335" t="inlineStr"/>
+      <c r="K62" s="335" t="inlineStr"/>
+      <c r="L62" s="337" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
     </row>
     <row r="63" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -6659,31 +6665,31 @@
       <c r="M63" t="inlineStr"/>
     </row>
     <row r="64" ht="32.1" customHeight="1" s="51" thickTop="1">
-      <c r="A64" s="323" t="inlineStr">
+      <c r="A64" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B64" s="207" t="inlineStr">
+      <c r="B64" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C64" s="272" t="inlineStr"/>
-      <c r="D64" s="329" t="inlineStr"/>
+      <c r="C64" s="266" t="inlineStr"/>
+      <c r="D64" s="331" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" s="143" t="inlineStr"/>
-      <c r="G64" s="149" t="inlineStr"/>
-      <c r="H64" s="330" t="inlineStr"/>
+      <c r="F64" s="142" t="inlineStr"/>
+      <c r="G64" s="148" t="inlineStr"/>
+      <c r="H64" s="332" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" s="143" t="inlineStr"/>
+      <c r="J64" s="142" t="inlineStr"/>
       <c r="K64" s="122" t="inlineStr">
         <is>
           <t>пр.Теория механизмов и основы робототехники
 Невструев Ю.А.   124</t>
         </is>
       </c>
-      <c r="L64" s="330" t="inlineStr"/>
+      <c r="L64" s="332" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
     </row>
     <row r="65" ht="32.1" customHeight="1" s="51" thickBot="1">
@@ -6697,7 +6703,7 @@
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C65" s="153" t="inlineStr">
+      <c r="C65" s="152" t="inlineStr">
         <is>
           <t>лаб.Введение в специальность
 Потапов А.И.   103</t>
@@ -6725,12 +6731,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B66" s="208" t="inlineStr">
+      <c r="B66" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C66" s="183" t="inlineStr"/>
+      <c r="C66" s="181" t="inlineStr"/>
       <c r="D66" s="102" t="inlineStr">
         <is>
           <t>лаб.Основы проф. деятельности
@@ -6738,14 +6744,14 @@
         </is>
       </c>
       <c r="E66" s="103" t="n"/>
-      <c r="F66" s="131" t="inlineStr"/>
-      <c r="G66" s="131" t="inlineStr">
+      <c r="F66" s="134" t="inlineStr"/>
+      <c r="G66" s="134" t="inlineStr">
         <is>
           <t>пр.История (история России, всеобщая история)
 Злобин А.Н.   42</t>
         </is>
       </c>
-      <c r="H66" s="178" t="inlineStr">
+      <c r="H66" s="176" t="inlineStr">
         <is>
           <t>л.Математическое моделирование             Коробова Л.А.   334</t>
         </is>
@@ -6760,13 +6766,13 @@
           <t>л.Математическое моделирование             Коробова Л.А.   334</t>
         </is>
       </c>
-      <c r="K66" s="129" t="inlineStr">
+      <c r="K66" s="132" t="inlineStr">
         <is>
           <t>л.Теория механизмов и основы робототехники
 Дегтярёв А.В.   124</t>
         </is>
       </c>
-      <c r="L66" s="339" t="inlineStr">
+      <c r="L66" s="341" t="inlineStr">
         <is>
           <t>пр.Механика               Литвинов Е.В.   127</t>
         </is>
@@ -6788,7 +6794,7 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C67" s="153" t="inlineStr">
+      <c r="C67" s="152" t="inlineStr">
         <is>
           <t>лаб.Введение в специальность
 Потапов А.И.   103</t>
@@ -6808,7 +6814,7 @@
 Злобин А.Н.   42</t>
         </is>
       </c>
-      <c r="H67" s="338" t="inlineStr">
+      <c r="H67" s="340" t="inlineStr">
         <is>
           <t>пр.Культурология            Черных В.Д.   8</t>
         </is>
@@ -6818,7 +6824,7 @@
           <t>пр.Культурология            Черных В.Д.   8</t>
         </is>
       </c>
-      <c r="J67" s="144" t="inlineStr">
+      <c r="J67" s="143" t="inlineStr">
         <is>
           <t>лаб.Химия пищи           Мотина Е.А.   432</t>
         </is>
@@ -6846,12 +6852,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B68" s="208" t="inlineStr">
+      <c r="B68" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C68" s="183" t="n"/>
+      <c r="C68" s="181" t="n"/>
       <c r="D68" s="102" t="inlineStr">
         <is>
           <t>лаб.Основы проф. деятельности
@@ -6859,14 +6865,14 @@
         </is>
       </c>
       <c r="E68" s="103" t="n"/>
-      <c r="F68" s="131" t="inlineStr"/>
-      <c r="G68" s="131" t="inlineStr">
+      <c r="F68" s="134" t="inlineStr"/>
+      <c r="G68" s="134" t="inlineStr">
         <is>
           <t>пр.Философия
 Черниговских И.В.   07</t>
         </is>
       </c>
-      <c r="H68" s="160" t="inlineStr">
+      <c r="H68" s="159" t="inlineStr">
         <is>
           <t>л.Экология             Молоканова  Л.В.   37</t>
         </is>
@@ -6908,7 +6914,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C69" s="153" t="inlineStr">
+      <c r="C69" s="152" t="inlineStr">
         <is>
           <t>пр.Социология        Злобин А.Н.   46</t>
         </is>
@@ -6927,7 +6933,7 @@
 Черниговских И.В.   07</t>
         </is>
       </c>
-      <c r="H69" s="338" t="inlineStr">
+      <c r="H69" s="340" t="inlineStr">
         <is>
           <t>пр.Техническая механика           Давыдов  О.Ю.   127</t>
         </is>
@@ -6937,18 +6943,18 @@
           <t>пр.Техническая механика           Давыдов  О.Ю.   127</t>
         </is>
       </c>
-      <c r="J69" s="144" t="inlineStr">
+      <c r="J69" s="143" t="inlineStr">
         <is>
           <t>лаб.Химия пищи         Мотина Е.А.   432</t>
         </is>
       </c>
-      <c r="K69" s="144" t="inlineStr">
+      <c r="K69" s="143" t="inlineStr">
         <is>
           <t>пр.Теория механизмов и основы робототехники
 Невструев Ю.А.   133</t>
         </is>
       </c>
-      <c r="L69" s="327" t="inlineStr">
+      <c r="L69" s="329" t="inlineStr">
         <is>
           <t>пр.Техническая термодинамика             Барбашин А.М.   333</t>
         </is>
@@ -6965,12 +6971,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B70" s="208" t="inlineStr">
+      <c r="B70" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C70" s="183" t="inlineStr">
+      <c r="C70" s="181" t="inlineStr">
         <is>
           <t>пр.Математика      Кузнецов С.Ф.   205</t>
         </is>
@@ -6987,7 +6993,7 @@
           <t>пр.Социология         Злобин А.Н.   44</t>
         </is>
       </c>
-      <c r="G70" s="131" t="inlineStr"/>
+      <c r="G70" s="134" t="inlineStr"/>
       <c r="H70" s="109" t="inlineStr">
         <is>
           <t>пр.Математическое моделирование
@@ -6997,7 +7003,7 @@
       <c r="I70" s="110" t="n"/>
       <c r="J70" s="128" t="inlineStr"/>
       <c r="K70" s="128" t="n"/>
-      <c r="L70" s="330" t="inlineStr"/>
+      <c r="L70" s="332" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
     </row>
     <row r="71" ht="32.1" customHeight="1" s="51" thickBot="1">
@@ -7011,7 +7017,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C71" s="153" t="inlineStr"/>
+      <c r="C71" s="152" t="inlineStr"/>
       <c r="D71" s="106" t="n"/>
       <c r="E71" s="107" t="inlineStr">
         <is>
@@ -7019,7 +7025,7 @@
 Татохин Е.А.   51</t>
         </is>
       </c>
-      <c r="F71" s="144" t="inlineStr"/>
+      <c r="F71" s="143" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" s="111" t="n"/>
       <c r="I71" s="112" t="inlineStr">
@@ -7028,7 +7034,7 @@
 Коробова Л.А.   343</t>
         </is>
       </c>
-      <c r="J71" s="144" t="inlineStr">
+      <c r="J71" s="143" t="inlineStr">
         <is>
           <t>пр.Техническая механика
 Давыдов  О.Ю.   127</t>
@@ -7049,29 +7055,29 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B72" s="208" t="inlineStr">
+      <c r="B72" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C72" s="183" t="inlineStr">
+      <c r="C72" s="181" t="inlineStr">
         <is>
           <t>лаб.Физика         Татохин Е.А.   51</t>
         </is>
       </c>
-      <c r="D72" s="329" t="inlineStr"/>
+      <c r="D72" s="331" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" s="128" t="inlineStr">
         <is>
           <t>пр.Математика        Кузнецов С.Ф.   205</t>
         </is>
       </c>
-      <c r="G72" s="131" t="inlineStr"/>
-      <c r="H72" s="330" t="inlineStr"/>
+      <c r="G72" s="134" t="inlineStr"/>
+      <c r="H72" s="332" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" s="129" t="inlineStr"/>
-      <c r="K72" s="129" t="inlineStr"/>
-      <c r="L72" s="330" t="inlineStr"/>
+      <c r="J72" s="132" t="inlineStr"/>
+      <c r="K72" s="132" t="inlineStr"/>
+      <c r="L72" s="332" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
     </row>
     <row r="73" ht="30" customHeight="1" s="51" thickBot="1">
@@ -7085,10 +7091,10 @@
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C73" s="153" t="n"/>
+      <c r="C73" s="152" t="n"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" s="144" t="inlineStr"/>
+      <c r="F73" s="143" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -7103,21 +7109,21 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B74" s="208" t="inlineStr">
+      <c r="B74" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C74" s="146" t="inlineStr"/>
-      <c r="D74" s="329" t="inlineStr"/>
+      <c r="C74" s="145" t="inlineStr"/>
+      <c r="D74" s="331" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" s="129" t="inlineStr"/>
-      <c r="G74" s="131" t="inlineStr"/>
-      <c r="H74" s="330" t="inlineStr"/>
+      <c r="F74" s="132" t="inlineStr"/>
+      <c r="G74" s="134" t="inlineStr"/>
+      <c r="H74" s="332" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" s="129" t="inlineStr"/>
-      <c r="K74" s="129" t="inlineStr"/>
-      <c r="L74" s="330" t="inlineStr"/>
+      <c r="J74" s="132" t="inlineStr"/>
+      <c r="K74" s="132" t="inlineStr"/>
+      <c r="L74" s="332" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
     </row>
     <row r="75" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -7149,21 +7155,21 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B76" s="331" t="inlineStr">
+      <c r="B76" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C76" s="332" t="inlineStr"/>
-      <c r="D76" s="342" t="inlineStr"/>
+      <c r="C76" s="334" t="inlineStr"/>
+      <c r="D76" s="344" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" s="333" t="inlineStr"/>
-      <c r="G76" s="334" t="inlineStr"/>
-      <c r="H76" s="335" t="inlineStr"/>
+      <c r="F76" s="335" t="inlineStr"/>
+      <c r="G76" s="336" t="inlineStr"/>
+      <c r="H76" s="337" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" s="333" t="inlineStr"/>
-      <c r="K76" s="333" t="inlineStr"/>
-      <c r="L76" s="335" t="inlineStr"/>
+      <c r="J76" s="335" t="inlineStr"/>
+      <c r="K76" s="335" t="inlineStr"/>
+      <c r="L76" s="337" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
     </row>
     <row r="77" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -7190,26 +7196,26 @@
       <c r="M77" t="inlineStr"/>
     </row>
     <row r="78" ht="15.75" customHeight="1" s="51" thickTop="1">
-      <c r="A78" s="323" t="inlineStr">
+      <c r="A78" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B78" s="207" t="inlineStr">
+      <c r="B78" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C78" s="146" t="inlineStr"/>
-      <c r="D78" s="329" t="inlineStr"/>
+      <c r="C78" s="145" t="inlineStr"/>
+      <c r="D78" s="331" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" s="129" t="inlineStr"/>
-      <c r="G78" s="131" t="inlineStr"/>
-      <c r="H78" s="329" t="inlineStr"/>
+      <c r="F78" s="132" t="inlineStr"/>
+      <c r="G78" s="134" t="inlineStr"/>
+      <c r="H78" s="331" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" s="129" t="inlineStr"/>
-      <c r="K78" s="129" t="inlineStr"/>
-      <c r="L78" s="329" t="inlineStr"/>
+      <c r="J78" s="132" t="inlineStr"/>
+      <c r="K78" s="132" t="inlineStr"/>
+      <c r="L78" s="331" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
     </row>
     <row r="79" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -7241,21 +7247,21 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B80" s="208" t="inlineStr">
+      <c r="B80" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C80" s="146" t="inlineStr"/>
-      <c r="D80" s="329" t="inlineStr"/>
+      <c r="C80" s="145" t="inlineStr"/>
+      <c r="D80" s="331" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" s="129" t="inlineStr"/>
-      <c r="G80" s="131" t="inlineStr"/>
-      <c r="H80" s="329" t="inlineStr"/>
+      <c r="F80" s="132" t="inlineStr"/>
+      <c r="G80" s="134" t="inlineStr"/>
+      <c r="H80" s="331" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" s="129" t="inlineStr"/>
-      <c r="K80" s="129" t="inlineStr"/>
-      <c r="L80" s="329" t="inlineStr"/>
+      <c r="J80" s="132" t="inlineStr"/>
+      <c r="K80" s="132" t="inlineStr"/>
+      <c r="L80" s="331" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
     </row>
     <row r="81" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -7287,21 +7293,21 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B82" s="208" t="inlineStr">
+      <c r="B82" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C82" s="146" t="inlineStr"/>
-      <c r="D82" s="329" t="inlineStr"/>
+      <c r="C82" s="145" t="inlineStr"/>
+      <c r="D82" s="331" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" s="129" t="inlineStr"/>
-      <c r="G82" s="131" t="inlineStr"/>
-      <c r="H82" s="329" t="inlineStr"/>
+      <c r="F82" s="132" t="inlineStr"/>
+      <c r="G82" s="134" t="inlineStr"/>
+      <c r="H82" s="331" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" s="129" t="inlineStr"/>
-      <c r="K82" s="129" t="inlineStr"/>
-      <c r="L82" s="329" t="inlineStr"/>
+      <c r="J82" s="132" t="inlineStr"/>
+      <c r="K82" s="132" t="inlineStr"/>
+      <c r="L82" s="331" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
     </row>
     <row r="83" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -7333,21 +7339,21 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B84" s="208" t="inlineStr">
+      <c r="B84" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C84" s="146" t="inlineStr"/>
-      <c r="D84" s="329" t="inlineStr"/>
+      <c r="C84" s="145" t="inlineStr"/>
+      <c r="D84" s="331" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" s="129" t="inlineStr"/>
-      <c r="G84" s="131" t="inlineStr"/>
-      <c r="H84" s="329" t="inlineStr"/>
+      <c r="F84" s="132" t="inlineStr"/>
+      <c r="G84" s="134" t="inlineStr"/>
+      <c r="H84" s="331" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" s="129" t="inlineStr"/>
-      <c r="K84" s="129" t="inlineStr"/>
-      <c r="L84" s="329" t="inlineStr"/>
+      <c r="J84" s="132" t="inlineStr"/>
+      <c r="K84" s="132" t="inlineStr"/>
+      <c r="L84" s="331" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
     </row>
     <row r="85" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -7379,21 +7385,21 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B86" s="208" t="inlineStr">
+      <c r="B86" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C86" s="146" t="inlineStr"/>
-      <c r="D86" s="329" t="inlineStr"/>
+      <c r="C86" s="145" t="inlineStr"/>
+      <c r="D86" s="331" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" s="129" t="inlineStr"/>
-      <c r="G86" s="131" t="inlineStr"/>
-      <c r="H86" s="329" t="inlineStr"/>
+      <c r="F86" s="132" t="inlineStr"/>
+      <c r="G86" s="134" t="inlineStr"/>
+      <c r="H86" s="331" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" s="129" t="inlineStr"/>
-      <c r="K86" s="129" t="inlineStr"/>
-      <c r="L86" s="329" t="inlineStr"/>
+      <c r="J86" s="132" t="inlineStr"/>
+      <c r="K86" s="132" t="inlineStr"/>
+      <c r="L86" s="331" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
     </row>
     <row r="87" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -7425,21 +7431,21 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B88" s="208" t="inlineStr">
+      <c r="B88" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C88" s="146" t="inlineStr"/>
-      <c r="D88" s="329" t="inlineStr"/>
+      <c r="C88" s="145" t="inlineStr"/>
+      <c r="D88" s="331" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" s="129" t="inlineStr"/>
-      <c r="G88" s="131" t="inlineStr"/>
-      <c r="H88" s="329" t="inlineStr"/>
+      <c r="F88" s="132" t="inlineStr"/>
+      <c r="G88" s="134" t="inlineStr"/>
+      <c r="H88" s="331" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" s="129" t="inlineStr"/>
-      <c r="K88" s="129" t="inlineStr"/>
-      <c r="L88" s="329" t="inlineStr"/>
+      <c r="J88" s="132" t="inlineStr"/>
+      <c r="K88" s="132" t="inlineStr"/>
+      <c r="L88" s="331" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
     </row>
     <row r="89" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -7471,21 +7477,21 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B90" s="331" t="inlineStr">
+      <c r="B90" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C90" s="332" t="inlineStr"/>
-      <c r="D90" s="342" t="inlineStr"/>
+      <c r="C90" s="334" t="inlineStr"/>
+      <c r="D90" s="344" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" s="333" t="inlineStr"/>
-      <c r="G90" s="334" t="inlineStr"/>
-      <c r="H90" s="342" t="inlineStr"/>
+      <c r="F90" s="335" t="inlineStr"/>
+      <c r="G90" s="336" t="inlineStr"/>
+      <c r="H90" s="344" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" s="333" t="inlineStr"/>
-      <c r="K90" s="333" t="inlineStr"/>
-      <c r="L90" s="342" t="inlineStr"/>
+      <c r="J90" s="335" t="inlineStr"/>
+      <c r="K90" s="335" t="inlineStr"/>
+      <c r="L90" s="344" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
     </row>
     <row r="91" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -7527,7 +7533,7 @@
       <c r="M92" s="6" t="n"/>
     </row>
     <row r="93" ht="27.75" customFormat="1" customHeight="1" s="48">
-      <c r="C93" s="193" t="inlineStr">
+      <c r="C93" s="190" t="inlineStr">
         <is>
           <t>Декан факультета _____________________А.В.Дранников</t>
         </is>
@@ -7557,7 +7563,7 @@
           <t>Декан факультета _____________________А.В.Дранников</t>
         </is>
       </c>
-      <c r="J93" s="194" t="inlineStr">
+      <c r="J93" s="191" t="inlineStr">
         <is>
           <t xml:space="preserve">Начальник учебно-методического управления _____________________ Фролова Л.Н.                  </t>
         </is>
@@ -7735,24 +7741,24 @@
       <c r="M3" s="48" t="n"/>
     </row>
     <row r="4" ht="27.75" customHeight="1" s="51" thickTop="1">
-      <c r="A4" s="323" t="inlineStr">
+      <c r="A4" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B4" s="207" t="inlineStr">
+      <c r="B4" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C4" s="344" t="inlineStr"/>
+      <c r="C4" s="346" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" s="344" t="inlineStr"/>
+      <c r="E4" s="346" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" s="344" t="inlineStr"/>
+      <c r="G4" s="346" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" s="344" t="n"/>
-      <c r="K4" s="344" t="n"/>
+      <c r="I4" s="346" t="n"/>
+      <c r="K4" s="346" t="n"/>
       <c r="M4" s="48" t="n"/>
     </row>
     <row r="5" ht="27.75" customHeight="1" s="51" thickBot="1">
@@ -7780,7 +7786,7 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B6" s="208" t="inlineStr">
+      <c r="B6" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
@@ -7791,11 +7797,11 @@
 Ожерельева О.Н.   432</t>
         </is>
       </c>
-      <c r="D6" s="224" t="n"/>
-      <c r="E6" s="349" t="n"/>
-      <c r="G6" s="349" t="n"/>
-      <c r="I6" s="349" t="n"/>
-      <c r="K6" s="349" t="n"/>
+      <c r="D6" s="232" t="n"/>
+      <c r="E6" s="351" t="n"/>
+      <c r="G6" s="351" t="n"/>
+      <c r="I6" s="351" t="n"/>
+      <c r="K6" s="351" t="n"/>
       <c r="M6" s="48" t="n"/>
     </row>
     <row r="7" ht="27" customHeight="1" s="51" thickBot="1">
@@ -7824,7 +7830,7 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B8" s="208" t="inlineStr">
+      <c r="B8" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
@@ -7835,13 +7841,13 @@
 Ожерельева О.Н.   432</t>
         </is>
       </c>
-      <c r="D8" s="224" t="inlineStr">
+      <c r="D8" s="232" t="inlineStr">
         <is>
           <t>Физика,
 Татохин Е.А.   41</t>
         </is>
       </c>
-      <c r="E8" s="349" t="inlineStr">
+      <c r="E8" s="351" t="inlineStr">
         <is>
           <t>пр.Философия
 Черниговских И.В.   07</t>
@@ -7859,7 +7865,7 @@
 Квашнин Б.Н.   5-25</t>
         </is>
       </c>
-      <c r="H8" s="224" t="inlineStr">
+      <c r="H8" s="232" t="inlineStr">
         <is>
           <t>Техническая механика,
 Давыдов  О.Ю.   127</t>
@@ -7938,7 +7944,7 @@
 Квашнин Б.Н.   5-25</t>
         </is>
       </c>
-      <c r="I9" s="352" t="inlineStr">
+      <c r="I9" s="354" t="inlineStr">
         <is>
           <t>л.Механика жидкости и газа
 Терехина А.В.   117</t>
@@ -7950,7 +7956,7 @@
 Терехина А.В.   117</t>
         </is>
       </c>
-      <c r="K9" s="352" t="inlineStr">
+      <c r="K9" s="354" t="inlineStr">
         <is>
           <t>л.Механика
 Степыгин В.И.   125</t>
@@ -7970,12 +7976,12 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B10" s="208" t="inlineStr">
+      <c r="B10" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C10" s="349" t="inlineStr">
+      <c r="C10" s="351" t="inlineStr">
         <is>
           <t>пр.Теоретическая механика
 Егоров В.Г.   124</t>
@@ -7987,7 +7993,7 @@
 Егоров В.Г.   124</t>
         </is>
       </c>
-      <c r="E10" s="349" t="inlineStr">
+      <c r="E10" s="351" t="inlineStr">
         <is>
           <t>пр.Математика
 Кузнецов С.Ф.   403</t>
@@ -8005,13 +8011,13 @@
 Квашнин Б.Н.   5-25</t>
         </is>
       </c>
-      <c r="H10" s="224" t="inlineStr">
+      <c r="H10" s="232" t="inlineStr">
         <is>
           <t>Техническая механика,
 Давыдов  О.Ю.   127</t>
         </is>
       </c>
-      <c r="I10" s="349" t="inlineStr">
+      <c r="I10" s="351" t="inlineStr">
         <is>
           <t>пр.Философия
 Черниговских И.В.   15</t>
@@ -8023,7 +8029,7 @@
 Черниговских И.В.   15</t>
         </is>
       </c>
-      <c r="K10" s="349" t="inlineStr">
+      <c r="K10" s="351" t="inlineStr">
         <is>
           <t>пр.Механика
 Степыгин В.И.   133</t>
@@ -8116,12 +8122,12 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B12" s="208" t="inlineStr">
+      <c r="B12" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C12" s="354" t="inlineStr">
+      <c r="C12" s="356" t="inlineStr">
         <is>
           <t>Общая физическая подготовка</t>
         </is>
@@ -8242,20 +8248,20 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B14" s="208" t="inlineStr">
+      <c r="B14" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C14" s="349" t="inlineStr"/>
+      <c r="C14" s="351" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" s="349" t="inlineStr"/>
+      <c r="E14" s="351" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" s="349" t="inlineStr"/>
+      <c r="G14" s="351" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" s="349" t="inlineStr"/>
+      <c r="I14" s="351" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" s="349" t="inlineStr"/>
+      <c r="K14" s="351" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" s="48" t="n"/>
     </row>
@@ -8288,20 +8294,20 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B16" s="331" t="inlineStr">
+      <c r="B16" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C16" s="357" t="inlineStr"/>
+      <c r="C16" s="359" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" s="357" t="inlineStr"/>
+      <c r="E16" s="359" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" s="357" t="inlineStr"/>
+      <c r="G16" s="359" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" s="357" t="inlineStr"/>
+      <c r="I16" s="359" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" s="357" t="inlineStr"/>
+      <c r="K16" s="359" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" s="48" t="n"/>
     </row>
@@ -8329,17 +8335,17 @@
       <c r="M17" s="48" t="n"/>
     </row>
     <row r="18" ht="27" customHeight="1" s="51" thickTop="1">
-      <c r="A18" s="323" t="inlineStr">
+      <c r="A18" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B18" s="207" t="inlineStr">
+      <c r="B18" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C18" s="349" t="inlineStr"/>
+      <c r="C18" s="351" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" s="20" t="inlineStr">
         <is>
@@ -8347,8 +8353,8 @@
 Копылов М.В.   111   Z</t>
         </is>
       </c>
-      <c r="F18" s="311" t="n"/>
-      <c r="G18" s="349" t="inlineStr"/>
+      <c r="F18" s="323" t="n"/>
+      <c r="G18" s="351" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" s="20" t="inlineStr">
         <is>
@@ -8356,14 +8362,14 @@
 Квашнин Б.Н.   5-25</t>
         </is>
       </c>
-      <c r="J18" s="311" t="inlineStr">
+      <c r="J18" s="323" t="inlineStr">
         <is>
           <t>Сопротивление материалов,
 Давыдов  О.Ю.   127</t>
         </is>
       </c>
       <c r="K18" s="20" t="n"/>
-      <c r="L18" s="311" t="inlineStr">
+      <c r="L18" s="323" t="inlineStr">
         <is>
           <t>лаб.Материаловедение. ТКМ,
 Лихачева Л.Б.    5-16</t>
@@ -8415,12 +8421,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B20" s="208" t="inlineStr">
+      <c r="B20" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C20" s="349" t="inlineStr">
+      <c r="C20" s="351" t="inlineStr">
         <is>
           <t>пр.Философия
 Черниговских И.В.   07</t>
@@ -8438,16 +8444,16 @@
 Копылов М.В.   111   Z</t>
         </is>
       </c>
-      <c r="F20" s="224" t="n"/>
+      <c r="F20" s="232" t="n"/>
       <c r="G20" s="17" t="n"/>
-      <c r="H20" s="224" t="inlineStr"/>
+      <c r="H20" s="232" t="inlineStr"/>
       <c r="I20" s="17" t="inlineStr">
         <is>
           <t>лаб.Материаловедение. ТКМ,
 Квашнин Б.Н.    5-25</t>
         </is>
       </c>
-      <c r="J20" s="224" t="inlineStr">
+      <c r="J20" s="232" t="inlineStr">
         <is>
           <t>Сопротивление материалов,
 Давыдов  О.Ю.   127</t>
@@ -8459,7 +8465,7 @@
 Степыгин В.И.   133</t>
         </is>
       </c>
-      <c r="L20" s="224" t="inlineStr">
+      <c r="L20" s="232" t="inlineStr">
         <is>
           <t>лаб.Материаловедение. ТКМ,
 Лихачева Л.Б.    5-16</t>
@@ -8536,12 +8542,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B22" s="208" t="inlineStr">
+      <c r="B22" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C22" s="349" t="inlineStr">
+      <c r="C22" s="351" t="inlineStr">
         <is>
           <t>пр.Математика
 Кузнецов С.Ф.   225</t>
@@ -8559,7 +8565,7 @@
 Квашнин Б.Н.  5-25</t>
         </is>
       </c>
-      <c r="F22" s="224" t="inlineStr">
+      <c r="F22" s="232" t="inlineStr">
         <is>
           <t>Техническая механика,
 Давыдов  О.Ю.   127</t>
@@ -8583,14 +8589,14 @@
 Татохин Е.А.   40</t>
         </is>
       </c>
-      <c r="J22" s="224" t="n"/>
+      <c r="J22" s="232" t="n"/>
       <c r="K22" s="17" t="inlineStr">
         <is>
           <t>лаб.Основы электротехники и электроники   /                         Техническая термодинамика
 Никель С.А.   311   Z</t>
         </is>
       </c>
-      <c r="L22" s="224" t="n"/>
+      <c r="L22" s="232" t="n"/>
       <c r="M22" s="48" t="n"/>
     </row>
     <row r="23" ht="36.95" customHeight="1" s="51" thickBot="1">
@@ -8616,7 +8622,7 @@
 Кузнецов С.Ф.   225</t>
         </is>
       </c>
-      <c r="E23" s="362" t="inlineStr">
+      <c r="E23" s="364" t="inlineStr">
         <is>
           <t>пр.Физика
 Татохин Е.А.   44</t>
@@ -8662,12 +8668,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B24" s="208" t="inlineStr">
+      <c r="B24" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C24" s="349" t="inlineStr">
+      <c r="C24" s="351" t="inlineStr">
         <is>
           <t>л.Химия пищи
 Ожерельева О.Н.   403</t>
@@ -8685,13 +8691,13 @@
 Квашнин Б.Н.  5-25</t>
         </is>
       </c>
-      <c r="F24" s="224" t="inlineStr">
+      <c r="F24" s="232" t="inlineStr">
         <is>
           <t>Техническая механика,
 Давыдов  О.Ю.   127</t>
         </is>
       </c>
-      <c r="G24" s="349" t="inlineStr">
+      <c r="G24" s="351" t="inlineStr">
         <is>
           <t>пр.Математика
 Кузнецов С.Ф.   231</t>
@@ -8703,7 +8709,7 @@
 Кузнецов С.Ф.   231</t>
         </is>
       </c>
-      <c r="I24" s="349" t="inlineStr"/>
+      <c r="I24" s="351" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" s="17" t="inlineStr">
         <is>
@@ -8711,7 +8717,7 @@
 Никель С.А.   311   Z</t>
         </is>
       </c>
-      <c r="L24" s="224" t="n"/>
+      <c r="L24" s="232" t="n"/>
       <c r="M24" s="48" t="n"/>
     </row>
     <row r="25" ht="36.95" customHeight="1" s="51" thickBot="1">
@@ -8778,24 +8784,24 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B26" s="208" t="inlineStr">
+      <c r="B26" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C26" s="349" t="n"/>
+      <c r="C26" s="351" t="n"/>
       <c r="E26" s="17" t="n"/>
-      <c r="F26" s="224" t="inlineStr"/>
+      <c r="F26" s="232" t="inlineStr"/>
       <c r="G26" s="17" t="inlineStr">
         <is>
           <t>лаб.Физика
 Татохин Е.А.   41</t>
         </is>
       </c>
-      <c r="H26" s="224" t="n"/>
-      <c r="I26" s="349" t="inlineStr"/>
+      <c r="H26" s="232" t="n"/>
+      <c r="I26" s="351" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" s="349" t="inlineStr"/>
+      <c r="K26" s="351" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" s="48" t="n"/>
     </row>
@@ -8822,7 +8828,7 @@
 Квашнин Б.Н.  5-25</t>
         </is>
       </c>
-      <c r="G27" s="352" t="inlineStr">
+      <c r="G27" s="354" t="inlineStr">
         <is>
           <t>пр.Философия
 Черниговских И.В.   07</t>
@@ -8846,20 +8852,20 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B28" s="208" t="inlineStr">
+      <c r="B28" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C28" s="349" t="inlineStr"/>
+      <c r="C28" s="351" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" s="349" t="inlineStr"/>
+      <c r="E28" s="351" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" s="349" t="inlineStr"/>
+      <c r="G28" s="351" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" s="349" t="inlineStr"/>
+      <c r="I28" s="351" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" s="349" t="inlineStr"/>
+      <c r="K28" s="351" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" s="48" t="n"/>
     </row>
@@ -8892,20 +8898,20 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B30" s="331" t="inlineStr">
+      <c r="B30" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C30" s="357" t="inlineStr"/>
+      <c r="C30" s="359" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" s="357" t="inlineStr"/>
+      <c r="E30" s="359" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" s="357" t="inlineStr"/>
+      <c r="G30" s="359" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" s="357" t="inlineStr"/>
+      <c r="I30" s="359" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" s="357" t="inlineStr"/>
+      <c r="K30" s="359" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" s="48" t="n"/>
     </row>
@@ -8933,25 +8939,25 @@
       <c r="M31" s="48" t="n"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="51" thickTop="1">
-      <c r="A32" s="323" t="inlineStr">
+      <c r="A32" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B32" s="207" t="inlineStr">
+      <c r="B32" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C32" s="349" t="inlineStr"/>
+      <c r="C32" s="351" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" s="349" t="inlineStr"/>
+      <c r="E32" s="351" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" s="349" t="inlineStr"/>
+      <c r="G32" s="351" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" s="349" t="inlineStr"/>
+      <c r="I32" s="351" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" s="349" t="inlineStr"/>
+      <c r="K32" s="351" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" s="48" t="n"/>
     </row>
@@ -8984,21 +8990,21 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B34" s="208" t="inlineStr">
+      <c r="B34" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="224" t="inlineStr">
+      <c r="D34" s="232" t="inlineStr">
         <is>
           <t>лаб.Химия пищи
 Ожерельева О.Н.   432</t>
         </is>
       </c>
       <c r="E34" s="17" t="n"/>
-      <c r="F34" s="224" t="n"/>
-      <c r="G34" s="349" t="inlineStr">
+      <c r="F34" s="232" t="n"/>
+      <c r="G34" s="351" t="inlineStr">
         <is>
           <t xml:space="preserve">пр.Иностранный язык,
 Сихарулидзе Д.Х.  1и </t>
@@ -9010,7 +9016,7 @@
 Сихарулидзе Д.Х.  1и </t>
         </is>
       </c>
-      <c r="I34" s="349" t="inlineStr">
+      <c r="I34" s="351" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Пономарева Е.Ю.   12и,       Воронкова И.С.   9и  (фр)</t>
@@ -9022,7 +9028,7 @@
 Пономарева Е.Ю.   12и,       Воронкова И.С.   9и  (фр)</t>
         </is>
       </c>
-      <c r="K34" s="349" t="inlineStr">
+      <c r="K34" s="351" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Воронкова И.С.   9и  (фр)</t>
@@ -9105,26 +9111,26 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B36" s="208" t="inlineStr">
+      <c r="B36" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="224" t="inlineStr">
+      <c r="D36" s="232" t="inlineStr">
         <is>
           <t>лаб.Химия пищи
 Ожерельева О.Н.   432</t>
         </is>
       </c>
       <c r="E36" s="17" t="n"/>
-      <c r="F36" s="224" t="inlineStr">
+      <c r="F36" s="232" t="inlineStr">
         <is>
           <t>лаб.Физика,
 Татохин Е.А.   40</t>
         </is>
       </c>
-      <c r="G36" s="349" t="inlineStr">
+      <c r="G36" s="351" t="inlineStr">
         <is>
           <t>пр.Теория машин и механизмов
 Степыгин В.И.   124</t>
@@ -9204,7 +9210,7 @@
 Степыгин В.И.   124</t>
         </is>
       </c>
-      <c r="I37" s="362" t="inlineStr">
+      <c r="I37" s="364" t="inlineStr">
         <is>
           <t>л.Сопротивление материалов
 Давыдов  О.Ю.   125</t>
@@ -9231,7 +9237,7 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B38" s="208" t="inlineStr">
+      <c r="B38" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
@@ -9273,7 +9279,7 @@
         </is>
       </c>
       <c r="I38" s="17" t="n"/>
-      <c r="J38" s="224" t="inlineStr">
+      <c r="J38" s="232" t="inlineStr">
         <is>
           <t>лаб.Механика жидкости и газа
 Терехина А.В.   115   Z</t>
@@ -9304,7 +9310,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C39" s="362" t="inlineStr">
+      <c r="C39" s="364" t="inlineStr">
         <is>
           <t>л.Техническая механика
 Давыдов  О.Ю.   125</t>
@@ -9347,7 +9353,7 @@
         </is>
       </c>
       <c r="J39" s="41" t="n"/>
-      <c r="K39" s="352" t="inlineStr">
+      <c r="K39" s="354" t="inlineStr">
         <is>
           <t>пр.Математика
 Кузнецов С.Ф.   231</t>
@@ -9367,12 +9373,12 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B40" s="208" t="inlineStr">
+      <c r="B40" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C40" s="349" t="inlineStr">
+      <c r="C40" s="351" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Лобачева Н.Н.   3и     Мирошниченко Е.Н.   10и</t>
@@ -9384,7 +9390,7 @@
 Лобачева Н.Н.   3и     Мирошниченко Е.Н.   10и</t>
         </is>
       </c>
-      <c r="E40" s="349" t="inlineStr">
+      <c r="E40" s="351" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Прибыткова О.В.   2и    Кошеварова И.Б.  9и</t>
@@ -9396,10 +9402,10 @@
 Прибыткова О.В.   2и    Кошеварова И.Б.  9и</t>
         </is>
       </c>
-      <c r="G40" s="349" t="inlineStr"/>
+      <c r="G40" s="351" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" s="17" t="n"/>
-      <c r="J40" s="224" t="inlineStr">
+      <c r="J40" s="232" t="inlineStr">
         <is>
           <t>лаб.Механика жидкости и газа
 Терехина А.В.   115   Z</t>
@@ -9411,7 +9417,7 @@
 Котов Г.И.   40</t>
         </is>
       </c>
-      <c r="L40" s="224" t="n"/>
+      <c r="L40" s="232" t="n"/>
       <c r="M40" s="48" t="n"/>
     </row>
     <row r="41" ht="27" customHeight="1" s="51" thickBot="1">
@@ -9458,7 +9464,7 @@
         </is>
       </c>
       <c r="J41" s="41" t="n"/>
-      <c r="K41" s="352" t="inlineStr">
+      <c r="K41" s="354" t="inlineStr">
         <is>
           <t>пр.Техническая термодинамика
 Никель С.А.   311</t>
@@ -9478,20 +9484,20 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B42" s="208" t="inlineStr">
+      <c r="B42" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C42" s="349" t="inlineStr"/>
+      <c r="C42" s="351" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" s="349" t="inlineStr"/>
+      <c r="E42" s="351" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" s="349" t="inlineStr"/>
+      <c r="G42" s="351" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" s="349" t="inlineStr"/>
+      <c r="I42" s="351" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" s="349" t="inlineStr"/>
+      <c r="K42" s="351" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" s="48" t="n"/>
     </row>
@@ -9524,20 +9530,20 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B44" s="331" t="inlineStr">
+      <c r="B44" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C44" s="357" t="inlineStr"/>
+      <c r="C44" s="359" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" s="357" t="inlineStr"/>
+      <c r="E44" s="359" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" s="357" t="inlineStr"/>
+      <c r="G44" s="359" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" s="357" t="inlineStr"/>
+      <c r="I44" s="359" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" s="357" t="inlineStr"/>
+      <c r="K44" s="359" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" s="48" t="n"/>
     </row>
@@ -9565,25 +9571,25 @@
       <c r="M45" s="48" t="n"/>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="51" thickTop="1">
-      <c r="A46" s="323" t="inlineStr">
+      <c r="A46" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B46" s="207" t="inlineStr">
+      <c r="B46" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C46" s="349" t="inlineStr"/>
+      <c r="C46" s="351" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" s="349" t="inlineStr"/>
+      <c r="E46" s="351" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" s="349" t="inlineStr"/>
+      <c r="G46" s="351" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" s="349" t="inlineStr"/>
+      <c r="I46" s="351" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" s="349" t="inlineStr"/>
+      <c r="K46" s="351" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" s="48" t="n"/>
     </row>
@@ -9616,12 +9622,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B48" s="208" t="inlineStr">
+      <c r="B48" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C48" s="354" t="inlineStr">
+      <c r="C48" s="356" t="inlineStr">
         <is>
           <t>Общая физическая подготовка</t>
         </is>
@@ -9742,12 +9748,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B50" s="208" t="inlineStr">
+      <c r="B50" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C50" s="364" t="inlineStr">
+      <c r="C50" s="366" t="inlineStr">
         <is>
           <t>л.Математика               Кузнецов С.Ф.   401</t>
         </is>
@@ -9810,7 +9816,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C51" s="365" t="inlineStr">
+      <c r="C51" s="367" t="inlineStr">
         <is>
           <t>л.Математика                 Кузнецов С.Ф.   450</t>
         </is>
@@ -9868,12 +9874,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B52" s="208" t="inlineStr">
+      <c r="B52" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C52" s="364" t="inlineStr">
+      <c r="C52" s="366" t="inlineStr">
         <is>
           <t>л.Физика                  Татохин Е.А.   53</t>
         </is>
@@ -9936,7 +9942,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C53" s="367" t="inlineStr">
+      <c r="C53" s="369" t="inlineStr">
         <is>
           <t>л.Философия                  Черниговских И.В.   452</t>
         </is>
@@ -9994,14 +10000,14 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B54" s="208" t="inlineStr">
+      <c r="B54" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C54" s="349" t="inlineStr"/>
+      <c r="C54" s="351" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" s="349" t="inlineStr"/>
+      <c r="E54" s="351" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" s="33" t="inlineStr">
         <is>
@@ -10015,7 +10021,7 @@
 Сихарулидзе Д.Х.  16 </t>
         </is>
       </c>
-      <c r="I54" s="349" t="inlineStr">
+      <c r="I54" s="351" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Воронкова И.С.   14  (фр)</t>
@@ -10027,7 +10033,7 @@
 Воронкова И.С.   14  (фр)</t>
         </is>
       </c>
-      <c r="K54" s="349" t="inlineStr">
+      <c r="K54" s="351" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Пономарева Е.Ю.   3и,
@@ -10058,7 +10064,7 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" s="362" t="inlineStr">
+      <c r="G55" s="364" t="inlineStr">
         <is>
           <t xml:space="preserve">пр.Иностранный язык,
 Сихарулидзе Д.Х.  10и </t>
@@ -10104,20 +10110,20 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B56" s="208" t="inlineStr">
+      <c r="B56" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C56" s="349" t="inlineStr"/>
+      <c r="C56" s="351" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" s="349" t="inlineStr"/>
+      <c r="E56" s="351" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" s="349" t="inlineStr"/>
+      <c r="G56" s="351" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" s="349" t="inlineStr"/>
+      <c r="I56" s="351" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" s="349" t="inlineStr"/>
+      <c r="K56" s="351" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" s="48" t="n"/>
     </row>
@@ -10150,20 +10156,20 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B58" s="331" t="inlineStr">
+      <c r="B58" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C58" s="357" t="inlineStr"/>
+      <c r="C58" s="359" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" s="357" t="inlineStr"/>
+      <c r="E58" s="359" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" s="357" t="inlineStr"/>
+      <c r="G58" s="359" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" s="357" t="inlineStr"/>
+      <c r="I58" s="359" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" s="357" t="inlineStr"/>
+      <c r="K58" s="359" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" s="48" t="n"/>
     </row>
@@ -10191,23 +10197,23 @@
       <c r="M59" s="48" t="n"/>
     </row>
     <row r="60" ht="27" customHeight="1" s="51" thickTop="1">
-      <c r="A60" s="323" t="inlineStr">
+      <c r="A60" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B60" s="207" t="inlineStr">
+      <c r="B60" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C60" s="349" t="inlineStr"/>
+      <c r="C60" s="351" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" s="349" t="inlineStr"/>
+      <c r="E60" s="351" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" s="349" t="inlineStr"/>
+      <c r="G60" s="351" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" s="349" t="inlineStr"/>
+      <c r="I60" s="351" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" s="33" t="inlineStr">
         <is>
@@ -10242,7 +10248,7 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" s="362" t="n"/>
+      <c r="K61" s="364" t="n"/>
       <c r="M61" s="48" t="n"/>
     </row>
     <row r="62" ht="27" customHeight="1" s="51">
@@ -10251,7 +10257,7 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B62" s="208" t="inlineStr">
+      <c r="B62" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
@@ -10268,7 +10274,7 @@
 Татохин Е.А.   44</t>
         </is>
       </c>
-      <c r="E62" s="349" t="inlineStr">
+      <c r="E62" s="351" t="inlineStr">
         <is>
           <t>пр.Теория машин и механизмов
 Степыгин В.И.   227</t>
@@ -10280,8 +10286,8 @@
 Степыгин В.И.   227</t>
         </is>
       </c>
-      <c r="G62" s="349" t="n"/>
-      <c r="I62" s="349" t="inlineStr">
+      <c r="G62" s="351" t="n"/>
+      <c r="I62" s="351" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Пономарева Е.Ю.   12и</t>
@@ -10318,7 +10324,7 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C63" s="362" t="inlineStr">
+      <c r="C63" s="364" t="inlineStr">
         <is>
           <t>л.Теоретическая механика
 Егоров В.Г.   125</t>
@@ -10354,7 +10360,7 @@
 Пономарева Е.Ю.   12и</t>
         </is>
       </c>
-      <c r="K63" s="362" t="inlineStr">
+      <c r="K63" s="364" t="inlineStr">
         <is>
           <t>пр.Философия
 Черниговских И.В.   15</t>
@@ -10374,12 +10380,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B64" s="208" t="inlineStr">
+      <c r="B64" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C64" s="349" t="inlineStr">
+      <c r="C64" s="351" t="inlineStr">
         <is>
           <t>пр.Техническая механика
 Давыдов  О.Ю.   127</t>
@@ -10415,7 +10421,7 @@
 Степыгин В.И.   125</t>
         </is>
       </c>
-      <c r="I64" s="349" t="inlineStr">
+      <c r="I64" s="351" t="inlineStr">
         <is>
           <t>пр.Основы динамических расчетов механизмов
 Егоров В.Г.   124</t>
@@ -10464,7 +10470,7 @@
 Давыдов  О.Ю.   127</t>
         </is>
       </c>
-      <c r="E65" s="362" t="inlineStr">
+      <c r="E65" s="364" t="inlineStr">
         <is>
           <t>л.Процессы и аппараты
 Василенко В.Н.   201</t>
@@ -10500,7 +10506,7 @@
 Егоров В.Г.   124</t>
         </is>
       </c>
-      <c r="K65" s="352" t="inlineStr">
+      <c r="K65" s="354" t="inlineStr">
         <is>
           <t>л.Техническая термодинамика
 Никель С.А.   329</t>
@@ -10520,12 +10526,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B66" s="208" t="inlineStr">
+      <c r="B66" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C66" s="349" t="inlineStr">
+      <c r="C66" s="351" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Лобачева Н.Н.   3и        Мирошниченко Е.Н.   10и</t>
@@ -10537,7 +10543,7 @@
 Лобачева Н.Н.   3и        Мирошниченко Е.Н.   10и</t>
         </is>
       </c>
-      <c r="E66" s="349" t="inlineStr">
+      <c r="E66" s="351" t="inlineStr">
         <is>
           <t>пр.Иностранный язык,
 Прибыткова О.В.   2и       Кошеварова И.Б.  9и</t>
@@ -10629,7 +10635,7 @@
 Титов С.А.   41</t>
         </is>
       </c>
-      <c r="I67" s="352" t="inlineStr">
+      <c r="I67" s="354" t="inlineStr">
         <is>
           <t>пр.Физика
 Татохин Е.А.   42</t>
@@ -10641,7 +10647,7 @@
 Татохин Е.А.   42</t>
         </is>
       </c>
-      <c r="K67" s="352" t="inlineStr">
+      <c r="K67" s="354" t="inlineStr">
         <is>
           <t>пр.Основы электротехники и электроники
 Никель С.А.   329</t>
@@ -10661,16 +10667,16 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B68" s="208" t="inlineStr">
+      <c r="B68" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C68" s="349" t="inlineStr"/>
+      <c r="C68" s="351" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" s="349" t="inlineStr"/>
+      <c r="E68" s="351" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" s="349" t="inlineStr"/>
+      <c r="G68" s="351" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" s="33" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -10705,7 +10711,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" s="362" t="inlineStr">
+      <c r="I69" s="364" t="inlineStr">
         <is>
           <t>пр.Математика
 Кузнецов С.Ф.   205</t>
@@ -10717,7 +10723,7 @@
 Кузнецов С.Ф.   205</t>
         </is>
       </c>
-      <c r="K69" s="352" t="n"/>
+      <c r="K69" s="354" t="n"/>
       <c r="M69" s="48" t="n"/>
     </row>
     <row r="70">
@@ -10726,20 +10732,20 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B70" s="208" t="inlineStr">
+      <c r="B70" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C70" s="349" t="inlineStr"/>
+      <c r="C70" s="351" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" s="349" t="inlineStr"/>
+      <c r="E70" s="351" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" s="349" t="inlineStr"/>
+      <c r="G70" s="351" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" s="349" t="inlineStr"/>
+      <c r="I70" s="351" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" s="349" t="inlineStr"/>
+      <c r="K70" s="351" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" s="48" t="n"/>
     </row>
@@ -10772,20 +10778,20 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B72" s="331" t="inlineStr">
+      <c r="B72" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C72" s="357" t="inlineStr"/>
+      <c r="C72" s="359" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" s="357" t="inlineStr"/>
+      <c r="E72" s="359" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" s="357" t="inlineStr"/>
+      <c r="G72" s="359" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" s="357" t="inlineStr"/>
+      <c r="I72" s="359" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" s="357" t="inlineStr"/>
+      <c r="K72" s="359" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" s="48" t="n"/>
     </row>
@@ -10813,25 +10819,25 @@
       <c r="M73" s="48" t="n"/>
     </row>
     <row r="74" ht="15.75" customHeight="1" s="51" thickTop="1">
-      <c r="A74" s="323" t="inlineStr">
+      <c r="A74" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B74" s="207" t="inlineStr">
+      <c r="B74" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C74" s="349" t="inlineStr"/>
+      <c r="C74" s="351" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" s="349" t="inlineStr"/>
+      <c r="E74" s="351" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" s="349" t="inlineStr"/>
+      <c r="G74" s="351" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" s="349" t="inlineStr"/>
+      <c r="I74" s="351" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" s="349" t="inlineStr"/>
+      <c r="K74" s="351" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" s="48" t="n"/>
     </row>
@@ -10864,20 +10870,20 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B76" s="208" t="inlineStr">
+      <c r="B76" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C76" s="349" t="inlineStr"/>
+      <c r="C76" s="351" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" s="349" t="inlineStr"/>
+      <c r="E76" s="351" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" s="349" t="inlineStr"/>
+      <c r="G76" s="351" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" s="349" t="inlineStr"/>
+      <c r="I76" s="351" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" s="349" t="inlineStr"/>
+      <c r="K76" s="351" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" s="48" t="n"/>
     </row>
@@ -10910,20 +10916,20 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B78" s="208" t="inlineStr">
+      <c r="B78" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C78" s="349" t="inlineStr"/>
+      <c r="C78" s="351" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" s="349" t="inlineStr"/>
+      <c r="E78" s="351" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" s="349" t="inlineStr"/>
+      <c r="G78" s="351" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" s="349" t="inlineStr"/>
+      <c r="I78" s="351" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" s="349" t="inlineStr"/>
+      <c r="K78" s="351" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" s="48" t="n"/>
     </row>
@@ -10956,20 +10962,20 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B80" s="208" t="inlineStr">
+      <c r="B80" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C80" s="349" t="inlineStr"/>
+      <c r="C80" s="351" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" s="349" t="inlineStr"/>
+      <c r="E80" s="351" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" s="349" t="inlineStr"/>
+      <c r="G80" s="351" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" s="349" t="inlineStr"/>
+      <c r="I80" s="351" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" s="349" t="inlineStr"/>
+      <c r="K80" s="351" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" s="48" t="n"/>
     </row>
@@ -11002,20 +11008,20 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B82" s="208" t="inlineStr">
+      <c r="B82" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C82" s="349" t="inlineStr"/>
+      <c r="C82" s="351" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" s="349" t="inlineStr"/>
+      <c r="E82" s="351" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" s="349" t="inlineStr"/>
+      <c r="G82" s="351" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" s="349" t="inlineStr"/>
+      <c r="I82" s="351" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" s="349" t="inlineStr"/>
+      <c r="K82" s="351" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" s="48" t="n"/>
     </row>
@@ -11048,20 +11054,20 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B84" s="208" t="inlineStr">
+      <c r="B84" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C84" s="349" t="inlineStr"/>
+      <c r="C84" s="351" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" s="349" t="inlineStr"/>
+      <c r="E84" s="351" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" s="349" t="inlineStr"/>
+      <c r="G84" s="351" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" s="349" t="inlineStr"/>
+      <c r="I84" s="351" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" s="349" t="inlineStr"/>
+      <c r="K84" s="351" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" s="48" t="n"/>
     </row>
@@ -11094,20 +11100,20 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B86" s="331" t="inlineStr">
+      <c r="B86" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C86" s="357" t="inlineStr"/>
+      <c r="C86" s="359" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" s="357" t="inlineStr"/>
+      <c r="E86" s="359" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" s="357" t="inlineStr"/>
+      <c r="G86" s="359" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" s="357" t="inlineStr"/>
+      <c r="I86" s="359" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" s="357" t="inlineStr"/>
+      <c r="K86" s="359" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" s="48" t="n"/>
     </row>
@@ -11201,11 +11207,11 @@
   </sheetPr>
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42:E42"/>
+      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -11241,7 +11247,7 @@
     <row r="2" ht="30" customHeight="1" s="51">
       <c r="A2" s="48" t="n"/>
       <c r="B2" s="48" t="n"/>
-      <c r="C2" s="210" t="inlineStr">
+      <c r="C2" s="211" t="inlineStr">
         <is>
           <t>ФГБОУ ВО</t>
         </is>
@@ -11256,7 +11262,7 @@
           <t>ФГБОУ ВО</t>
         </is>
       </c>
-      <c r="F2" s="212" t="inlineStr">
+      <c r="F2" s="218" t="inlineStr">
         <is>
           <t>РАСПИСАНИЕ</t>
         </is>
@@ -11306,7 +11312,7 @@
     <row r="3" ht="30" customHeight="1" s="51">
       <c r="A3" s="48" t="n"/>
       <c r="B3" s="48" t="n"/>
-      <c r="C3" s="211" t="inlineStr">
+      <c r="C3" s="212" t="inlineStr">
         <is>
           <t>"Воронежский государственный</t>
         </is>
@@ -11371,7 +11377,7 @@
     <row r="4" ht="30.75" customHeight="1" s="51" thickBot="1">
       <c r="A4" s="48" t="n"/>
       <c r="B4" s="48" t="n"/>
-      <c r="C4" s="211" t="inlineStr">
+      <c r="C4" s="212" t="inlineStr">
         <is>
           <t>университет инженерных технологий"</t>
         </is>
@@ -11448,7 +11454,7 @@
       <c r="L5" s="45" t="n"/>
       <c r="M5" s="45" t="n"/>
       <c r="N5" s="48" t="n"/>
-      <c r="O5" s="316" t="inlineStr">
+      <c r="O5" s="130" t="inlineStr">
         <is>
           <t>"          "                             2021г.</t>
         </is>
@@ -11466,7 +11472,7 @@
       <c r="E6" s="47" t="n"/>
       <c r="F6" s="47" t="n"/>
       <c r="G6" s="47" t="n"/>
-      <c r="H6" s="213" t="inlineStr">
+      <c r="H6" s="219" t="inlineStr">
         <is>
           <t>весеннего семестра     2020-2021 учебного года</t>
         </is>
@@ -11502,7 +11508,7 @@
           <t>Часы</t>
         </is>
       </c>
-      <c r="C7" s="368" t="inlineStr">
+      <c r="C7" s="370" t="inlineStr">
         <is>
           <t>М-181</t>
         </is>
@@ -11512,12 +11518,12 @@
           <t>М-181</t>
         </is>
       </c>
-      <c r="E7" s="171" t="inlineStr">
+      <c r="E7" s="168" t="inlineStr">
         <is>
           <t>М-182</t>
         </is>
       </c>
-      <c r="F7" s="171" t="inlineStr">
+      <c r="F7" s="168" t="inlineStr">
         <is>
           <t>М-183</t>
         </is>
@@ -11532,7 +11538,7 @@
           <t>М-184</t>
         </is>
       </c>
-      <c r="I7" s="368" t="inlineStr">
+      <c r="I7" s="370" t="inlineStr">
         <is>
           <t>М-171</t>
         </is>
@@ -11552,12 +11558,12 @@
           <t>М-172</t>
         </is>
       </c>
-      <c r="M7" s="171" t="inlineStr">
+      <c r="M7" s="168" t="inlineStr">
         <is>
           <t>М-173</t>
         </is>
       </c>
-      <c r="N7" s="171" t="inlineStr">
+      <c r="N7" s="168" t="inlineStr">
         <is>
           <t>М-174</t>
         </is>
@@ -11569,17 +11575,17 @@
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" s="51" thickTop="1">
-      <c r="A8" s="323" t="inlineStr">
+      <c r="A8" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B8" s="207" t="inlineStr">
+      <c r="B8" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C8" s="252" t="inlineStr">
+      <c r="C8" s="267" t="inlineStr">
         <is>
           <t>Физическая культура           452</t>
         </is>
@@ -11609,13 +11615,13 @@
           <t>Физическая культура           452</t>
         </is>
       </c>
-      <c r="I8" s="372" t="inlineStr"/>
+      <c r="I8" s="374" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" s="325" t="inlineStr"/>
+      <c r="K8" s="327" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" s="149" t="inlineStr"/>
-      <c r="N8" s="249" t="inlineStr"/>
-      <c r="O8" s="249" t="inlineStr"/>
+      <c r="M8" s="148" t="inlineStr"/>
+      <c r="N8" s="257" t="inlineStr"/>
+      <c r="O8" s="257" t="inlineStr"/>
     </row>
     <row r="9" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A9" t="inlineStr">
@@ -11628,11 +11634,11 @@
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C9" s="338" t="inlineStr"/>
+      <c r="C9" s="340" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" s="144" t="inlineStr"/>
-      <c r="F9" s="144" t="inlineStr"/>
-      <c r="G9" s="327" t="inlineStr"/>
+      <c r="E9" s="143" t="inlineStr"/>
+      <c r="F9" s="143" t="inlineStr"/>
+      <c r="G9" s="329" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -11648,7 +11654,7 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B10" s="208" t="inlineStr">
+      <c r="B10" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
@@ -11671,7 +11677,7 @@
 Берестовой  А.А.   017</t>
         </is>
       </c>
-      <c r="F10" s="129" t="inlineStr">
+      <c r="F10" s="132" t="inlineStr">
         <is>
           <t>л.Строительная механика
 Давыдов  О.Ю.   126</t>
@@ -11699,11 +11705,11 @@
 Овсянников В.Ю.   103     Z</t>
         </is>
       </c>
-      <c r="K10" s="330" t="inlineStr"/>
+      <c r="K10" s="332" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" s="131" t="inlineStr"/>
-      <c r="N10" s="245" t="inlineStr"/>
-      <c r="O10" s="245" t="inlineStr"/>
+      <c r="M10" s="134" t="inlineStr"/>
+      <c r="N10" s="253" t="inlineStr"/>
+      <c r="O10" s="253" t="inlineStr"/>
     </row>
     <row r="11" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A11" t="inlineStr">
@@ -11728,7 +11734,7 @@
 Берестовой  А.А.   017     Z</t>
         </is>
       </c>
-      <c r="E11" s="144" t="inlineStr">
+      <c r="E11" s="143" t="inlineStr">
         <is>
           <t>лаб.Тех. комплексы пищевых производств
 Овсянников В.Ю.   103</t>
@@ -11740,7 +11746,7 @@
 Давыдов  О.Ю.   126</t>
         </is>
       </c>
-      <c r="G11" s="327" t="inlineStr"/>
+      <c r="G11" s="329" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" s="85" t="inlineStr">
         <is>
@@ -11766,7 +11772,7 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B12" s="208" t="inlineStr">
+      <c r="B12" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
@@ -11789,13 +11795,13 @@
 Ключников А.И.   114</t>
         </is>
       </c>
-      <c r="F12" s="129" t="inlineStr">
+      <c r="F12" s="132" t="inlineStr">
         <is>
           <t>пр.Строительная механика
 Давыдов  О.Ю.   126</t>
         </is>
       </c>
-      <c r="G12" s="339" t="inlineStr">
+      <c r="G12" s="341" t="inlineStr">
         <is>
           <t>пр.Экономика и управление производством
 Цуканова К.А.   16</t>
@@ -11819,11 +11825,11 @@
 Овсянников В.Ю.   103     Z</t>
         </is>
       </c>
-      <c r="K12" s="330" t="inlineStr"/>
+      <c r="K12" s="332" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" s="131" t="inlineStr"/>
-      <c r="N12" s="245" t="inlineStr"/>
-      <c r="O12" s="245" t="inlineStr"/>
+      <c r="M12" s="134" t="inlineStr"/>
+      <c r="N12" s="253" t="inlineStr"/>
+      <c r="O12" s="253" t="inlineStr"/>
     </row>
     <row r="13" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A13" t="inlineStr">
@@ -11848,7 +11854,7 @@
 Берестовой  А.А.   017     Z</t>
         </is>
       </c>
-      <c r="E13" s="144" t="inlineStr">
+      <c r="E13" s="143" t="inlineStr">
         <is>
           <t>лаб.Тех. комплексы пищевых производств
 Овсянников В.Ю.   103</t>
@@ -11896,12 +11902,12 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B14" s="208" t="inlineStr">
+      <c r="B14" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C14" s="185" t="inlineStr">
+      <c r="C14" s="183" t="inlineStr">
         <is>
           <t>л.Холодильная техника               Шаршов В.Н.   125</t>
         </is>
@@ -11924,7 +11930,7 @@
       </c>
       <c r="G14" s="91" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" s="382" t="inlineStr">
+      <c r="I14" s="384" t="inlineStr">
         <is>
           <t>л.Расчет и конструирование машин и аппаратов пищевых производств
 Пойманов В.В.   017</t>
@@ -11936,11 +11942,11 @@
 Пойманов В.В.   017</t>
         </is>
       </c>
-      <c r="K14" s="330" t="inlineStr"/>
+      <c r="K14" s="332" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" s="131" t="inlineStr"/>
-      <c r="N14" s="245" t="inlineStr"/>
-      <c r="O14" s="245" t="inlineStr">
+      <c r="M14" s="134" t="inlineStr"/>
+      <c r="N14" s="253" t="inlineStr"/>
+      <c r="O14" s="253" t="inlineStr">
         <is>
           <t>л.Основы автоматического централизованного теплоснабжения
 Белозерцев А.С.   311</t>
@@ -11973,13 +11979,13 @@
           <t>л.Холодильная техника               Шаршов В.Н.   125</t>
         </is>
       </c>
-      <c r="F15" s="144" t="inlineStr">
+      <c r="F15" s="143" t="inlineStr">
         <is>
           <t>лаб.Основы авт. проект. и констр. узлов ...
 Литвинов Е.В.   127а</t>
         </is>
       </c>
-      <c r="G15" s="341" t="inlineStr">
+      <c r="G15" s="343" t="inlineStr">
         <is>
           <t>л.Тепловые двигатели и нагнетатели            Никель С.А.   311</t>
         </is>
@@ -12018,18 +12024,18 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B16" s="208" t="inlineStr">
+      <c r="B16" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C16" s="337" t="inlineStr"/>
+      <c r="C16" s="339" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" s="128" t="inlineStr"/>
       <c r="F16" s="128" t="n"/>
-      <c r="G16" s="339" t="inlineStr"/>
+      <c r="G16" s="341" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" s="382" t="inlineStr">
+      <c r="I16" s="384" t="inlineStr">
         <is>
           <t>пр.Системное развитие техники пищевых производств
 Пойманов В.В.   017</t>
@@ -12041,11 +12047,11 @@
 Пойманов В.В.   017</t>
         </is>
       </c>
-      <c r="K16" s="330" t="inlineStr"/>
+      <c r="K16" s="332" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" s="131" t="inlineStr"/>
-      <c r="N16" s="245" t="inlineStr"/>
-      <c r="O16" s="245" t="inlineStr">
+      <c r="M16" s="134" t="inlineStr"/>
+      <c r="N16" s="253" t="inlineStr"/>
+      <c r="O16" s="253" t="inlineStr">
         <is>
           <t>пр.Основы автоматического централизованного теплоснабжения
 Белозерцев А.С.   311</t>
@@ -12063,7 +12069,7 @@
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C17" s="256" t="inlineStr">
+      <c r="C17" s="271" t="inlineStr">
         <is>
           <t>л.Техническая механика               Елфимов С.А.   125</t>
         </is>
@@ -12078,7 +12084,7 @@
           <t>л.Техническая механика               Елфимов С.А.   125</t>
         </is>
       </c>
-      <c r="F17" s="144" t="inlineStr">
+      <c r="F17" s="143" t="inlineStr">
         <is>
           <t>лаб.Основы авт. проект. и констр. узлов ...
 Литвинов Е.В.   127а</t>
@@ -12115,24 +12121,24 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B18" s="208" t="inlineStr">
+      <c r="B18" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C18" s="330" t="inlineStr"/>
+      <c r="C18" s="332" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" s="129" t="inlineStr"/>
-      <c r="F18" s="129" t="inlineStr"/>
-      <c r="G18" s="330" t="inlineStr"/>
+      <c r="E18" s="132" t="inlineStr"/>
+      <c r="F18" s="132" t="inlineStr"/>
+      <c r="G18" s="332" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" s="382" t="inlineStr"/>
+      <c r="I18" s="384" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" s="330" t="inlineStr"/>
+      <c r="K18" s="332" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" s="131" t="inlineStr"/>
-      <c r="N18" s="245" t="inlineStr"/>
-      <c r="O18" s="245" t="inlineStr"/>
+      <c r="M18" s="134" t="inlineStr"/>
+      <c r="N18" s="253" t="inlineStr"/>
+      <c r="O18" s="253" t="inlineStr"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A19" t="inlineStr">
@@ -12165,24 +12171,24 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B20" s="331" t="inlineStr">
+      <c r="B20" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C20" s="335" t="inlineStr"/>
+      <c r="C20" s="337" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" s="333" t="inlineStr"/>
-      <c r="F20" s="333" t="inlineStr"/>
-      <c r="G20" s="335" t="inlineStr"/>
+      <c r="E20" s="335" t="inlineStr"/>
+      <c r="F20" s="335" t="inlineStr"/>
+      <c r="G20" s="337" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" s="387" t="inlineStr"/>
+      <c r="I20" s="389" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" s="335" t="inlineStr"/>
+      <c r="K20" s="337" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" s="334" t="inlineStr"/>
-      <c r="N20" s="388" t="inlineStr"/>
-      <c r="O20" s="388" t="inlineStr"/>
+      <c r="M20" s="336" t="inlineStr"/>
+      <c r="N20" s="390" t="inlineStr"/>
+      <c r="O20" s="390" t="inlineStr"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A21" t="inlineStr">
@@ -12210,23 +12216,23 @@
       <c r="O21" t="inlineStr"/>
     </row>
     <row r="22" ht="33" customHeight="1" s="51" thickTop="1">
-      <c r="A22" s="323" t="inlineStr">
+      <c r="A22" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B22" s="207" t="inlineStr">
+      <c r="B22" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C22" s="330" t="inlineStr"/>
+      <c r="C22" s="332" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" s="143" t="inlineStr"/>
+      <c r="E22" s="142" t="inlineStr"/>
       <c r="F22" s="95" t="inlineStr"/>
-      <c r="G22" s="330" t="inlineStr"/>
+      <c r="G22" s="332" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" s="382" t="inlineStr"/>
+      <c r="I22" s="384" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" s="82" t="inlineStr">
         <is>
@@ -12246,8 +12252,8 @@
 Торопцев В.В.   102    Z</t>
         </is>
       </c>
-      <c r="N22" s="249" t="inlineStr"/>
-      <c r="O22" s="249" t="inlineStr"/>
+      <c r="N22" s="257" t="inlineStr"/>
+      <c r="O22" s="257" t="inlineStr"/>
     </row>
     <row r="23" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A23" t="inlineStr">
@@ -12263,7 +12269,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" s="144" t="inlineStr">
+      <c r="F23" s="143" t="inlineStr">
         <is>
           <t>лаб.Композиц. материалы в машиностр.
 Лихачева Л.Б.   Уч.маст    Z</t>
@@ -12285,7 +12291,7 @@
 Торопцев В.В.   102    Z</t>
         </is>
       </c>
-      <c r="M23" s="150" t="inlineStr">
+      <c r="M23" s="149" t="inlineStr">
         <is>
           <t>лаб.Тех. оборудование биотехнол. процессов
 Потапов А.И.   103     Z</t>
@@ -12300,16 +12306,16 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B24" s="208" t="inlineStr">
+      <c r="B24" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C24" s="330" t="inlineStr"/>
+      <c r="C24" s="332" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" s="129" t="inlineStr"/>
+      <c r="E24" s="132" t="inlineStr"/>
       <c r="F24" s="128" t="inlineStr"/>
-      <c r="G24" s="339" t="inlineStr">
+      <c r="G24" s="341" t="inlineStr">
         <is>
           <t>л.Котельные установки и парогенераторы
 Белозерцев А.С.   311</t>
@@ -12351,13 +12357,13 @@
 Торопцев В.В.   102    Z</t>
         </is>
       </c>
-      <c r="N24" s="245" t="inlineStr">
+      <c r="N24" s="253" t="inlineStr">
         <is>
           <t>л.Программные системы инженерного анализа механических систем
 Васечкин М.А.   124</t>
         </is>
       </c>
-      <c r="O24" s="245" t="inlineStr">
+      <c r="O24" s="253" t="inlineStr">
         <is>
           <t>л.Основы автоматического централизованного теплоснабжения
 Белозерцев А.С.   311</t>
@@ -12378,7 +12384,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" s="144" t="inlineStr">
+      <c r="F25" s="143" t="inlineStr">
         <is>
           <t>лаб.Композиц. материалы в машиностр.
 Лихачева Л.Б.   Уч.маст    Z</t>
@@ -12396,7 +12402,7 @@
 Белозерцев А.С.   311</t>
         </is>
       </c>
-      <c r="I25" s="394" t="inlineStr">
+      <c r="I25" s="396" t="inlineStr">
         <is>
           <t>л.Техника пищевых производств малых предприятий
 Овсянников В.Ю.   017</t>
@@ -12420,7 +12426,7 @@
 Торопцев В.В.   102    Z</t>
         </is>
       </c>
-      <c r="M25" s="150" t="inlineStr">
+      <c r="M25" s="149" t="inlineStr">
         <is>
           <t>лаб.Тех. оборудование биотехнол. процессов
 Потапов А.И.   103     Z</t>
@@ -12445,19 +12451,19 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B26" s="208" t="inlineStr">
+      <c r="B26" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C26" s="330" t="n"/>
+      <c r="C26" s="332" t="n"/>
       <c r="E26" s="128" t="inlineStr">
         <is>
           <t>пр.Основы проектирования
 Прибытков А.В.   103</t>
         </is>
       </c>
-      <c r="F26" s="129" t="inlineStr">
+      <c r="F26" s="132" t="inlineStr">
         <is>
           <t>л.Композиц. материалы в машиностроении
 Лихачева Л.Б.   124</t>
@@ -12487,16 +12493,16 @@
 Овсянников В.Ю.   114</t>
         </is>
       </c>
-      <c r="K26" s="330" t="inlineStr"/>
+      <c r="K26" s="332" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" s="91" t="inlineStr"/>
-      <c r="N26" s="245" t="inlineStr">
+      <c r="N26" s="253" t="inlineStr">
         <is>
           <t>лаб.Программные системы инженерного анализа механических систем
 Васечкин М.А.   127а</t>
         </is>
       </c>
-      <c r="O26" s="245" t="inlineStr">
+      <c r="O26" s="253" t="inlineStr">
         <is>
           <t>пр.Основы автоматического централизованного теплоснабжения
 Белозерцев А.С.   311</t>
@@ -12514,7 +12520,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="E27" s="144" t="inlineStr">
+      <c r="E27" s="143" t="inlineStr">
         <is>
           <t>пр.Тех. об. мех. и гидромех. процессов
 Сухарев И.Н.   114</t>
@@ -12526,7 +12532,7 @@
 Лихачева Л.Б.   124</t>
         </is>
       </c>
-      <c r="G27" s="395" t="inlineStr">
+      <c r="G27" s="397" t="inlineStr">
         <is>
           <t>пр.Основы трансфо. теплоты, системы кондиц. и вентиляции
 Белозерцев А.С.   311</t>
@@ -12538,7 +12544,7 @@
 Белозерцев А.С.   311</t>
         </is>
       </c>
-      <c r="I27" s="367" t="inlineStr">
+      <c r="I27" s="369" t="inlineStr">
         <is>
           <t>л.Техника пищевых производств малых предприятий
 Овсянников В.Ю.   017</t>
@@ -12552,7 +12558,7 @@
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" s="150" t="inlineStr">
+      <c r="M27" s="149" t="inlineStr">
         <is>
           <t>лаб.Монтаж, эксплуатация и ремонт оборуд.
 Никитина С.Ю.   103     Z</t>
@@ -12577,12 +12583,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B28" s="208" t="inlineStr">
+      <c r="B28" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C28" s="178" t="inlineStr">
+      <c r="C28" s="176" t="inlineStr">
         <is>
           <t>л.Основы проектирования        Прибытков А.В.   125</t>
         </is>
@@ -12603,7 +12609,7 @@
 Васечкин М.А.   127а</t>
         </is>
       </c>
-      <c r="G28" s="340" t="inlineStr">
+      <c r="G28" s="342" t="inlineStr">
         <is>
           <t>л.Тепломассообмен        Лавров С.В.   333</t>
         </is>
@@ -12613,7 +12619,7 @@
           <t>л.Тепломассообмен        Лавров С.В.   333</t>
         </is>
       </c>
-      <c r="I28" s="382" t="inlineStr">
+      <c r="I28" s="384" t="inlineStr">
         <is>
           <t>л.Технологическое оборудование механических и гидромеханических процессов
 Дранников А.В.   114</t>
@@ -12625,11 +12631,11 @@
 Дранников А.В.   114</t>
         </is>
       </c>
-      <c r="K28" s="330" t="inlineStr"/>
+      <c r="K28" s="332" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" s="91" t="inlineStr"/>
-      <c r="N28" s="245" t="inlineStr"/>
-      <c r="O28" s="245" t="inlineStr">
+      <c r="N28" s="253" t="inlineStr"/>
+      <c r="O28" s="253" t="inlineStr">
         <is>
           <t>пр.Ремонт, монтаж и эксплуатация теплоэнергетического оборудования
 Белозерцев А.С.   311</t>
@@ -12647,7 +12653,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C29" s="256" t="inlineStr">
+      <c r="C29" s="271" t="inlineStr">
         <is>
           <t>л.Технологические комплексы пищевых производств        Овсянников В.Ю.   125</t>
         </is>
@@ -12662,13 +12668,13 @@
           <t>л.Технологические комплексы пищевых производств        Овсянников В.Ю.   125</t>
         </is>
       </c>
-      <c r="F29" s="144" t="inlineStr">
+      <c r="F29" s="143" t="inlineStr">
         <is>
           <t>л.Численные методы в механике
 Васечкин М.А.   133</t>
         </is>
       </c>
-      <c r="G29" s="327" t="inlineStr">
+      <c r="G29" s="329" t="inlineStr">
         <is>
           <t>пр.Тепломассообмен          Лавров С.В.   333</t>
         </is>
@@ -12692,7 +12698,7 @@
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" s="150" t="inlineStr">
+      <c r="M29" s="149" t="inlineStr">
         <is>
           <t>лаб.Монтаж, эксплуатация и ремонт оборуд.
 Никитина С.Ю.   103     Z</t>
@@ -12712,12 +12718,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B30" s="208" t="inlineStr">
+      <c r="B30" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C30" s="337" t="inlineStr">
+      <c r="C30" s="339" t="inlineStr">
         <is>
           <t>пр.Основы проектирования            Прибытков А.В.   114</t>
         </is>
@@ -12727,21 +12733,21 @@
           <t>пр.Основы проектирования            Прибытков А.В.   114</t>
         </is>
       </c>
-      <c r="E30" s="129" t="inlineStr"/>
+      <c r="E30" s="132" t="inlineStr"/>
       <c r="F30" s="128" t="inlineStr">
         <is>
           <t>лаб.Численные методы в механике
 Васечкин М.А.   127а</t>
         </is>
       </c>
-      <c r="G30" s="330" t="inlineStr"/>
+      <c r="G30" s="332" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" s="87" t="n"/>
-      <c r="K30" s="330" t="inlineStr"/>
+      <c r="K30" s="332" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" s="131" t="inlineStr"/>
-      <c r="N30" s="245" t="n"/>
-      <c r="O30" s="245" t="inlineStr"/>
+      <c r="M30" s="134" t="inlineStr"/>
+      <c r="N30" s="253" t="n"/>
+      <c r="O30" s="253" t="inlineStr"/>
     </row>
     <row r="31" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A31" t="inlineStr">
@@ -12754,7 +12760,7 @@
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C31" s="396" t="inlineStr">
+      <c r="C31" s="398" t="inlineStr">
         <is>
           <t>пр.Технологическое оборудование тепломассообменных процессов
 Ключников А.И.   114</t>
@@ -12767,10 +12773,10 @@
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" s="144" t="inlineStr"/>
+      <c r="F31" s="143" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" s="367" t="inlineStr">
+      <c r="I31" s="369" t="inlineStr">
         <is>
           <t>пр.Расчет и констр. машин и аппаратов пищ. производств
 Юрова И.С.   103</t>
@@ -12793,24 +12799,24 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B32" s="208" t="inlineStr">
+      <c r="B32" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C32" s="330" t="inlineStr"/>
+      <c r="C32" s="332" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" s="129" t="inlineStr"/>
-      <c r="F32" s="129" t="inlineStr"/>
-      <c r="G32" s="330" t="inlineStr"/>
+      <c r="E32" s="132" t="inlineStr"/>
+      <c r="F32" s="132" t="inlineStr"/>
+      <c r="G32" s="332" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" s="382" t="inlineStr"/>
+      <c r="I32" s="384" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" s="330" t="inlineStr"/>
+      <c r="K32" s="332" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" s="131" t="inlineStr"/>
-      <c r="N32" s="245" t="inlineStr"/>
-      <c r="O32" s="245" t="inlineStr"/>
+      <c r="M32" s="134" t="inlineStr"/>
+      <c r="N32" s="253" t="inlineStr"/>
+      <c r="O32" s="253" t="inlineStr"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A33" t="inlineStr">
@@ -12843,24 +12849,24 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B34" s="331" t="inlineStr">
+      <c r="B34" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C34" s="335" t="inlineStr"/>
+      <c r="C34" s="337" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" s="333" t="inlineStr"/>
-      <c r="F34" s="333" t="inlineStr"/>
-      <c r="G34" s="335" t="inlineStr"/>
+      <c r="E34" s="335" t="inlineStr"/>
+      <c r="F34" s="335" t="inlineStr"/>
+      <c r="G34" s="337" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" s="387" t="inlineStr"/>
+      <c r="I34" s="389" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" s="335" t="inlineStr"/>
+      <c r="K34" s="337" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" s="334" t="inlineStr"/>
-      <c r="N34" s="388" t="inlineStr"/>
-      <c r="O34" s="388" t="inlineStr"/>
+      <c r="M34" s="336" t="inlineStr"/>
+      <c r="N34" s="390" t="inlineStr"/>
+      <c r="O34" s="390" t="inlineStr"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A35" t="inlineStr">
@@ -12888,29 +12894,29 @@
       <c r="O35" t="inlineStr"/>
     </row>
     <row r="36" ht="33" customHeight="1" s="51" thickTop="1">
-      <c r="A36" s="323" t="inlineStr">
+      <c r="A36" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B36" s="207" t="inlineStr">
+      <c r="B36" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C36" s="330" t="inlineStr"/>
+      <c r="C36" s="332" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" s="143" t="inlineStr"/>
-      <c r="F36" s="143" t="inlineStr"/>
-      <c r="G36" s="330" t="inlineStr"/>
+      <c r="E36" s="142" t="inlineStr"/>
+      <c r="F36" s="142" t="inlineStr"/>
+      <c r="G36" s="332" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" s="382" t="inlineStr"/>
+      <c r="I36" s="384" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" s="330" t="inlineStr"/>
+      <c r="K36" s="332" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" s="149" t="inlineStr"/>
-      <c r="N36" s="249" t="inlineStr"/>
-      <c r="O36" s="249" t="inlineStr"/>
+      <c r="M36" s="148" t="inlineStr"/>
+      <c r="N36" s="257" t="inlineStr"/>
+      <c r="O36" s="257" t="inlineStr"/>
     </row>
     <row r="37" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A37" t="inlineStr">
@@ -12943,12 +12949,12 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B38" s="208" t="inlineStr">
+      <c r="B38" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C38" s="330" t="inlineStr"/>
+      <c r="C38" s="332" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" s="128" t="inlineStr">
         <is>
@@ -12956,15 +12962,15 @@
 Елфимов С.А.   127а     Z</t>
         </is>
       </c>
-      <c r="F38" s="129" t="inlineStr">
+      <c r="F38" s="132" t="inlineStr">
         <is>
           <t>л.Метрология и стандартизация
 Клейменова Н.Л.   5-27</t>
         </is>
       </c>
-      <c r="G38" s="330" t="inlineStr"/>
+      <c r="G38" s="332" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" s="382" t="inlineStr">
+      <c r="I38" s="384" t="inlineStr">
         <is>
           <t>л.Тех. оборудование тепломассообменных процессов
 Антипов С.Т.   102</t>
@@ -12976,21 +12982,21 @@
 Антипов С.Т.   102</t>
         </is>
       </c>
-      <c r="K38" s="330" t="inlineStr"/>
+      <c r="K38" s="332" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" s="131" t="inlineStr">
+      <c r="M38" s="134" t="inlineStr">
         <is>
           <t>пр.Расчет и конструирование машин и аппаратов пищевых производств
 Юрова И.С.   114</t>
         </is>
       </c>
-      <c r="N38" s="245" t="inlineStr">
+      <c r="N38" s="253" t="inlineStr">
         <is>
           <t>пр.Вычислительная механика
 Васечкин М.А.   127</t>
         </is>
       </c>
-      <c r="O38" s="245" t="inlineStr">
+      <c r="O38" s="253" t="inlineStr">
         <is>
           <t>л.Ремонт, монтаж и эксплуатация теплоэнергетического оборудования
 Белозерцев А.С.   311</t>
@@ -13010,7 +13016,7 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" s="144" t="inlineStr"/>
+      <c r="E39" s="143" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
           <t>л.Метрология и стандартизация
@@ -13058,12 +13064,12 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B40" s="208" t="inlineStr">
+      <c r="B40" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C40" s="330" t="inlineStr"/>
+      <c r="C40" s="332" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" s="128" t="inlineStr">
         <is>
@@ -13071,13 +13077,13 @@
 Елфимов С.А.   127а     Z</t>
         </is>
       </c>
-      <c r="F40" s="129" t="inlineStr">
+      <c r="F40" s="132" t="inlineStr">
         <is>
           <t>лаб.Метрология и стандартизация
 Клейменова Н.Л.   5-27</t>
         </is>
       </c>
-      <c r="G40" s="330" t="inlineStr"/>
+      <c r="G40" s="332" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" s="87" t="inlineStr">
         <is>
@@ -13091,7 +13097,7 @@
 Антипов С.Т.   102</t>
         </is>
       </c>
-      <c r="K40" s="330" t="inlineStr">
+      <c r="K40" s="332" t="inlineStr">
         <is>
           <t>пр.Расчет и конструирование машин и аппаратов пищевых производств
 Юрова И.С.   114</t>
@@ -13103,7 +13109,7 @@
 Юрова И.С.   114</t>
         </is>
       </c>
-      <c r="M40" s="131" t="inlineStr">
+      <c r="M40" s="134" t="inlineStr">
         <is>
           <t>пр.Экономика и управление производством
 Цуканова К.А.   14</t>
@@ -13115,7 +13121,7 @@
 Васечкин М.А.   127</t>
         </is>
       </c>
-      <c r="O40" s="245" t="inlineStr">
+      <c r="O40" s="253" t="inlineStr">
         <is>
           <t>л.Ремонт, монтаж и эксплуатация теплоэнергетического оборудования
 Белозерцев А.С.   311</t>
@@ -13135,7 +13141,7 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" s="144" t="inlineStr">
+      <c r="E41" s="143" t="inlineStr">
         <is>
           <t>лаб.Тех. об. тепломассообм. процессов
 Антипов С.Т.   102     Z</t>
@@ -13149,7 +13155,7 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" s="394" t="inlineStr">
+      <c r="I41" s="396" t="inlineStr">
         <is>
           <t>л.Теория технологического потока        Назаров С.А.   017</t>
         </is>
@@ -13177,7 +13183,7 @@
 Цуканова К.А.   14</t>
         </is>
       </c>
-      <c r="N41" s="250" t="inlineStr">
+      <c r="N41" s="258" t="inlineStr">
         <is>
           <t>лаб.Прогр. системы инж. анализа мех. систем
 Васечкин М.А.   127а</t>
@@ -13196,12 +13202,12 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B42" s="208" t="inlineStr">
+      <c r="B42" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C42" s="258" t="inlineStr">
+      <c r="C42" s="273" t="inlineStr">
         <is>
           <t>л.Технологическое оборудование механических и гидромеханических процессов           Дранников А.В.   125</t>
         </is>
@@ -13216,13 +13222,13 @@
           <t>л.Технологическое оборудование механических и гидромеханических процессов           Дранников А.В.   125</t>
         </is>
       </c>
-      <c r="F42" s="129" t="inlineStr">
+      <c r="F42" s="132" t="inlineStr">
         <is>
           <t>пр.Теория упругости
 Егоров В.Г.   133</t>
         </is>
       </c>
-      <c r="G42" s="339" t="inlineStr">
+      <c r="G42" s="341" t="inlineStr">
         <is>
           <t>пр.Котельные установки и парогенераторы
 Белозерцев А.С.   311</t>
@@ -13246,7 +13252,7 @@
 Торопцев В.В.   103    Z</t>
         </is>
       </c>
-      <c r="K42" s="312" t="inlineStr">
+      <c r="K42" s="260" t="inlineStr">
         <is>
           <t>л.Экономика и управление производством             Стукало О.Г.   2</t>
         </is>
@@ -13261,13 +13267,13 @@
           <t>л.Экономика и управление производством             Стукало О.Г.   2</t>
         </is>
       </c>
-      <c r="N42" s="245" t="inlineStr">
+      <c r="N42" s="253" t="inlineStr">
         <is>
           <t>лаб.Программные системы инженерного анализа механических систем
 Васечкин М.А.   127а</t>
         </is>
       </c>
-      <c r="O42" s="245" t="inlineStr">
+      <c r="O42" s="253" t="inlineStr">
         <is>
           <t>пр.Ремонт, монтаж и эксплуатация теплоэнергетического оборудования
 Белозерцев А.С.   311</t>
@@ -13297,7 +13303,7 @@
 Торопцев В.В.   103      Z</t>
         </is>
       </c>
-      <c r="E43" s="144" t="inlineStr">
+      <c r="E43" s="143" t="inlineStr">
         <is>
           <t>лаб.Тех. об. тепломассообм. процессов
 Антипов С.Т.   102     Z</t>
@@ -13333,7 +13339,7 @@
 Рязанов А.Н.   017    Z</t>
         </is>
       </c>
-      <c r="K43" s="314" t="inlineStr">
+      <c r="K43" s="262" t="inlineStr">
         <is>
           <t>л.Расчет и конструирование машин и аппаратов пищевых производств            Напольских М.С.   125</t>
         </is>
@@ -13367,12 +13373,12 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B44" s="208" t="inlineStr">
+      <c r="B44" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C44" s="178" t="inlineStr">
+      <c r="C44" s="176" t="inlineStr">
         <is>
           <t>л.Теория технологического потока             Назаров С.А.   125</t>
         </is>
@@ -13417,7 +13423,7 @@
 Торопцев В.В.   103    Z</t>
         </is>
       </c>
-      <c r="K44" s="330" t="inlineStr">
+      <c r="K44" s="332" t="inlineStr">
         <is>
           <t>пр.Экономика и управление производством
 Цуканова К.А.   202</t>
@@ -13429,9 +13435,9 @@
 Цуканова К.А.   202</t>
         </is>
       </c>
-      <c r="M44" s="131" t="inlineStr"/>
-      <c r="N44" s="245" t="inlineStr"/>
-      <c r="O44" s="245" t="inlineStr"/>
+      <c r="M44" s="134" t="inlineStr"/>
+      <c r="N44" s="253" t="inlineStr"/>
+      <c r="O44" s="253" t="inlineStr"/>
     </row>
     <row r="45" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A45" t="inlineStr">
@@ -13456,8 +13462,8 @@
 Торопцев В.В.   103      Z</t>
         </is>
       </c>
-      <c r="E45" s="144" t="inlineStr"/>
-      <c r="F45" s="257" t="inlineStr">
+      <c r="E45" s="143" t="inlineStr"/>
+      <c r="F45" s="272" t="inlineStr">
         <is>
           <t>л.Экономика и управление производством          Стукало О.Г.   2</t>
         </is>
@@ -13506,24 +13512,24 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B46" s="208" t="inlineStr">
+      <c r="B46" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C46" s="330" t="inlineStr"/>
+      <c r="C46" s="332" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" s="129" t="inlineStr"/>
-      <c r="F46" s="129" t="inlineStr"/>
-      <c r="G46" s="330" t="inlineStr"/>
+      <c r="E46" s="132" t="inlineStr"/>
+      <c r="F46" s="132" t="inlineStr"/>
+      <c r="G46" s="332" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" s="382" t="inlineStr"/>
+      <c r="I46" s="384" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" s="330" t="inlineStr"/>
+      <c r="K46" s="332" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" s="131" t="inlineStr"/>
-      <c r="N46" s="245" t="inlineStr"/>
-      <c r="O46" s="245" t="inlineStr"/>
+      <c r="M46" s="134" t="inlineStr"/>
+      <c r="N46" s="253" t="inlineStr"/>
+      <c r="O46" s="253" t="inlineStr"/>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A47" t="inlineStr">
@@ -13556,24 +13562,24 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B48" s="331" t="inlineStr">
+      <c r="B48" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C48" s="335" t="inlineStr"/>
+      <c r="C48" s="337" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" s="333" t="inlineStr"/>
-      <c r="F48" s="333" t="inlineStr"/>
-      <c r="G48" s="335" t="inlineStr"/>
+      <c r="E48" s="335" t="inlineStr"/>
+      <c r="F48" s="335" t="inlineStr"/>
+      <c r="G48" s="337" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" s="387" t="inlineStr"/>
+      <c r="I48" s="389" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" s="335" t="inlineStr"/>
+      <c r="K48" s="337" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" s="334" t="inlineStr"/>
-      <c r="N48" s="388" t="inlineStr"/>
-      <c r="O48" s="388" t="inlineStr"/>
+      <c r="M48" s="336" t="inlineStr"/>
+      <c r="N48" s="390" t="inlineStr"/>
+      <c r="O48" s="390" t="inlineStr"/>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A49" t="inlineStr">
@@ -13601,25 +13607,25 @@
       <c r="O49" t="inlineStr"/>
     </row>
     <row r="50" ht="33" customHeight="1" s="51" thickTop="1">
-      <c r="A50" s="323" t="inlineStr">
+      <c r="A50" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B50" s="207" t="inlineStr">
+      <c r="B50" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C50" s="330" t="inlineStr"/>
+      <c r="C50" s="332" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" s="143" t="inlineStr"/>
-      <c r="F50" s="143" t="inlineStr"/>
-      <c r="G50" s="330" t="inlineStr"/>
+      <c r="E50" s="142" t="inlineStr"/>
+      <c r="F50" s="142" t="inlineStr"/>
+      <c r="G50" s="332" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" s="382" t="inlineStr"/>
+      <c r="I50" s="384" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" s="397" t="inlineStr">
+      <c r="K50" s="399" t="inlineStr">
         <is>
           <t>пр.Монтаж, эксплуатация и ремонт оборудования
 Никитина С.Ю.   114</t>
@@ -13631,14 +13637,14 @@
 Никитина С.Ю.   114</t>
         </is>
       </c>
-      <c r="M50" s="149" t="inlineStr"/>
-      <c r="N50" s="249" t="inlineStr">
+      <c r="M50" s="148" t="inlineStr"/>
+      <c r="N50" s="257" t="inlineStr">
         <is>
           <t>л.Основы теории устойчивости мех. систем
 Невструев Ю.А.   126</t>
         </is>
       </c>
-      <c r="O50" s="249" t="inlineStr"/>
+      <c r="O50" s="257" t="inlineStr"/>
     </row>
     <row r="51" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A51" t="inlineStr">
@@ -13659,7 +13665,7 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" s="396" t="inlineStr">
+      <c r="K51" s="398" t="inlineStr">
         <is>
           <t>пр.Техника пищевых производств малых предприятий
 Никитина С.Ю.   114</t>
@@ -13686,12 +13692,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B52" s="208" t="inlineStr">
+      <c r="B52" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C52" s="337" t="inlineStr">
+      <c r="C52" s="339" t="inlineStr">
         <is>
           <t>пр.Системное развитие техники пищевых производств
 Пойманов В.В.   114</t>
@@ -13720,8 +13726,8 @@
           <t>л.Основы электротехники и электроники          Никель С.А.   333</t>
         </is>
       </c>
-      <c r="I52" s="382" t="n"/>
-      <c r="K52" s="312" t="inlineStr">
+      <c r="I52" s="384" t="n"/>
+      <c r="K52" s="260" t="inlineStr">
         <is>
           <t>л.Монтаж, эксплуатация и ремонт оборудования               Никитина С.Ю.   125</t>
         </is>
@@ -13736,13 +13742,13 @@
           <t>л.Монтаж, эксплуатация и ремонт оборудования               Никитина С.Ю.   125</t>
         </is>
       </c>
-      <c r="N52" s="245" t="inlineStr">
+      <c r="N52" s="253" t="inlineStr">
         <is>
           <t>пр.Основы теории устойчивости механических систем
 Невструев Ю.А.   126</t>
         </is>
       </c>
-      <c r="O52" s="245" t="inlineStr">
+      <c r="O52" s="253" t="inlineStr">
         <is>
           <t>л.САПР в теплоэнергетике и теплотехнике
 Лавров С.В.   311</t>
@@ -13760,7 +13766,7 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C53" s="338" t="inlineStr">
+      <c r="C53" s="340" t="inlineStr">
         <is>
           <t>пр.Холодильная техника          Берестовой  А.А.   017</t>
         </is>
@@ -13770,16 +13776,21 @@
           <t>пр.Холодильная техника          Берестовой  А.А.   017</t>
         </is>
       </c>
-      <c r="E53" s="144" t="inlineStr">
+      <c r="E53" s="143" t="inlineStr">
         <is>
           <t>пр.Теория технологического потока
 Назаров С.А.   114</t>
         </is>
       </c>
-      <c r="F53" s="144" t="n"/>
-      <c r="G53" s="327" t="inlineStr"/>
+      <c r="F53" s="143" t="inlineStr">
+        <is>
+          <t>пр.Экономика и управление производством
+Цуканова К.А.   44</t>
+        </is>
+      </c>
+      <c r="G53" s="329" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="K53" s="314" t="inlineStr">
+      <c r="K53" s="262" t="inlineStr">
         <is>
           <t>л.Техника пищевых производств малых предприятий              Никитина С.Ю.   125</t>
         </is>
@@ -13813,12 +13824,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B54" s="208" t="inlineStr">
+      <c r="B54" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C54" s="267" t="inlineStr">
+      <c r="C54" s="281" t="inlineStr">
         <is>
           <t>л.Технологическое оборудование тепломассообменных процессов
 Антипов С.Т.   102</t>
@@ -13836,13 +13847,13 @@
 Антипов С.Т.   102</t>
         </is>
       </c>
-      <c r="F54" s="129" t="inlineStr">
+      <c r="F54" s="132" t="inlineStr">
         <is>
           <t>пр.Основы автоматизированного проектир. и конструирования узлов механических систем
 Литвинов Е.В.   133</t>
         </is>
       </c>
-      <c r="G54" s="339" t="inlineStr">
+      <c r="G54" s="341" t="inlineStr">
         <is>
           <t>пр.Основы электротехники и электроники
 Никель С.А.   333</t>
@@ -13854,7 +13865,7 @@
 Никель С.А.   333</t>
         </is>
       </c>
-      <c r="I54" s="382" t="n"/>
+      <c r="I54" s="384" t="n"/>
       <c r="K54" s="82" t="inlineStr">
         <is>
           <t>лаб.Расчет и констр. МАПП
@@ -13874,7 +13885,7 @@
         </is>
       </c>
       <c r="N54" s="87" t="inlineStr"/>
-      <c r="O54" s="245" t="inlineStr">
+      <c r="O54" s="253" t="inlineStr">
         <is>
           <t>л.САПР в теплоэнергетике и теплотехнике
 Лавров С.В.   311</t>
@@ -13940,13 +13951,13 @@
 Никитина С.Ю.   114    Z</t>
         </is>
       </c>
-      <c r="M55" s="150" t="inlineStr">
+      <c r="M55" s="149" t="inlineStr">
         <is>
           <t>лаб.Расчет и конструирование МАПП
 Напольских М.С.   103   Z</t>
         </is>
       </c>
-      <c r="N55" s="250" t="inlineStr">
+      <c r="N55" s="258" t="inlineStr">
         <is>
           <t>пр.Основы теории устойчивости мех. систем
 Невструев Ю.А.   126</t>
@@ -13965,12 +13976,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B56" s="208" t="inlineStr">
+      <c r="B56" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C56" s="137" t="inlineStr">
+      <c r="C56" s="136" t="inlineStr">
         <is>
           <t>Элективные дисциплины (курсы) по физической культуре и спорту,    общая физическая подготовка</t>
         </is>
@@ -14030,8 +14041,8 @@
 Никитина С.Ю.   102</t>
         </is>
       </c>
-      <c r="N56" s="245" t="inlineStr"/>
-      <c r="O56" s="245" t="inlineStr">
+      <c r="N56" s="253" t="inlineStr"/>
+      <c r="O56" s="253" t="inlineStr">
         <is>
           <t>лаб.САПР в теплоэнергетике и теплотехнике
 Лавров С.В.   311</t>
@@ -14079,7 +14090,7 @@
           <t>Элективные дисциплины (курсы) по физической культуре и спорту,    общая физическая подготовка</t>
         </is>
       </c>
-      <c r="I57" s="367" t="inlineStr">
+      <c r="I57" s="369" t="inlineStr">
         <is>
           <t>л.Системное развитие техники пищевых производств
 Пойманов В.В.   114</t>
@@ -14103,7 +14114,7 @@
 Никитина С.Ю.   102    Z</t>
         </is>
       </c>
-      <c r="M57" s="150" t="inlineStr">
+      <c r="M57" s="149" t="inlineStr">
         <is>
           <t>лаб.Расчет и конструирование МАПП
 Напольских М.С.   103   Z</t>
@@ -14123,18 +14134,18 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B58" s="208" t="inlineStr">
+      <c r="B58" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C58" s="330" t="inlineStr"/>
+      <c r="C58" s="332" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" s="129" t="inlineStr"/>
-      <c r="F58" s="129" t="inlineStr"/>
-      <c r="G58" s="330" t="inlineStr"/>
+      <c r="E58" s="132" t="inlineStr"/>
+      <c r="F58" s="132" t="inlineStr"/>
+      <c r="G58" s="332" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" s="382" t="inlineStr">
+      <c r="I58" s="384" t="inlineStr">
         <is>
           <t>л.Технология конструир. пищевых машин и автоматов
 Прибытков А.В.   114</t>
@@ -14146,11 +14157,11 @@
 Прибытков А.В.   114</t>
         </is>
       </c>
-      <c r="K58" s="330" t="inlineStr"/>
+      <c r="K58" s="332" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" s="131" t="inlineStr"/>
-      <c r="N58" s="245" t="n"/>
-      <c r="O58" s="245" t="inlineStr">
+      <c r="M58" s="134" t="inlineStr"/>
+      <c r="N58" s="253" t="n"/>
+      <c r="O58" s="253" t="inlineStr">
         <is>
           <t>лаб.САПР в теплоэнергетике и теплотехнике
 Лавров С.В.   311</t>
@@ -14202,24 +14213,24 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B60" s="208" t="inlineStr">
+      <c r="B60" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C60" s="330" t="inlineStr"/>
+      <c r="C60" s="332" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" s="129" t="inlineStr"/>
-      <c r="F60" s="129" t="inlineStr"/>
-      <c r="G60" s="330" t="inlineStr"/>
+      <c r="E60" s="132" t="inlineStr"/>
+      <c r="F60" s="132" t="inlineStr"/>
+      <c r="G60" s="332" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" s="382" t="inlineStr"/>
+      <c r="I60" s="384" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" s="330" t="inlineStr"/>
+      <c r="K60" s="332" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" s="131" t="inlineStr"/>
-      <c r="N60" s="245" t="inlineStr"/>
-      <c r="O60" s="245" t="inlineStr"/>
+      <c r="M60" s="134" t="inlineStr"/>
+      <c r="N60" s="253" t="inlineStr"/>
+      <c r="O60" s="253" t="inlineStr"/>
     </row>
     <row r="61" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A61" t="inlineStr">
@@ -14252,24 +14263,24 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B62" s="331" t="inlineStr">
+      <c r="B62" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C62" s="335" t="inlineStr"/>
+      <c r="C62" s="337" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" s="333" t="inlineStr"/>
-      <c r="F62" s="333" t="inlineStr"/>
-      <c r="G62" s="335" t="inlineStr"/>
+      <c r="E62" s="335" t="inlineStr"/>
+      <c r="F62" s="335" t="inlineStr"/>
+      <c r="G62" s="337" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" s="387" t="inlineStr"/>
+      <c r="I62" s="389" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" s="335" t="inlineStr"/>
+      <c r="K62" s="337" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" s="334" t="inlineStr"/>
-      <c r="N62" s="388" t="inlineStr"/>
-      <c r="O62" s="388" t="inlineStr"/>
+      <c r="M62" s="336" t="inlineStr"/>
+      <c r="N62" s="390" t="inlineStr"/>
+      <c r="O62" s="390" t="inlineStr"/>
     </row>
     <row r="63" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A63" t="inlineStr">
@@ -14297,17 +14308,17 @@
       <c r="O63" t="inlineStr"/>
     </row>
     <row r="64" ht="33" customHeight="1" s="51" thickTop="1">
-      <c r="A64" s="323" t="inlineStr">
+      <c r="A64" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B64" s="207" t="inlineStr">
+      <c r="B64" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C64" s="330" t="inlineStr"/>
+      <c r="C64" s="332" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" s="95" t="inlineStr">
         <is>
@@ -14315,7 +14326,7 @@
 Торопцев В.В.   103    Z</t>
         </is>
       </c>
-      <c r="F64" s="143" t="inlineStr"/>
+      <c r="F64" s="142" t="inlineStr"/>
       <c r="G64" s="82" t="inlineStr">
         <is>
           <t>лаб.Основы трансф. теплоты...
@@ -14323,9 +14334,9 @@
         </is>
       </c>
       <c r="H64" s="83" t="n"/>
-      <c r="I64" s="382" t="inlineStr"/>
+      <c r="I64" s="384" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" s="397" t="inlineStr">
+      <c r="K64" s="399" t="inlineStr">
         <is>
           <t>пр.Тех. оборудование биотехнологических процессов
 Потапов А.И.   114</t>
@@ -14349,7 +14360,7 @@
 Власова Л.А.   6-37</t>
         </is>
       </c>
-      <c r="O64" s="249" t="inlineStr"/>
+      <c r="O64" s="257" t="inlineStr"/>
     </row>
     <row r="65" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A65" t="inlineStr">
@@ -14364,7 +14375,7 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" s="144" t="inlineStr">
+      <c r="E65" s="143" t="inlineStr">
         <is>
           <t>лаб.Холодильная техника
 Берестовой  А.А.   017     Z</t>
@@ -14380,7 +14391,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" s="338" t="inlineStr">
+      <c r="K65" s="340" t="inlineStr">
         <is>
           <t>пр.Тех. оборудование для фасовки и упаковки продукции
 Торопцев В.В.   114</t>
@@ -14392,13 +14403,13 @@
 Торопцев В.В.   114</t>
         </is>
       </c>
-      <c r="M65" s="150" t="inlineStr">
+      <c r="M65" s="149" t="inlineStr">
         <is>
           <t>пр.Монтаж, эксплуатация и ремонт оборуд.
 Никитина С.Ю.   102</t>
         </is>
       </c>
-      <c r="N65" s="250" t="inlineStr"/>
+      <c r="N65" s="258" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
     </row>
     <row r="66" ht="33" customHeight="1" s="51">
@@ -14407,12 +14418,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B66" s="208" t="inlineStr">
+      <c r="B66" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C66" s="337" t="inlineStr">
+      <c r="C66" s="339" t="inlineStr">
         <is>
           <t>пр.Тех. оборудование механических и гидромех. процессов
 Берестовой  А.А.   114</t>
@@ -14430,7 +14441,7 @@
 Торопцев В.В.   103    Z</t>
         </is>
       </c>
-      <c r="F66" s="129" t="inlineStr"/>
+      <c r="F66" s="132" t="inlineStr"/>
       <c r="G66" s="82" t="inlineStr">
         <is>
           <t>лаб.Основы трансф. теплоты...
@@ -14450,7 +14461,7 @@
 Пойманов В.В.   017</t>
         </is>
       </c>
-      <c r="K66" s="312" t="inlineStr">
+      <c r="K66" s="260" t="inlineStr">
         <is>
           <t>л.Технологическое оборудование биотехнологических процессов            Потапов А.И.   125</t>
         </is>
@@ -14471,7 +14482,7 @@
 Власова Л.А.   6-37</t>
         </is>
       </c>
-      <c r="O66" s="245" t="inlineStr">
+      <c r="O66" s="253" t="inlineStr">
         <is>
           <t>пр.САПР в теплоэнергетике и теплотехнике
 Лавров С.В.   311</t>
@@ -14489,7 +14500,7 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C67" s="338" t="inlineStr">
+      <c r="C67" s="340" t="inlineStr">
         <is>
           <t>пр.Теория технологического потока            Назаров С.А.   114</t>
         </is>
@@ -14499,7 +14510,7 @@
           <t>пр.Теория технологического потока            Назаров С.А.   114</t>
         </is>
       </c>
-      <c r="E67" s="144" t="inlineStr">
+      <c r="E67" s="143" t="inlineStr">
         <is>
           <t>лаб.Холодильная техника
 Берестовой  А.А.   017     Z</t>
@@ -14513,8 +14524,8 @@
 Белозерцев А.С.   311</t>
         </is>
       </c>
-      <c r="I67" s="367" t="n"/>
-      <c r="K67" s="314" t="inlineStr">
+      <c r="I67" s="369" t="n"/>
+      <c r="K67" s="262" t="inlineStr">
         <is>
           <t>л.Технологическое оборудование для фасовки и упаковки продукции           Торопцев В.В.   125</t>
         </is>
@@ -14529,7 +14540,7 @@
           <t>л.Технологическое оборудование для фасовки и упаковки продукции           Торопцев В.В.   125</t>
         </is>
       </c>
-      <c r="N67" s="250" t="inlineStr">
+      <c r="N67" s="258" t="inlineStr">
         <is>
           <t>л.Безопасность жизнедеятельности
 Зуева С.Б.   6-37</t>
@@ -14548,12 +14559,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B68" s="208" t="inlineStr">
+      <c r="B68" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C68" s="267" t="inlineStr">
+      <c r="C68" s="281" t="inlineStr">
         <is>
           <t>л.Системное развитие техники пищевых производств              Пойманов В.В.   125</t>
         </is>
@@ -14568,8 +14579,8 @@
           <t>л.Системное развитие техники пищевых производств              Пойманов В.В.   125</t>
         </is>
       </c>
-      <c r="F68" s="129" t="inlineStr"/>
-      <c r="G68" s="339" t="inlineStr">
+      <c r="F68" s="132" t="inlineStr"/>
+      <c r="G68" s="341" t="inlineStr">
         <is>
           <t>пр.Основы трансформации теплоты, системы кондиционирования и вентиляции
 Белозерцев А.С.   311</t>
@@ -14606,13 +14617,13 @@
 Потапов А.И.   114</t>
         </is>
       </c>
-      <c r="N68" s="245" t="inlineStr">
+      <c r="N68" s="253" t="inlineStr">
         <is>
           <t>л.Безопасность жизнедеятельности
 Зуева С.Б.   6-37</t>
         </is>
       </c>
-      <c r="O68" s="245" t="inlineStr">
+      <c r="O68" s="253" t="inlineStr">
         <is>
           <t>пр.САПР в теплоэнергетике и теплотехнике
 Лавров С.В.   311</t>
@@ -14658,7 +14669,7 @@
 Белозерцев А.С.   311</t>
         </is>
       </c>
-      <c r="I69" s="367" t="n"/>
+      <c r="I69" s="369" t="n"/>
       <c r="K69" s="85" t="n"/>
       <c r="L69" s="86" t="inlineStr">
         <is>
@@ -14666,7 +14677,7 @@
 Никитина С.Ю.   102</t>
         </is>
       </c>
-      <c r="M69" s="150" t="inlineStr">
+      <c r="M69" s="149" t="inlineStr">
         <is>
           <t>пр.Тех. оборудование для фасовки ...
 Торопцев В.В.   114</t>
@@ -14691,21 +14702,21 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B70" s="208" t="inlineStr">
+      <c r="B70" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C70" s="330" t="inlineStr"/>
+      <c r="C70" s="332" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" s="129" t="inlineStr">
+      <c r="E70" s="132" t="inlineStr">
         <is>
           <t>пр.Системное развитие техники пищевых производств
 Пойманов В.В.   114</t>
         </is>
       </c>
-      <c r="F70" s="129" t="inlineStr"/>
-      <c r="G70" s="339" t="inlineStr">
+      <c r="F70" s="132" t="inlineStr"/>
+      <c r="G70" s="341" t="inlineStr">
         <is>
           <t>л.Основы трансформации теплоты, системы кондиционирования и вентиляции
 Белозерцев А.С.   311</t>
@@ -14736,9 +14747,9 @@
         </is>
       </c>
       <c r="L70" s="83" t="n"/>
-      <c r="M70" s="131" t="inlineStr"/>
-      <c r="N70" s="245" t="inlineStr"/>
-      <c r="O70" s="245" t="inlineStr">
+      <c r="M70" s="134" t="inlineStr"/>
+      <c r="N70" s="253" t="inlineStr"/>
+      <c r="O70" s="253" t="inlineStr">
         <is>
           <t>пр.САПР в теплоэнергетике и теплотехнике
 Лавров С.В.   311</t>
@@ -14777,7 +14788,7 @@
 Белозерцев А.С.   311</t>
         </is>
       </c>
-      <c r="I71" s="367" t="inlineStr">
+      <c r="I71" s="369" t="inlineStr">
         <is>
           <t>пр.Теория технологического потока      Назаров С.А.      103</t>
         </is>
@@ -14809,18 +14820,18 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B72" s="208" t="inlineStr">
+      <c r="B72" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C72" s="330" t="inlineStr"/>
+      <c r="C72" s="332" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" s="129" t="inlineStr"/>
-      <c r="F72" s="129" t="inlineStr"/>
-      <c r="G72" s="330" t="inlineStr"/>
+      <c r="E72" s="132" t="inlineStr"/>
+      <c r="F72" s="132" t="inlineStr"/>
+      <c r="G72" s="332" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" s="382" t="inlineStr">
+      <c r="I72" s="384" t="inlineStr">
         <is>
           <t>л.Диагностика и сервисное обслуживание оборудования
 Рязанов А.Н.      103</t>
@@ -14832,11 +14843,11 @@
 Рязанов А.Н.      103</t>
         </is>
       </c>
-      <c r="K72" s="330" t="inlineStr"/>
+      <c r="K72" s="332" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" s="131" t="inlineStr"/>
-      <c r="N72" s="245" t="inlineStr"/>
-      <c r="O72" s="245" t="inlineStr"/>
+      <c r="M72" s="134" t="inlineStr"/>
+      <c r="N72" s="253" t="inlineStr"/>
+      <c r="O72" s="253" t="inlineStr"/>
     </row>
     <row r="73" ht="33" customHeight="1" s="51" thickBot="1">
       <c r="A73" t="inlineStr">
@@ -14879,24 +14890,24 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B74" s="208" t="inlineStr">
+      <c r="B74" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C74" s="330" t="inlineStr"/>
+      <c r="C74" s="332" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" s="129" t="inlineStr"/>
-      <c r="F74" s="129" t="inlineStr"/>
-      <c r="G74" s="330" t="inlineStr"/>
+      <c r="E74" s="132" t="inlineStr"/>
+      <c r="F74" s="132" t="inlineStr"/>
+      <c r="G74" s="332" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" s="330" t="inlineStr"/>
+      <c r="I74" s="332" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" s="330" t="inlineStr"/>
+      <c r="K74" s="332" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" s="131" t="inlineStr"/>
-      <c r="N74" s="245" t="inlineStr"/>
-      <c r="O74" s="245" t="inlineStr"/>
+      <c r="M74" s="134" t="inlineStr"/>
+      <c r="N74" s="253" t="inlineStr"/>
+      <c r="O74" s="253" t="inlineStr"/>
     </row>
     <row r="75" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A75" t="inlineStr">
@@ -14929,24 +14940,24 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B76" s="331" t="inlineStr">
+      <c r="B76" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C76" s="398" t="inlineStr"/>
+      <c r="C76" s="400" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" s="399" t="inlineStr"/>
-      <c r="F76" s="399" t="inlineStr"/>
-      <c r="G76" s="398" t="inlineStr"/>
+      <c r="E76" s="401" t="inlineStr"/>
+      <c r="F76" s="401" t="inlineStr"/>
+      <c r="G76" s="400" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" s="333" t="inlineStr"/>
+      <c r="I76" s="335" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" s="335" t="inlineStr"/>
+      <c r="K76" s="337" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" s="334" t="inlineStr"/>
-      <c r="N76" s="388" t="inlineStr"/>
-      <c r="O76" s="388" t="inlineStr"/>
+      <c r="M76" s="336" t="inlineStr"/>
+      <c r="N76" s="390" t="inlineStr"/>
+      <c r="O76" s="390" t="inlineStr"/>
     </row>
     <row r="77" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A77" t="inlineStr">
@@ -14974,29 +14985,29 @@
       <c r="O77" t="inlineStr"/>
     </row>
     <row r="78" ht="15.75" customHeight="1" s="51" thickTop="1">
-      <c r="A78" s="323" t="inlineStr">
+      <c r="A78" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B78" s="207" t="inlineStr">
+      <c r="B78" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C78" s="330" t="inlineStr"/>
+      <c r="C78" s="332" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" s="401" t="inlineStr"/>
-      <c r="F78" s="401" t="inlineStr"/>
-      <c r="G78" s="330" t="inlineStr"/>
+      <c r="E78" s="403" t="inlineStr"/>
+      <c r="F78" s="403" t="inlineStr"/>
+      <c r="G78" s="332" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" s="330" t="inlineStr"/>
+      <c r="I78" s="332" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" s="330" t="inlineStr"/>
+      <c r="K78" s="332" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" s="149" t="inlineStr"/>
-      <c r="N78" s="249" t="inlineStr"/>
-      <c r="O78" s="249" t="inlineStr"/>
+      <c r="M78" s="148" t="inlineStr"/>
+      <c r="N78" s="257" t="inlineStr"/>
+      <c r="O78" s="257" t="inlineStr"/>
     </row>
     <row r="79" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A79" t="inlineStr">
@@ -15029,24 +15040,24 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B80" s="208" t="inlineStr">
+      <c r="B80" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C80" s="402" t="inlineStr"/>
+      <c r="C80" s="404" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" s="403" t="inlineStr"/>
-      <c r="F80" s="403" t="inlineStr"/>
-      <c r="G80" s="402" t="inlineStr"/>
+      <c r="E80" s="405" t="inlineStr"/>
+      <c r="F80" s="405" t="inlineStr"/>
+      <c r="G80" s="404" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" s="330" t="inlineStr"/>
+      <c r="I80" s="332" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" s="330" t="inlineStr"/>
+      <c r="K80" s="332" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" s="131" t="inlineStr"/>
-      <c r="N80" s="245" t="inlineStr"/>
-      <c r="O80" s="245" t="inlineStr"/>
+      <c r="M80" s="134" t="inlineStr"/>
+      <c r="N80" s="253" t="inlineStr"/>
+      <c r="O80" s="253" t="inlineStr"/>
     </row>
     <row r="81" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A81" t="inlineStr">
@@ -15079,24 +15090,24 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B82" s="208" t="inlineStr">
+      <c r="B82" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C82" s="402" t="inlineStr"/>
+      <c r="C82" s="404" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" s="403" t="inlineStr"/>
-      <c r="F82" s="403" t="inlineStr"/>
-      <c r="G82" s="402" t="inlineStr"/>
+      <c r="E82" s="405" t="inlineStr"/>
+      <c r="F82" s="405" t="inlineStr"/>
+      <c r="G82" s="404" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" s="330" t="inlineStr"/>
+      <c r="I82" s="332" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" s="330" t="inlineStr"/>
+      <c r="K82" s="332" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" s="131" t="inlineStr"/>
-      <c r="N82" s="245" t="inlineStr"/>
-      <c r="O82" s="245" t="inlineStr"/>
+      <c r="M82" s="134" t="inlineStr"/>
+      <c r="N82" s="253" t="inlineStr"/>
+      <c r="O82" s="253" t="inlineStr"/>
     </row>
     <row r="83" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A83" t="inlineStr">
@@ -15129,24 +15140,24 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B84" s="208" t="inlineStr">
+      <c r="B84" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C84" s="402" t="inlineStr"/>
+      <c r="C84" s="404" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" s="403" t="inlineStr"/>
-      <c r="F84" s="403" t="inlineStr"/>
-      <c r="G84" s="402" t="inlineStr"/>
+      <c r="E84" s="405" t="inlineStr"/>
+      <c r="F84" s="405" t="inlineStr"/>
+      <c r="G84" s="404" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" s="330" t="inlineStr"/>
+      <c r="I84" s="332" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" s="330" t="inlineStr"/>
+      <c r="K84" s="332" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" s="131" t="inlineStr"/>
-      <c r="N84" s="245" t="inlineStr"/>
-      <c r="O84" s="245" t="inlineStr"/>
+      <c r="M84" s="134" t="inlineStr"/>
+      <c r="N84" s="253" t="inlineStr"/>
+      <c r="O84" s="253" t="inlineStr"/>
     </row>
     <row r="85" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A85" t="inlineStr">
@@ -15179,24 +15190,24 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B86" s="208" t="inlineStr">
+      <c r="B86" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C86" s="402" t="inlineStr"/>
+      <c r="C86" s="404" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" s="403" t="inlineStr"/>
-      <c r="F86" s="403" t="inlineStr"/>
-      <c r="G86" s="402" t="inlineStr"/>
+      <c r="E86" s="405" t="inlineStr"/>
+      <c r="F86" s="405" t="inlineStr"/>
+      <c r="G86" s="404" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" s="330" t="inlineStr"/>
+      <c r="I86" s="332" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" s="330" t="inlineStr"/>
+      <c r="K86" s="332" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" s="131" t="inlineStr"/>
-      <c r="N86" s="245" t="inlineStr"/>
-      <c r="O86" s="245" t="inlineStr"/>
+      <c r="M86" s="134" t="inlineStr"/>
+      <c r="N86" s="253" t="inlineStr"/>
+      <c r="O86" s="253" t="inlineStr"/>
     </row>
     <row r="87" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A87" t="inlineStr">
@@ -15229,24 +15240,24 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B88" s="208" t="inlineStr">
+      <c r="B88" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C88" s="402" t="inlineStr"/>
+      <c r="C88" s="404" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" s="403" t="inlineStr"/>
-      <c r="F88" s="403" t="inlineStr"/>
-      <c r="G88" s="402" t="inlineStr"/>
+      <c r="E88" s="405" t="inlineStr"/>
+      <c r="F88" s="405" t="inlineStr"/>
+      <c r="G88" s="404" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" s="330" t="inlineStr"/>
+      <c r="I88" s="332" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" s="330" t="inlineStr"/>
+      <c r="K88" s="332" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" s="131" t="inlineStr"/>
-      <c r="N88" s="245" t="inlineStr"/>
-      <c r="O88" s="245" t="inlineStr"/>
+      <c r="M88" s="134" t="inlineStr"/>
+      <c r="N88" s="253" t="inlineStr"/>
+      <c r="O88" s="253" t="inlineStr"/>
     </row>
     <row r="89" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A89" t="inlineStr">
@@ -15279,24 +15290,24 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B90" s="331" t="inlineStr">
+      <c r="B90" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C90" s="398" t="inlineStr"/>
+      <c r="C90" s="400" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" s="399" t="inlineStr"/>
-      <c r="F90" s="399" t="inlineStr"/>
-      <c r="G90" s="398" t="inlineStr"/>
+      <c r="E90" s="401" t="inlineStr"/>
+      <c r="F90" s="401" t="inlineStr"/>
+      <c r="G90" s="400" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" s="333" t="inlineStr"/>
+      <c r="I90" s="335" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" s="335" t="inlineStr"/>
+      <c r="K90" s="337" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" s="131" t="inlineStr"/>
-      <c r="N90" s="245" t="inlineStr"/>
-      <c r="O90" s="245" t="inlineStr"/>
+      <c r="M90" s="134" t="inlineStr"/>
+      <c r="N90" s="253" t="inlineStr"/>
+      <c r="O90" s="253" t="inlineStr"/>
     </row>
     <row r="91" ht="15.75" customHeight="1" s="51" thickBot="1">
       <c r="A91" t="inlineStr">
@@ -15341,7 +15352,7 @@
       <c r="O92" s="6" t="n"/>
     </row>
     <row r="93" ht="27.75" customFormat="1" customHeight="1" s="48">
-      <c r="C93" s="193" t="inlineStr">
+      <c r="C93" s="190" t="inlineStr">
         <is>
           <t>Декан факультета _____________________А.В.Дранников</t>
         </is>
@@ -15367,7 +15378,7 @@
         </is>
       </c>
       <c r="J93" s="59" t="n"/>
-      <c r="K93" s="194" t="inlineStr">
+      <c r="K93" s="191" t="inlineStr">
         <is>
           <t xml:space="preserve">Начальник учебно-методического управления _____________________ Фролова Л.Н.   </t>
         </is>
@@ -15442,10 +15453,10 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C58" sqref="C58:C59"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
@@ -15920,12 +15931,12 @@
         </is>
       </c>
       <c r="C2" s="67" t="n"/>
-      <c r="D2" s="212" t="inlineStr">
+      <c r="D2" s="218" t="inlineStr">
         <is>
           <t>РАСПИСАНИЕ</t>
         </is>
       </c>
-      <c r="E2" s="212" t="n"/>
+      <c r="E2" s="218" t="n"/>
       <c r="F2" s="54" t="inlineStr">
         <is>
           <t>"Утверждаю"</t>
@@ -15950,7 +15961,7 @@
           <t>РАСПИСАНИЕ</t>
         </is>
       </c>
-      <c r="E3" s="212" t="n"/>
+      <c r="E3" s="218" t="n"/>
       <c r="F3" s="54" t="inlineStr">
         <is>
           <t>Проректор по учебной работе</t>
@@ -15975,7 +15986,7 @@
           <t>РАСПИСАНИЕ</t>
         </is>
       </c>
-      <c r="E4" s="212" t="n"/>
+      <c r="E4" s="218" t="n"/>
       <c r="F4" s="68" t="inlineStr">
         <is>
           <t>В.Н. Василенко</t>
@@ -16029,7 +16040,7 @@
           <t>Часы</t>
         </is>
       </c>
-      <c r="C7" s="180" t="inlineStr">
+      <c r="C7" s="178" t="inlineStr">
         <is>
           <t>Мм-205</t>
         </is>
@@ -16043,19 +16054,19 @@
       <c r="G7" s="48" t="n"/>
     </row>
     <row r="8" ht="35.1" customHeight="1" s="51" thickTop="1">
-      <c r="A8" s="405" t="inlineStr">
+      <c r="A8" s="407" t="inlineStr">
         <is>
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B8" s="274" t="inlineStr">
+      <c r="B8" s="286" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C8" s="175" t="inlineStr"/>
-      <c r="D8" s="249" t="inlineStr"/>
-      <c r="E8" s="406" t="inlineStr"/>
+      <c r="C8" s="172" t="inlineStr"/>
+      <c r="D8" s="257" t="inlineStr"/>
+      <c r="E8" s="408" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" s="48" t="n"/>
     </row>
@@ -16082,14 +16093,14 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B10" s="273" t="inlineStr">
+      <c r="B10" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C10" s="166" t="inlineStr"/>
-      <c r="D10" s="245" t="inlineStr"/>
-      <c r="E10" s="408" t="inlineStr"/>
+      <c r="C10" s="189" t="inlineStr"/>
+      <c r="D10" s="253" t="inlineStr"/>
+      <c r="E10" s="410" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" s="48" t="n"/>
     </row>
@@ -16116,14 +16127,14 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B12" s="273" t="inlineStr">
+      <c r="B12" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C12" s="166" t="inlineStr"/>
-      <c r="D12" s="245" t="inlineStr"/>
-      <c r="E12" s="408" t="inlineStr"/>
+      <c r="C12" s="189" t="inlineStr"/>
+      <c r="D12" s="253" t="inlineStr"/>
+      <c r="E12" s="410" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" s="48" t="n"/>
     </row>
@@ -16150,14 +16161,14 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B14" s="273" t="inlineStr">
+      <c r="B14" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C14" s="166" t="inlineStr"/>
-      <c r="D14" s="245" t="inlineStr"/>
-      <c r="E14" s="408" t="inlineStr"/>
+      <c r="C14" s="189" t="inlineStr"/>
+      <c r="D14" s="253" t="inlineStr"/>
+      <c r="E14" s="410" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" s="48" t="n"/>
     </row>
@@ -16184,14 +16195,14 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B16" s="273" t="inlineStr">
+      <c r="B16" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C16" s="166" t="inlineStr"/>
-      <c r="D16" s="245" t="inlineStr"/>
-      <c r="E16" s="408" t="inlineStr"/>
+      <c r="C16" s="189" t="inlineStr"/>
+      <c r="D16" s="253" t="inlineStr"/>
+      <c r="E16" s="410" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" s="48" t="n"/>
     </row>
@@ -16218,14 +16229,14 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B18" s="273" t="inlineStr">
+      <c r="B18" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C18" s="166" t="inlineStr"/>
-      <c r="D18" s="245" t="inlineStr"/>
-      <c r="E18" s="408" t="inlineStr"/>
+      <c r="C18" s="189" t="inlineStr"/>
+      <c r="D18" s="253" t="inlineStr"/>
+      <c r="E18" s="410" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" s="48" t="n"/>
     </row>
@@ -16252,14 +16263,14 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B20" s="409" t="inlineStr">
+      <c r="B20" s="411" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C20" s="410" t="inlineStr"/>
-      <c r="D20" s="388" t="inlineStr"/>
-      <c r="E20" s="411" t="inlineStr"/>
+      <c r="C20" s="412" t="inlineStr"/>
+      <c r="D20" s="390" t="inlineStr"/>
+      <c r="E20" s="413" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" s="48" t="n"/>
     </row>
@@ -16281,19 +16292,19 @@
       <c r="G21" s="48" t="n"/>
     </row>
     <row r="22" ht="35.1" customHeight="1" s="51" thickTop="1">
-      <c r="A22" s="405" t="inlineStr">
+      <c r="A22" s="407" t="inlineStr">
         <is>
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B22" s="274" t="inlineStr">
+      <c r="B22" s="286" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C22" s="175" t="inlineStr"/>
-      <c r="D22" s="249" t="inlineStr"/>
-      <c r="E22" s="406" t="inlineStr"/>
+      <c r="C22" s="172" t="inlineStr"/>
+      <c r="D22" s="257" t="inlineStr"/>
+      <c r="E22" s="408" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" s="48" t="n"/>
     </row>
@@ -16320,12 +16331,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B24" s="273" t="inlineStr">
+      <c r="B24" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C24" s="231" t="inlineStr">
+      <c r="C24" s="239" t="inlineStr">
         <is>
           <t>пр.Иностранный язык
 Мирошниченко Е.Н.   17и</t>
@@ -16337,7 +16348,7 @@
 Егоров В.Г.   126</t>
         </is>
       </c>
-      <c r="E24" s="408" t="inlineStr"/>
+      <c r="E24" s="410" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" s="48" t="n"/>
     </row>
@@ -16352,13 +16363,13 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C25" s="293" t="inlineStr">
+      <c r="C25" s="305" t="inlineStr">
         <is>
           <t>л.Управление качеством, стандартизация и сертификация
 Косенко И.С.   5-26</t>
         </is>
       </c>
-      <c r="D25" s="250" t="inlineStr">
+      <c r="D25" s="258" t="inlineStr">
         <is>
           <t>л.Прочность материалов и конструкций
 Егоров В.Г.   126</t>
@@ -16374,24 +16385,24 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B26" s="273" t="inlineStr">
+      <c r="B26" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C26" s="231" t="inlineStr">
+      <c r="C26" s="239" t="inlineStr">
         <is>
           <t>л.Инженерное сопровождение системного развития техники пищ. технологий
 Шахов С.В.   017</t>
         </is>
       </c>
-      <c r="D26" s="245" t="inlineStr">
+      <c r="D26" s="253" t="inlineStr">
         <is>
           <t>пр.Прочность материалов и конструкций
 Егоров В.Г.   126</t>
         </is>
       </c>
-      <c r="E26" s="408" t="inlineStr"/>
+      <c r="E26" s="410" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" s="48" t="n"/>
     </row>
@@ -16406,7 +16417,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C27" s="293" t="inlineStr">
+      <c r="C27" s="305" t="inlineStr">
         <is>
           <t>пр.Управление качеством, стандартизация и сертификация
 Косенко И.С.   5-26</t>
@@ -16428,24 +16439,24 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B28" s="273" t="inlineStr">
+      <c r="B28" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C28" s="231" t="inlineStr">
+      <c r="C28" s="239" t="inlineStr">
         <is>
           <t>пр.Инженерное сопровождение системного развития техники пищ. технологий
 Шахов С.В.   017</t>
         </is>
       </c>
-      <c r="D28" s="245" t="inlineStr">
+      <c r="D28" s="253" t="inlineStr">
         <is>
           <t>пр.Динамика и устойчивость конструкций и механических систем
 Егоров В.Г.   126</t>
         </is>
       </c>
-      <c r="E28" s="408" t="inlineStr"/>
+      <c r="E28" s="410" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" s="48" t="n"/>
     </row>
@@ -16460,7 +16471,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C29" s="293" t="inlineStr">
+      <c r="C29" s="305" t="inlineStr">
         <is>
           <t>пр.Управление качеством, стандартизация и сертификация
 Косенко И.С.   5-26</t>
@@ -16482,14 +16493,14 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B30" s="273" t="inlineStr">
+      <c r="B30" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C30" s="166" t="inlineStr"/>
+      <c r="C30" s="189" t="inlineStr"/>
       <c r="D30" s="87" t="inlineStr"/>
-      <c r="E30" s="408" t="inlineStr"/>
+      <c r="E30" s="410" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" s="48" t="n"/>
     </row>
@@ -16505,7 +16516,7 @@
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" s="250" t="inlineStr">
+      <c r="D31" s="258" t="inlineStr">
         <is>
           <t>пр.Теории пластичности и ползучести
 Егоров В.Г.   126</t>
@@ -16521,14 +16532,14 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B32" s="273" t="inlineStr">
+      <c r="B32" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C32" s="166" t="inlineStr"/>
-      <c r="D32" s="245" t="inlineStr"/>
-      <c r="E32" s="408" t="inlineStr"/>
+      <c r="C32" s="189" t="inlineStr"/>
+      <c r="D32" s="253" t="inlineStr"/>
+      <c r="E32" s="410" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" s="48" t="n"/>
     </row>
@@ -16555,14 +16566,14 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B34" s="409" t="inlineStr">
+      <c r="B34" s="411" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C34" s="410" t="inlineStr"/>
-      <c r="D34" s="388" t="inlineStr"/>
-      <c r="E34" s="411" t="inlineStr"/>
+      <c r="C34" s="412" t="inlineStr"/>
+      <c r="D34" s="390" t="inlineStr"/>
+      <c r="E34" s="413" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" s="48" t="n"/>
     </row>
@@ -16584,19 +16595,19 @@
       <c r="G35" s="48" t="n"/>
     </row>
     <row r="36" ht="35.1" customHeight="1" s="51" thickTop="1">
-      <c r="A36" s="405" t="inlineStr">
+      <c r="A36" s="407" t="inlineStr">
         <is>
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B36" s="274" t="inlineStr">
+      <c r="B36" s="286" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C36" s="175" t="inlineStr"/>
-      <c r="D36" s="249" t="inlineStr"/>
-      <c r="E36" s="406" t="inlineStr"/>
+      <c r="C36" s="172" t="inlineStr"/>
+      <c r="D36" s="257" t="inlineStr"/>
+      <c r="E36" s="408" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" s="48" t="n"/>
     </row>
@@ -16623,12 +16634,12 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B38" s="273" t="inlineStr">
+      <c r="B38" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C38" s="231" t="inlineStr">
+      <c r="C38" s="239" t="inlineStr">
         <is>
           <t>л.Высокоэффективные методы и оборудование для обработки пищевых сред
 Шаршов В.Н.   017</t>
@@ -16640,7 +16651,7 @@
 Невструев Ю.А.   126</t>
         </is>
       </c>
-      <c r="E38" s="408" t="inlineStr"/>
+      <c r="E38" s="410" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" s="48" t="n"/>
     </row>
@@ -16655,13 +16666,13 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C39" s="293" t="inlineStr">
+      <c r="C39" s="305" t="inlineStr">
         <is>
           <t>л.Компьютерные технологии в машиностроении
 Харченков К.В.   017</t>
         </is>
       </c>
-      <c r="D39" s="250" t="inlineStr">
+      <c r="D39" s="258" t="inlineStr">
         <is>
           <t>л.Теория планирования и методы экспериментальных исследований в механике
 Невструев Ю.А.   126</t>
@@ -16677,24 +16688,24 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B40" s="273" t="inlineStr">
+      <c r="B40" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C40" s="231" t="inlineStr">
+      <c r="C40" s="239" t="inlineStr">
         <is>
           <t>лаб.Высокоэффективные методы и оборудование для обработки пищевых сред
 Шаршов В.Н.   017</t>
         </is>
       </c>
-      <c r="D40" s="245" t="inlineStr">
+      <c r="D40" s="253" t="inlineStr">
         <is>
           <t>пр.Механика контактного взаимодействия и разрушения
 Невструев Ю.А.   126</t>
         </is>
       </c>
-      <c r="E40" s="408" t="inlineStr"/>
+      <c r="E40" s="410" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" s="48" t="n"/>
     </row>
@@ -16709,7 +16720,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C41" s="293" t="inlineStr">
+      <c r="C41" s="305" t="inlineStr">
         <is>
           <t>лаб.Компьютерные технологии в машиностроении
 Харченков К.В.   134</t>
@@ -16731,19 +16742,24 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B42" s="273" t="inlineStr">
+      <c r="B42" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C42" s="231" t="inlineStr"/>
-      <c r="D42" s="245" t="inlineStr">
+      <c r="C42" s="239" t="inlineStr">
+        <is>
+          <t>лаб.Высокоэффективные методы и оборудование для обработки пищевых сред
+Шаршов В.Н.   017</t>
+        </is>
+      </c>
+      <c r="D42" s="253" t="inlineStr">
         <is>
           <t>пр.Теория планирования и методы экспериментальных исследований в механике
 Невструев Ю.А.   126</t>
         </is>
       </c>
-      <c r="E42" s="408" t="inlineStr"/>
+      <c r="E42" s="410" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" s="48" t="n"/>
     </row>
@@ -16758,7 +16774,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C43" s="293" t="inlineStr">
+      <c r="C43" s="305" t="inlineStr">
         <is>
           <t>пр.Управление инновационными проектами и персоналом
 Цуканова К.А.   14</t>
@@ -16780,14 +16796,14 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B44" s="273" t="inlineStr">
+      <c r="B44" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C44" s="231" t="inlineStr"/>
-      <c r="D44" s="245" t="inlineStr"/>
-      <c r="E44" s="408" t="inlineStr"/>
+      <c r="C44" s="239" t="inlineStr"/>
+      <c r="D44" s="253" t="inlineStr"/>
+      <c r="E44" s="410" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" s="48" t="n"/>
     </row>
@@ -16802,7 +16818,7 @@
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C45" s="293" t="inlineStr">
+      <c r="C45" s="305" t="inlineStr">
         <is>
           <t>л.Управление инновационными проектами и персоналом
 Шатохина Н.М.   14</t>
@@ -16819,14 +16835,14 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B46" s="273" t="inlineStr">
+      <c r="B46" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C46" s="166" t="inlineStr"/>
-      <c r="D46" s="245" t="inlineStr"/>
-      <c r="E46" s="408" t="inlineStr"/>
+      <c r="C46" s="189" t="inlineStr"/>
+      <c r="D46" s="253" t="inlineStr"/>
+      <c r="E46" s="410" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" s="48" t="n"/>
     </row>
@@ -16853,14 +16869,14 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B48" s="409" t="inlineStr">
+      <c r="B48" s="411" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C48" s="410" t="inlineStr"/>
-      <c r="D48" s="388" t="inlineStr"/>
-      <c r="E48" s="411" t="inlineStr"/>
+      <c r="C48" s="412" t="inlineStr"/>
+      <c r="D48" s="390" t="inlineStr"/>
+      <c r="E48" s="413" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" s="48" t="n"/>
     </row>
@@ -16882,19 +16898,19 @@
       <c r="G49" s="48" t="n"/>
     </row>
     <row r="50" ht="35.1" customHeight="1" s="51" thickTop="1">
-      <c r="A50" s="405" t="inlineStr">
+      <c r="A50" s="407" t="inlineStr">
         <is>
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B50" s="274" t="inlineStr">
+      <c r="B50" s="286" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C50" s="175" t="inlineStr"/>
-      <c r="D50" s="249" t="inlineStr"/>
-      <c r="E50" s="406" t="inlineStr"/>
+      <c r="C50" s="172" t="inlineStr"/>
+      <c r="D50" s="257" t="inlineStr"/>
+      <c r="E50" s="408" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" s="48" t="n"/>
     </row>
@@ -16921,19 +16937,19 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B52" s="273" t="inlineStr">
+      <c r="B52" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C52" s="166" t="inlineStr">
+      <c r="C52" s="189" t="inlineStr">
         <is>
           <t>л.Проектно-конструкторская деятельность
 Прибытков А.В.   103</t>
         </is>
       </c>
-      <c r="D52" s="245" t="inlineStr"/>
-      <c r="E52" s="408" t="inlineStr"/>
+      <c r="D52" s="253" t="inlineStr"/>
+      <c r="E52" s="410" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" s="48" t="n"/>
     </row>
@@ -16965,12 +16981,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B54" s="273" t="inlineStr">
+      <c r="B54" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C54" s="166" t="inlineStr">
+      <c r="C54" s="189" t="inlineStr">
         <is>
           <t>пр.Проектно-конструкторская деятельность
 Прибытков А.В.   017</t>
@@ -16982,7 +16998,7 @@
 Лихачева Л.Б.   126</t>
         </is>
       </c>
-      <c r="E54" s="408" t="inlineStr"/>
+      <c r="E54" s="410" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" s="48" t="n"/>
     </row>
@@ -17003,7 +17019,7 @@
 Прибытков А.В.   017</t>
         </is>
       </c>
-      <c r="D55" s="250" t="inlineStr"/>
+      <c r="D55" s="258" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" s="48" t="n"/>
@@ -17014,19 +17030,19 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B56" s="273" t="inlineStr">
+      <c r="B56" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C56" s="231" t="n"/>
-      <c r="D56" s="245" t="inlineStr">
+      <c r="C56" s="239" t="n"/>
+      <c r="D56" s="253" t="inlineStr">
         <is>
           <t>пр.Композиционные материалы в машиностроении
 Лихачева Л.Б.   126</t>
         </is>
       </c>
-      <c r="E56" s="408" t="inlineStr"/>
+      <c r="E56" s="410" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" s="48" t="n"/>
     </row>
@@ -17041,7 +17057,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C57" s="293" t="inlineStr">
+      <c r="C57" s="305" t="inlineStr">
         <is>
           <t>пр.Проектно-конструкторская деятельность
 Прибытков А.В.   017</t>
@@ -17063,19 +17079,19 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B58" s="273" t="inlineStr">
+      <c r="B58" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C58" s="166" t="inlineStr"/>
+      <c r="C58" s="189" t="inlineStr"/>
       <c r="D58" s="87" t="inlineStr">
         <is>
           <t>пр.Системы компьютерного проектирования
 Елфимов С.А.   126</t>
         </is>
       </c>
-      <c r="E58" s="408" t="inlineStr"/>
+      <c r="E58" s="410" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" s="48" t="n"/>
     </row>
@@ -17091,7 +17107,7 @@
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" s="250" t="inlineStr">
+      <c r="D59" s="258" t="inlineStr">
         <is>
           <t>л.Системы компьютерного проектирования
 Елфимов С.А.   126</t>
@@ -17107,14 +17123,14 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B60" s="273" t="inlineStr">
+      <c r="B60" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C60" s="166" t="inlineStr"/>
-      <c r="D60" s="245" t="inlineStr"/>
-      <c r="E60" s="408" t="inlineStr"/>
+      <c r="C60" s="189" t="inlineStr"/>
+      <c r="D60" s="253" t="inlineStr"/>
+      <c r="E60" s="410" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" s="48" t="n"/>
     </row>
@@ -17141,14 +17157,14 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B62" s="409" t="inlineStr">
+      <c r="B62" s="411" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C62" s="410" t="inlineStr"/>
-      <c r="D62" s="388" t="inlineStr"/>
-      <c r="E62" s="411" t="inlineStr"/>
+      <c r="C62" s="412" t="inlineStr"/>
+      <c r="D62" s="390" t="inlineStr"/>
+      <c r="E62" s="413" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" s="48" t="n"/>
     </row>
@@ -17170,19 +17186,19 @@
       <c r="G63" s="48" t="n"/>
     </row>
     <row r="64" ht="35.1" customHeight="1" s="51" thickTop="1">
-      <c r="A64" s="405" t="inlineStr">
+      <c r="A64" s="407" t="inlineStr">
         <is>
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B64" s="274" t="inlineStr">
+      <c r="B64" s="286" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C64" s="175" t="inlineStr"/>
-      <c r="D64" s="249" t="inlineStr"/>
-      <c r="E64" s="406" t="inlineStr"/>
+      <c r="C64" s="172" t="inlineStr"/>
+      <c r="D64" s="257" t="inlineStr"/>
+      <c r="E64" s="408" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" s="48" t="n"/>
     </row>
@@ -17209,19 +17225,19 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B66" s="273" t="inlineStr">
+      <c r="B66" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C66" s="231" t="inlineStr">
+      <c r="C66" s="239" t="inlineStr">
         <is>
           <t>л.Основы научных исследований, организация и планирование эксперимента ...
 Ключников А.И.   102</t>
         </is>
       </c>
       <c r="D66" s="87" t="n"/>
-      <c r="E66" s="408" t="inlineStr"/>
+      <c r="E66" s="410" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" s="48" t="n"/>
     </row>
@@ -17236,13 +17252,13 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C67" s="293" t="inlineStr">
+      <c r="C67" s="305" t="inlineStr">
         <is>
           <t>л.Диагностика процессов и оборудования
 Рязанов А.Н.   102</t>
         </is>
       </c>
-      <c r="D67" s="250" t="inlineStr">
+      <c r="D67" s="258" t="inlineStr">
         <is>
           <t>лаб.Вычислительная механика и компьютерный инжиниринг
 Васечкин М.А.   127а</t>
@@ -17258,12 +17274,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B68" s="273" t="inlineStr">
+      <c r="B68" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C68" s="231" t="inlineStr">
+      <c r="C68" s="239" t="inlineStr">
         <is>
           <t>пр.Основы научных исследований, организация и планирование эксперимента ...
 Ключников А.И.   017</t>
@@ -17275,7 +17291,7 @@
 Ларина  Л.И.   4и</t>
         </is>
       </c>
-      <c r="E68" s="408" t="inlineStr"/>
+      <c r="E68" s="410" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" s="48" t="n"/>
     </row>
@@ -17290,13 +17306,13 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C69" s="293" t="inlineStr">
+      <c r="C69" s="305" t="inlineStr">
         <is>
           <t>лаб.Диагностика процессов и оборудования
 Рязанов А.Н.   017</t>
         </is>
       </c>
-      <c r="D69" s="250" t="inlineStr">
+      <c r="D69" s="258" t="inlineStr">
         <is>
           <t>лаб.Вычислительная механика и компьютерный инжиниринг
 Васечкин М.А.   127а</t>
@@ -17312,12 +17328,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B70" s="273" t="inlineStr">
+      <c r="B70" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C70" s="231" t="inlineStr">
+      <c r="C70" s="239" t="inlineStr">
         <is>
           <t>лаб.Основы научных исследований, организация и планирование эксперимента ...
 Ключников А.И.   017</t>
@@ -17329,7 +17345,7 @@
 Васечкин М.А.   126</t>
         </is>
       </c>
-      <c r="E70" s="408" t="inlineStr"/>
+      <c r="E70" s="410" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" s="48" t="n"/>
     </row>
@@ -17344,13 +17360,13 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C71" s="293" t="inlineStr">
+      <c r="C71" s="305" t="inlineStr">
         <is>
           <t>лаб.Диагностика процессов и оборудования
 Рязанов А.Н.   017</t>
         </is>
       </c>
-      <c r="D71" s="250" t="n"/>
+      <c r="D71" s="258" t="n"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" s="48" t="n"/>
@@ -17361,19 +17377,19 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B72" s="273" t="inlineStr">
+      <c r="B72" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C72" s="231" t="inlineStr">
+      <c r="C72" s="239" t="inlineStr">
         <is>
           <t>лаб.Основы научных исследований, организация и планирование эксперимента ...
 Ключников А.И.   017</t>
         </is>
       </c>
-      <c r="D72" s="245" t="inlineStr"/>
-      <c r="E72" s="408" t="inlineStr"/>
+      <c r="D72" s="253" t="inlineStr"/>
+      <c r="E72" s="410" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" s="48" t="n"/>
     </row>
@@ -17388,7 +17404,7 @@
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C73" s="293" t="inlineStr"/>
+      <c r="C73" s="305" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
@@ -17400,14 +17416,14 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B74" s="273" t="inlineStr">
+      <c r="B74" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C74" s="166" t="inlineStr"/>
-      <c r="D74" s="245" t="inlineStr"/>
-      <c r="E74" s="408" t="inlineStr"/>
+      <c r="C74" s="189" t="inlineStr"/>
+      <c r="D74" s="253" t="inlineStr"/>
+      <c r="E74" s="410" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" s="48" t="n"/>
     </row>
@@ -17434,14 +17450,14 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B76" s="409" t="inlineStr">
+      <c r="B76" s="411" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C76" s="410" t="inlineStr"/>
-      <c r="D76" s="388" t="inlineStr"/>
-      <c r="E76" s="411" t="inlineStr"/>
+      <c r="C76" s="412" t="inlineStr"/>
+      <c r="D76" s="390" t="inlineStr"/>
+      <c r="E76" s="413" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" s="48" t="n"/>
     </row>
@@ -17463,19 +17479,19 @@
       <c r="G77" s="48" t="n"/>
     </row>
     <row r="78" ht="16.5" customHeight="1" s="51" thickTop="1">
-      <c r="A78" s="405" t="inlineStr">
+      <c r="A78" s="407" t="inlineStr">
         <is>
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B78" s="274" t="inlineStr">
+      <c r="B78" s="286" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C78" s="412" t="inlineStr"/>
-      <c r="D78" s="289" t="inlineStr"/>
-      <c r="E78" s="406" t="inlineStr"/>
+      <c r="C78" s="414" t="inlineStr"/>
+      <c r="D78" s="301" t="inlineStr"/>
+      <c r="E78" s="408" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" s="48" t="n"/>
     </row>
@@ -17502,14 +17518,14 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B80" s="273" t="inlineStr">
+      <c r="B80" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C80" s="403" t="inlineStr"/>
-      <c r="D80" s="275" t="inlineStr"/>
-      <c r="E80" s="408" t="inlineStr"/>
+      <c r="C80" s="405" t="inlineStr"/>
+      <c r="D80" s="287" t="inlineStr"/>
+      <c r="E80" s="410" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" s="48" t="n"/>
     </row>
@@ -17536,14 +17552,14 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B82" s="273" t="inlineStr">
+      <c r="B82" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C82" s="403" t="inlineStr"/>
-      <c r="D82" s="275" t="inlineStr"/>
-      <c r="E82" s="408" t="inlineStr"/>
+      <c r="C82" s="405" t="inlineStr"/>
+      <c r="D82" s="287" t="inlineStr"/>
+      <c r="E82" s="410" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" s="48" t="n"/>
     </row>
@@ -17570,14 +17586,14 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B84" s="273" t="inlineStr">
+      <c r="B84" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C84" s="403" t="inlineStr"/>
-      <c r="D84" s="275" t="inlineStr"/>
-      <c r="E84" s="408" t="inlineStr"/>
+      <c r="C84" s="405" t="inlineStr"/>
+      <c r="D84" s="287" t="inlineStr"/>
+      <c r="E84" s="410" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" s="48" t="n"/>
     </row>
@@ -17604,14 +17620,14 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B86" s="273" t="inlineStr">
+      <c r="B86" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C86" s="403" t="inlineStr"/>
-      <c r="D86" s="275" t="inlineStr"/>
-      <c r="E86" s="408" t="inlineStr"/>
+      <c r="C86" s="405" t="inlineStr"/>
+      <c r="D86" s="287" t="inlineStr"/>
+      <c r="E86" s="410" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" s="48" t="n"/>
     </row>
@@ -17638,14 +17654,14 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B88" s="273" t="inlineStr">
+      <c r="B88" s="285" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C88" s="403" t="inlineStr"/>
-      <c r="D88" s="275" t="inlineStr"/>
-      <c r="E88" s="408" t="inlineStr"/>
+      <c r="C88" s="405" t="inlineStr"/>
+      <c r="D88" s="287" t="inlineStr"/>
+      <c r="E88" s="410" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" s="48" t="n"/>
     </row>
@@ -17672,14 +17688,14 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B90" s="409" t="inlineStr">
+      <c r="B90" s="411" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C90" s="399" t="inlineStr"/>
-      <c r="D90" s="275" t="inlineStr"/>
-      <c r="E90" s="411" t="inlineStr"/>
+      <c r="C90" s="401" t="inlineStr"/>
+      <c r="D90" s="287" t="inlineStr"/>
+      <c r="E90" s="413" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" s="48" t="n"/>
     </row>
@@ -17717,7 +17733,7 @@
         </is>
       </c>
       <c r="C93" s="49" t="n"/>
-      <c r="D93" s="281" t="inlineStr">
+      <c r="D93" s="293" t="inlineStr">
         <is>
           <t xml:space="preserve">Начальник учебно-методического управления _____________________  Фролова Л.Н.   </t>
         </is>
@@ -17903,23 +17919,23 @@
       <c r="J3" s="48" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="51" thickTop="1">
-      <c r="A4" s="323" t="inlineStr">
+      <c r="A4" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B4" s="207" t="inlineStr">
+      <c r="B4" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C4" s="344" t="inlineStr"/>
+      <c r="C4" s="346" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" s="344" t="inlineStr"/>
+      <c r="E4" s="346" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" s="344" t="inlineStr"/>
+      <c r="G4" s="346" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" s="296" t="inlineStr"/>
+      <c r="I4" s="308" t="inlineStr"/>
       <c r="J4" s="48" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -17948,18 +17964,18 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B6" s="208" t="inlineStr">
+      <c r="B6" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C6" s="349" t="inlineStr"/>
+      <c r="C6" s="351" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" s="349" t="inlineStr"/>
+      <c r="E6" s="351" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" s="349" t="inlineStr"/>
+      <c r="G6" s="351" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" s="298" t="inlineStr"/>
+      <c r="I6" s="310" t="inlineStr"/>
       <c r="J6" s="48" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -17988,12 +18004,12 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B8" s="208" t="inlineStr">
+      <c r="B8" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C8" s="349" t="inlineStr">
+      <c r="C8" s="351" t="inlineStr">
         <is>
           <t>л.Системы автоматизированного проектирования
 Харченков К.В.   53</t>
@@ -18084,7 +18100,7 @@
 Харченков К.В.   53</t>
         </is>
       </c>
-      <c r="I9" s="297" t="inlineStr">
+      <c r="I9" s="309" t="inlineStr">
         <is>
           <t>л.Численные методы в механике
 Васечкин М.А.   124</t>
@@ -18098,12 +18114,12 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B10" s="208" t="inlineStr">
+      <c r="B10" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C10" s="349" t="inlineStr">
+      <c r="C10" s="351" t="inlineStr">
         <is>
           <t>пр.Технология конструирования пищевых машин и автоматов
 Никитина С.Ю.   102</t>
@@ -18139,7 +18155,7 @@
 Торопцев В.В.   114</t>
         </is>
       </c>
-      <c r="I10" s="298" t="inlineStr">
+      <c r="I10" s="310" t="inlineStr">
         <is>
           <t>пр.Вычислительная механика
 Васечкин М.А.   126</t>
@@ -18170,7 +18186,7 @@
 Никитина С.Ю.   102</t>
         </is>
       </c>
-      <c r="E11" s="352" t="inlineStr">
+      <c r="E11" s="354" t="inlineStr">
         <is>
           <t>пр.Технологическое оборудование для фасовки и упаковки продукции
 Торопцев В.В.   103</t>
@@ -18182,7 +18198,7 @@
 Торопцев В.В.   103</t>
         </is>
       </c>
-      <c r="G11" s="362" t="inlineStr">
+      <c r="G11" s="364" t="inlineStr">
         <is>
           <t>пр.Технологическое оборудование тепломассообменных процессов
 Дранников А.В.   114</t>
@@ -18208,14 +18224,14 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B12" s="208" t="inlineStr">
+      <c r="B12" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
       <c r="C12" s="33" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" s="349" t="inlineStr">
+      <c r="E12" s="351" t="inlineStr">
         <is>
           <t>пр.Расчет и конструирование машин и аппаратов пищевых производств
 Торопцев В.В.   103</t>
@@ -18258,7 +18274,7 @@
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C13" s="362" t="inlineStr">
+      <c r="C13" s="364" t="inlineStr">
         <is>
           <t>пр.Технологическое оборудование для фасовки и упаковки продукции
 Потапов А.И.   102</t>
@@ -18282,9 +18298,9 @@
 Торопцев В.В.   103</t>
         </is>
       </c>
-      <c r="G13" s="352" t="inlineStr"/>
+      <c r="G13" s="354" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" s="297" t="inlineStr">
+      <c r="I13" s="309" t="inlineStr">
         <is>
           <t>пр.Численные методы в механике
 Васечкин М.А.   124</t>
@@ -18298,18 +18314,18 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B14" s="208" t="inlineStr">
+      <c r="B14" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C14" s="349" t="inlineStr"/>
+      <c r="C14" s="351" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" s="349" t="inlineStr"/>
+      <c r="E14" s="351" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" s="349" t="inlineStr"/>
+      <c r="G14" s="351" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" s="298" t="inlineStr"/>
+      <c r="I14" s="310" t="inlineStr"/>
       <c r="J14" s="48" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -18338,18 +18354,18 @@
           <t xml:space="preserve">ПОНЕДЕЛЬНИК </t>
         </is>
       </c>
-      <c r="B16" s="331" t="inlineStr">
+      <c r="B16" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C16" s="357" t="inlineStr"/>
+      <c r="C16" s="359" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" s="357" t="inlineStr"/>
+      <c r="E16" s="359" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" s="357" t="inlineStr"/>
+      <c r="G16" s="359" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" s="413" t="inlineStr"/>
+      <c r="I16" s="415" t="inlineStr"/>
       <c r="J16" s="48" t="n"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -18373,17 +18389,17 @@
       <c r="J17" s="48" t="n"/>
     </row>
     <row r="18" ht="45.75" customHeight="1" s="51" thickTop="1">
-      <c r="A18" s="323" t="inlineStr">
+      <c r="A18" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B18" s="207" t="inlineStr">
+      <c r="B18" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C18" s="349" t="inlineStr"/>
+      <c r="C18" s="351" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" s="20" t="inlineStr">
         <is>
@@ -18391,15 +18407,15 @@
 Потапов А.И.   103</t>
         </is>
       </c>
-      <c r="F18" s="311" t="inlineStr">
+      <c r="F18" s="323" t="inlineStr">
         <is>
           <t>Технологическое оборудование для фасовки и упаковки продукции,
 Торопцев В.В.   102</t>
         </is>
       </c>
-      <c r="G18" s="349" t="inlineStr"/>
+      <c r="G18" s="351" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" s="296" t="inlineStr"/>
+      <c r="I18" s="308" t="inlineStr"/>
       <c r="J18" s="48" t="n"/>
     </row>
     <row r="19" ht="45.75" customHeight="1" s="51" thickBot="1">
@@ -18438,7 +18454,7 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B20" s="208" t="inlineStr">
+      <c r="B20" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
@@ -18449,27 +18465,27 @@
 Дранников А.В.   114</t>
         </is>
       </c>
-      <c r="D20" s="224" t="n"/>
+      <c r="D20" s="232" t="n"/>
       <c r="E20" s="17" t="inlineStr">
         <is>
           <t>лаб.Диагностика и сервисное обслуживание оборудования,
 Потапов А.И.   103</t>
         </is>
       </c>
-      <c r="F20" s="224" t="inlineStr">
+      <c r="F20" s="232" t="inlineStr">
         <is>
           <t>Технологическое оборудование для фасовки и упаковки продукции,
 Торопцев В.В.   102</t>
         </is>
       </c>
       <c r="G20" s="17" t="n"/>
-      <c r="H20" s="224" t="inlineStr">
+      <c r="H20" s="232" t="inlineStr">
         <is>
           <t>лаб.Системы автоматизированного проектирования
 Напольских М.С.   134</t>
         </is>
       </c>
-      <c r="I20" s="298" t="inlineStr"/>
+      <c r="I20" s="310" t="inlineStr"/>
       <c r="J20" s="48" t="n"/>
     </row>
     <row r="21" ht="45.75" customHeight="1" s="51" thickBot="1">
@@ -18513,12 +18529,12 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B22" s="208" t="inlineStr">
+      <c r="B22" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C22" s="349" t="inlineStr">
+      <c r="C22" s="351" t="inlineStr">
         <is>
           <t>л.Расчет и конструирование машин и аппаратов пищевых производств
 Пойманов В.В.   125</t>
@@ -18609,7 +18625,7 @@
 Пойманов В.В.   125</t>
         </is>
       </c>
-      <c r="I23" s="297" t="inlineStr">
+      <c r="I23" s="309" t="inlineStr">
         <is>
           <t>лаб.Дополнительные главы вычислительной механики
 Васечкин М.А.   127а</t>
@@ -18623,14 +18639,14 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B24" s="208" t="inlineStr">
+      <c r="B24" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
       <c r="C24" s="33" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" s="349" t="inlineStr"/>
+      <c r="E24" s="351" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" s="17" t="inlineStr">
         <is>
@@ -18638,7 +18654,7 @@
 Напольских М.С.   134</t>
         </is>
       </c>
-      <c r="H24" s="224" t="n"/>
+      <c r="H24" s="232" t="n"/>
       <c r="I24" s="33" t="inlineStr">
         <is>
           <t>л.Основы теории пластичности и ползучести
@@ -18658,7 +18674,7 @@
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C25" s="362" t="inlineStr">
+      <c r="C25" s="364" t="inlineStr">
         <is>
           <t>пр.Диагностика и сервисное обслуживание оборудования
 Шахов С.В.   103</t>
@@ -18679,7 +18695,7 @@
 Напольских М.С.   134</t>
         </is>
       </c>
-      <c r="I25" s="297" t="inlineStr">
+      <c r="I25" s="309" t="inlineStr">
         <is>
           <t>л.Дополнительные главы вычислительной механики
 Васечкин М.А.   124</t>
@@ -18693,14 +18709,14 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B26" s="208" t="inlineStr">
+      <c r="B26" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C26" s="349" t="inlineStr"/>
+      <c r="C26" s="351" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" s="349" t="inlineStr"/>
+      <c r="E26" s="351" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" s="17" t="inlineStr">
         <is>
@@ -18708,8 +18724,8 @@
 Напольских М.С.   134</t>
         </is>
       </c>
-      <c r="H26" s="224" t="n"/>
-      <c r="I26" s="298" t="inlineStr"/>
+      <c r="H26" s="232" t="n"/>
+      <c r="I26" s="310" t="inlineStr"/>
       <c r="J26" s="48" t="n"/>
     </row>
     <row r="27" ht="45.75" customHeight="1" s="51" thickBot="1">
@@ -18743,18 +18759,18 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B28" s="208" t="inlineStr">
+      <c r="B28" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C28" s="349" t="inlineStr"/>
+      <c r="C28" s="351" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" s="349" t="inlineStr"/>
+      <c r="E28" s="351" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" s="349" t="inlineStr"/>
+      <c r="G28" s="351" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" s="298" t="inlineStr"/>
+      <c r="I28" s="310" t="inlineStr"/>
       <c r="J28" s="48" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -18783,18 +18799,18 @@
           <t xml:space="preserve">ВТОРНИК     </t>
         </is>
       </c>
-      <c r="B30" s="331" t="inlineStr">
+      <c r="B30" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C30" s="357" t="inlineStr"/>
+      <c r="C30" s="359" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" s="357" t="inlineStr"/>
+      <c r="E30" s="359" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" s="357" t="inlineStr"/>
+      <c r="G30" s="359" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" s="413" t="inlineStr"/>
+      <c r="I30" s="415" t="inlineStr"/>
       <c r="J30" s="48" t="n"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -18818,23 +18834,23 @@
       <c r="J31" s="48" t="n"/>
     </row>
     <row r="32" ht="39.95" customHeight="1" s="51" thickTop="1">
-      <c r="A32" s="323" t="inlineStr">
+      <c r="A32" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B32" s="207" t="inlineStr">
+      <c r="B32" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C32" s="349" t="inlineStr"/>
+      <c r="C32" s="351" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" s="349" t="inlineStr"/>
+      <c r="E32" s="351" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" s="349" t="inlineStr"/>
+      <c r="G32" s="351" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" s="296" t="inlineStr">
+      <c r="I32" s="308" t="inlineStr">
         <is>
           <t>пр.Техническая диагностика и неразрушающий контроль
 Дегтярёв А.В.   126</t>
@@ -18873,21 +18889,21 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B34" s="208" t="inlineStr">
+      <c r="B34" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C34" s="349" t="inlineStr"/>
+      <c r="C34" s="351" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" s="17" t="n"/>
-      <c r="F34" s="224" t="inlineStr">
+      <c r="F34" s="232" t="inlineStr">
         <is>
           <t>лаб.Системы автоматизированного проектирования
 Харченков К.В.   134</t>
         </is>
       </c>
-      <c r="G34" s="349" t="inlineStr"/>
+      <c r="G34" s="351" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" s="33" t="inlineStr">
         <is>
@@ -18919,7 +18935,7 @@
       <c r="F35" s="41" t="n"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" s="297" t="inlineStr">
+      <c r="I35" s="309" t="inlineStr">
         <is>
           <t>пр.Методы и средства механических испытаний материалов
 Дегтярёв А.В.   126</t>
@@ -18933,7 +18949,7 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B36" s="208" t="inlineStr">
+      <c r="B36" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
@@ -18974,7 +18990,7 @@
 Дранников А.В.   410</t>
         </is>
       </c>
-      <c r="I36" s="298" t="inlineStr">
+      <c r="I36" s="310" t="inlineStr">
         <is>
           <t>пр.Основы механики контактного взаимодействия и разрушения
 Дегтярёв А.В.   127а</t>
@@ -18993,7 +19009,7 @@
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C37" s="362" t="inlineStr">
+      <c r="C37" s="364" t="inlineStr">
         <is>
           <t>л.Технология конструирования пищевых машин и автоматов
 Прибытков А.В.   410</t>
@@ -19043,7 +19059,7 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B38" s="208" t="inlineStr">
+      <c r="B38" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
@@ -19054,7 +19070,7 @@
 Шахов С.В.   103</t>
         </is>
       </c>
-      <c r="D38" s="224" t="inlineStr">
+      <c r="D38" s="232" t="inlineStr">
         <is>
           <t>Технологическое оборудование для фасовки и упаковки продукции,
 Потапов А.И.   102</t>
@@ -19066,8 +19082,8 @@
 Напольских М.С.   134</t>
         </is>
       </c>
-      <c r="F38" s="224" t="n"/>
-      <c r="G38" s="349" t="inlineStr">
+      <c r="F38" s="232" t="n"/>
+      <c r="G38" s="351" t="inlineStr">
         <is>
           <t>пр.Расчет и конструирование машин и аппаратов пищевых производств
 Торопцев В.В.   114</t>
@@ -19079,7 +19095,7 @@
 Торопцев В.В.   114</t>
         </is>
       </c>
-      <c r="I38" s="298" t="inlineStr"/>
+      <c r="I38" s="310" t="inlineStr"/>
       <c r="J38" s="48" t="n"/>
     </row>
     <row r="39" ht="39.95" customHeight="1" s="51" thickBot="1">
@@ -19133,7 +19149,7 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B40" s="208" t="inlineStr">
+      <c r="B40" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
@@ -19144,7 +19160,7 @@
 Шахов С.В.   103</t>
         </is>
       </c>
-      <c r="D40" s="224" t="inlineStr">
+      <c r="D40" s="232" t="inlineStr">
         <is>
           <t>Технологическое оборудование для фасовки и упаковки продукции,
 Потапов А.И.   102</t>
@@ -19156,8 +19172,8 @@
 Напольских М.С.   134</t>
         </is>
       </c>
-      <c r="F40" s="224" t="n"/>
-      <c r="G40" s="349" t="inlineStr">
+      <c r="F40" s="232" t="n"/>
+      <c r="G40" s="351" t="inlineStr">
         <is>
           <t>пр.Технология конструирования пищевых машин и автоматов
 Никитина С.Ю.   114</t>
@@ -19169,7 +19185,7 @@
 Никитина С.Ю.   114</t>
         </is>
       </c>
-      <c r="I40" s="298" t="inlineStr"/>
+      <c r="I40" s="310" t="inlineStr"/>
       <c r="J40" s="48" t="n"/>
     </row>
     <row r="41" ht="39.95" customHeight="1" s="51" thickBot="1">
@@ -19223,18 +19239,18 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B42" s="208" t="inlineStr">
+      <c r="B42" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C42" s="349" t="inlineStr"/>
+      <c r="C42" s="351" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" s="349" t="inlineStr"/>
+      <c r="E42" s="351" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" s="349" t="inlineStr"/>
+      <c r="G42" s="351" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" s="298" t="inlineStr"/>
+      <c r="I42" s="310" t="inlineStr"/>
       <c r="J42" s="48" t="n"/>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -19263,18 +19279,18 @@
           <t xml:space="preserve"> СРЕДА      </t>
         </is>
       </c>
-      <c r="B44" s="331" t="inlineStr">
+      <c r="B44" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C44" s="357" t="inlineStr"/>
+      <c r="C44" s="359" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" s="357" t="inlineStr"/>
+      <c r="E44" s="359" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" s="357" t="inlineStr"/>
+      <c r="G44" s="359" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" s="413" t="inlineStr"/>
+      <c r="I44" s="415" t="inlineStr"/>
       <c r="J44" s="48" t="n"/>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -19298,17 +19314,17 @@
       <c r="J45" s="48" t="n"/>
     </row>
     <row r="46" ht="22.5" customHeight="1" s="51" thickTop="1">
-      <c r="A46" s="323" t="inlineStr">
+      <c r="A46" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B46" s="207" t="inlineStr">
+      <c r="B46" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C46" s="304" t="inlineStr">
+      <c r="C46" s="316" t="inlineStr">
         <is>
           <t>Общая физическая подготовка</t>
         </is>
@@ -19399,12 +19415,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B48" s="208" t="inlineStr">
+      <c r="B48" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C48" s="308" t="inlineStr">
+      <c r="C48" s="320" t="inlineStr">
         <is>
           <t>Физическая культура</t>
         </is>
@@ -19452,7 +19468,7 @@
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C49" s="352" t="inlineStr">
+      <c r="C49" s="354" t="inlineStr">
         <is>
           <t>л.Технологическое оборудование для фасовки и упаковки продукции
 Потапов А.И.   125</t>
@@ -19488,7 +19504,7 @@
 Потапов А.И.   125</t>
         </is>
       </c>
-      <c r="I49" s="297" t="inlineStr">
+      <c r="I49" s="309" t="inlineStr">
         <is>
           <t>пр.Основы теории пластичности и ползучести
 Невструев Ю.А.   126</t>
@@ -19502,12 +19518,12 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B50" s="208" t="inlineStr">
+      <c r="B50" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C50" s="349" t="inlineStr">
+      <c r="C50" s="351" t="inlineStr">
         <is>
           <t>пр.Расчет и конструирование машин и аппаратов пищевых производств
 Напольских М.С.   102</t>
@@ -19519,11 +19535,11 @@
 Напольских М.С.   102</t>
         </is>
       </c>
-      <c r="E50" s="349" t="inlineStr"/>
+      <c r="E50" s="351" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" s="349" t="inlineStr"/>
+      <c r="G50" s="351" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" s="298" t="inlineStr"/>
+      <c r="I50" s="310" t="inlineStr"/>
       <c r="J50" s="48" t="n"/>
     </row>
     <row r="51" ht="17.25" customHeight="1" s="51" thickBot="1">
@@ -19562,18 +19578,18 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B52" s="208" t="inlineStr">
+      <c r="B52" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C52" s="349" t="inlineStr"/>
+      <c r="C52" s="351" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" s="349" t="inlineStr"/>
+      <c r="E52" s="351" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" s="349" t="inlineStr"/>
+      <c r="G52" s="351" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" s="298" t="inlineStr"/>
+      <c r="I52" s="310" t="inlineStr"/>
       <c r="J52" s="48" t="n"/>
     </row>
     <row r="53" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -19602,18 +19618,18 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B54" s="208" t="inlineStr">
+      <c r="B54" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C54" s="349" t="inlineStr"/>
+      <c r="C54" s="351" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" s="349" t="inlineStr"/>
+      <c r="E54" s="351" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" s="349" t="inlineStr"/>
+      <c r="G54" s="351" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" s="298" t="inlineStr"/>
+      <c r="I54" s="310" t="inlineStr"/>
       <c r="J54" s="48" t="n"/>
     </row>
     <row r="55" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -19642,18 +19658,18 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B56" s="208" t="inlineStr">
+      <c r="B56" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C56" s="349" t="inlineStr"/>
+      <c r="C56" s="351" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" s="349" t="inlineStr"/>
+      <c r="E56" s="351" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" s="349" t="inlineStr"/>
+      <c r="G56" s="351" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" s="298" t="inlineStr"/>
+      <c r="I56" s="310" t="inlineStr"/>
       <c r="J56" s="48" t="n"/>
     </row>
     <row r="57" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -19682,18 +19698,18 @@
           <t xml:space="preserve">ЧЕТВЕРГ     </t>
         </is>
       </c>
-      <c r="B58" s="331" t="inlineStr">
+      <c r="B58" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C58" s="357" t="inlineStr"/>
+      <c r="C58" s="359" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" s="357" t="inlineStr"/>
+      <c r="E58" s="359" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" s="357" t="inlineStr"/>
+      <c r="G58" s="359" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" s="413" t="inlineStr"/>
+      <c r="I58" s="415" t="inlineStr"/>
       <c r="J58" s="48" t="n"/>
     </row>
     <row r="59" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -19717,19 +19733,19 @@
       <c r="J59" s="48" t="n"/>
     </row>
     <row r="60" ht="35.25" customHeight="1" s="51" thickTop="1">
-      <c r="A60" s="323" t="inlineStr">
+      <c r="A60" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B60" s="207" t="inlineStr">
+      <c r="B60" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C60" s="349" t="inlineStr"/>
+      <c r="C60" s="351" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" s="417" t="inlineStr">
+      <c r="E60" s="419" t="inlineStr">
         <is>
           <t>пр.Диагностика и сервисное обслуживание оборудования
 Шахов С.В.   103</t>
@@ -19741,9 +19757,9 @@
 Шахов С.В.   103</t>
         </is>
       </c>
-      <c r="G60" s="349" t="inlineStr"/>
+      <c r="G60" s="351" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" s="296" t="inlineStr"/>
+      <c r="I60" s="308" t="inlineStr"/>
       <c r="J60" s="48" t="n"/>
     </row>
     <row r="61" ht="35.25" customHeight="1" s="51" thickBot="1">
@@ -19759,7 +19775,7 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" s="362" t="inlineStr"/>
+      <c r="E61" s="364" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -19772,19 +19788,19 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B62" s="208" t="inlineStr">
+      <c r="B62" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
       <c r="C62" s="17" t="n"/>
-      <c r="D62" s="224" t="inlineStr">
+      <c r="D62" s="232" t="inlineStr">
         <is>
           <t>лаб.Системы автоматизированного проектирования
 Харченков К.В.   134</t>
         </is>
       </c>
-      <c r="E62" s="349" t="inlineStr">
+      <c r="E62" s="351" t="inlineStr">
         <is>
           <t>пр.Технология конструирования пищевых машин и автоматов
 Никитина С.Ю.   103</t>
@@ -19796,9 +19812,9 @@
 Никитина С.Ю.   103</t>
         </is>
       </c>
-      <c r="G62" s="349" t="inlineStr"/>
+      <c r="G62" s="351" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" s="298" t="inlineStr"/>
+      <c r="I62" s="310" t="inlineStr"/>
       <c r="J62" s="48" t="n"/>
     </row>
     <row r="63" ht="35.25" customHeight="1" s="51" thickBot="1">
@@ -19842,12 +19858,12 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B64" s="208" t="inlineStr">
+      <c r="B64" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C64" s="349" t="inlineStr">
+      <c r="C64" s="351" t="inlineStr">
         <is>
           <t>л.Диагностика и сервисное обслуживание оборудования
 Шахов С.В.   410</t>
@@ -19938,7 +19954,7 @@
 Шахов С.В.   410</t>
         </is>
       </c>
-      <c r="I65" s="297" t="inlineStr"/>
+      <c r="I65" s="309" t="inlineStr"/>
       <c r="J65" s="48" t="n"/>
     </row>
     <row r="66" ht="45" customHeight="1" s="51">
@@ -19947,7 +19963,7 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B66" s="208" t="inlineStr">
+      <c r="B66" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
@@ -19959,7 +19975,7 @@
         </is>
       </c>
       <c r="D66" s="24" t="n"/>
-      <c r="E66" s="349" t="inlineStr"/>
+      <c r="E66" s="351" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" s="17" t="inlineStr">
         <is>
@@ -19967,7 +19983,7 @@
 Потапов А.И.   103</t>
         </is>
       </c>
-      <c r="H66" s="224" t="inlineStr">
+      <c r="H66" s="232" t="inlineStr">
         <is>
           <t>Технологическое оборудование для фасовки и упаковки продукции,
 Торопцев В.В.   102</t>
@@ -20013,7 +20029,7 @@
 Потапов А.И.   103</t>
         </is>
       </c>
-      <c r="I67" s="297" t="inlineStr">
+      <c r="I67" s="309" t="inlineStr">
         <is>
           <t>л.Основы механики контактного взаимодействия и разрушения
 Дегтярёв А.В.   124</t>
@@ -20027,7 +20043,7 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B68" s="208" t="inlineStr">
+      <c r="B68" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
@@ -20039,7 +20055,7 @@
         </is>
       </c>
       <c r="D68" s="24" t="n"/>
-      <c r="E68" s="349" t="inlineStr"/>
+      <c r="E68" s="351" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" s="17" t="inlineStr">
         <is>
@@ -20047,7 +20063,7 @@
 Потапов А.И.   103</t>
         </is>
       </c>
-      <c r="H68" s="224" t="inlineStr">
+      <c r="H68" s="232" t="inlineStr">
         <is>
           <t>Технологическое оборудование для фасовки и упаковки продукции,
 Торопцев В.В.   102</t>
@@ -20088,7 +20104,7 @@
 Потапов А.И.   103</t>
         </is>
       </c>
-      <c r="I69" s="297" t="inlineStr">
+      <c r="I69" s="309" t="inlineStr">
         <is>
           <t>пр.Дополнительные главы вычислительной механики
 Васечкин М.А.   133</t>
@@ -20102,18 +20118,18 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B70" s="208" t="inlineStr">
+      <c r="B70" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C70" s="349" t="inlineStr"/>
+      <c r="C70" s="351" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" s="349" t="inlineStr"/>
+      <c r="E70" s="351" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" s="349" t="inlineStr"/>
+      <c r="G70" s="351" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" s="298" t="inlineStr"/>
+      <c r="I70" s="310" t="inlineStr"/>
       <c r="J70" s="48" t="n"/>
     </row>
     <row r="71" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -20142,18 +20158,18 @@
           <t xml:space="preserve">ПЯТНИЦА     </t>
         </is>
       </c>
-      <c r="B72" s="331" t="inlineStr">
+      <c r="B72" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C72" s="357" t="inlineStr"/>
+      <c r="C72" s="359" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" s="357" t="inlineStr"/>
+      <c r="E72" s="359" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" s="357" t="inlineStr"/>
+      <c r="G72" s="359" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" s="413" t="inlineStr"/>
+      <c r="I72" s="415" t="inlineStr"/>
       <c r="J72" s="48" t="n"/>
     </row>
     <row r="73" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -20177,23 +20193,23 @@
       <c r="J73" s="48" t="n"/>
     </row>
     <row r="74" ht="15.75" customHeight="1" s="51" thickTop="1">
-      <c r="A74" s="323" t="inlineStr">
+      <c r="A74" s="325" t="inlineStr">
         <is>
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B74" s="207" t="inlineStr">
+      <c r="B74" s="208" t="inlineStr">
         <is>
           <t xml:space="preserve">08.00-09.35 </t>
         </is>
       </c>
-      <c r="C74" s="349" t="inlineStr"/>
+      <c r="C74" s="351" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" s="349" t="inlineStr"/>
+      <c r="E74" s="351" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" s="349" t="inlineStr"/>
+      <c r="G74" s="351" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" s="296" t="inlineStr"/>
+      <c r="I74" s="308" t="inlineStr"/>
       <c r="J74" s="48" t="n"/>
     </row>
     <row r="75" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -20222,18 +20238,18 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B76" s="208" t="inlineStr">
+      <c r="B76" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">09.45-11.20 </t>
         </is>
       </c>
-      <c r="C76" s="349" t="inlineStr"/>
+      <c r="C76" s="351" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" s="349" t="inlineStr"/>
+      <c r="E76" s="351" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" s="349" t="inlineStr"/>
+      <c r="G76" s="351" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" s="298" t="inlineStr"/>
+      <c r="I76" s="310" t="inlineStr"/>
       <c r="J76" s="48" t="n"/>
     </row>
     <row r="77" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -20262,18 +20278,18 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B78" s="208" t="inlineStr">
+      <c r="B78" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">11.50-13.25 </t>
         </is>
       </c>
-      <c r="C78" s="349" t="inlineStr"/>
+      <c r="C78" s="351" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" s="349" t="inlineStr"/>
+      <c r="E78" s="351" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" s="349" t="inlineStr"/>
+      <c r="G78" s="351" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" s="298" t="inlineStr"/>
+      <c r="I78" s="310" t="inlineStr"/>
       <c r="J78" s="48" t="n"/>
     </row>
     <row r="79" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -20302,18 +20318,18 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B80" s="208" t="inlineStr">
+      <c r="B80" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">13.35-15.10 </t>
         </is>
       </c>
-      <c r="C80" s="349" t="inlineStr"/>
+      <c r="C80" s="351" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" s="349" t="inlineStr"/>
+      <c r="E80" s="351" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" s="349" t="inlineStr"/>
+      <c r="G80" s="351" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" s="298" t="inlineStr"/>
+      <c r="I80" s="310" t="inlineStr"/>
       <c r="J80" s="48" t="n"/>
     </row>
     <row r="81" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -20342,18 +20358,18 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B82" s="208" t="inlineStr">
+      <c r="B82" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">15.20-16.55 </t>
         </is>
       </c>
-      <c r="C82" s="349" t="inlineStr"/>
+      <c r="C82" s="351" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" s="349" t="inlineStr"/>
+      <c r="E82" s="351" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" s="349" t="inlineStr"/>
+      <c r="G82" s="351" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" s="298" t="inlineStr"/>
+      <c r="I82" s="310" t="inlineStr"/>
       <c r="J82" s="48" t="n"/>
     </row>
     <row r="83" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -20382,18 +20398,18 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B84" s="208" t="inlineStr">
+      <c r="B84" s="209" t="inlineStr">
         <is>
           <t xml:space="preserve">17.05-18.40 </t>
         </is>
       </c>
-      <c r="C84" s="349" t="inlineStr"/>
+      <c r="C84" s="351" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" s="349" t="inlineStr"/>
+      <c r="E84" s="351" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" s="349" t="inlineStr"/>
+      <c r="G84" s="351" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" s="298" t="inlineStr"/>
+      <c r="I84" s="310" t="inlineStr"/>
       <c r="J84" s="48" t="n"/>
     </row>
     <row r="85" ht="15.75" customHeight="1" s="51" thickBot="1">
@@ -20422,18 +20438,18 @@
           <t xml:space="preserve">СУББОТА     </t>
         </is>
       </c>
-      <c r="B86" s="331" t="inlineStr">
+      <c r="B86" s="333" t="inlineStr">
         <is>
           <t xml:space="preserve">18.50-20.25 </t>
         </is>
       </c>
-      <c r="C86" s="357" t="inlineStr"/>
+      <c r="C86" s="359" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" s="357" t="inlineStr"/>
+      <c r="E86" s="359" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" s="357" t="inlineStr"/>
+      <c r="G86" s="359" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" s="298" t="inlineStr"/>
+      <c r="I86" s="310" t="inlineStr"/>
       <c r="J86" s="48" t="n"/>
     </row>
     <row r="87" ht="15.75" customHeight="1" s="51" thickBot="1">
